--- a/legendre_out/DATA/a1/a2/a1_a2Fit.xlsx
+++ b/legendre_out/DATA/a1/a2/a1_a2Fit.xlsx
@@ -405,5774 +405,5774 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.424536350759639</v>
+        <v>3.996021</v>
       </c>
       <c r="B2" t="n">
-        <v>2.539748667347852e-05</v>
+        <v>24159198466790.36</v>
       </c>
       <c r="C2" t="n">
-        <v>1.214278354254628e-05</v>
+        <v>13397201318686.51</v>
       </c>
       <c r="D2" t="n">
-        <v>5.832367886220669e-07</v>
+        <v>537858543031.571</v>
       </c>
       <c r="E2" t="n">
-        <v>1.123764348461458e-06</v>
+        <v>966626882164.8351</v>
       </c>
       <c r="F2" t="n">
-        <v>123.4286001913361</v>
+        <v>42.45272921961045</v>
       </c>
       <c r="G2" t="n">
-        <v>5.892164666136457e-25</v>
+        <v>4.769780285870267e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>24.68572003826722</v>
+        <v>8.49054584392209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3.42877843536789</v>
+        <v>4.000967</v>
       </c>
       <c r="B3" t="n">
-        <v>2.328767169151698e-05</v>
+        <v>22441286740048.54</v>
       </c>
       <c r="C3" t="n">
-        <v>1.18264616794028e-05</v>
+        <v>13937505996773.69</v>
       </c>
       <c r="D3" t="n">
-        <v>5.853373738335726e-07</v>
+        <v>555120577578.6985</v>
       </c>
       <c r="E3" t="n">
-        <v>1.12101097398549e-06</v>
+        <v>999181626773.2684</v>
       </c>
       <c r="F3" t="n">
-        <v>126.2005888436507</v>
+        <v>37.65349254974738</v>
       </c>
       <c r="G3" t="n">
-        <v>1.522592186133723e-25</v>
+        <v>4.428907661769565e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>25.24011776873014</v>
+        <v>7.530698509949477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>3.430466699343294</v>
+        <v>4.00294</v>
       </c>
       <c r="B4" t="n">
-        <v>2.293337759642017e-05</v>
+        <v>21072339147837.19</v>
       </c>
       <c r="C4" t="n">
-        <v>1.00637189061073e-05</v>
+        <v>11766527848047.69</v>
       </c>
       <c r="D4" t="n">
-        <v>5.821676403707773e-07</v>
+        <v>541107711389.1163</v>
       </c>
       <c r="E4" t="n">
-        <v>1.065725856545327e-06</v>
+        <v>960638382357.33</v>
       </c>
       <c r="F4" t="n">
-        <v>76.72224277381373</v>
+        <v>33.90646243466662</v>
       </c>
       <c r="G4" t="n">
-        <v>4.064862960467143e-15</v>
+        <v>2.485303101546848e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>15.34444855476275</v>
+        <v>6.781292486933324</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>3.433920356105163</v>
+        <v>4.006972</v>
       </c>
       <c r="B5" t="n">
-        <v>2.092594492739314e-05</v>
+        <v>19996095490979.32</v>
       </c>
       <c r="C5" t="n">
-        <v>9.635635435333758e-06</v>
+        <v>11117583870671.83</v>
       </c>
       <c r="D5" t="n">
-        <v>5.669753610708102e-07</v>
+        <v>533134621074.0231</v>
       </c>
       <c r="E5" t="n">
-        <v>1.051116990699439e-06</v>
+        <v>946662533471.225</v>
       </c>
       <c r="F5" t="n">
-        <v>100.6909430503351</v>
+        <v>36.38522165911961</v>
       </c>
       <c r="G5" t="n">
-        <v>3.779357106969847e-20</v>
+        <v>7.953334058649713e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>20.13818861006702</v>
+        <v>7.277044331823921</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>3.435737168099</v>
+        <v>4.009086</v>
       </c>
       <c r="B6" t="n">
-        <v>2.121778830097176e-05</v>
+        <v>19706295097943.29</v>
       </c>
       <c r="C6" t="n">
-        <v>9.578089087865308e-06</v>
+        <v>11357242015653.59</v>
       </c>
       <c r="D6" t="n">
-        <v>6.19030442149574e-07</v>
+        <v>572442618113.7767</v>
       </c>
       <c r="E6" t="n">
-        <v>1.09792289428848e-06</v>
+        <v>1003794389738.544</v>
       </c>
       <c r="F6" t="n">
-        <v>71.85710471445846</v>
+        <v>24.02912208314062</v>
       </c>
       <c r="G6" t="n">
-        <v>4.206816507748735e-14</v>
+        <v>0.0002143330352648594</v>
       </c>
       <c r="H6" t="n">
-        <v>14.37142094289169</v>
+        <v>4.805824416628125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>3.436542735681173</v>
+        <v>4.010032</v>
       </c>
       <c r="B7" t="n">
-        <v>2.121128473806713e-05</v>
+        <v>19094402731179.32</v>
       </c>
       <c r="C7" t="n">
-        <v>9.774933826981127e-06</v>
+        <v>12345634199677.15</v>
       </c>
       <c r="D7" t="n">
-        <v>6.186828656885042e-07</v>
+        <v>560716803998.2728</v>
       </c>
       <c r="E7" t="n">
-        <v>1.105010212173026e-06</v>
+        <v>997621815067.6385</v>
       </c>
       <c r="F7" t="n">
-        <v>59.2459260802209</v>
+        <v>26.68898931955439</v>
       </c>
       <c r="G7" t="n">
-        <v>1.739871084326472e-11</v>
+        <v>6.5573075949579e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>11.84918521604418</v>
+        <v>5.337797863910878</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3.440861949100481</v>
+        <v>4.01507</v>
       </c>
       <c r="B8" t="n">
-        <v>1.994957220653689e-05</v>
+        <v>18813597849944.4</v>
       </c>
       <c r="C8" t="n">
-        <v>9.462913490111569e-06</v>
+        <v>10334437820380.94</v>
       </c>
       <c r="D8" t="n">
-        <v>5.421507903871342e-07</v>
+        <v>507852810850.2415</v>
       </c>
       <c r="E8" t="n">
-        <v>9.906569620626587e-07</v>
+        <v>900196347748.2834</v>
       </c>
       <c r="F8" t="n">
-        <v>83.84475235025498</v>
+        <v>23.5312015733879</v>
       </c>
       <c r="G8" t="n">
-        <v>1.314681413621304e-16</v>
+        <v>0.0002670947244772392</v>
       </c>
       <c r="H8" t="n">
-        <v>16.768950470051</v>
+        <v>4.706240314677581</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3.444324175730245</v>
+        <v>4.019108</v>
       </c>
       <c r="B9" t="n">
-        <v>1.742988688309574e-05</v>
+        <v>16227700558773.72</v>
       </c>
       <c r="C9" t="n">
-        <v>8.96925335388196e-06</v>
+        <v>10415260977753.55</v>
       </c>
       <c r="D9" t="n">
-        <v>4.779105591073755e-07</v>
+        <v>442927410560.1321</v>
       </c>
       <c r="E9" t="n">
-        <v>8.81224446202282e-07</v>
+        <v>802903332788.1093</v>
       </c>
       <c r="F9" t="n">
-        <v>69.65901829473583</v>
+        <v>19.41758611243971</v>
       </c>
       <c r="G9" t="n">
-        <v>1.206666273449994e-13</v>
+        <v>0.001606493014917953</v>
       </c>
       <c r="H9" t="n">
-        <v>13.93180365894717</v>
+        <v>3.883517222487941</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3.445018335029777</v>
+        <v>4.019916</v>
       </c>
       <c r="B10" t="n">
-        <v>1.563424407908678e-05</v>
+        <v>14020447763390.55</v>
       </c>
       <c r="C10" t="n">
-        <v>6.103473835668427e-06</v>
+        <v>7098019332028.286</v>
       </c>
       <c r="D10" t="n">
-        <v>5.042123375358981e-07</v>
+        <v>469648041675.9824</v>
       </c>
       <c r="E10" t="n">
-        <v>8.686685224101255e-07</v>
+        <v>796861968918.1143</v>
       </c>
       <c r="F10" t="n">
-        <v>33.09254448548982</v>
+        <v>17.29560513270283</v>
       </c>
       <c r="G10" t="n">
-        <v>3.607495895890548e-06</v>
+        <v>0.00397198837730826</v>
       </c>
       <c r="H10" t="n">
-        <v>6.618508897097963</v>
+        <v>3.459121026540566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>3.44940610739225</v>
+        <v>4.025044</v>
       </c>
       <c r="B11" t="n">
-        <v>1.037664146295417e-05</v>
+        <v>9754652641120.27</v>
       </c>
       <c r="C11" t="n">
-        <v>5.113811931503347e-06</v>
+        <v>5107827041836.859</v>
       </c>
       <c r="D11" t="n">
-        <v>3.908407047496176e-07</v>
+        <v>371229027618.0735</v>
       </c>
       <c r="E11" t="n">
-        <v>6.833609941946083e-07</v>
+        <v>642154231971.9785</v>
       </c>
       <c r="F11" t="n">
-        <v>43.43130983492458</v>
+        <v>20.07205277883896</v>
       </c>
       <c r="G11" t="n">
-        <v>3.021160387482092e-08</v>
+        <v>0.001211412308601781</v>
       </c>
       <c r="H11" t="n">
-        <v>8.686261966984917</v>
+        <v>4.014410555767792</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>3.453639622132605</v>
+        <v>4.029979</v>
       </c>
       <c r="B12" t="n">
-        <v>6.309959762411091e-06</v>
+        <v>6161366680498.572</v>
       </c>
       <c r="C12" t="n">
-        <v>3.739956564641503e-06</v>
+        <v>3864266477601.51</v>
       </c>
       <c r="D12" t="n">
-        <v>2.729575289253175e-07</v>
+        <v>262779352562.7275</v>
       </c>
       <c r="E12" t="n">
-        <v>4.899026244294048e-07</v>
+        <v>473148499106.3698</v>
       </c>
       <c r="F12" t="n">
-        <v>43.49054977280088</v>
+        <v>17.09636994070039</v>
       </c>
       <c r="G12" t="n">
-        <v>2.938719124036336e-08</v>
+        <v>0.004320608963476135</v>
       </c>
       <c r="H12" t="n">
-        <v>8.698109954560175</v>
+        <v>3.419273988140078</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3.45806167396666</v>
+        <v>4.035141</v>
       </c>
       <c r="B13" t="n">
-        <v>5.117167489330976e-06</v>
+        <v>4609093457640.733</v>
       </c>
       <c r="C13" t="n">
-        <v>1.87039061225188e-06</v>
+        <v>2199538046251.17</v>
       </c>
       <c r="D13" t="n">
-        <v>2.454384934031922e-07</v>
+        <v>229967046911.0457</v>
       </c>
       <c r="E13" t="n">
-        <v>4.018437855976801e-07</v>
+        <v>385167937264.9337</v>
       </c>
       <c r="F13" t="n">
-        <v>25.5731083356653</v>
+        <v>11.19683525065398</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0001079580364981883</v>
+        <v>0.0476140096583452</v>
       </c>
       <c r="H13" t="n">
-        <v>5.11462166713306</v>
+        <v>2.239367050130797</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3.659299311887736</v>
+        <v>4.269958</v>
       </c>
       <c r="B14" t="n">
-        <v>1.987158258196742e-05</v>
+        <v>17904086766437.16</v>
       </c>
       <c r="C14" t="n">
-        <v>1.542156013323599e-06</v>
+        <v>3377759599446.9</v>
       </c>
       <c r="D14" t="n">
-        <v>5.29812437929759e-07</v>
+        <v>473210713683.6595</v>
       </c>
       <c r="E14" t="n">
-        <v>8.424820090315768e-07</v>
+        <v>724995445095.4082</v>
       </c>
       <c r="F14" t="n">
-        <v>133.6218299279943</v>
+        <v>123.721710147265</v>
       </c>
       <c r="G14" t="n">
-        <v>4.052628114570628e-27</v>
+        <v>5.106780866072317e-25</v>
       </c>
       <c r="H14" t="n">
-        <v>26.72436598559886</v>
+        <v>24.744342029453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3.676516176489705</v>
+        <v>4.290051</v>
       </c>
       <c r="B15" t="n">
-        <v>3.18762093855112e-05</v>
+        <v>30085571561001.07</v>
       </c>
       <c r="C15" t="n">
-        <v>8.1230848165197e-06</v>
+        <v>10803501652432.64</v>
       </c>
       <c r="D15" t="n">
-        <v>7.740720598788244e-07</v>
+        <v>705746639603.2189</v>
       </c>
       <c r="E15" t="n">
-        <v>1.357151815724398e-06</v>
+        <v>1172862271496.192</v>
       </c>
       <c r="F15" t="n">
-        <v>115.5583609620537</v>
+        <v>72.79737486557394</v>
       </c>
       <c r="G15" t="n">
-        <v>2.735688934399966e-23</v>
+        <v>2.67925883205408e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>23.11167219241074</v>
+        <v>14.55947497311479</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>3.677433152354519</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="B16" t="n">
-        <v>4.39640244531802e-05</v>
+        <v>41396079872482.88</v>
       </c>
       <c r="C16" t="n">
-        <v>1.388822085370609e-05</v>
+        <v>17444356230351.4</v>
       </c>
       <c r="D16" t="n">
-        <v>1.053084588019694e-06</v>
+        <v>961127626392.1948</v>
       </c>
       <c r="E16" t="n">
-        <v>1.893520548747245e-06</v>
+        <v>1631981555306.97</v>
       </c>
       <c r="F16" t="n">
-        <v>121.8039048276769</v>
+        <v>61.27362389913117</v>
       </c>
       <c r="G16" t="n">
-        <v>1.301909293727217e-24</v>
+        <v>6.628504474508492e-12</v>
       </c>
       <c r="H16" t="n">
-        <v>24.36078096553538</v>
+        <v>12.25472477982623</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>3.679207115008878</v>
+        <v>4.293189</v>
       </c>
       <c r="B17" t="n">
-        <v>4.119696563360829e-05</v>
+        <v>39225706557856.3</v>
       </c>
       <c r="C17" t="n">
-        <v>1.181823642246503e-05</v>
+        <v>14612815359173.05</v>
       </c>
       <c r="D17" t="n">
-        <v>1.008088226005269e-06</v>
+        <v>933209961309.1472</v>
       </c>
       <c r="E17" t="n">
-        <v>1.783212838780291e-06</v>
+        <v>1560252585341.399</v>
       </c>
       <c r="F17" t="n">
-        <v>115.3856339642273</v>
+        <v>61.46832343259299</v>
       </c>
       <c r="G17" t="n">
-        <v>2.975885268904342e-23</v>
+        <v>6.041399869002592e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>23.07712679284547</v>
+        <v>12.2936646865186</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>3.680072671666319</v>
+        <v>4.294196</v>
       </c>
       <c r="B18" t="n">
-        <v>4.027303207655139e-05</v>
+        <v>38670039490429.5</v>
       </c>
       <c r="C18" t="n">
-        <v>1.248541507239893e-05</v>
+        <v>16107210873470.18</v>
       </c>
       <c r="D18" t="n">
-        <v>1.024310497865652e-06</v>
+        <v>964902606914.2579</v>
       </c>
       <c r="E18" t="n">
-        <v>1.811640159844922e-06</v>
+        <v>1595906964131.911</v>
       </c>
       <c r="F18" t="n">
-        <v>156.1877544230388</v>
+        <v>85.55500012176979</v>
       </c>
       <c r="G18" t="n">
-        <v>6.424866085075948e-32</v>
+        <v>5.75827441889218e-17</v>
       </c>
       <c r="H18" t="n">
-        <v>31.23755088460775</v>
+        <v>17.11100002435396</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>3.680886809116387</v>
+        <v>4.295147</v>
       </c>
       <c r="B19" t="n">
-        <v>4.06776805392209e-05</v>
+        <v>38014445552478.59</v>
       </c>
       <c r="C19" t="n">
-        <v>1.167749189281977e-05</v>
+        <v>15742643044694.69</v>
       </c>
       <c r="D19" t="n">
-        <v>1.055152154610709e-06</v>
+        <v>960776488607.9215</v>
       </c>
       <c r="E19" t="n">
-        <v>1.820897990879763e-06</v>
+        <v>1583081220233.739</v>
       </c>
       <c r="F19" t="n">
-        <v>141.2681265591027</v>
+        <v>85.40595701997897</v>
       </c>
       <c r="G19" t="n">
-        <v>9.61813470446627e-29</v>
+        <v>6.187953794775855e-17</v>
       </c>
       <c r="H19" t="n">
-        <v>28.25362531182054</v>
+        <v>17.0811914039958</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3.681743795905933</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>4.014473708799803e-05</v>
+        <v>38470082518893.68</v>
       </c>
       <c r="C20" t="n">
-        <v>1.268864977820413e-05</v>
+        <v>15058630292163.37</v>
       </c>
       <c r="D20" t="n">
-        <v>1.080350724235285e-06</v>
+        <v>1010235648371.992</v>
       </c>
       <c r="E20" t="n">
-        <v>1.887476663365549e-06</v>
+        <v>1651264354325.84</v>
       </c>
       <c r="F20" t="n">
-        <v>154.9757735882947</v>
+        <v>80.4714469067392</v>
       </c>
       <c r="G20" t="n">
-        <v>1.164212966164647e-31</v>
+        <v>6.686773005194637e-16</v>
       </c>
       <c r="H20" t="n">
-        <v>30.99515471765895</v>
+        <v>16.09428938134784</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>3.682660771770746</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>4.365607385615164e-05</v>
+        <v>40502129563629.31</v>
       </c>
       <c r="C21" t="n">
-        <v>9.66584136177776e-06</v>
+        <v>13920855307969.71</v>
       </c>
       <c r="D21" t="n">
-        <v>1.241808324654093e-06</v>
+        <v>1139854704747.838</v>
       </c>
       <c r="E21" t="n">
-        <v>2.028871318006513e-06</v>
+        <v>1796417280695.622</v>
       </c>
       <c r="F21" t="n">
-        <v>150.0611326725679</v>
+        <v>103.7062777546266</v>
       </c>
       <c r="G21" t="n">
-        <v>1.295726246953761e-30</v>
+        <v>8.73968608454355e-21</v>
       </c>
       <c r="H21" t="n">
-        <v>30.01222653451358</v>
+        <v>20.74125555092532</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>3.683397780409756</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>4.551532518786972e-05</v>
+        <v>41494849399024.59</v>
       </c>
       <c r="C22" t="n">
-        <v>1.161737844574306e-05</v>
+        <v>18616626433787.27</v>
       </c>
       <c r="D22" t="n">
-        <v>1.769828262938756e-06</v>
+        <v>1570015570362.615</v>
       </c>
       <c r="E22" t="n">
-        <v>2.826190528280212e-06</v>
+        <v>2354577721906.05</v>
       </c>
       <c r="F22" t="n">
-        <v>283.0648335714562</v>
+        <v>236.8461360675399</v>
       </c>
       <c r="G22" t="n">
-        <v>4.370132969786278e-59</v>
+        <v>3.643531656224767e-49</v>
       </c>
       <c r="H22" t="n">
-        <v>56.61296671429125</v>
+        <v>47.36922721350798</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>3.684263337067197</v>
+        <v>4.299093</v>
       </c>
       <c r="B23" t="n">
-        <v>5.670821193225705e-05</v>
+        <v>49624933773374.09</v>
       </c>
       <c r="C23" t="n">
-        <v>-1.386279469609608e-06</v>
+        <v>10981276533453.68</v>
       </c>
       <c r="D23" t="n">
-        <v>2.4238216561156e-06</v>
+        <v>2163879219716.48</v>
       </c>
       <c r="E23" t="n">
-        <v>3.462210644802199e-06</v>
+        <v>3061721634472.977</v>
       </c>
       <c r="F23" t="n">
-        <v>255.8917993303064</v>
+        <v>253.3788651574855</v>
       </c>
       <c r="G23" t="n">
-        <v>2.990795153885336e-53</v>
+        <v>1.035344103006291e-52</v>
       </c>
       <c r="H23" t="n">
-        <v>51.17835986606127</v>
+        <v>50.6757730314971</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3.685943031174706</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>6.46142290004433e-05</v>
+        <v>48712504040692.03</v>
       </c>
       <c r="C24" t="n">
-        <v>-2.7080764629982e-06</v>
+        <v>16206018804768.72</v>
       </c>
       <c r="D24" t="n">
-        <v>3.152832669737221e-06</v>
+        <v>2445525668538.595</v>
       </c>
       <c r="E24" t="n">
-        <v>4.386323520170442e-06</v>
+        <v>3434388403085.594</v>
       </c>
       <c r="F24" t="n">
-        <v>289.4544993702281</v>
+        <v>322.5454186777927</v>
       </c>
       <c r="G24" t="n">
-        <v>1.851129003001361e-60</v>
+        <v>1.418699631398126e-67</v>
       </c>
       <c r="H24" t="n">
-        <v>57.89089987404562</v>
+        <v>64.50908373555853</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>3.687699854093274</v>
+        <v>4.303098</v>
       </c>
       <c r="B25" t="n">
-        <v>5.960093223898046e-05</v>
+        <v>50214378526776.67</v>
       </c>
       <c r="C25" t="n">
-        <v>-6.154183943391046e-06</v>
+        <v>5182014527553.598</v>
       </c>
       <c r="D25" t="n">
-        <v>2.804180752229122e-06</v>
+        <v>2347569026386.983</v>
       </c>
       <c r="E25" t="n">
-        <v>3.893308649222776e-06</v>
+        <v>3145250700744.39</v>
       </c>
       <c r="F25" t="n">
-        <v>380.9685935265592</v>
+        <v>386.792635663123</v>
       </c>
       <c r="G25" t="n">
-        <v>3.74359627959561e-80</v>
+        <v>2.081835929515835e-81</v>
       </c>
       <c r="H25" t="n">
-        <v>76.19371870531184</v>
+        <v>77.35852713262459</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>3.689525235955006</v>
+        <v>4.305231</v>
       </c>
       <c r="B26" t="n">
-        <v>6.475616206709522e-05</v>
+        <v>55110678552960.95</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.09535638632327e-05</v>
+        <v>-1046938115797.633</v>
       </c>
       <c r="D26" t="n">
-        <v>3.007231917496405e-06</v>
+        <v>2695579916141.208</v>
       </c>
       <c r="E26" t="n">
-        <v>4.08608466486929e-06</v>
+        <v>3548409938183.115</v>
       </c>
       <c r="F26" t="n">
-        <v>286.4723654756261</v>
+        <v>301.7258068469252</v>
       </c>
       <c r="G26" t="n">
-        <v>8.096534463883987e-60</v>
+        <v>4.262083109292883e-63</v>
       </c>
       <c r="H26" t="n">
-        <v>57.29447309512523</v>
+        <v>60.34516136938504</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>3.691256349269888</v>
+        <v>4.30725</v>
       </c>
       <c r="B27" t="n">
-        <v>4.404354788422899e-05</v>
+        <v>43400218725112.16</v>
       </c>
       <c r="C27" t="n">
-        <v>5.287051590380756e-06</v>
+        <v>18707892881450</v>
       </c>
       <c r="D27" t="n">
-        <v>2.502534803099404e-06</v>
+        <v>2264533540180.396</v>
       </c>
       <c r="E27" t="n">
-        <v>3.946542175218938e-06</v>
+        <v>3272813431144.483</v>
       </c>
       <c r="F27" t="n">
-        <v>381.2958512692127</v>
+        <v>313.9754894218301</v>
       </c>
       <c r="G27" t="n">
-        <v>3.182601928678636e-80</v>
+        <v>9.894506914706382e-66</v>
       </c>
       <c r="H27" t="n">
-        <v>76.25917025384254</v>
+        <v>62.79509788436602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>3.693013172188456</v>
+        <v>4.309297</v>
       </c>
       <c r="B28" t="n">
-        <v>6.570095616653977e-05</v>
+        <v>47255248474308.32</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.428109981345985e-05</v>
+        <v>3304247196403.844</v>
       </c>
       <c r="D28" t="n">
-        <v>3.070583895217519e-06</v>
+        <v>2501944081818.107</v>
       </c>
       <c r="E28" t="n">
-        <v>4.117687077258962e-06</v>
+        <v>3314475006863.863</v>
       </c>
       <c r="F28" t="n">
-        <v>256.6304817452996</v>
+        <v>314.2800485081812</v>
       </c>
       <c r="G28" t="n">
-        <v>2.076094074881892e-53</v>
+        <v>8.509177455778735e-66</v>
       </c>
       <c r="H28" t="n">
-        <v>51.32609634905991</v>
+        <v>62.85600970163624</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>3.693578783469556</v>
+        <v>4.309961</v>
       </c>
       <c r="B29" t="n">
-        <v>5.775849956172554e-05</v>
+        <v>50225860510164.02</v>
       </c>
       <c r="C29" t="n">
-        <v>6.387739710657139e-07</v>
+        <v>11236348893557.26</v>
       </c>
       <c r="D29" t="n">
-        <v>2.689588900140894e-06</v>
+        <v>2379252250450.696</v>
       </c>
       <c r="E29" t="n">
-        <v>3.946358686843696e-06</v>
+        <v>3282332429946.192</v>
       </c>
       <c r="F29" t="n">
-        <v>318.0442112621206</v>
+        <v>308.5969268808337</v>
       </c>
       <c r="G29" t="n">
-        <v>1.318916015693802e-66</v>
+        <v>1.419547857000078e-64</v>
       </c>
       <c r="H29" t="n">
-        <v>63.60884225242412</v>
+        <v>61.71938537616675</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>3.694615737484906</v>
+        <v>4.311172</v>
       </c>
       <c r="B30" t="n">
-        <v>4.960882880162462e-05</v>
+        <v>41605781692304.97</v>
       </c>
       <c r="C30" t="n">
-        <v>-5.871339591848496e-06</v>
+        <v>6562524691911.496</v>
       </c>
       <c r="D30" t="n">
-        <v>2.518866829710432e-06</v>
+        <v>2130617741967.418</v>
       </c>
       <c r="E30" t="n">
-        <v>3.4636839197001e-06</v>
+        <v>2855630981418.044</v>
       </c>
       <c r="F30" t="n">
-        <v>351.2744377418753</v>
+        <v>362.7746109441965</v>
       </c>
       <c r="G30" t="n">
-        <v>9.305021159557938e-74</v>
+        <v>3.107096517944244e-76</v>
       </c>
       <c r="H30" t="n">
-        <v>70.25488754837505</v>
+        <v>72.5549221888393</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>3.696278291856625</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>3.900360078206459e-05</v>
+        <v>37286864994887.02</v>
       </c>
       <c r="C31" t="n">
-        <v>-6.98186499731809e-06</v>
+        <v>-2266889864722.801</v>
       </c>
       <c r="D31" t="n">
-        <v>2.350629778610678e-06</v>
+        <v>2152336263714.054</v>
       </c>
       <c r="E31" t="n">
-        <v>3.209952698933222e-06</v>
+        <v>2716600317189.42</v>
       </c>
       <c r="F31" t="n">
-        <v>401.1768886534317</v>
+        <v>379.1668985124047</v>
       </c>
       <c r="G31" t="n">
-        <v>1.654290389312405e-84</v>
+        <v>9.150612783633199e-80</v>
       </c>
       <c r="H31" t="n">
-        <v>80.23537773068634</v>
+        <v>75.83337970248094</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>3.698009405171506</v>
+        <v>4.315126</v>
       </c>
       <c r="B32" t="n">
-        <v>3.475345863194149e-05</v>
+        <v>35480790852651.85</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.623345556465066e-06</v>
+        <v>277260020114.9375</v>
       </c>
       <c r="D32" t="n">
-        <v>2.195290880662204e-06</v>
+        <v>2151192386091.61</v>
       </c>
       <c r="E32" t="n">
-        <v>3.129169066750379e-06</v>
+        <v>2781449716525.211</v>
       </c>
       <c r="F32" t="n">
-        <v>388.9046232105428</v>
+        <v>347.3204391977814</v>
       </c>
       <c r="G32" t="n">
-        <v>7.300680612189403e-82</v>
+        <v>6.606706800042509e-73</v>
       </c>
       <c r="H32" t="n">
-        <v>77.78092464210854</v>
+        <v>69.46408783955629</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>3.699783367825865</v>
+        <v>4.317204</v>
       </c>
       <c r="B33" t="n">
-        <v>3.298472762921418e-05</v>
+        <v>31392225350909.7</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.146096246611944e-06</v>
+        <v>6857781841518.605</v>
       </c>
       <c r="D33" t="n">
-        <v>2.049807205200115e-06</v>
+        <v>1840188389922.554</v>
       </c>
       <c r="E33" t="n">
-        <v>3.032267684337449e-06</v>
+        <v>2575072904071.408</v>
       </c>
       <c r="F33" t="n">
-        <v>405.2961300388358</v>
+        <v>361.426533001633</v>
       </c>
       <c r="G33" t="n">
-        <v>2.141666021429886e-85</v>
+        <v>6.062813773205997e-76</v>
       </c>
       <c r="H33" t="n">
-        <v>81.05922600776715</v>
+        <v>72.28530660032661</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>3.70147163180127</v>
+        <v>4.319168</v>
       </c>
       <c r="B34" t="n">
-        <v>3.846256304934708e-05</v>
+        <v>30580984764177.67</v>
       </c>
       <c r="C34" t="n">
-        <v>-9.508073719665657e-06</v>
+        <v>2669217500961.449</v>
       </c>
       <c r="D34" t="n">
-        <v>2.372315405575275e-06</v>
+        <v>2013426694508.625</v>
       </c>
       <c r="E34" t="n">
-        <v>3.253327966398731e-06</v>
+        <v>2670769792715.593</v>
       </c>
       <c r="F34" t="n">
-        <v>299.9941382562735</v>
+        <v>314.9856387966265</v>
       </c>
       <c r="G34" t="n">
-        <v>1.004440649172364e-62</v>
+        <v>5.999599393312934e-66</v>
       </c>
       <c r="H34" t="n">
-        <v>59.9988276512547</v>
+        <v>62.99712775932529</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>3.703177035512466</v>
+        <v>4.32116</v>
       </c>
       <c r="B35" t="n">
-        <v>3.379838528019652e-05</v>
+        <v>31258048779905.38</v>
       </c>
       <c r="C35" t="n">
-        <v>-2.489517761675157e-06</v>
+        <v>628968327773.5234</v>
       </c>
       <c r="D35" t="n">
-        <v>2.026566354469196e-06</v>
+        <v>1837786176403.796</v>
       </c>
       <c r="E35" t="n">
-        <v>2.964727644071832e-06</v>
+        <v>2404994811346.699</v>
       </c>
       <c r="F35" t="n">
-        <v>355.4264575963066</v>
+        <v>343.6281153954098</v>
       </c>
       <c r="G35" t="n">
-        <v>1.187761690512649e-74</v>
+        <v>4.119463630755917e-72</v>
       </c>
       <c r="H35" t="n">
-        <v>71.08529151926133</v>
+        <v>68.72562307908197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>3.704736751469439</v>
+        <v>4.32298</v>
       </c>
       <c r="B36" t="n">
-        <v>4.334082728639218e-05</v>
+        <v>34374747830406.54</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.879027854269001e-05</v>
+        <v>-6872859495355.559</v>
       </c>
       <c r="D36" t="n">
-        <v>2.206101702388974e-06</v>
+        <v>1895622940385.433</v>
       </c>
       <c r="E36" t="n">
-        <v>2.781806560827391e-06</v>
+        <v>2414286208661.188</v>
       </c>
       <c r="F36" t="n">
-        <v>251.666052719442</v>
+        <v>291.1145972804791</v>
       </c>
       <c r="G36" t="n">
-        <v>2.413422968234611e-52</v>
+        <v>8.140497408773347e-61</v>
       </c>
       <c r="H36" t="n">
-        <v>50.3332105438884</v>
+        <v>58.22291945609582</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>3.706647832010125</v>
+        <v>4.325205</v>
       </c>
       <c r="B37" t="n">
-        <v>2.872350016982957e-05</v>
+        <v>25419545626309.84</v>
       </c>
       <c r="C37" t="n">
-        <v>-2.995833064483967e-06</v>
+        <v>6581836696565.039</v>
       </c>
       <c r="D37" t="n">
-        <v>1.615390405538343e-06</v>
+        <v>1389823181529.625</v>
       </c>
       <c r="E37" t="n">
-        <v>2.227880080706771e-06</v>
+        <v>1881647932494.327</v>
       </c>
       <c r="F37" t="n">
-        <v>350.4355321589105</v>
+        <v>328.9889871486378</v>
       </c>
       <c r="G37" t="n">
-        <v>1.410375101427911e-73</v>
+        <v>5.827659842381035e-69</v>
       </c>
       <c r="H37" t="n">
-        <v>70.08710643178209</v>
+        <v>65.79779742972755</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>3.708276106910262</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="B38" t="n">
-        <v>3.214769192374415e-05</v>
+        <v>21833542904347</v>
       </c>
       <c r="C38" t="n">
-        <v>-1.537448441778299e-06</v>
+        <v>11861659170950.3</v>
       </c>
       <c r="D38" t="n">
-        <v>1.475044914153481e-06</v>
+        <v>1068389914312.396</v>
       </c>
       <c r="E38" t="n">
-        <v>2.083417021654156e-06</v>
+        <v>1582737365940.072</v>
       </c>
       <c r="F38" t="n">
-        <v>261.8951078512669</v>
+        <v>320.1097149329728</v>
       </c>
       <c r="G38" t="n">
-        <v>1.538774773427284e-54</v>
+        <v>4.741212363712013e-67</v>
       </c>
       <c r="H38" t="n">
-        <v>52.37902157025337</v>
+        <v>64.02194298659455</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>3.709964370885666</v>
+        <v>4.329078</v>
       </c>
       <c r="B39" t="n">
-        <v>2.698936134527567e-05</v>
+        <v>22649683243532.51</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.019553723394209e-07</v>
+        <v>7581599655173.65</v>
       </c>
       <c r="D39" t="n">
-        <v>1.121768225662287e-06</v>
+        <v>934875347347.7653</v>
       </c>
       <c r="E39" t="n">
-        <v>1.612772022129278e-06</v>
+        <v>1347910229060.214</v>
       </c>
       <c r="F39" t="n">
-        <v>264.9877942421598</v>
+        <v>259.7460577189196</v>
       </c>
       <c r="G39" t="n">
-        <v>3.335774070608874e-55</v>
+        <v>4.451524147044313e-54</v>
       </c>
       <c r="H39" t="n">
-        <v>52.99755884843196</v>
+        <v>51.94921154378393</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>3.710855637146794</v>
+        <v>4.330119</v>
       </c>
       <c r="B40" t="n">
-        <v>2.69237418382509e-05</v>
+        <v>17594087713352.24</v>
       </c>
       <c r="C40" t="n">
-        <v>-5.044524654511602e-06</v>
+        <v>6130977818579.914</v>
       </c>
       <c r="D40" t="n">
-        <v>1.353810156562588e-06</v>
+        <v>992095456084.34</v>
       </c>
       <c r="E40" t="n">
-        <v>1.839348852834405e-06</v>
+        <v>1386131102664.224</v>
       </c>
       <c r="F40" t="n">
-        <v>302.6591861794419</v>
+        <v>363.2467513995031</v>
       </c>
       <c r="G40" t="n">
-        <v>2.684973471018527e-63</v>
+        <v>2.458517889995654e-76</v>
       </c>
       <c r="H40" t="n">
-        <v>60.53183723588838</v>
+        <v>72.64935027990062</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>3.711772613011608</v>
+        <v>4.331189</v>
       </c>
       <c r="B41" t="n">
-        <v>2.878777334386724e-05</v>
+        <v>24643253218117.65</v>
       </c>
       <c r="C41" t="n">
-        <v>-2.664084011125205e-06</v>
+        <v>3478474909332.68</v>
       </c>
       <c r="D41" t="n">
-        <v>1.106760366965954e-06</v>
+        <v>947601009748.6866</v>
       </c>
       <c r="E41" t="n">
-        <v>1.536636291049528e-06</v>
+        <v>1350849362887.898</v>
       </c>
       <c r="F41" t="n">
-        <v>124.8203769752348</v>
+        <v>129.6522662117903</v>
       </c>
       <c r="G41" t="n">
-        <v>2.987047895989236e-25</v>
+        <v>2.820764458004817e-26</v>
       </c>
       <c r="H41" t="n">
-        <v>24.96407539504696</v>
+        <v>25.93045324235806</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>3.713529435930176</v>
+        <v>4.333242</v>
       </c>
       <c r="B42" t="n">
-        <v>3.035822277442375e-05</v>
+        <v>28663205874875.43</v>
       </c>
       <c r="C42" t="n">
-        <v>6.10526756924029e-06</v>
+        <v>7304770146924.725</v>
       </c>
       <c r="D42" t="n">
-        <v>9.158302648465479e-07</v>
+        <v>876167289891.8724</v>
       </c>
       <c r="E42" t="n">
-        <v>1.491020492439262e-06</v>
+        <v>1356665562915.057</v>
       </c>
       <c r="F42" t="n">
-        <v>119.2455757788979</v>
+        <v>78.81009055632794</v>
       </c>
       <c r="G42" t="n">
-        <v>4.534338685872786e-24</v>
+        <v>1.488409484904169e-15</v>
       </c>
       <c r="H42" t="n">
-        <v>23.84911515577959</v>
+        <v>15.76201811126559</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>3.715166280698207</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="B43" t="n">
-        <v>2.94926497772833e-05</v>
+        <v>27089085012066.34</v>
       </c>
       <c r="C43" t="n">
-        <v>6.279518758277788e-06</v>
+        <v>8997019233492.309</v>
       </c>
       <c r="D43" t="n">
-        <v>8.420661084591174e-07</v>
+        <v>762311055396.5532</v>
       </c>
       <c r="E43" t="n">
-        <v>1.387956925377068e-06</v>
+        <v>1214698795779.593</v>
       </c>
       <c r="F43" t="n">
-        <v>117.7486018297413</v>
+        <v>79.79522127165913</v>
       </c>
       <c r="G43" t="n">
-        <v>9.40774747146264e-24</v>
+        <v>9.261794896506349e-16</v>
       </c>
       <c r="H43" t="n">
-        <v>23.54972036594826</v>
+        <v>15.95904425433183</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>3.719356946099085</v>
+        <v>4.340042</v>
       </c>
       <c r="B44" t="n">
-        <v>2.767592517670813e-05</v>
+        <v>25371093040944.13</v>
       </c>
       <c r="C44" t="n">
-        <v>5.38654500768062e-06</v>
+        <v>9223589301480.492</v>
       </c>
       <c r="D44" t="n">
-        <v>7.648437002547865e-07</v>
+        <v>691360270684.231</v>
       </c>
       <c r="E44" t="n">
-        <v>1.266990241749303e-06</v>
+        <v>1135018116705.955</v>
       </c>
       <c r="F44" t="n">
-        <v>86.7596674162691</v>
+        <v>53.49732194950037</v>
       </c>
       <c r="G44" t="n">
-        <v>3.21811813517375e-17</v>
+        <v>2.658520714110878e-10</v>
       </c>
       <c r="H44" t="n">
-        <v>17.35193348325382</v>
+        <v>10.69946438990008</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>3.723504762160485</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>2.641176051910704e-05</v>
+        <v>24340625844024.32</v>
       </c>
       <c r="C45" t="n">
-        <v>3.872520680452241e-06</v>
+        <v>6145213826021.117</v>
       </c>
       <c r="D45" t="n">
-        <v>7.350823275326612e-07</v>
+        <v>667349604526.1036</v>
       </c>
       <c r="E45" t="n">
-        <v>1.191290185439429e-06</v>
+        <v>1081858769050.481</v>
       </c>
       <c r="F45" t="n">
-        <v>57.63824472730141</v>
+        <v>37.82906517340785</v>
       </c>
       <c r="G45" t="n">
-        <v>3.73509326218968e-11</v>
+        <v>4.083625991772156e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>11.52764894546028</v>
+        <v>7.56581303468157</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>3.727875394787168</v>
+        <v>4.349976</v>
       </c>
       <c r="B46" t="n">
-        <v>2.602556296779887e-05</v>
+        <v>23936979545529.25</v>
       </c>
       <c r="C46" t="n">
-        <v>4.751690600963774e-06</v>
+        <v>5651904489525.793</v>
       </c>
       <c r="D46" t="n">
-        <v>6.880886796246333e-07</v>
+        <v>630301186404.9191</v>
       </c>
       <c r="E46" t="n">
-        <v>1.146491244055379e-06</v>
+        <v>1020303744257.449</v>
       </c>
       <c r="F46" t="n">
-        <v>66.61047195357082</v>
+        <v>43.35531687548308</v>
       </c>
       <c r="G46" t="n">
-        <v>5.191122722115597e-13</v>
+        <v>3.130299563642103e-08</v>
       </c>
       <c r="H46" t="n">
-        <v>13.32209439071416</v>
+        <v>8.671063375096617</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>3.745075119653346</v>
+        <v>4.370053</v>
       </c>
       <c r="B47" t="n">
-        <v>2.255155364867751e-05</v>
+        <v>20197016078942.14</v>
       </c>
       <c r="C47" t="n">
-        <v>2.003293591595382e-06</v>
+        <v>3423324742149.682</v>
       </c>
       <c r="D47" t="n">
-        <v>6.283832854820146e-07</v>
+        <v>570875804879.2312</v>
       </c>
       <c r="E47" t="n">
-        <v>1.024473210307014e-06</v>
+        <v>904518638448.7026</v>
       </c>
       <c r="F47" t="n">
-        <v>41.92347141095793</v>
+        <v>36.45447748768392</v>
       </c>
       <c r="G47" t="n">
-        <v>6.104223251452869e-08</v>
+        <v>7.703414247593483e-07</v>
       </c>
       <c r="H47" t="n">
-        <v>8.384694282191585</v>
+        <v>7.290895497536783</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>3.762300554123211</v>
+        <v>4.390148</v>
       </c>
       <c r="B48" t="n">
-        <v>2.226564321174461e-05</v>
+        <v>20736569619016.03</v>
       </c>
       <c r="C48" t="n">
-        <v>1.008564576412122e-06</v>
+        <v>3580696064944.086</v>
       </c>
       <c r="D48" t="n">
-        <v>6.414914983089381e-07</v>
+        <v>590111987723.4757</v>
       </c>
       <c r="E48" t="n">
-        <v>1.031513913273844e-06</v>
+        <v>939618225702.7528</v>
       </c>
       <c r="F48" t="n">
-        <v>40.07489236605777</v>
+        <v>37.16433594528971</v>
       </c>
       <c r="G48" t="n">
-        <v>1.442326032100473e-07</v>
+        <v>5.551876321537381e-07</v>
       </c>
       <c r="H48" t="n">
-        <v>8.014978473211555</v>
+        <v>7.432867189057942</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>3.779337451499375</v>
+        <v>4.410025</v>
       </c>
       <c r="B49" t="n">
-        <v>2.471325271966416e-05</v>
+        <v>22533462944011.07</v>
       </c>
       <c r="C49" t="n">
-        <v>9.673574288581981e-07</v>
+        <v>1903493984453.623</v>
       </c>
       <c r="D49" t="n">
-        <v>7.21437604452916e-07</v>
+        <v>659026740561.6425</v>
       </c>
       <c r="E49" t="n">
-        <v>1.144810465997452e-06</v>
+        <v>1030218827122.083</v>
       </c>
       <c r="F49" t="n">
-        <v>38.63890439674984</v>
+        <v>42.90294293586462</v>
       </c>
       <c r="G49" t="n">
-        <v>2.807298524672215e-07</v>
+        <v>3.866284714220288e-08</v>
       </c>
       <c r="H49" t="n">
-        <v>7.727780879349969</v>
+        <v>8.580588587172924</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>3.788087286620635</v>
+        <v>4.420244</v>
       </c>
       <c r="B50" t="n">
-        <v>2.581820846405762e-05</v>
+        <v>23164000319886.02</v>
       </c>
       <c r="C50" t="n">
-        <v>2.234712055297957e-06</v>
+        <v>4392171435321.748</v>
       </c>
       <c r="D50" t="n">
-        <v>8.175585001895014e-07</v>
+        <v>762719427464.7836</v>
       </c>
       <c r="E50" t="n">
-        <v>1.287223425019047e-06</v>
+        <v>1208974914356.597</v>
       </c>
       <c r="F50" t="n">
-        <v>29.90210641349578</v>
+        <v>23.81440469553697</v>
       </c>
       <c r="G50" t="n">
-        <v>1.541755227402335e-05</v>
+        <v>0.0002356860022683168</v>
       </c>
       <c r="H50" t="n">
-        <v>5.980421282699156</v>
+        <v>4.762880939107395</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>3.796605735308717</v>
+        <v>4.430182</v>
       </c>
       <c r="B51" t="n">
-        <v>2.495908953051576e-05</v>
+        <v>22868406940767.96</v>
       </c>
       <c r="C51" t="n">
-        <v>3.346081822791813e-06</v>
+        <v>4550395812486.818</v>
       </c>
       <c r="D51" t="n">
-        <v>7.771130256826071e-07</v>
+        <v>719084339879.833</v>
       </c>
       <c r="E51" t="n">
-        <v>1.240516995880634e-06</v>
+        <v>1130275177761.8</v>
       </c>
       <c r="F51" t="n">
-        <v>50.69098555550101</v>
+        <v>29.32400154905525</v>
       </c>
       <c r="G51" t="n">
-        <v>1.000569866714249e-09</v>
+        <v>2.002900010338594e-05</v>
       </c>
       <c r="H51" t="n">
-        <v>10.1381971111002</v>
+        <v>5.86480030981105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>3.805055625053636</v>
+        <v>4.440043</v>
       </c>
       <c r="B52" t="n">
-        <v>2.035381584314756e-05</v>
+        <v>19165680483717.5</v>
       </c>
       <c r="C52" t="n">
-        <v>4.247059621245266e-06</v>
+        <v>4990648211790.77</v>
       </c>
       <c r="D52" t="n">
-        <v>1.081695444743203e-06</v>
+        <v>1021328312816.235</v>
       </c>
       <c r="E52" t="n">
-        <v>1.691774572804258e-06</v>
+        <v>1577394840853.7</v>
       </c>
       <c r="F52" t="n">
-        <v>38.09974604672153</v>
+        <v>23.70119624121801</v>
       </c>
       <c r="G52" t="n">
-        <v>3.603090930516279e-07</v>
+        <v>0.0002477774927593468</v>
       </c>
       <c r="H52" t="n">
-        <v>7.619949209344306</v>
+        <v>4.740239248243602</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>3.813539794270136</v>
+        <v>4.449945</v>
       </c>
       <c r="B53" t="n">
-        <v>2.327800514309502e-05</v>
+        <v>18572452661305.39</v>
       </c>
       <c r="C53" t="n">
-        <v>2.860738091331079e-06</v>
+        <v>7175104612157.656</v>
       </c>
       <c r="D53" t="n">
-        <v>1.291228052347326e-06</v>
+        <v>1096477138866.52</v>
       </c>
       <c r="E53" t="n">
-        <v>1.966888559244694e-06</v>
+        <v>1709325399047.666</v>
       </c>
       <c r="F53" t="n">
-        <v>19.02659762556532</v>
+        <v>38.35613751443972</v>
       </c>
       <c r="G53" t="n">
-        <v>0.001900332893519546</v>
+        <v>3.199981499252123e-07</v>
       </c>
       <c r="H53" t="n">
-        <v>3.805319525113063</v>
+        <v>7.671227502887945</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>3.817867577557342</v>
+        <v>4.454988</v>
       </c>
       <c r="B54" t="n">
-        <v>1.372916985804993e-05</v>
+        <v>12615213415245.95</v>
       </c>
       <c r="C54" t="n">
-        <v>3.345876092136591e-06</v>
+        <v>2720578410272.865</v>
       </c>
       <c r="D54" t="n">
-        <v>1.927187121386824e-06</v>
+        <v>1876831217586.882</v>
       </c>
       <c r="E54" t="n">
-        <v>2.687778989925156e-06</v>
+        <v>2828379666671.396</v>
       </c>
       <c r="F54" t="n">
-        <v>2.801903511841624</v>
+        <v>3.23786229308234</v>
       </c>
       <c r="G54" t="n">
-        <v>0.7304940148692232</v>
+        <v>0.6633675298861811</v>
       </c>
       <c r="H54" t="n">
-        <v>0.5603807023683248</v>
+        <v>0.6475724586164679</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>3.82226391978771</v>
+        <v>4.460121</v>
       </c>
       <c r="B55" t="n">
-        <v>1.004444416361547e-05</v>
+        <v>12220175685449.14</v>
       </c>
       <c r="C55" t="n">
-        <v>1.911850035552608e-06</v>
+        <v>2366905303986.223</v>
       </c>
       <c r="D55" t="n">
-        <v>1.762070090469982e-06</v>
+        <v>2565726202813.288</v>
       </c>
       <c r="E55" t="n">
-        <v>2.771361365729651e-06</v>
+        <v>3434036571525.47</v>
       </c>
       <c r="F55" t="n">
-        <v>8.478920634393042</v>
+        <v>2.018330458019239</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1317420591001418</v>
+        <v>0.8466028986120357</v>
       </c>
       <c r="H55" t="n">
-        <v>1.695784126878608</v>
+        <v>0.4036660916038478</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>3.830696669796837</v>
+        <v>4.469957</v>
       </c>
       <c r="B56" t="n">
-        <v>1.359720055069731e-05</v>
+        <v>12058549703110.36</v>
       </c>
       <c r="C56" t="n">
-        <v>4.077823595278088e-06</v>
+        <v>6707061634729.081</v>
       </c>
       <c r="D56" t="n">
-        <v>1.949004697970487e-06</v>
+        <v>1770311179291.45</v>
       </c>
       <c r="E56" t="n">
-        <v>3.255093374048119e-06</v>
+        <v>2770241170594.048</v>
       </c>
       <c r="F56" t="n">
-        <v>7.693558434386406</v>
+        <v>3.938355096801633</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1739525309378945</v>
+        <v>0.5583250814182613</v>
       </c>
       <c r="H56" t="n">
-        <v>1.538711686877281</v>
+        <v>0.7876710193603266</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>3.837569703848993</v>
+        <v>4.477981</v>
       </c>
       <c r="B57" t="n">
-        <v>1.980177470980212e-05</v>
+        <v>14376587193595.93</v>
       </c>
       <c r="C57" t="n">
-        <v>2.728779698501521e-06</v>
+        <v>10735502968688.46</v>
       </c>
       <c r="D57" t="n">
-        <v>2.351702723487165e-06</v>
+        <v>1738078855290.173</v>
       </c>
       <c r="E57" t="n">
-        <v>3.384219754547237e-06</v>
+        <v>2855248938450.826</v>
       </c>
       <c r="F57" t="n">
-        <v>12.606227300062</v>
+        <v>14.79605597100425</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02736197137583814</v>
+        <v>0.01127024672412512</v>
       </c>
       <c r="H57" t="n">
-        <v>2.521245460012399</v>
+        <v>2.959211194200851</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>3.844554146183789</v>
+        <v>4.486129</v>
       </c>
       <c r="B58" t="n">
-        <v>2.442126549962567e-05</v>
+        <v>23269306842964.14</v>
       </c>
       <c r="C58" t="n">
-        <v>9.254271198229075e-06</v>
+        <v>10459758317157.2</v>
       </c>
       <c r="D58" t="n">
-        <v>1.499914081590857e-06</v>
+        <v>1457574592552.182</v>
       </c>
       <c r="E58" t="n">
-        <v>2.398718085853749e-06</v>
+        <v>2330459660940.553</v>
       </c>
       <c r="F58" t="n">
-        <v>38.76218290904906</v>
+        <v>17.95747778095388</v>
       </c>
       <c r="G58" t="n">
-        <v>2.651489091901452e-07</v>
+        <v>0.00300017155618918</v>
       </c>
       <c r="H58" t="n">
-        <v>7.752436581809812</v>
+        <v>3.591495556190775</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>3.846319538970252</v>
+        <v>4.488189</v>
       </c>
       <c r="B59" t="n">
-        <v>2.756911739262081e-05</v>
+        <v>26142489358012.63</v>
       </c>
       <c r="C59" t="n">
-        <v>7.833025164613602e-06</v>
+        <v>10456456869631.12</v>
       </c>
       <c r="D59" t="n">
-        <v>1.439961292633527e-06</v>
+        <v>1376566229298.527</v>
       </c>
       <c r="E59" t="n">
-        <v>2.342905812590329e-06</v>
+        <v>2206912775479.131</v>
       </c>
       <c r="F59" t="n">
-        <v>52.63627496476844</v>
+        <v>31.16561684723575</v>
       </c>
       <c r="G59" t="n">
-        <v>3.994240507198787e-10</v>
+        <v>8.687688208946652e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>10.52725499295369</v>
+        <v>6.233123369447149</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>3.847930674134597</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="B60" t="n">
-        <v>2.875535732000616e-05</v>
+        <v>25204598095969.37</v>
       </c>
       <c r="C60" t="n">
-        <v>9.483622205525526e-06</v>
+        <v>11704166306556.04</v>
       </c>
       <c r="D60" t="n">
-        <v>1.554996224541119e-06</v>
+        <v>1363465394822.794</v>
       </c>
       <c r="E60" t="n">
-        <v>2.397614081443307e-06</v>
+        <v>2155454281305.214</v>
       </c>
       <c r="F60" t="n">
-        <v>27.13868378212022</v>
+        <v>22.88588120553447</v>
       </c>
       <c r="G60" t="n">
-        <v>5.360239519440945e-05</v>
+        <v>0.0003549507575405286</v>
       </c>
       <c r="H60" t="n">
-        <v>5.427736756424045</v>
+        <v>4.577176241106893</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>3.84977319573212</v>
+        <v>4.492223</v>
       </c>
       <c r="B61" t="n">
-        <v>3.118712110946181e-05</v>
+        <v>26705834738435.8</v>
       </c>
       <c r="C61" t="n">
-        <v>8.5405459235986e-06</v>
+        <v>14375162375345.23</v>
       </c>
       <c r="D61" t="n">
-        <v>1.168102106647259e-06</v>
+        <v>1028908634783.665</v>
       </c>
       <c r="E61" t="n">
-        <v>1.872728940466293e-06</v>
+        <v>1668659715300.21</v>
       </c>
       <c r="F61" t="n">
-        <v>70.68266840773232</v>
+        <v>50.81521547426708</v>
       </c>
       <c r="G61" t="n">
-        <v>7.388238206427368e-14</v>
+        <v>9.436354629439746e-10</v>
       </c>
       <c r="H61" t="n">
-        <v>14.13653368154646</v>
+        <v>10.16304309485342</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>3.852147049139162</v>
+        <v>4.494992</v>
       </c>
       <c r="B62" t="n">
-        <v>3.345750798861534e-05</v>
+        <v>30376950078076.9</v>
       </c>
       <c r="C62" t="n">
-        <v>1.060319379958598e-05</v>
+        <v>15132331088113.12</v>
       </c>
       <c r="D62" t="n">
-        <v>1.012053999630771e-06</v>
+        <v>910224598804.6952</v>
       </c>
       <c r="E62" t="n">
-        <v>1.712033816353236e-06</v>
+        <v>1517218464606.823</v>
       </c>
       <c r="F62" t="n">
-        <v>97.13449912594392</v>
+        <v>65.81665217027891</v>
       </c>
       <c r="G62" t="n">
-        <v>2.121941446619496e-19</v>
+        <v>7.586809764144105e-13</v>
       </c>
       <c r="H62" t="n">
-        <v>19.42689982518878</v>
+        <v>13.16333043405578</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>3.856414843351097</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="B63" t="n">
-        <v>3.424663622084657e-05</v>
+        <v>32665054488424</v>
       </c>
       <c r="C63" t="n">
-        <v>1.127711707579234e-05</v>
+        <v>13211535405032.12</v>
       </c>
       <c r="D63" t="n">
-        <v>9.570619448971406e-07</v>
+        <v>897241249695.6267</v>
       </c>
       <c r="E63" t="n">
-        <v>1.654505535269217e-06</v>
+        <v>1474508677537.495</v>
       </c>
       <c r="F63" t="n">
-        <v>143.984382758664</v>
+        <v>68.59901427472489</v>
       </c>
       <c r="G63" t="n">
-        <v>2.543884432827407e-29</v>
+        <v>2.004747052358426e-13</v>
       </c>
       <c r="H63" t="n">
-        <v>28.7968765517328</v>
+        <v>13.71980285494498</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>3.865190388076044</v>
+        <v>4.510205</v>
       </c>
       <c r="B64" t="n">
-        <v>3.742075913732198e-05</v>
+        <v>35028577414890.38</v>
       </c>
       <c r="C64" t="n">
-        <v>1.270442043324134e-05</v>
+        <v>15905865038209.36</v>
       </c>
       <c r="D64" t="n">
-        <v>9.420739256682265e-07</v>
+        <v>858359430924.3751</v>
       </c>
       <c r="E64" t="n">
-        <v>1.675687928116264e-06</v>
+        <v>1450958596864.557</v>
       </c>
       <c r="F64" t="n">
-        <v>137.7263248048701</v>
+        <v>78.05895957948721</v>
       </c>
       <c r="G64" t="n">
-        <v>5.443496317172924e-28</v>
+        <v>2.136716131579984e-15</v>
       </c>
       <c r="H64" t="n">
-        <v>27.54526496097403</v>
+        <v>15.61179191589744</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>3.866878652051449</v>
+        <v>4.512183</v>
       </c>
       <c r="B65" t="n">
-        <v>4.095418061083698e-05</v>
+        <v>37702108683942.83</v>
       </c>
       <c r="C65" t="n">
-        <v>1.140226924645168e-05</v>
+        <v>19134030502476.22</v>
       </c>
       <c r="D65" t="n">
-        <v>1.278111385899325e-06</v>
+        <v>1124906397054.615</v>
       </c>
       <c r="E65" t="n">
-        <v>2.140193778852546e-06</v>
+        <v>1826873304597.201</v>
       </c>
       <c r="F65" t="n">
-        <v>172.5752339536932</v>
+        <v>126.9889928631448</v>
       </c>
       <c r="G65" t="n">
-        <v>2.058629257911391e-35</v>
+        <v>1.036041871016649e-25</v>
       </c>
       <c r="H65" t="n">
-        <v>34.51504679073864</v>
+        <v>25.39779857262896</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>3.869363913741131</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="B66" t="n">
-        <v>3.58825585347329e-05</v>
+        <v>38079791654561.67</v>
       </c>
       <c r="C66" t="n">
-        <v>1.532765993979182e-05</v>
+        <v>15543195738555.66</v>
       </c>
       <c r="D66" t="n">
-        <v>1.66993509062648e-06</v>
+        <v>1717933129281.68</v>
       </c>
       <c r="E66" t="n">
-        <v>2.838338767165883e-06</v>
+        <v>2619334325091.541</v>
       </c>
       <c r="F66" t="n">
-        <v>160.9472141906543</v>
+        <v>85.64126340121166</v>
       </c>
       <c r="G66" t="n">
-        <v>6.218278257846456e-33</v>
+        <v>5.523341226774909e-17</v>
       </c>
       <c r="H66" t="n">
-        <v>32.18944283813085</v>
+        <v>17.12825268024233</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>3.873640277820963</v>
+        <v>4.520067</v>
       </c>
       <c r="B67" t="n">
-        <v>4.148008206136318e-05</v>
+        <v>34492395064804.57</v>
       </c>
       <c r="C67" t="n">
-        <v>7.627305869907771e-07</v>
+        <v>7539667131362.773</v>
       </c>
       <c r="D67" t="n">
-        <v>2.236506835654344e-06</v>
+        <v>1973852113287.491</v>
       </c>
       <c r="E67" t="n">
-        <v>3.342549263292868e-06</v>
+        <v>2927673571837.966</v>
       </c>
       <c r="F67" t="n">
-        <v>66.70265979745426</v>
+        <v>70.71757507035525</v>
       </c>
       <c r="G67" t="n">
-        <v>4.967264777519848e-13</v>
+        <v>7.265636628651527e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>13.34053195949085</v>
+        <v>14.14351501407105</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>3.878070899522913</v>
+        <v>4.525238</v>
       </c>
       <c r="B68" t="n">
-        <v>3.61486598529157e-05</v>
+        <v>28784220642429.19</v>
       </c>
       <c r="C68" t="n">
-        <v>-1.737055436712479e-06</v>
+        <v>10155996427850.34</v>
       </c>
       <c r="D68" t="n">
-        <v>2.890476155700574e-06</v>
+        <v>2448692826433.5</v>
       </c>
       <c r="E68" t="n">
-        <v>4.323753682136206e-06</v>
+        <v>3771754333245.087</v>
       </c>
       <c r="F68" t="n">
-        <v>42.80038843834596</v>
+        <v>48.14236509159566</v>
       </c>
       <c r="G68" t="n">
-        <v>4.055787284501436e-08</v>
+        <v>3.322003358545269e-09</v>
       </c>
       <c r="H68" t="n">
-        <v>8.560077687669192</v>
+        <v>9.628473018319132</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>3.881644534435317</v>
+        <v>4.529406</v>
       </c>
       <c r="B69" t="n">
-        <v>3.60580408719232e-05</v>
+        <v>28358629014835.62</v>
       </c>
       <c r="C69" t="n">
-        <v>1.702786080436744e-06</v>
+        <v>11682414292785.62</v>
       </c>
       <c r="D69" t="n">
-        <v>2.450502725935571e-06</v>
+        <v>1964246478831.824</v>
       </c>
       <c r="E69" t="n">
-        <v>3.639913840688383e-06</v>
+        <v>2897968116256.762</v>
       </c>
       <c r="F69" t="n">
-        <v>84.97445756614644</v>
+        <v>93.50233326791745</v>
       </c>
       <c r="G69" t="n">
-        <v>7.621191275454373e-17</v>
+        <v>1.233493954623776e-18</v>
       </c>
       <c r="H69" t="n">
-        <v>16.99489151322929</v>
+        <v>18.70046665358349</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>3.88648650979625</v>
+        <v>4.535056</v>
       </c>
       <c r="B70" t="n">
-        <v>2.332808606765083e-05</v>
+        <v>20539348817057.41</v>
       </c>
       <c r="C70" t="n">
-        <v>-4.098374343290685e-06</v>
+        <v>-6428940297910.648</v>
       </c>
       <c r="D70" t="n">
-        <v>3.065969541206978e-06</v>
+        <v>2865866426264.658</v>
       </c>
       <c r="E70" t="n">
-        <v>5.393300926724569e-06</v>
+        <v>3687384260667.161</v>
       </c>
       <c r="F70" t="n">
-        <v>54.90431306283796</v>
+        <v>53.26535844851433</v>
       </c>
       <c r="G70" t="n">
-        <v>1.365888954588409e-10</v>
+        <v>2.966767264700923e-10</v>
       </c>
       <c r="H70" t="n">
-        <v>10.98086261256759</v>
+        <v>10.65307168970287</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>3.890925701366096</v>
+        <v>4.540236</v>
       </c>
       <c r="B71" t="n">
-        <v>2.731614894793217e-05</v>
+        <v>22459134863022.09</v>
       </c>
       <c r="C71" t="n">
-        <v>-4.504161306450788e-06</v>
+        <v>2097378211368.049</v>
       </c>
       <c r="D71" t="n">
-        <v>4.361612905067221e-06</v>
+        <v>3973333090008.419</v>
       </c>
       <c r="E71" t="n">
-        <v>6.708830349703572e-06</v>
+        <v>6193747342187.797</v>
       </c>
       <c r="F71" t="n">
-        <v>10.9434837843215</v>
+        <v>10.87114057905229</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0525121197060464</v>
+        <v>0.05399559963774889</v>
       </c>
       <c r="H71" t="n">
-        <v>2.188696756864299</v>
+        <v>2.174228115810457</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>3.899118495074151</v>
+        <v>4.549804</v>
       </c>
       <c r="B72" t="n">
-        <v>3.574064879621817e-05</v>
+        <v>30915342758276.86</v>
       </c>
       <c r="C72" t="n">
-        <v>-4.302486621446027e-06</v>
+        <v>3351524950729.605</v>
       </c>
       <c r="D72" t="n">
-        <v>2.438867072085696e-06</v>
+        <v>2156327337752.822</v>
       </c>
       <c r="E72" t="n">
-        <v>3.474567635709799e-06</v>
+        <v>3264709751809.232</v>
       </c>
       <c r="F72" t="n">
-        <v>29.85652281185974</v>
+        <v>35.1954510004811</v>
       </c>
       <c r="G72" t="n">
-        <v>1.573925164279646e-05</v>
+        <v>1.37537564684611e-06</v>
       </c>
       <c r="H72" t="n">
-        <v>5.971304562371948</v>
+        <v>7.03909020009622</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>3.908014017949633</v>
+        <v>4.560183</v>
       </c>
       <c r="B73" t="n">
-        <v>1.098336470975354e-05</v>
+        <v>11004363959499.87</v>
       </c>
       <c r="C73" t="n">
-        <v>4.797913413462483e-07</v>
+        <v>-1224744507352.488</v>
       </c>
       <c r="D73" t="n">
-        <v>2.866104167792503e-06</v>
+        <v>2988582146655.781</v>
       </c>
       <c r="E73" t="n">
-        <v>4.109815793605372e-06</v>
+        <v>3945802356162.487</v>
       </c>
       <c r="F73" t="n">
-        <v>2.936209352984661</v>
+        <v>1.485862663564187</v>
       </c>
       <c r="G73" t="n">
-        <v>0.7098199752917779</v>
+        <v>0.9146954708054584</v>
       </c>
       <c r="H73" t="n">
-        <v>0.5872418705969322</v>
+        <v>0.2971725327128374</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>3.916541036505611</v>
+        <v>4.570129</v>
       </c>
       <c r="B74" t="n">
-        <v>7.780089133497114e-06</v>
+        <v>6588099915122.414</v>
       </c>
       <c r="C74" t="n">
-        <v>6.876479944071219e-06</v>
+        <v>6198371660118.133</v>
       </c>
       <c r="D74" t="n">
-        <v>2.221755628996236e-06</v>
+        <v>1924540285176.161</v>
       </c>
       <c r="E74" t="n">
-        <v>4.616642815160148e-06</v>
+        <v>3444452547798.077</v>
       </c>
       <c r="F74" t="n">
-        <v>4.538487155296846</v>
+        <v>2.126884299550015</v>
       </c>
       <c r="G74" t="n">
-        <v>0.4747505622374953</v>
+        <v>0.8313242548290096</v>
       </c>
       <c r="H74" t="n">
-        <v>0.9076974310593691</v>
+        <v>0.4253768599100031</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>3.925025205722112</v>
+        <v>4.580025</v>
       </c>
       <c r="B75" t="n">
-        <v>1.733514952559421e-06</v>
+        <v>9148307650279.914</v>
       </c>
       <c r="C75" t="n">
-        <v>9.298106296226869e-06</v>
+        <v>10817648211115.07</v>
       </c>
       <c r="D75" t="n">
-        <v>5.419566808473484e-07</v>
+        <v>1796356152433.22</v>
       </c>
       <c r="E75" t="n">
-        <v>3.380095663047459e-06</v>
+        <v>3306085636678.334</v>
       </c>
       <c r="F75" t="n">
-        <v>17.49070030427715</v>
+        <v>4.612166491234406</v>
       </c>
       <c r="G75" t="n">
-        <v>0.003657327924206905</v>
+        <v>0.4650176238784631</v>
       </c>
       <c r="H75" t="n">
-        <v>3.498140060855431</v>
+        <v>0.9224332982468813</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>3.933637922957044</v>
+        <v>4.590082</v>
       </c>
       <c r="B76" t="n">
-        <v>2.698293384597181e-05</v>
+        <v>19709352881553.8</v>
       </c>
       <c r="C76" t="n">
-        <v>2.322463451834163e-06</v>
+        <v>10682169052234.68</v>
       </c>
       <c r="D76" t="n">
-        <v>2.227225741775414e-06</v>
+        <v>1721297647308.073</v>
       </c>
       <c r="E76" t="n">
-        <v>3.428672514431548e-06</v>
+        <v>2636670441469.55</v>
       </c>
       <c r="F76" t="n">
-        <v>55.76764440996926</v>
+        <v>68.96300797265553</v>
       </c>
       <c r="G76" t="n">
-        <v>9.072954116717791e-11</v>
+        <v>1.684100889403831e-13</v>
       </c>
       <c r="H76" t="n">
-        <v>11.15352888199385</v>
+        <v>13.79260159453111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>3.942370618342513</v>
+        <v>4.600268</v>
       </c>
       <c r="B77" t="n">
-        <v>4.299225267968101e-05</v>
+        <v>45035162953059.83</v>
       </c>
       <c r="C77" t="n">
-        <v>-2.675382497447714e-06</v>
+        <v>3805554300326.941</v>
       </c>
       <c r="D77" t="n">
-        <v>2.681716622116644e-06</v>
+        <v>2651120333350.436</v>
       </c>
       <c r="E77" t="n">
-        <v>4.047033518720146e-06</v>
+        <v>3565870827948.37</v>
       </c>
       <c r="F77" t="n">
-        <v>334.567394009344</v>
+        <v>292.5185129608969</v>
       </c>
       <c r="G77" t="n">
-        <v>3.67321276511572e-70</v>
+        <v>4.063564727338325e-61</v>
       </c>
       <c r="H77" t="n">
-        <v>66.91347880186879</v>
+        <v>58.50370259217939</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>3.950700529936895</v>
+        <v>4.609989</v>
       </c>
       <c r="B78" t="n">
-        <v>1.856173877128013e-05</v>
+        <v>36509734655666</v>
       </c>
       <c r="C78" t="n">
-        <v>5.35602872937912e-06</v>
+        <v>15796752318565.56</v>
       </c>
       <c r="D78" t="n">
-        <v>2.31066231410113e-06</v>
+        <v>2962122853273.425</v>
       </c>
       <c r="E78" t="n">
-        <v>3.886835245852925e-06</v>
+        <v>4129669977361.194</v>
       </c>
       <c r="F78" t="n">
-        <v>824.144769028711</v>
+        <v>765.7746212050419</v>
       </c>
       <c r="G78" t="n">
-        <v>6.912597297008227e-176</v>
+        <v>2.929708115482442e-163</v>
       </c>
       <c r="H78" t="n">
-        <v>164.8289538057422</v>
+        <v>153.1549242410084</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>3.959476074661841</v>
+        <v>4.620227</v>
       </c>
       <c r="B79" t="n">
-        <v>4.434858264271015e-05</v>
+        <v>23139322120016.59</v>
       </c>
       <c r="C79" t="n">
-        <v>-3.319275439271461e-06</v>
+        <v>38561780059807.05</v>
       </c>
       <c r="D79" t="n">
-        <v>4.358307818391691e-06</v>
+        <v>2252615097145.986</v>
       </c>
       <c r="E79" t="n">
-        <v>6.936600342702723e-06</v>
+        <v>4233353662791.651</v>
       </c>
       <c r="F79" t="n">
-        <v>642.5259589203953</v>
+        <v>660.4542194362524</v>
       </c>
       <c r="G79" t="n">
-        <v>1.305995782580954e-136</v>
+        <v>1.740774716422775e-140</v>
       </c>
       <c r="H79" t="n">
-        <v>128.505191784079</v>
+        <v>132.0908438872505</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>3.967797416388328</v>
+        <v>4.629939</v>
       </c>
       <c r="B80" t="n">
-        <v>6.300506171669671e-05</v>
+        <v>60002200418880.88</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.763021656977499e-05</v>
+        <v>-19263610601371.41</v>
       </c>
       <c r="D80" t="n">
-        <v>4.184844219852782e-06</v>
+        <v>4057179049614.163</v>
       </c>
       <c r="E80" t="n">
-        <v>5.519232362961293e-06</v>
+        <v>4788295681556.74</v>
       </c>
       <c r="F80" t="n">
-        <v>667.044564802106</v>
+        <v>651.5805136930428</v>
       </c>
       <c r="G80" t="n">
-        <v>6.548110393328953e-142</v>
+        <v>1.441644458679587e-138</v>
       </c>
       <c r="H80" t="n">
-        <v>133.4089129604212</v>
+        <v>130.3161027386085</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>3.97227945729765</v>
+        <v>4.635173</v>
       </c>
       <c r="B81" t="n">
-        <v>5.152716631245589e-05</v>
+        <v>51493459373352.54</v>
       </c>
       <c r="C81" t="n">
-        <v>-1.943496426269922e-06</v>
+        <v>1726742712805.617</v>
       </c>
       <c r="D81" t="n">
-        <v>3.02603452056016e-06</v>
+        <v>2942503776296.147</v>
       </c>
       <c r="E81" t="n">
-        <v>4.515930322761434e-06</v>
+        <v>3906874920355.556</v>
       </c>
       <c r="F81" t="n">
-        <v>422.9187735575339</v>
+        <v>392.3438019744445</v>
       </c>
       <c r="G81" t="n">
-        <v>3.401233621008202e-89</v>
+        <v>1.325138935081708e-82</v>
       </c>
       <c r="H81" t="n">
-        <v>84.58375471150678</v>
+        <v>78.4687603948889</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>3.976384424019573</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>7.603663805806671e-05</v>
+        <v>75779961303522.7</v>
       </c>
       <c r="C82" t="n">
-        <v>1.179920956455449e-05</v>
+        <v>20686286959723.76</v>
       </c>
       <c r="D82" t="n">
-        <v>2.938923055800382e-06</v>
+        <v>2847698970729.261</v>
       </c>
       <c r="E82" t="n">
-        <v>4.576199147926905e-06</v>
+        <v>4188218566133.808</v>
       </c>
       <c r="F82" t="n">
-        <v>273.9871185552888</v>
+        <v>200.3356619825751</v>
       </c>
       <c r="G82" t="n">
-        <v>3.895952979076073e-57</v>
+        <v>2.407725959843294e-41</v>
       </c>
       <c r="H82" t="n">
-        <v>54.79742371105776</v>
+        <v>40.06713239651503</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>3.984954291915029</v>
+        <v>4.649962</v>
       </c>
       <c r="B83" t="n">
-        <v>8.607185931422077e-05</v>
+        <v>73497565927145.2</v>
       </c>
       <c r="C83" t="n">
-        <v>6.521988127021627e-06</v>
+        <v>25383192781631.73</v>
       </c>
       <c r="D83" t="n">
-        <v>3.078117838135659e-06</v>
+        <v>2569474556650.651</v>
       </c>
       <c r="E83" t="n">
-        <v>4.592795666410788e-06</v>
+        <v>3735352237446.687</v>
       </c>
       <c r="F83" t="n">
-        <v>348.131384525934</v>
+        <v>335.8198400266954</v>
       </c>
       <c r="G83" t="n">
-        <v>4.4197838821427e-73</v>
+        <v>1.974697212578687e-70</v>
       </c>
       <c r="H83" t="n">
-        <v>69.62627690518681</v>
+        <v>67.16396800533907</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.002231145592266</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="B84" t="n">
-        <v>8.821638539437403e-05</v>
+        <v>77286473002337.09</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.56651889871987e-05</v>
+        <v>492750323869.6562</v>
       </c>
       <c r="D84" t="n">
-        <v>2.672164973635303e-06</v>
+        <v>2291658585904.442</v>
       </c>
       <c r="E84" t="n">
-        <v>3.690352290945254e-06</v>
+        <v>3051404810014.036</v>
       </c>
       <c r="F84" t="n">
-        <v>428.1340976683296</v>
+        <v>431.6412321065713</v>
       </c>
       <c r="G84" t="n">
-        <v>2.553230733543076e-90</v>
+        <v>4.475231309374747e-91</v>
       </c>
       <c r="H84" t="n">
-        <v>85.62681953366591</v>
+        <v>86.32824642131426</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.010826723091408</v>
+        <v>4.680153</v>
       </c>
       <c r="B85" t="n">
-        <v>7.510593228141493e-05</v>
+        <v>66039600173200.65</v>
       </c>
       <c r="C85" t="n">
-        <v>-5.878744921069802e-06</v>
+        <v>3818970964298.125</v>
       </c>
       <c r="D85" t="n">
-        <v>2.074688672595947e-06</v>
+        <v>1809117739353.01</v>
       </c>
       <c r="E85" t="n">
-        <v>3.018814783466327e-06</v>
+        <v>2536877151119.712</v>
       </c>
       <c r="F85" t="n">
-        <v>249.4572120275962</v>
+        <v>264.4464325304496</v>
       </c>
       <c r="G85" t="n">
-        <v>7.187533786341961e-52</v>
+        <v>4.359429124261907e-55</v>
       </c>
       <c r="H85" t="n">
-        <v>49.89144240551924</v>
+        <v>52.88928650608992</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.019208053893163</v>
+        <v>4.689928</v>
       </c>
       <c r="B86" t="n">
-        <v>5.206347761149733e-05</v>
+        <v>47388179934557.4</v>
       </c>
       <c r="C86" t="n">
-        <v>6.406632815951088e-06</v>
+        <v>13406908052425.27</v>
       </c>
       <c r="D86" t="n">
-        <v>1.451379222396065e-06</v>
+        <v>1289227355881.32</v>
       </c>
       <c r="E86" t="n">
-        <v>2.306252628223426e-06</v>
+        <v>1944446825821.042</v>
       </c>
       <c r="F86" t="n">
-        <v>249.8405420116593</v>
+        <v>225.1043131251008</v>
       </c>
       <c r="G86" t="n">
-        <v>5.947482097582292e-52</v>
+        <v>1.197812808410681e-46</v>
       </c>
       <c r="H86" t="n">
-        <v>49.96810840233185</v>
+        <v>45.02086262502015</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.036424918495132</v>
+        <v>4.71002</v>
       </c>
       <c r="B87" t="n">
-        <v>4.790745691749387e-05</v>
+        <v>44906019070587.05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.083365370992334e-05</v>
+        <v>15527121079456.83</v>
       </c>
       <c r="D87" t="n">
-        <v>1.196801603619289e-06</v>
+        <v>1082531178032.516</v>
       </c>
       <c r="E87" t="n">
-        <v>2.032667681895996e-06</v>
+        <v>1732877837866.497</v>
       </c>
       <c r="F87" t="n">
-        <v>191.6865772926877</v>
+        <v>140.7995080785847</v>
       </c>
       <c r="G87" t="n">
-        <v>1.703232804701561e-39</v>
+        <v>1.209806648162457e-28</v>
       </c>
       <c r="H87" t="n">
-        <v>38.33731545853753</v>
+        <v>28.15990161571693</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.053547514550251</v>
+        <v>4.730004</v>
       </c>
       <c r="B88" t="n">
-        <v>5.154099115966184e-05</v>
+        <v>48916972139767.71</v>
       </c>
       <c r="C88" t="n">
-        <v>1.196999444161602e-05</v>
+        <v>17105364614186.13</v>
       </c>
       <c r="D88" t="n">
-        <v>1.350134497537462e-06</v>
+        <v>1237042402851.772</v>
       </c>
       <c r="E88" t="n">
-        <v>2.268640573233854e-06</v>
+        <v>1964608111602.255</v>
       </c>
       <c r="F88" t="n">
-        <v>204.8482427124972</v>
+        <v>145.8146339445554</v>
       </c>
       <c r="G88" t="n">
-        <v>2.606639778102375e-42</v>
+        <v>1.037956580330956e-29</v>
       </c>
       <c r="H88" t="n">
-        <v>40.96964854249944</v>
+        <v>29.16292678891108</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.070687250341162</v>
+        <v>4.749999</v>
       </c>
       <c r="B89" t="n">
-        <v>7.386838350339761e-05</v>
+        <v>68822645038378.65</v>
       </c>
       <c r="C89" t="n">
-        <v>1.239980686107357e-05</v>
+        <v>21605847141453.08</v>
       </c>
       <c r="D89" t="n">
-        <v>1.950180093092234e-06</v>
+        <v>1732891784140.896</v>
       </c>
       <c r="E89" t="n">
-        <v>3.204752305073342e-06</v>
+        <v>2635725333130.496</v>
       </c>
       <c r="F89" t="n">
-        <v>318.4729340636154</v>
+        <v>264.3520403175328</v>
       </c>
       <c r="G89" t="n">
-        <v>1.06657947444697e-66</v>
+        <v>4.567681501817266e-55</v>
       </c>
       <c r="H89" t="n">
-        <v>63.69458681272308</v>
+        <v>52.87040806350656</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.075126441911007</v>
+        <v>4.755179</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001280487664272449</v>
+        <v>114653516944037.5</v>
       </c>
       <c r="C90" t="n">
-        <v>-1.032567811992953e-06</v>
+        <v>15551809317453.77</v>
       </c>
       <c r="D90" t="n">
-        <v>3.566329597032666e-06</v>
+        <v>3068072440230.059</v>
       </c>
       <c r="E90" t="n">
-        <v>5.324793304473696e-06</v>
+        <v>4268309241054.191</v>
       </c>
       <c r="F90" t="n">
-        <v>469.854235311408</v>
+        <v>455.3572407039155</v>
       </c>
       <c r="G90" t="n">
-        <v>2.55848377760529e-99</v>
+        <v>3.43270742148838e-96</v>
       </c>
       <c r="H90" t="n">
-        <v>93.97084706228161</v>
+        <v>91.0714481407831</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.078297293032326</v>
+        <v>4.758876</v>
       </c>
       <c r="B91" t="n">
-        <v>0.0001374874530180288</v>
+        <v>123060723450837.6</v>
       </c>
       <c r="C91" t="n">
-        <v>6.876663280943197e-07</v>
+        <v>21197878222720.35</v>
       </c>
       <c r="D91" t="n">
-        <v>3.747776235571951e-06</v>
+        <v>3229737165804.777</v>
       </c>
       <c r="E91" t="n">
-        <v>5.649783907162774e-06</v>
+        <v>4570930489655.534</v>
       </c>
       <c r="F91" t="n">
-        <v>427.0298442971113</v>
+        <v>412.4498944364663</v>
       </c>
       <c r="G91" t="n">
-        <v>4.417749668525571e-90</v>
+        <v>6.147153183347809e-87</v>
       </c>
       <c r="H91" t="n">
-        <v>85.40596885942226</v>
+        <v>82.48997888729325</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.087861265603653</v>
+        <v>4.770038</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001386605142441873</v>
+        <v>126354995040043.8</v>
       </c>
       <c r="C92" t="n">
-        <v>1.988547754552442e-05</v>
+        <v>40078665069029.09</v>
       </c>
       <c r="D92" t="n">
-        <v>3.769611851777742e-06</v>
+        <v>3264560733231.622</v>
       </c>
       <c r="E92" t="n">
-        <v>6.048810770309787e-06</v>
+        <v>4896570658291.769</v>
       </c>
       <c r="F92" t="n">
-        <v>366.1422134168826</v>
+        <v>321.4271323270841</v>
       </c>
       <c r="G92" t="n">
-        <v>5.848918826386813e-77</v>
+        <v>2.468736539115636e-67</v>
       </c>
       <c r="H92" t="n">
-        <v>73.22844268337651</v>
+        <v>64.2854264654168</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.09212905981559</v>
+        <v>4.775016</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001304813813392907</v>
+        <v>118610827460439.9</v>
       </c>
       <c r="C93" t="n">
-        <v>1.861440504469458e-05</v>
+        <v>35686932473139.45</v>
       </c>
       <c r="D93" t="n">
-        <v>3.712699741844748e-06</v>
+        <v>3282730550604.212</v>
       </c>
       <c r="E93" t="n">
-        <v>5.891585135822801e-06</v>
+        <v>5005952169905.727</v>
       </c>
       <c r="F93" t="n">
-        <v>213.5554940085764</v>
+        <v>185.8000886297884</v>
       </c>
       <c r="G93" t="n">
-        <v>3.566031005052601e-44</v>
+        <v>3.086059445826499e-38</v>
       </c>
       <c r="H93" t="n">
-        <v>42.71109880171527</v>
+        <v>37.16001772595769</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.096551111649645</v>
+        <v>4.780179</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001040202524470599</v>
+        <v>94417218847833.44</v>
       </c>
       <c r="C94" t="n">
-        <v>2.442253253165226e-05</v>
+        <v>36598090512324.38</v>
       </c>
       <c r="D94" t="n">
-        <v>4.057671384356718e-06</v>
+        <v>3634180267720.045</v>
       </c>
       <c r="E94" t="n">
-        <v>6.398589863419114e-06</v>
+        <v>5698861911748.743</v>
       </c>
       <c r="F94" t="n">
-        <v>101.1428063396944</v>
+        <v>68.81517116884046</v>
       </c>
       <c r="G94" t="n">
-        <v>3.034986268505679e-20</v>
+        <v>1.807642037195961e-13</v>
       </c>
       <c r="H94" t="n">
-        <v>20.22856126793889</v>
+        <v>13.76303423376809</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.105069560337727</v>
+        <v>4.790118</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001761001616922354</v>
+        <v>163029829768365.5</v>
       </c>
       <c r="C95" t="n">
-        <v>5.957018421283249e-05</v>
+        <v>72442972114476.66</v>
       </c>
       <c r="D95" t="n">
-        <v>5.192768840388218e-06</v>
+        <v>4771449534657.216</v>
       </c>
       <c r="E95" t="n">
-        <v>8.922505587542874e-06</v>
+        <v>8072037661893.123</v>
       </c>
       <c r="F95" t="n">
-        <v>68.20253753113919</v>
+        <v>32.10354360985498</v>
       </c>
       <c r="G95" t="n">
-        <v>2.423740580839591e-13</v>
+        <v>5.667244103468925e-06</v>
       </c>
       <c r="H95" t="n">
-        <v>13.64050750622784</v>
+        <v>6.420708721970996</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.113468030875272</v>
+        <v>4.799915</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003608707892928865</v>
+        <v>339662230274523.2</v>
       </c>
       <c r="C96" t="n">
-        <v>0.000138607219115739</v>
+        <v>157677126827871.4</v>
       </c>
       <c r="D96" t="n">
-        <v>8.35887928149567e-06</v>
+        <v>7693269805427.772</v>
       </c>
       <c r="E96" t="n">
-        <v>1.54153003870588e-05</v>
+        <v>13577276649855.35</v>
       </c>
       <c r="F96" t="n">
-        <v>82.43349510766522</v>
+        <v>30.61049073798542</v>
       </c>
       <c r="G96" t="n">
-        <v>2.597021877369842e-16</v>
+        <v>1.118077669384523e-05</v>
       </c>
       <c r="H96" t="n">
-        <v>16.48669902153305</v>
+        <v>6.122098147597083</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.122132167317578</v>
+        <v>4.810027</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003179549844944077</v>
+        <v>300683465232562.6</v>
       </c>
       <c r="C97" t="n">
-        <v>0.000136504096915245</v>
+        <v>152344011235575.3</v>
       </c>
       <c r="D97" t="n">
-        <v>7.23494175753358e-06</v>
+        <v>6674991391483.97</v>
       </c>
       <c r="E97" t="n">
-        <v>1.37240297607526e-05</v>
+        <v>12012584257382.03</v>
       </c>
       <c r="F97" t="n">
-        <v>88.19915512471542</v>
+        <v>26.17208299608272</v>
       </c>
       <c r="G97" t="n">
-        <v>1.605087873702592e-17</v>
+        <v>8.263314234801533e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>17.63983102494308</v>
+        <v>5.234416599216543</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.12395754917931</v>
+        <v>4.81216</v>
       </c>
       <c r="B98" t="n">
-        <v>0.0002102324648294779</v>
+        <v>198882760478543.4</v>
       </c>
       <c r="C98" t="n">
-        <v>9.273862758332261e-05</v>
+        <v>105017448809088.8</v>
       </c>
       <c r="D98" t="n">
-        <v>4.717153392544237e-06</v>
+        <v>4357810039945.289</v>
       </c>
       <c r="E98" t="n">
-        <v>9.000693738216621e-06</v>
+        <v>7913808652425.321</v>
       </c>
       <c r="F98" t="n">
-        <v>89.02770775363362</v>
+        <v>26.69683756662565</v>
       </c>
       <c r="G98" t="n">
-        <v>1.075316144525407e-17</v>
+        <v>6.534300427417523e-05</v>
       </c>
       <c r="H98" t="n">
-        <v>17.80554155072672</v>
+        <v>5.339367513325129</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.126622778094797</v>
+        <v>4.81527</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001365627206983864</v>
+        <v>129184663408471.5</v>
       </c>
       <c r="C99" t="n">
-        <v>5.440078348781025e-05</v>
+        <v>60100403201195.83</v>
       </c>
       <c r="D99" t="n">
-        <v>3.087958166354671e-06</v>
+        <v>2854205135117.005</v>
       </c>
       <c r="E99" t="n">
-        <v>5.825434327595074e-06</v>
+        <v>5157913069076.747</v>
       </c>
       <c r="F99" t="n">
-        <v>72.73444537478971</v>
+        <v>18.91389240238768</v>
       </c>
       <c r="G99" t="n">
-        <v>2.761413984749245e-14</v>
+        <v>0.001994423369895624</v>
       </c>
       <c r="H99" t="n">
-        <v>14.54688907495794</v>
+        <v>3.782778480477537</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.13072774481672</v>
+        <v>4.820058</v>
       </c>
       <c r="B100" t="n">
-        <v>6.898195297568244e-05</v>
+        <v>64572480186862.73</v>
       </c>
       <c r="C100" t="n">
-        <v>2.489644573170811e-05</v>
+        <v>27348325178618.31</v>
       </c>
       <c r="D100" t="n">
-        <v>1.62272780025381e-06</v>
+        <v>1501889438851.17</v>
       </c>
       <c r="E100" t="n">
-        <v>2.999360758740722e-06</v>
+        <v>2699652121434.524</v>
       </c>
       <c r="F100" t="n">
-        <v>49.94674402160158</v>
+        <v>13.05291842150354</v>
       </c>
       <c r="G100" t="n">
-        <v>1.421009816727841e-09</v>
+        <v>0.02288787984036668</v>
       </c>
       <c r="H100" t="n">
-        <v>9.989348804320317</v>
+        <v>2.610583684300709</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.139151924957952</v>
+        <v>4.829886</v>
       </c>
       <c r="B101" t="n">
-        <v>5.030734541579679e-05</v>
+        <v>46601274292511.1</v>
       </c>
       <c r="C101" t="n">
-        <v>1.454019854384422e-05</v>
+        <v>15334095861219.69</v>
       </c>
       <c r="D101" t="n">
-        <v>1.147710668889245e-06</v>
+        <v>1056098500160.153</v>
       </c>
       <c r="E101" t="n">
-        <v>2.059150190189134e-06</v>
+        <v>1848417916524.823</v>
       </c>
       <c r="F101" t="n">
-        <v>28.73769670295688</v>
+        <v>7.411258171207383</v>
       </c>
       <c r="G101" t="n">
-        <v>2.610295551842205e-05</v>
+        <v>0.1918065788933806</v>
       </c>
       <c r="H101" t="n">
-        <v>5.747539340591376</v>
+        <v>1.482251634241476</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.156411638899399</v>
+        <v>4.85003</v>
       </c>
       <c r="B102" t="n">
-        <v>5.138316655136133e-05</v>
+        <v>48066818014555.02</v>
       </c>
       <c r="C102" t="n">
-        <v>1.062160780253566e-05</v>
+        <v>13445811375923.5</v>
       </c>
       <c r="D102" t="n">
-        <v>1.175335770329976e-06</v>
+        <v>1079780521767.975</v>
       </c>
       <c r="E102" t="n">
-        <v>2.062272222412638e-06</v>
+        <v>1832104174459.932</v>
       </c>
       <c r="F102" t="n">
-        <v>48.78263317007963</v>
+        <v>24.8272132202931</v>
       </c>
       <c r="G102" t="n">
-        <v>2.458254553793282e-09</v>
+        <v>0.0001504546024547168</v>
       </c>
       <c r="H102" t="n">
-        <v>9.756526634015927</v>
+        <v>4.965442644058621</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.170346244097408</v>
+        <v>4.866293</v>
       </c>
       <c r="B103" t="n">
-        <v>5.5237130151198e-05</v>
+        <v>51347910657581.06</v>
       </c>
       <c r="C103" t="n">
-        <v>1.064436236000191e-05</v>
+        <v>15133005014158.94</v>
       </c>
       <c r="D103" t="n">
-        <v>1.28239183158546e-06</v>
+        <v>1168172935996.653</v>
       </c>
       <c r="E103" t="n">
-        <v>2.236735329760445e-06</v>
+        <v>1967997442143.631</v>
       </c>
       <c r="F103" t="n">
-        <v>56.21255608347632</v>
+        <v>33.34913238698147</v>
       </c>
       <c r="G103" t="n">
-        <v>7.347379371485397e-11</v>
+        <v>3.207944832861662e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>11.24251121669526</v>
+        <v>6.669826477396295</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.190571132330683</v>
+        <v>4.889892</v>
       </c>
       <c r="B104" t="n">
-        <v>5.786633638157801e-05</v>
+        <v>54303283777690.39</v>
       </c>
       <c r="C104" t="n">
-        <v>1.619800744197617e-05</v>
+        <v>19126761817286.77</v>
       </c>
       <c r="D104" t="n">
-        <v>1.286877762142347e-06</v>
+        <v>1177516069472.538</v>
       </c>
       <c r="E104" t="n">
-        <v>2.312086016785e-06</v>
+        <v>2026982079201.116</v>
       </c>
       <c r="F104" t="n">
-        <v>76.00316734956618</v>
+        <v>36.36049457314363</v>
       </c>
       <c r="G104" t="n">
-        <v>5.744010762937734e-15</v>
+        <v>8.044506676163252e-07</v>
       </c>
       <c r="H104" t="n">
-        <v>15.20063346991324</v>
+        <v>7.272098914628726</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.199158139961929</v>
+        <v>4.899914</v>
       </c>
       <c r="B105" t="n">
-        <v>6.227671435280891e-05</v>
+        <v>57723894570651.73</v>
       </c>
       <c r="C105" t="n">
-        <v>1.742767040107863e-05</v>
+        <v>20612586524151.41</v>
       </c>
       <c r="D105" t="n">
-        <v>1.524352885934409e-06</v>
+        <v>1397909034862.355</v>
       </c>
       <c r="E105" t="n">
-        <v>2.670649180119419e-06</v>
+        <v>2380951672436.876</v>
       </c>
       <c r="F105" t="n">
-        <v>59.88178504626065</v>
+        <v>26.95055542128091</v>
       </c>
       <c r="G105" t="n">
-        <v>1.285780974861455e-11</v>
+        <v>5.832112497337469e-05</v>
       </c>
       <c r="H105" t="n">
-        <v>11.97635700925213</v>
+        <v>5.390111084256182</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.207916544951084</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="B106" t="n">
-        <v>6.079638538560234e-05</v>
+        <v>57235421277190.58</v>
       </c>
       <c r="C106" t="n">
-        <v>2.204265880661628e-05</v>
+        <v>24747032265822.81</v>
       </c>
       <c r="D106" t="n">
-        <v>1.483795326486399e-06</v>
+        <v>1373277185852.233</v>
       </c>
       <c r="E106" t="n">
-        <v>2.667121283182856e-06</v>
+        <v>2372054920409.317</v>
       </c>
       <c r="F106" t="n">
-        <v>90.03091509581593</v>
+        <v>37.58686233943032</v>
       </c>
       <c r="G106" t="n">
-        <v>6.619588212875152e-18</v>
+        <v>4.567420631915752e-07</v>
       </c>
       <c r="H106" t="n">
-        <v>18.00618301916318</v>
+        <v>7.517372467886064</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.216340725092316</v>
+        <v>4.919957</v>
       </c>
       <c r="B107" t="n">
-        <v>6.355462343966954e-05</v>
+        <v>58345014115393.36</v>
       </c>
       <c r="C107" t="n">
-        <v>1.558042862317929e-05</v>
+        <v>20430053813510.06</v>
       </c>
       <c r="D107" t="n">
-        <v>1.645669670070858e-06</v>
+        <v>1518032487596.911</v>
       </c>
       <c r="E107" t="n">
-        <v>2.816202317267829e-06</v>
+        <v>2542739434845.835</v>
       </c>
       <c r="F107" t="n">
-        <v>52.95515124736865</v>
+        <v>28.26093920568436</v>
       </c>
       <c r="G107" t="n">
-        <v>3.435418211991261e-10</v>
+        <v>3.236339814940724e-05</v>
       </c>
       <c r="H107" t="n">
-        <v>10.59103024947373</v>
+        <v>5.652187841136871</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.221645473319603</v>
+        <v>4.926154</v>
       </c>
       <c r="B108" t="n">
-        <v>6.493417820927866e-05</v>
+        <v>60179770297653.23</v>
       </c>
       <c r="C108" t="n">
-        <v>1.476521382613724e-05</v>
+        <v>19406337495512.4</v>
       </c>
       <c r="D108" t="n">
-        <v>1.510574395659447e-06</v>
+        <v>1381794399327.21</v>
       </c>
       <c r="E108" t="n">
-        <v>2.62446048698767e-06</v>
+        <v>2320428367545.656</v>
       </c>
       <c r="F108" t="n">
-        <v>63.50748697749143</v>
+        <v>41.71374826669367</v>
       </c>
       <c r="G108" t="n">
-        <v>2.285230172523863e-12</v>
+        <v>6.730641742377357e-08</v>
       </c>
       <c r="H108" t="n">
-        <v>12.70149739549829</v>
+        <v>8.342749653338734</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.225107699949367</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="B109" t="n">
-        <v>6.479045546313999e-05</v>
+        <v>60499276678115.44</v>
       </c>
       <c r="C109" t="n">
-        <v>2.15126724716237e-05</v>
+        <v>24728361156794.48</v>
       </c>
       <c r="D109" t="n">
-        <v>1.631493345509398e-06</v>
+        <v>1494769643249.542</v>
       </c>
       <c r="E109" t="n">
-        <v>2.880008915888766e-06</v>
+        <v>2533352089618.181</v>
       </c>
       <c r="F109" t="n">
-        <v>94.0771279065688</v>
+        <v>47.61829794999927</v>
       </c>
       <c r="G109" t="n">
-        <v>9.337490149593487e-19</v>
+        <v>4.249724439459618e-09</v>
       </c>
       <c r="H109" t="n">
-        <v>18.81542558131376</v>
+        <v>9.523659589999856</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.230875221043007</v>
+        <v>4.936923</v>
       </c>
       <c r="B110" t="n">
-        <v>6.592158512229151e-05</v>
+        <v>61254929142388.88</v>
       </c>
       <c r="C110" t="n">
-        <v>1.586297342537063e-05</v>
+        <v>19844283485272.75</v>
       </c>
       <c r="D110" t="n">
-        <v>1.570228996601962e-06</v>
+        <v>1428039797036.057</v>
       </c>
       <c r="E110" t="n">
-        <v>2.747989877478941e-06</v>
+        <v>2382903681661.066</v>
       </c>
       <c r="F110" t="n">
-        <v>94.34765832128406</v>
+        <v>53.1199463647355</v>
       </c>
       <c r="G110" t="n">
-        <v>8.19061588964773e-19</v>
+        <v>3.177928422526135e-10</v>
       </c>
       <c r="H110" t="n">
-        <v>18.86953166425681</v>
+        <v>10.6239892729471</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.23929940118424</v>
+        <v>4.946745</v>
       </c>
       <c r="B111" t="n">
-        <v>6.476551955103881e-05</v>
+        <v>59887982922644.89</v>
       </c>
       <c r="C111" t="n">
-        <v>1.371585758805878e-05</v>
+        <v>18741797547715.38</v>
       </c>
       <c r="D111" t="n">
-        <v>1.580400454985823e-06</v>
+        <v>1438591904931.287</v>
       </c>
       <c r="E111" t="n">
-        <v>2.679569748284048e-06</v>
+        <v>2342071742955.288</v>
       </c>
       <c r="F111" t="n">
-        <v>110.786848450853</v>
+        <v>75.04565425237624</v>
       </c>
       <c r="G111" t="n">
-        <v>2.793823317644052e-22</v>
+        <v>9.101083127905455e-15</v>
       </c>
       <c r="H111" t="n">
-        <v>22.1573696901706</v>
+        <v>15.00913085047525</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.24231599468344</v>
+        <v>4.950269</v>
       </c>
       <c r="B112" t="n">
-        <v>6.538817082683214e-05</v>
+        <v>61238184299192.2</v>
       </c>
       <c r="C112" t="n">
-        <v>1.782627287334806e-05</v>
+        <v>23503826196031.11</v>
       </c>
       <c r="D112" t="n">
-        <v>1.684092653024812e-06</v>
+        <v>1537329746661.945</v>
       </c>
       <c r="E112" t="n">
-        <v>2.907382293803881e-06</v>
+        <v>2530151174696.39</v>
       </c>
       <c r="F112" t="n">
-        <v>133.2805005938847</v>
+        <v>81.21785548006876</v>
       </c>
       <c r="G112" t="n">
-        <v>4.788660590664424e-27</v>
+        <v>4.66663341518378e-16</v>
       </c>
       <c r="H112" t="n">
-        <v>26.65610011877693</v>
+        <v>16.24357109601375</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.24787783894759</v>
+        <v>4.956763</v>
       </c>
       <c r="B113" t="n">
-        <v>6.401204042689199e-05</v>
+        <v>59291750688834.68</v>
       </c>
       <c r="C113" t="n">
-        <v>1.478748679858157e-05</v>
+        <v>20398295184836.41</v>
       </c>
       <c r="D113" t="n">
-        <v>1.601930970672371e-06</v>
+        <v>1446412029304.905</v>
       </c>
       <c r="E113" t="n">
-        <v>2.766406660506103e-06</v>
+        <v>2368285947028.117</v>
       </c>
       <c r="F113" t="n">
-        <v>130.4052033980311</v>
+        <v>83.15430439685946</v>
       </c>
       <c r="G113" t="n">
-        <v>1.952464909930978e-26</v>
+        <v>1.834383327979548e-16</v>
       </c>
       <c r="H113" t="n">
-        <v>26.08104067960623</v>
+        <v>16.63086087937189</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.252257041442167</v>
+        <v>4.961869</v>
       </c>
       <c r="B114" t="n">
-        <v>6.590891022862284e-05</v>
+        <v>61531708958874.39</v>
       </c>
       <c r="C114" t="n">
-        <v>1.540281563736167e-05</v>
+        <v>20327279841644.85</v>
       </c>
       <c r="D114" t="n">
-        <v>1.635175338061074e-06</v>
+        <v>1478669613236.529</v>
       </c>
       <c r="E114" t="n">
-        <v>2.792179642211195e-06</v>
+        <v>2417122344986.361</v>
       </c>
       <c r="F114" t="n">
-        <v>127.1396176092893</v>
+        <v>80.00170177354651</v>
       </c>
       <c r="G114" t="n">
-        <v>9.625642666401543e-26</v>
+        <v>8.384948598844118e-16</v>
       </c>
       <c r="H114" t="n">
-        <v>25.42792352185786</v>
+        <v>16.0003403547093</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.25472516339606</v>
+        <v>4.964748</v>
       </c>
       <c r="B115" t="n">
-        <v>6.591357235665067e-05</v>
+        <v>61211028189624.63</v>
       </c>
       <c r="C115" t="n">
-        <v>1.373279660757934e-05</v>
+        <v>20083432471982.55</v>
       </c>
       <c r="D115" t="n">
-        <v>1.672858679808217e-06</v>
+        <v>1516621034986.485</v>
       </c>
       <c r="E115" t="n">
-        <v>2.824581106047681e-06</v>
+        <v>2456990369903.188</v>
       </c>
       <c r="F115" t="n">
-        <v>129.9438672246351</v>
+        <v>86.85345441260824</v>
       </c>
       <c r="G115" t="n">
-        <v>2.44617547220689e-26</v>
+        <v>3.075559961675883e-17</v>
       </c>
       <c r="H115" t="n">
-        <v>25.98877344492703</v>
+        <v>17.37069088252165</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.25739896217944</v>
+        <v>4.967875</v>
       </c>
       <c r="B116" t="n">
-        <v>6.726616934148459e-05</v>
+        <v>61080201523121.17</v>
       </c>
       <c r="C116" t="n">
-        <v>1.470631877596823e-05</v>
+        <v>21804019640176.17</v>
       </c>
       <c r="D116" t="n">
-        <v>1.699674771948197e-06</v>
+        <v>1518501563467.875</v>
       </c>
       <c r="E116" t="n">
-        <v>2.886974296769168e-06</v>
+        <v>2457923568901.006</v>
       </c>
       <c r="F116" t="n">
-        <v>136.9280038291238</v>
+        <v>105.213772281369</v>
       </c>
       <c r="G116" t="n">
-        <v>8.044496220867229e-28</v>
+        <v>4.201173701958181e-21</v>
       </c>
       <c r="H116" t="n">
-        <v>27.38560076582475</v>
+        <v>21.0427544562738</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.259258623512755</v>
+        <v>4.970043</v>
       </c>
       <c r="B117" t="n">
-        <v>7.265859367678066e-05</v>
+        <v>67790370308839.64</v>
       </c>
       <c r="C117" t="n">
-        <v>1.99504983184018e-05</v>
+        <v>25045647096802.69</v>
       </c>
       <c r="D117" t="n">
-        <v>1.876026285415305e-06</v>
+        <v>1705083799239.281</v>
       </c>
       <c r="E117" t="n">
-        <v>3.231190033932877e-06</v>
+        <v>2811914327263.064</v>
       </c>
       <c r="F117" t="n">
-        <v>112.8793706207022</v>
+        <v>68.34517640524331</v>
       </c>
       <c r="G117" t="n">
-        <v>1.008758177118595e-22</v>
+        <v>2.263780096602824e-13</v>
       </c>
       <c r="H117" t="n">
-        <v>22.57587412414043</v>
+        <v>13.66903528104866</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.2616239070519</v>
+        <v>4.9728</v>
       </c>
       <c r="B118" t="n">
-        <v>6.764436471537339e-05</v>
+        <v>63162080968730.62</v>
       </c>
       <c r="C118" t="n">
-        <v>1.660577265204351e-05</v>
+        <v>22897947578084.19</v>
       </c>
       <c r="D118" t="n">
-        <v>1.633881972555723e-06</v>
+        <v>1484762339887.058</v>
       </c>
       <c r="E118" t="n">
-        <v>2.8437832839074e-06</v>
+        <v>2451129548189.821</v>
       </c>
       <c r="F118" t="n">
-        <v>138.7056040869847</v>
+        <v>85.61771690538573</v>
       </c>
       <c r="G118" t="n">
-        <v>3.371160410520498e-28</v>
+        <v>5.586501636095996e-17</v>
       </c>
       <c r="H118" t="n">
-        <v>27.74112081739695</v>
+        <v>17.12354338107715</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.263192192876769</v>
+        <v>4.974629</v>
       </c>
       <c r="B119" t="n">
-        <v>6.797929927121127e-05</v>
+        <v>63212401478370.63</v>
       </c>
       <c r="C119" t="n">
-        <v>1.586208623973152e-05</v>
+        <v>22041309325193.19</v>
       </c>
       <c r="D119" t="n">
-        <v>1.726849086559254e-06</v>
+        <v>1569459962111.631</v>
       </c>
       <c r="E119" t="n">
-        <v>2.918743335970716e-06</v>
+        <v>2544630155421.342</v>
       </c>
       <c r="F119" t="n">
-        <v>135.6430591671486</v>
+        <v>93.19047479370322</v>
       </c>
       <c r="G119" t="n">
-        <v>1.508233038220696e-27</v>
+        <v>1.434583933912226e-18</v>
       </c>
       <c r="H119" t="n">
-        <v>27.12861183342972</v>
+        <v>18.63809495874064</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.271830619715387</v>
+        <v>4.984706</v>
       </c>
       <c r="B120" t="n">
-        <v>6.852365053564085e-05</v>
+        <v>64232583559574.78</v>
       </c>
       <c r="C120" t="n">
-        <v>1.724412653198457e-05</v>
+        <v>23218762527299.23</v>
       </c>
       <c r="D120" t="n">
-        <v>1.683701547729278e-06</v>
+        <v>1532087239258.717</v>
       </c>
       <c r="E120" t="n">
-        <v>2.910946646442044e-06</v>
+        <v>2506146096161.317</v>
       </c>
       <c r="F120" t="n">
-        <v>148.9703519251121</v>
+        <v>95.05515286262977</v>
       </c>
       <c r="G120" t="n">
-        <v>2.211484304133501e-30</v>
+        <v>5.813681212220858e-19</v>
       </c>
       <c r="H120" t="n">
-        <v>29.79407038502242</v>
+        <v>19.01103057252595</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.27642406890735</v>
+        <v>4.990074</v>
       </c>
       <c r="B121" t="n">
-        <v>7.529217058372234e-05</v>
+        <v>70668783788101.12</v>
       </c>
       <c r="C121" t="n">
-        <v>2.362927282285157e-05</v>
+        <v>29843866086119.7</v>
       </c>
       <c r="D121" t="n">
-        <v>1.87210738671179e-06</v>
+        <v>1706545161319.867</v>
       </c>
       <c r="E121" t="n">
-        <v>3.314485258083806e-06</v>
+        <v>2880230009448.638</v>
       </c>
       <c r="F121" t="n">
-        <v>121.9699291862577</v>
+        <v>68.51631114275723</v>
       </c>
       <c r="G121" t="n">
-        <v>1.200609840357322e-24</v>
+        <v>2.085715483231116e-13</v>
       </c>
       <c r="H121" t="n">
-        <v>24.39398583725153</v>
+        <v>13.70326222855145</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.28036620813926</v>
+        <v>4.994669</v>
       </c>
       <c r="B122" t="n">
-        <v>7.085872944221688e-05</v>
+        <v>66711343585244.39</v>
       </c>
       <c r="C122" t="n">
-        <v>2.103424016316835e-05</v>
+        <v>27488267938135.43</v>
       </c>
       <c r="D122" t="n">
-        <v>1.682982806595709e-06</v>
+        <v>1533569195513.32</v>
       </c>
       <c r="E122" t="n">
-        <v>2.995758274610464e-06</v>
+        <v>2573666418945.165</v>
       </c>
       <c r="F122" t="n">
-        <v>147.6093396516894</v>
+        <v>86.26105348348798</v>
       </c>
       <c r="G122" t="n">
-        <v>4.308489097579895e-30</v>
+        <v>4.09454558128538e-17</v>
       </c>
       <c r="H122" t="n">
-        <v>29.52186793033788</v>
+        <v>17.2522106966976</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>4.28891036643103</v>
+        <v>5.004642</v>
       </c>
       <c r="B123" t="n">
-        <v>7.075556341019729e-05</v>
+        <v>67012047940643.72</v>
       </c>
       <c r="C123" t="n">
-        <v>2.221835534723604e-05</v>
+        <v>28838811448714.65</v>
       </c>
       <c r="D123" t="n">
-        <v>1.639801709080596e-06</v>
+        <v>1488991780992.161</v>
       </c>
       <c r="E123" t="n">
-        <v>2.987539449119608e-06</v>
+        <v>2497708852893.902</v>
       </c>
       <c r="F123" t="n">
-        <v>189.0265035883972</v>
+        <v>111.5302798104887</v>
       </c>
       <c r="G123" t="n">
-        <v>6.308023700537886e-39</v>
+        <v>1.945557525753026e-22</v>
       </c>
       <c r="H123" t="n">
-        <v>37.80530071767944</v>
+        <v>22.30605596209774</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>4.293495245755098</v>
+        <v>5.00999</v>
       </c>
       <c r="B124" t="n">
-        <v>8.16471035407756e-05</v>
+        <v>76724921986594.64</v>
       </c>
       <c r="C124" t="n">
-        <v>2.349123489225966e-05</v>
+        <v>29300008319190.95</v>
       </c>
       <c r="D124" t="n">
-        <v>1.957623020032519e-06</v>
+        <v>1791437199997.33</v>
       </c>
       <c r="E124" t="n">
-        <v>3.453007143177601e-06</v>
+        <v>3010602021680.545</v>
       </c>
       <c r="F124" t="n">
-        <v>111.27063637899</v>
+        <v>60.56546083201336</v>
       </c>
       <c r="G124" t="n">
-        <v>2.207667221975228e-22</v>
+        <v>9.286728872514837e-12</v>
       </c>
       <c r="H124" t="n">
-        <v>22.25412727579801</v>
+        <v>12.11309216640267</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>4.297651631684394</v>
+        <v>5.014843</v>
       </c>
       <c r="B125" t="n">
-        <v>8.246776921259479e-05</v>
+        <v>78338596341947.52</v>
       </c>
       <c r="C125" t="n">
-        <v>2.648683980094029e-05</v>
+        <v>34483189978188.18</v>
       </c>
       <c r="D125" t="n">
-        <v>1.939039032510155e-06</v>
+        <v>1771582100925.617</v>
       </c>
       <c r="E125" t="n">
-        <v>3.505570261244887e-06</v>
+        <v>2983051088193.556</v>
       </c>
       <c r="F125" t="n">
-        <v>174.0890019036253</v>
+        <v>98.76274211033768</v>
       </c>
       <c r="G125" t="n">
-        <v>9.783441259633812e-36</v>
+        <v>9.633310557656014e-20</v>
       </c>
       <c r="H125" t="n">
-        <v>34.81780038072506</v>
+        <v>19.75254842206754</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>4.300136893374075</v>
+        <v>5.017737</v>
       </c>
       <c r="B126" t="n">
-        <v>9.489644512682156e-05</v>
+        <v>88726699546809.72</v>
       </c>
       <c r="C126" t="n">
-        <v>2.235059126445612e-05</v>
+        <v>30813614292472.48</v>
       </c>
       <c r="D126" t="n">
-        <v>2.254653767087146e-06</v>
+        <v>2043600532587.375</v>
       </c>
       <c r="E126" t="n">
-        <v>3.910838918032506e-06</v>
+        <v>3337807249416.662</v>
       </c>
       <c r="F126" t="n">
-        <v>151.3535087091413</v>
+        <v>99.99196054234122</v>
       </c>
       <c r="G126" t="n">
-        <v>6.876859312428356e-31</v>
+        <v>5.305808746858562e-20</v>
       </c>
       <c r="H126" t="n">
-        <v>30.27070174182825</v>
+        <v>19.99839210846824</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>4.300239731788821</v>
+        <v>5.017861</v>
       </c>
       <c r="B127" t="n">
-        <v>9.411927999543446e-05</v>
+        <v>87757028866942.48</v>
       </c>
       <c r="C127" t="n">
-        <v>1.953975368384102e-05</v>
+        <v>27668830533904.62</v>
       </c>
       <c r="D127" t="n">
-        <v>2.221295208461134e-06</v>
+        <v>2010811045373.44</v>
       </c>
       <c r="E127" t="n">
-        <v>3.804098689102845e-06</v>
+        <v>3256044608535.913</v>
       </c>
       <c r="F127" t="n">
-        <v>147.5610519020973</v>
+        <v>101.9282750340088</v>
       </c>
       <c r="G127" t="n">
-        <v>4.411642135653214e-30</v>
+        <v>2.072696052991662e-20</v>
       </c>
       <c r="H127" t="n">
-        <v>29.51221038041945</v>
+        <v>20.38565500680177</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>4.30191942589633</v>
+        <v>5.019822</v>
       </c>
       <c r="B128" t="n">
-        <v>0.000115027564360917</v>
+        <v>107000456050445.7</v>
       </c>
       <c r="C128" t="n">
-        <v>1.916723527564069e-05</v>
+        <v>28949338885248</v>
       </c>
       <c r="D128" t="n">
-        <v>2.810949092309407e-06</v>
+        <v>2550467842705.903</v>
       </c>
       <c r="E128" t="n">
-        <v>4.649317952849681e-06</v>
+        <v>4037631518647.91</v>
       </c>
       <c r="F128" t="n">
-        <v>145.4575720674495</v>
+        <v>108.5320150480699</v>
       </c>
       <c r="G128" t="n">
-        <v>1.236342508326379e-29</v>
+        <v>8.369053055708014e-22</v>
       </c>
       <c r="H128" t="n">
-        <v>29.09151441348989</v>
+        <v>21.70640300961399</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>4.306187220108267</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0001933699204103964</v>
+        <v>177927594335961.4</v>
       </c>
       <c r="C129" t="n">
-        <v>3.008835053745724e-05</v>
+        <v>47986322110049.62</v>
       </c>
       <c r="D129" t="n">
-        <v>4.75014088284365e-06</v>
+        <v>4280627971965.367</v>
       </c>
       <c r="E129" t="n">
-        <v>7.858177658696987e-06</v>
+        <v>6876818041168.028</v>
       </c>
       <c r="F129" t="n">
-        <v>99.32538962165178</v>
+        <v>71.13731338172546</v>
       </c>
       <c r="G129" t="n">
-        <v>7.332042266889415e-20</v>
+        <v>5.941234426772401e-14</v>
       </c>
       <c r="H129" t="n">
-        <v>19.86507792433036</v>
+        <v>14.22746267634509</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>4.308783890080591</v>
+        <v>5.027826</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002679028596149305</v>
+        <v>249132912492852.2</v>
       </c>
       <c r="C130" t="n">
-        <v>5.885078039847134e-05</v>
+        <v>75775409051778.86</v>
       </c>
       <c r="D130" t="n">
-        <v>6.305834555889362e-06</v>
+        <v>5762549027839.191</v>
       </c>
       <c r="E130" t="n">
-        <v>1.078819123878905e-05</v>
+        <v>9519062589515.646</v>
       </c>
       <c r="F130" t="n">
-        <v>82.74179212728758</v>
+        <v>50.53329164895032</v>
       </c>
       <c r="G130" t="n">
-        <v>2.23822334141206e-16</v>
+        <v>1.077802134678809e-09</v>
       </c>
       <c r="H130" t="n">
-        <v>16.54835842545751</v>
+        <v>10.10665832979006</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>4.310729250092858</v>
+        <v>5.030101</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002690795765625644</v>
+        <v>249524302535057.6</v>
       </c>
       <c r="C131" t="n">
-        <v>6.007628976323408e-05</v>
+        <v>76616398153274</v>
       </c>
       <c r="D131" t="n">
-        <v>6.540442354480174e-06</v>
+        <v>5955890862019.271</v>
       </c>
       <c r="E131" t="n">
-        <v>1.119300430078681e-05</v>
+        <v>9848275877009.955</v>
       </c>
       <c r="F131" t="n">
-        <v>75.91302789947896</v>
+        <v>46.80968736271218</v>
       </c>
       <c r="G131" t="n">
-        <v>5.998405064853015e-15</v>
+        <v>6.212311767082894e-09</v>
       </c>
       <c r="H131" t="n">
-        <v>15.18260557989579</v>
+        <v>9.361937472542436</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>4.31302597468884</v>
+        <v>5.032781</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002499293986104994</v>
+        <v>230925370487541</v>
       </c>
       <c r="C132" t="n">
-        <v>5.176799842905233e-05</v>
+        <v>71546627460951.47</v>
       </c>
       <c r="D132" t="n">
-        <v>5.987931449174966e-06</v>
+        <v>5434688698349.609</v>
       </c>
       <c r="E132" t="n">
-        <v>1.015374757338543e-05</v>
+        <v>8910874596490.68</v>
       </c>
       <c r="F132" t="n">
-        <v>91.68721307061335</v>
+        <v>61.5093158921315</v>
       </c>
       <c r="G132" t="n">
-        <v>2.970213316078017e-18</v>
+        <v>5.924566648152886e-12</v>
       </c>
       <c r="H132" t="n">
-        <v>18.33744261412267</v>
+        <v>12.3018631784263</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>4.315699773472222</v>
+        <v>5.035899</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002478640705068444</v>
+        <v>230000802422633.2</v>
       </c>
       <c r="C133" t="n">
-        <v>5.170076667848235e-05</v>
+        <v>64527284205019.89</v>
       </c>
       <c r="D133" t="n">
-        <v>5.930526894959408e-06</v>
+        <v>5410235577540.567</v>
       </c>
       <c r="E133" t="n">
-        <v>1.005717937966303e-05</v>
+        <v>8886000352666.797</v>
       </c>
       <c r="F133" t="n">
-        <v>78.77276289963925</v>
+        <v>46.31830595003788</v>
       </c>
       <c r="G133" t="n">
-        <v>1.515399485053738e-15</v>
+        <v>7.822928339235375e-09</v>
       </c>
       <c r="H133" t="n">
-        <v>15.75455257992785</v>
+        <v>9.263661190007577</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>4.318107906350845</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="B134" t="n">
-        <v>0.000242647581279144</v>
+        <v>225888893003620.9</v>
       </c>
       <c r="C134" t="n">
-        <v>4.957782691887208e-05</v>
+        <v>63997430651481.95</v>
       </c>
       <c r="D134" t="n">
-        <v>5.887632652441134e-06</v>
+        <v>5383134155707.109</v>
       </c>
       <c r="E134" t="n">
-        <v>9.975416590791833e-06</v>
+        <v>8800027389781.172</v>
       </c>
       <c r="F134" t="n">
-        <v>80.80327617459275</v>
+        <v>51.41183550173955</v>
       </c>
       <c r="G134" t="n">
-        <v>5.698701024197178e-16</v>
+        <v>7.121351720873079e-10</v>
       </c>
       <c r="H134" t="n">
-        <v>16.16065523491855</v>
+        <v>10.28236710034791</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>4.320910253152659</v>
+        <v>5.041981</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002320701389153958</v>
+        <v>215747402979373.4</v>
       </c>
       <c r="C135" t="n">
-        <v>4.799816746081843e-05</v>
+        <v>58727342153043.3</v>
       </c>
       <c r="D135" t="n">
-        <v>5.807798022849142e-06</v>
+        <v>5350392051399.516</v>
       </c>
       <c r="E135" t="n">
-        <v>9.704172676485453e-06</v>
+        <v>8742581009895.854</v>
       </c>
       <c r="F135" t="n">
-        <v>66.89539868950364</v>
+        <v>39.9161422851902</v>
       </c>
       <c r="G135" t="n">
-        <v>4.529902261039891e-13</v>
+        <v>1.552657811386845e-07</v>
       </c>
       <c r="H135" t="n">
-        <v>13.37907973790073</v>
+        <v>7.98322845703804</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>4.323318386031281</v>
+        <v>5.044789</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002101554414763733</v>
+        <v>194971524762398.8</v>
       </c>
       <c r="C136" t="n">
-        <v>4.80483093413752e-05</v>
+        <v>58097673028752.33</v>
       </c>
       <c r="D136" t="n">
-        <v>5.205144191254453e-06</v>
+        <v>4770522146882.391</v>
       </c>
       <c r="E136" t="n">
-        <v>8.846094457497618e-06</v>
+        <v>7878459658965.663</v>
       </c>
       <c r="F136" t="n">
-        <v>68.01202010772599</v>
+        <v>36.80534207875289</v>
       </c>
       <c r="G136" t="n">
-        <v>2.655136637022638e-13</v>
+        <v>6.552441296463409e-07</v>
       </c>
       <c r="H136" t="n">
-        <v>13.6024040215452</v>
+        <v>7.361068415750578</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>4.327757577601127</v>
+        <v>5.049971</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001586445422794928</v>
+        <v>146849699210334.7</v>
       </c>
       <c r="C137" t="n">
-        <v>5.168036236317796e-05</v>
+        <v>60596610657902.23</v>
       </c>
       <c r="D137" t="n">
-        <v>4.162034350412932e-06</v>
+        <v>3803428394062.313</v>
       </c>
       <c r="E137" t="n">
-        <v>7.297929085699112e-06</v>
+        <v>6480344982599.079</v>
       </c>
       <c r="F137" t="n">
-        <v>66.9767288657917</v>
+        <v>31.30340142442895</v>
       </c>
       <c r="G137" t="n">
-        <v>4.357089236530081e-13</v>
+        <v>8.159822301605777e-06</v>
       </c>
       <c r="H137" t="n">
-        <v>13.39534577315834</v>
+        <v>6.260680284885789</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>4.331931103266214</v>
+        <v>5.054843</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001076873061157266</v>
+        <v>100241251853177.6</v>
       </c>
       <c r="C138" t="n">
-        <v>2.660549186404433e-05</v>
+        <v>34438244112433.72</v>
       </c>
       <c r="D138" t="n">
-        <v>2.929998897383778e-06</v>
+        <v>2662983356221.982</v>
       </c>
       <c r="E138" t="n">
-        <v>4.914465782649802e-06</v>
+        <v>4326916619221.312</v>
       </c>
       <c r="F138" t="n">
-        <v>116.9198180443044</v>
+        <v>67.6599916852325</v>
       </c>
       <c r="G138" t="n">
-        <v>1.409061896225288e-23</v>
+        <v>3.142291121475266e-13</v>
       </c>
       <c r="H138" t="n">
-        <v>23.38396360886089</v>
+        <v>13.5319983370465</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>4.340535250633251</v>
+        <v>5.064876</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002029451633127328</v>
+        <v>192186338856317.1</v>
       </c>
       <c r="C139" t="n">
-        <v>5.442149341150848e-05</v>
+        <v>69700944038280.12</v>
       </c>
       <c r="D139" t="n">
-        <v>4.653100740684974e-06</v>
+        <v>4249894846086.77</v>
       </c>
       <c r="E139" t="n">
-        <v>8.223312202630816e-06</v>
+        <v>7034164689689.83</v>
       </c>
       <c r="F139" t="n">
-        <v>156.020923681402</v>
+        <v>93.44525477932308</v>
       </c>
       <c r="G139" t="n">
-        <v>6.972741621233651e-32</v>
+        <v>1.268066663243466e-18</v>
       </c>
       <c r="H139" t="n">
-        <v>31.20418473628039</v>
+        <v>18.68905095586462</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>4.344845894184665</v>
+        <v>5.069912</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002035147635783434</v>
+        <v>192514770188816.1</v>
       </c>
       <c r="C140" t="n">
-        <v>6.526103411814575e-05</v>
+        <v>80493014015179.5</v>
       </c>
       <c r="D140" t="n">
-        <v>4.678737214546946e-06</v>
+        <v>4275795349633.449</v>
       </c>
       <c r="E140" t="n">
-        <v>8.512144971226946e-06</v>
+        <v>7270157473629.375</v>
       </c>
       <c r="F140" t="n">
-        <v>139.5039668781133</v>
+        <v>74.54193705065495</v>
       </c>
       <c r="G140" t="n">
-        <v>2.280880870562643e-28</v>
+        <v>1.159317161102579e-14</v>
       </c>
       <c r="H140" t="n">
-        <v>27.90079337562265</v>
+        <v>14.90838741013099</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>4.348762323812888</v>
+        <v>5.074481</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0001982984487194139</v>
+        <v>187562271921750.2</v>
       </c>
       <c r="C141" t="n">
-        <v>5.189518194943423e-05</v>
+        <v>67917248008010.35</v>
       </c>
       <c r="D141" t="n">
-        <v>4.42238034881041e-06</v>
+        <v>4019059505833.651</v>
       </c>
       <c r="E141" t="n">
-        <v>7.851616332099914e-06</v>
+        <v>6619282351515.835</v>
       </c>
       <c r="F141" t="n">
-        <v>179.1642733387077</v>
+        <v>117.6493749324278</v>
       </c>
       <c r="G141" t="n">
-        <v>8.070859464935177e-37</v>
+        <v>9.873986911720876e-24</v>
       </c>
       <c r="H141" t="n">
-        <v>35.83285466774153</v>
+        <v>23.52987498648557</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>4.357083665539375</v>
+        <v>5.084189</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001669355606761243</v>
+        <v>160824814333533.6</v>
       </c>
       <c r="C142" t="n">
-        <v>5.653368050793957e-05</v>
+        <v>73168123249072.11</v>
       </c>
       <c r="D142" t="n">
-        <v>3.861167256760606e-06</v>
+        <v>3524766029970.056</v>
       </c>
       <c r="E142" t="n">
-        <v>7.107232199890059e-06</v>
+        <v>5873803083274.53</v>
       </c>
       <c r="F142" t="n">
-        <v>248.7482166387941</v>
+        <v>156.009229354161</v>
       </c>
       <c r="G142" t="n">
-        <v>1.020227404626026e-51</v>
+        <v>7.012853323081751e-32</v>
       </c>
       <c r="H142" t="n">
-        <v>49.74964332775882</v>
+        <v>31.2018458708322</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>4.362054188918739</v>
+        <v>5.089986</v>
       </c>
       <c r="B143" t="n">
-        <v>0.0001673763240695328</v>
+        <v>160475890524692.3</v>
       </c>
       <c r="C143" t="n">
-        <v>5.763972021769394e-05</v>
+        <v>73783473367373.31</v>
       </c>
       <c r="D143" t="n">
-        <v>3.933904195739799e-06</v>
+        <v>3582395030850.305</v>
       </c>
       <c r="E143" t="n">
-        <v>7.177545953530776e-06</v>
+        <v>5943931774491.96</v>
       </c>
       <c r="F143" t="n">
-        <v>252.6772824039872</v>
+        <v>164.0479474630219</v>
       </c>
       <c r="G143" t="n">
-        <v>1.464331516513002e-52</v>
+        <v>1.357167440933556e-33</v>
       </c>
       <c r="H143" t="n">
-        <v>50.53545648079745</v>
+        <v>32.80958949260439</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>4.365250749643743</v>
+        <v>5.093717</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002722616195804295</v>
+        <v>259585655204832.2</v>
       </c>
       <c r="C144" t="n">
-        <v>9.503350565783715e-05</v>
+        <v>129390682708741.8</v>
       </c>
       <c r="D144" t="n">
-        <v>6.974123887688916e-06</v>
+        <v>6270943387071.495</v>
       </c>
       <c r="E144" t="n">
-        <v>1.234411908032624e-05</v>
+        <v>10196931706111.53</v>
       </c>
       <c r="F144" t="n">
-        <v>320.1338863355085</v>
+        <v>230.6587432830433</v>
       </c>
       <c r="G144" t="n">
-        <v>4.684783623313896e-67</v>
+        <v>7.726808856287764e-48</v>
       </c>
       <c r="H144" t="n">
-        <v>64.02677726710169</v>
+        <v>46.13174865660866</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>4.367855989483961</v>
+        <v>5.09676</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003547387752735415</v>
+        <v>345356512099685.9</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0001380236053050464</v>
+        <v>182422454455688.2</v>
       </c>
       <c r="D145" t="n">
-        <v>8.505447176863541e-06</v>
+        <v>7760723068560.444</v>
       </c>
       <c r="E145" t="n">
-        <v>1.583364684027255e-05</v>
+        <v>12896789604203.8</v>
       </c>
       <c r="F145" t="n">
-        <v>334.3012411016172</v>
+        <v>224.4290566952503</v>
       </c>
       <c r="G145" t="n">
-        <v>4.191071871954143e-70</v>
+        <v>1.671395624755164e-46</v>
       </c>
       <c r="H145" t="n">
-        <v>66.86024822032343</v>
+        <v>44.88581133905006</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>4.369681371345694</v>
+        <v>5.098893</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0003429598091457076</v>
+        <v>330819145302352.7</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0001265351532105877</v>
+        <v>171531498177791.7</v>
       </c>
       <c r="D146" t="n">
-        <v>8.721500572786204e-06</v>
+        <v>7897786829138.269</v>
       </c>
       <c r="E146" t="n">
-        <v>1.573998644712421e-05</v>
+        <v>12922585246609.61</v>
       </c>
       <c r="F146" t="n">
-        <v>330.0423397434506</v>
+        <v>229.0589747118225</v>
       </c>
       <c r="G146" t="n">
-        <v>3.458051280915586e-69</v>
+        <v>1.701730813734045e-47</v>
       </c>
       <c r="H146" t="n">
-        <v>66.00846794869011</v>
+        <v>45.8117949423645</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>4.370624056814194</v>
+        <v>5.099991</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0003505669695788032</v>
+        <v>340561241526395.5</v>
       </c>
       <c r="C147" t="n">
-        <v>0.000142282247694838</v>
+        <v>182369875460416.5</v>
       </c>
       <c r="D147" t="n">
-        <v>8.993184542844343e-06</v>
+        <v>8233311434796.641</v>
       </c>
       <c r="E147" t="n">
-        <v>1.635899896715461e-05</v>
+        <v>13591355817812.23</v>
       </c>
       <c r="F147" t="n">
-        <v>310.7191871850373</v>
+        <v>206.7521572205129</v>
       </c>
       <c r="G147" t="n">
-        <v>4.962985873525375e-65</v>
+        <v>1.020045784818267e-42</v>
       </c>
       <c r="H147" t="n">
-        <v>62.14383743700746</v>
+        <v>41.35043144410257</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>4.371001131001594</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003421713729192658</v>
+        <v>333857498791247.5</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0001430027139146019</v>
+        <v>182216765233566.5</v>
       </c>
       <c r="D148" t="n">
-        <v>8.823873314136261e-06</v>
+        <v>8107839423055.688</v>
       </c>
       <c r="E148" t="n">
-        <v>1.62359840962038e-05</v>
+        <v>13392143726435.89</v>
       </c>
       <c r="F148" t="n">
-        <v>320.8514106299208</v>
+        <v>207.4376896647036</v>
       </c>
       <c r="G148" t="n">
-        <v>3.283450720117784e-67</v>
+        <v>7.276020080559477e-43</v>
       </c>
       <c r="H148" t="n">
-        <v>64.17028212598416</v>
+        <v>41.48753793294073</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>4.371241087302666</v>
+        <v>5.100713</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0003467603696558068</v>
+        <v>335716955434642.9</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001247264122232818</v>
+        <v>166942579200100.1</v>
       </c>
       <c r="D149" t="n">
-        <v>8.88855308496157e-06</v>
+        <v>8104876737862.427</v>
       </c>
       <c r="E149" t="n">
-        <v>1.594599567984751e-05</v>
+        <v>13233582695715.48</v>
       </c>
       <c r="F149" t="n">
-        <v>308.8268884240208</v>
+        <v>209.509634144872</v>
       </c>
       <c r="G149" t="n">
-        <v>1.266766744233898e-64</v>
+        <v>2.620532479679301e-43</v>
       </c>
       <c r="H149" t="n">
-        <v>61.76537768480416</v>
+        <v>41.9019268289744</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>4.37310074863598</v>
+        <v>5.102879</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0006542028225954093</v>
+        <v>636902026935316.8</v>
       </c>
       <c r="C150" t="n">
-        <v>0.000277316982201085</v>
+        <v>329809596720318.2</v>
       </c>
       <c r="D150" t="n">
-        <v>1.497685166615172e-05</v>
+        <v>13851635731524.66</v>
       </c>
       <c r="E150" t="n">
-        <v>2.850918707734152e-05</v>
+        <v>23868428867588.2</v>
       </c>
       <c r="F150" t="n">
-        <v>217.4883360387256</v>
+        <v>110.2768158705104</v>
       </c>
       <c r="G150" t="n">
-        <v>5.128110179830101e-45</v>
+        <v>3.580956182030538e-22</v>
       </c>
       <c r="H150" t="n">
-        <v>43.49766720774512</v>
+        <v>22.05536317410208</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>4.37479758247928</v>
+        <v>5.104856</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0007268253324946993</v>
+        <v>699996043468202.9</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0002897306304909606</v>
+        <v>343026311868191.8</v>
       </c>
       <c r="D151" t="n">
-        <v>1.621063382814225e-05</v>
+        <v>14967145710405.3</v>
       </c>
       <c r="E151" t="n">
-        <v>3.064304659509334e-05</v>
+        <v>25946607353611.27</v>
       </c>
       <c r="F151" t="n">
-        <v>171.4324127213885</v>
+        <v>84.30825169876117</v>
       </c>
       <c r="G151" t="n">
-        <v>3.609610564564551e-35</v>
+        <v>1.051186641308155e-16</v>
       </c>
       <c r="H151" t="n">
-        <v>34.28648254427771</v>
+        <v>16.86165033975223</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>4.376545835529954</v>
+        <v>5.106897</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0006843716871230008</v>
+        <v>655532556182160.8</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0002756025977642512</v>
+        <v>327757608061251.9</v>
       </c>
       <c r="D152" t="n">
-        <v>1.546086886936086e-05</v>
+        <v>14215386589243.96</v>
       </c>
       <c r="E152" t="n">
-        <v>2.913673732402635e-05</v>
+        <v>24629645618236.62</v>
       </c>
       <c r="F152" t="n">
-        <v>171.7730115456696</v>
+        <v>85.90502977999606</v>
       </c>
       <c r="G152" t="n">
-        <v>3.053361761474136e-35</v>
+        <v>4.862760430919661e-17</v>
       </c>
       <c r="H152" t="n">
-        <v>34.35460230913392</v>
+        <v>17.18100595599921</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>4.378156970694299</v>
+        <v>5.108781</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0006540353261608462</v>
+        <v>629781489276038.1</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0002680259717036776</v>
+        <v>321065290604655.3</v>
       </c>
       <c r="D153" t="n">
-        <v>1.475934064738753e-05</v>
+        <v>13596191496674.3</v>
       </c>
       <c r="E153" t="n">
-        <v>2.801322231144542e-05</v>
+        <v>23616525750313.59</v>
       </c>
       <c r="F153" t="n">
-        <v>181.5650084851977</v>
+        <v>88.35113391112201</v>
       </c>
       <c r="G153" t="n">
-        <v>2.478462044040486e-37</v>
+        <v>1.491397737392502e-17</v>
       </c>
       <c r="H153" t="n">
-        <v>36.31300169703954</v>
+        <v>17.6702267822244</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>4.379236774049127</v>
+        <v>5.110037</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0006621849225470202</v>
+        <v>636298557983246.4</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0002791319970731704</v>
+        <v>330615305925712.9</v>
       </c>
       <c r="D154" t="n">
-        <v>1.499449469441076e-05</v>
+        <v>13821334435570.14</v>
       </c>
       <c r="E154" t="n">
-        <v>2.848944676821733e-05</v>
+        <v>24133019318161.28</v>
       </c>
       <c r="F154" t="n">
-        <v>173.3399153414659</v>
+        <v>83.46698881666059</v>
       </c>
       <c r="G154" t="n">
-        <v>1.413763424976954e-35</v>
+        <v>1.577533472656879e-16</v>
       </c>
       <c r="H154" t="n">
-        <v>34.66798306829317</v>
+        <v>16.69339776333212</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>4.379845234669704</v>
+        <v>5.11075</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006269648639501614</v>
+        <v>603876330760536.2</v>
       </c>
       <c r="C155" t="n">
-        <v>0.000259439148905647</v>
+        <v>310719797169965.5</v>
       </c>
       <c r="D155" t="n">
-        <v>1.427066172641574e-05</v>
+        <v>13158077177835.44</v>
       </c>
       <c r="E155" t="n">
-        <v>2.707081509366289e-05</v>
+        <v>22944430731122.41</v>
       </c>
       <c r="F155" t="n">
-        <v>168.5234839825518</v>
+        <v>78.28758792779905</v>
       </c>
       <c r="G155" t="n">
-        <v>1.506981208121797e-34</v>
+        <v>1.914070570591868e-15</v>
       </c>
       <c r="H155" t="n">
-        <v>33.70469679651036</v>
+        <v>15.65751758555981</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>4.382493323849399</v>
+        <v>5.113839</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0005994076380661236</v>
+        <v>573065706095057.5</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0002374539038740588</v>
+        <v>285135732179341.2</v>
       </c>
       <c r="D156" t="n">
-        <v>1.349610908320544e-05</v>
+        <v>12396276709329.29</v>
       </c>
       <c r="E156" t="n">
-        <v>2.546996420552527e-05</v>
+        <v>21623448066681.41</v>
       </c>
       <c r="F156" t="n">
-        <v>154.8782567538294</v>
+        <v>73.10066912202768</v>
       </c>
       <c r="G156" t="n">
-        <v>1.221246016819255e-31</v>
+        <v>2.316276544566193e-14</v>
       </c>
       <c r="H156" t="n">
-        <v>30.97565135076587</v>
+        <v>14.62013382440554</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>4.386743978325545</v>
+        <v>5.118804</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005110245402612046</v>
+        <v>486577191997393.2</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0001982771555675329</v>
+        <v>227276541323455.2</v>
       </c>
       <c r="D157" t="n">
-        <v>1.127044558029808e-05</v>
+        <v>10396747741815.97</v>
       </c>
       <c r="E157" t="n">
-        <v>2.11312860177912e-05</v>
+        <v>18328775412149.64</v>
       </c>
       <c r="F157" t="n">
-        <v>110.2765294673183</v>
+        <v>44.26159274940616</v>
       </c>
       <c r="G157" t="n">
-        <v>3.581455315778581e-22</v>
+        <v>2.049590624445579e-08</v>
       </c>
       <c r="H157" t="n">
-        <v>22.05530589346366</v>
+        <v>8.852318549881232</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>4.391003202669586</v>
+        <v>5.123773</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0003762767368044998</v>
+        <v>355271681306448.6</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0001393863536846151</v>
+        <v>157974929395128.9</v>
       </c>
       <c r="D158" t="n">
-        <v>8.704039279345711e-06</v>
+        <v>8021119350351.002</v>
       </c>
       <c r="E158" t="n">
-        <v>1.602886624749522e-05</v>
+        <v>14161696604384.15</v>
       </c>
       <c r="F158" t="n">
-        <v>78.05301478502588</v>
+        <v>24.95513986353176</v>
       </c>
       <c r="G158" t="n">
-        <v>2.142838125261891e-15</v>
+        <v>0.0001421403312181182</v>
       </c>
       <c r="H158" t="n">
-        <v>15.61060295700518</v>
+        <v>4.991027972706352</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>4.395073889919927</v>
+        <v>5.128523</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002198586889370251</v>
+        <v>205832322016140.3</v>
       </c>
       <c r="C159" t="n">
-        <v>7.969443418543459e-05</v>
+        <v>88871103252407.09</v>
       </c>
       <c r="D159" t="n">
-        <v>5.168333034144579e-06</v>
+        <v>4763101036530.323</v>
       </c>
       <c r="E159" t="n">
-        <v>9.463811287899718e-06</v>
+        <v>8464140930714.955</v>
       </c>
       <c r="F159" t="n">
-        <v>56.18626464865432</v>
+        <v>14.6317464828504</v>
       </c>
       <c r="G159" t="n">
-        <v>7.439563600886074e-11</v>
+        <v>0.01205735444590439</v>
       </c>
       <c r="H159" t="n">
-        <v>11.23725292973086</v>
+        <v>2.926349296570079</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>4.396290811161082</v>
+        <v>5.129939</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002302346321972222</v>
+        <v>216685973591593.8</v>
       </c>
       <c r="C160" t="n">
-        <v>9.385461246170542e-05</v>
+        <v>104590225986105.8</v>
       </c>
       <c r="D160" t="n">
-        <v>5.66978292344013e-06</v>
+        <v>5244864720724.182</v>
       </c>
       <c r="E160" t="n">
-        <v>1.047646604741655e-05</v>
+        <v>9368539716396.523</v>
       </c>
       <c r="F160" t="n">
-        <v>66.40829584354766</v>
+        <v>18.79842006142934</v>
       </c>
       <c r="G160" t="n">
-        <v>5.71796688095568e-13</v>
+        <v>0.002095564049498168</v>
       </c>
       <c r="H160" t="n">
-        <v>13.28165916870953</v>
+        <v>3.759684012285868</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>4.399607350036622</v>
+        <v>5.133811</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001251690136377569</v>
+        <v>116677157076684.5</v>
       </c>
       <c r="C161" t="n">
-        <v>3.465069766238465e-05</v>
+        <v>41315562946060.26</v>
       </c>
       <c r="D161" t="n">
-        <v>3.26617124756669e-06</v>
+        <v>3039913520894.838</v>
       </c>
       <c r="E161" t="n">
-        <v>5.616965198249223e-06</v>
+        <v>5144599387140.7</v>
       </c>
       <c r="F161" t="n">
-        <v>50.62489273363342</v>
+        <v>19.70546513575149</v>
       </c>
       <c r="G161" t="n">
-        <v>1.032243662266751e-09</v>
+        <v>0.001419151331024608</v>
       </c>
       <c r="H161" t="n">
-        <v>10.12497854672668</v>
+        <v>3.941093027150298</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>4.403952273059619</v>
+        <v>5.138881</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001109284952975549</v>
+        <v>101923568399422.5</v>
       </c>
       <c r="C162" t="n">
-        <v>1.805351736194373e-05</v>
+        <v>26148292649751.39</v>
       </c>
       <c r="D162" t="n">
-        <v>3.139514328798174e-06</v>
+        <v>2848122697815.017</v>
       </c>
       <c r="E162" t="n">
-        <v>5.106510794688946e-06</v>
+        <v>4588249455405.851</v>
       </c>
       <c r="F162" t="n">
-        <v>62.57010734303685</v>
+        <v>39.06264296370399</v>
       </c>
       <c r="G162" t="n">
-        <v>3.573506520320892e-12</v>
+        <v>2.306876716964259e-07</v>
       </c>
       <c r="H162" t="n">
-        <v>12.51402146860737</v>
+        <v>7.812528592740797</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>4.406326126466659</v>
+        <v>5.141653</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001123220473085183</v>
+        <v>103178295857413.6</v>
       </c>
       <c r="C163" t="n">
-        <v>1.86920886192125e-05</v>
+        <v>27721939272426.36</v>
       </c>
       <c r="D163" t="n">
-        <v>3.057351445797478e-06</v>
+        <v>2807255100796.003</v>
       </c>
       <c r="E163" t="n">
-        <v>4.977788982201314e-06</v>
+        <v>4468667178339.253</v>
       </c>
       <c r="F163" t="n">
-        <v>82.70116223860012</v>
+        <v>62.43053634645833</v>
       </c>
       <c r="G163" t="n">
-        <v>2.282515643898426e-16</v>
+        <v>3.819381679788121e-12</v>
       </c>
       <c r="H163" t="n">
-        <v>16.54023244772002</v>
+        <v>12.48610726929167</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>4.408974215646356</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001101393051976063</v>
+        <v>100964301934609.5</v>
       </c>
       <c r="C164" t="n">
-        <v>1.573201583310333e-05</v>
+        <v>26815739336271.94</v>
       </c>
       <c r="D164" t="n">
-        <v>3.03787421739749e-06</v>
+        <v>2747003996692.015</v>
       </c>
       <c r="E164" t="n">
-        <v>4.88963114575898e-06</v>
+        <v>4351198335422.338</v>
       </c>
       <c r="F164" t="n">
-        <v>103.0273418774964</v>
+        <v>74.94332852291002</v>
       </c>
       <c r="G164" t="n">
-        <v>1.215424611569243e-20</v>
+        <v>9.559768000787002e-15</v>
       </c>
       <c r="H164" t="n">
-        <v>20.60546837549927</v>
+        <v>14.988665704582</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>4.411759422712378</v>
+        <v>5.147988</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001083747073024695</v>
+        <v>99940503042763.84</v>
       </c>
       <c r="C165" t="n">
-        <v>1.4503338137405e-05</v>
+        <v>22371892236100.36</v>
       </c>
       <c r="D165" t="n">
-        <v>3.109880031698105e-06</v>
+        <v>2843376326318.008</v>
       </c>
       <c r="E165" t="n">
-        <v>4.928917088455171e-06</v>
+        <v>4339711036089.026</v>
       </c>
       <c r="F165" t="n">
-        <v>131.6393671231925</v>
+        <v>106.1393681652889</v>
       </c>
       <c r="G165" t="n">
-        <v>1.068147793476448e-26</v>
+        <v>2.679038562968809e-21</v>
       </c>
       <c r="H165" t="n">
-        <v>26.32787342463849</v>
+        <v>21.22787363305777</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>4.41349053602726</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001154824976402236</v>
+        <v>104700183336345.3</v>
       </c>
       <c r="C166" t="n">
-        <v>1.685413197100742e-05</v>
+        <v>23958758516263.2</v>
       </c>
       <c r="D166" t="n">
-        <v>3.375139048526922e-06</v>
+        <v>3075605334099.37</v>
       </c>
       <c r="E166" t="n">
-        <v>5.336699783791273e-06</v>
+        <v>4727858804408.922</v>
       </c>
       <c r="F166" t="n">
-        <v>100.9438839631101</v>
+        <v>92.69160167028457</v>
       </c>
       <c r="G166" t="n">
-        <v>3.342680127449337e-20</v>
+        <v>1.82655431548573e-18</v>
       </c>
       <c r="H166" t="n">
-        <v>20.18877679262201</v>
+        <v>18.53832033405691</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>4.414321813213119</v>
+        <v>5.150983</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001125802204874998</v>
+        <v>102540583648441.9</v>
       </c>
       <c r="C167" t="n">
-        <v>1.42494178239897e-05</v>
+        <v>21335211052973.05</v>
       </c>
       <c r="D167" t="n">
-        <v>2.996906815357302e-06</v>
+        <v>2728619719106.95</v>
       </c>
       <c r="E167" t="n">
-        <v>4.789319911181849e-06</v>
+        <v>4151143105119.75</v>
       </c>
       <c r="F167" t="n">
-        <v>137.496232009499</v>
+        <v>125.8583236208406</v>
       </c>
       <c r="G167" t="n">
-        <v>6.092119585308372e-28</v>
+        <v>1.799551315637895e-25</v>
       </c>
       <c r="H167" t="n">
-        <v>27.49924640189981</v>
+        <v>25.17166472416812</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>4.419515153157765</v>
+        <v>5.15704</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001147936710757347</v>
+        <v>105240768539843.1</v>
       </c>
       <c r="C168" t="n">
-        <v>1.196951203790714e-05</v>
+        <v>23167978368670.94</v>
       </c>
       <c r="D168" t="n">
-        <v>3.004151185194284e-06</v>
+        <v>2687504925930.792</v>
       </c>
       <c r="E168" t="n">
-        <v>4.797441700433694e-06</v>
+        <v>4089094746600.977</v>
       </c>
       <c r="F168" t="n">
-        <v>177.9311315783576</v>
+        <v>152.4937639566749</v>
       </c>
       <c r="G168" t="n">
-        <v>1.479939698142317e-36</v>
+        <v>3.931989137693087e-31</v>
       </c>
       <c r="H168" t="n">
-        <v>35.58622631567151</v>
+        <v>30.49875279133498</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>4.421511932377406</v>
+        <v>5.159375</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001184721577532267</v>
+        <v>110968764210782.1</v>
       </c>
       <c r="C169" t="n">
-        <v>2.010280567303975e-05</v>
+        <v>30840458031817.12</v>
       </c>
       <c r="D169" t="n">
-        <v>2.963318065982796e-06</v>
+        <v>2693209738841.251</v>
       </c>
       <c r="E169" t="n">
-        <v>4.903370002000894e-06</v>
+        <v>4186340896089.106</v>
       </c>
       <c r="F169" t="n">
-        <v>205.4673502469038</v>
+        <v>158.4385114348121</v>
       </c>
       <c r="G169" t="n">
-        <v>1.921278496280182e-42</v>
+        <v>2.129714208612615e-32</v>
       </c>
       <c r="H169" t="n">
-        <v>41.09347004938076</v>
+        <v>31.68770228696242</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>4.430664551289752</v>
+        <v>5.170048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001216528116698911</v>
+        <v>110873443497125.9</v>
       </c>
       <c r="C170" t="n">
-        <v>2.913893563984929e-05</v>
+        <v>43928933763278.14</v>
       </c>
       <c r="D170" t="n">
-        <v>3.122885166024709e-06</v>
+        <v>2772042908486.633</v>
       </c>
       <c r="E170" t="n">
-        <v>5.308832263514747e-06</v>
+        <v>4462381511245.012</v>
       </c>
       <c r="F170" t="n">
-        <v>186.5178763488797</v>
+        <v>143.214583033581</v>
       </c>
       <c r="G170" t="n">
-        <v>2.167822122399295e-38</v>
+        <v>3.708628557173354e-29</v>
       </c>
       <c r="H170" t="n">
-        <v>37.30357526977593</v>
+        <v>28.64291660671619</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>4.447624319854858</v>
+        <v>5.189844</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001284794274630123</v>
+        <v>121879463502299.4</v>
       </c>
       <c r="C171" t="n">
-        <v>3.343176525198422e-05</v>
+        <v>47042612514188.97</v>
       </c>
       <c r="D171" t="n">
-        <v>3.054979443856595e-06</v>
+        <v>2752950624249.73</v>
       </c>
       <c r="E171" t="n">
-        <v>5.366108593540782e-06</v>
+        <v>4419823146413.23</v>
       </c>
       <c r="F171" t="n">
-        <v>272.1307092110679</v>
+        <v>199.6183617218209</v>
       </c>
       <c r="G171" t="n">
-        <v>9.757337018199863e-57</v>
+        <v>3.428099439260856e-41</v>
       </c>
       <c r="H171" t="n">
-        <v>54.42614184221359</v>
+        <v>39.92367234436417</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>4.464926883135782</v>
+        <v>5.210028</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001541128611166737</v>
+        <v>146129313937757.6</v>
       </c>
       <c r="C172" t="n">
-        <v>4.058723831781158e-05</v>
+        <v>58916998073816.86</v>
       </c>
       <c r="D172" t="n">
-        <v>3.734302714120335e-06</v>
+        <v>3337754999108.782</v>
       </c>
       <c r="E172" t="n">
-        <v>6.536396457005888e-06</v>
+        <v>5293643488491.182</v>
       </c>
       <c r="F172" t="n">
-        <v>342.7734177799659</v>
+        <v>263.6030224152196</v>
       </c>
       <c r="G172" t="n">
-        <v>6.292496682507181e-72</v>
+        <v>6.614675039207035e-55</v>
       </c>
       <c r="H172" t="n">
-        <v>68.55468355599318</v>
+        <v>52.72060448304393</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>4.482066618926692</v>
+        <v>5.230028</v>
       </c>
       <c r="B173" t="n">
-        <v>0.0001903361370573611</v>
+        <v>179603202698045.9</v>
       </c>
       <c r="C173" t="n">
-        <v>4.84023173876121e-05</v>
+        <v>76386009287519.94</v>
       </c>
       <c r="D173" t="n">
-        <v>5.023653244487302e-06</v>
+        <v>4436368675727.724</v>
       </c>
       <c r="E173" t="n">
-        <v>8.610626102260265e-06</v>
+        <v>6842546337584.953</v>
       </c>
       <c r="F173" t="n">
-        <v>465.8063593235711</v>
+        <v>387.2261261800922</v>
       </c>
       <c r="G173" t="n">
-        <v>1.911415997013199e-98</v>
+        <v>1.678963098222623e-81</v>
       </c>
       <c r="H173" t="n">
-        <v>93.16127186471422</v>
+        <v>77.44522523601844</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>4.490182283823687</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002341794662991076</v>
+        <v>218666549434183.9</v>
       </c>
       <c r="C174" t="n">
-        <v>3.385678188748561e-05</v>
+        <v>67733337250358.14</v>
       </c>
       <c r="D174" t="n">
-        <v>6.050897569627322e-06</v>
+        <v>5243510090966.902</v>
       </c>
       <c r="E174" t="n">
-        <v>9.964296140937227e-06</v>
+        <v>7733803242224.741</v>
       </c>
       <c r="F174" t="n">
-        <v>616.6028337383925</v>
+        <v>558.3038011028889</v>
       </c>
       <c r="G174" t="n">
-        <v>5.227984071704266e-131</v>
+        <v>2.057435410292489e-118</v>
       </c>
       <c r="H174" t="n">
-        <v>123.3205667476785</v>
+        <v>111.6607602205778</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>4.493233156794469</v>
+        <v>5.243064</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002489290899402904</v>
+        <v>237676137634748.3</v>
       </c>
       <c r="C175" t="n">
-        <v>5.677506743422109e-05</v>
+        <v>92458640066649.83</v>
       </c>
       <c r="D175" t="n">
-        <v>6.949546246021759e-06</v>
+        <v>6101839911860.406</v>
       </c>
       <c r="E175" t="n">
-        <v>1.165975531697466e-05</v>
+        <v>9091464964640.92</v>
       </c>
       <c r="F175" t="n">
-        <v>612.3615118138696</v>
+        <v>527.6434164752384</v>
       </c>
       <c r="G175" t="n">
-        <v>4.31363879253148e-130</v>
+        <v>8.599721752607724e-112</v>
       </c>
       <c r="H175" t="n">
-        <v>122.4723023627739</v>
+        <v>105.5286832950477</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>4.499292053396556</v>
+        <v>5.250129</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0003138860208621048</v>
+        <v>289940393035783.3</v>
       </c>
       <c r="C176" t="n">
-        <v>3.224765642356335e-05</v>
+        <v>80025876787520.88</v>
       </c>
       <c r="D176" t="n">
-        <v>9.387311138247008e-06</v>
+        <v>8027751360626.245</v>
       </c>
       <c r="E176" t="n">
-        <v>1.464049930959468e-05</v>
+        <v>11345052586024.31</v>
       </c>
       <c r="F176" t="n">
-        <v>684.6741231316616</v>
+        <v>631.2749227766484</v>
       </c>
       <c r="G176" t="n">
-        <v>1.011228777822017e-145</v>
+        <v>3.52858921587149e-134</v>
       </c>
       <c r="H176" t="n">
-        <v>136.9348246263323</v>
+        <v>126.2549845553297</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>4.507699093801998</v>
+        <v>5.25994</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0003925595370296903</v>
+        <v>368313306859622.8</v>
       </c>
       <c r="C177" t="n">
-        <v>5.833830131261235e-05</v>
+        <v>118054236432105.2</v>
       </c>
       <c r="D177" t="n">
-        <v>1.150777973143557e-05</v>
+        <v>9931181597753.172</v>
       </c>
       <c r="E177" t="n">
-        <v>1.847901764635301e-05</v>
+        <v>14224943456146.97</v>
       </c>
       <c r="F177" t="n">
-        <v>726.338568468154</v>
+        <v>661.7846082205525</v>
       </c>
       <c r="G177" t="n">
-        <v>9.906126199084924e-155</v>
+        <v>8.977579737431684e-141</v>
       </c>
       <c r="H177" t="n">
-        <v>145.2677136936308</v>
+        <v>132.3569216441105</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>4.512069726428679</v>
+        <v>5.26504</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004450333460216758</v>
+        <v>403980913321436.1</v>
       </c>
       <c r="C178" t="n">
-        <v>6.657145161838068e-05</v>
+        <v>146995144548707.6</v>
       </c>
       <c r="D178" t="n">
-        <v>1.343049868710645e-05</v>
+        <v>11227082490237.64</v>
       </c>
       <c r="E178" t="n">
-        <v>2.129139440266906e-05</v>
+        <v>16266814625118.01</v>
       </c>
       <c r="F178" t="n">
-        <v>655.3030766309308</v>
+        <v>604.7349680390739</v>
       </c>
       <c r="G178" t="n">
-        <v>2.260547999802638e-139</v>
+        <v>1.917738097263153e-128</v>
       </c>
       <c r="H178" t="n">
-        <v>131.0606153261862</v>
+        <v>120.9469936078148</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>4.516303241169035</v>
+        <v>5.269983</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0004850450526393232</v>
+        <v>461442893035064.6</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0001214178799126879</v>
+        <v>204110406521195.9</v>
       </c>
       <c r="D179" t="n">
-        <v>1.413628954524163e-05</v>
+        <v>12352039514961.3</v>
       </c>
       <c r="E179" t="n">
-        <v>2.372563931414852e-05</v>
+        <v>18487168477373.68</v>
       </c>
       <c r="F179" t="n">
-        <v>634.3784480091279</v>
+        <v>552.2474725412839</v>
       </c>
       <c r="G179" t="n">
-        <v>7.531195197460415e-135</v>
+        <v>4.181783281727638e-117</v>
       </c>
       <c r="H179" t="n">
-        <v>126.8756896018256</v>
+        <v>110.4494945082568</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>4.520571035380971</v>
+        <v>5.27496</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0005979253353405561</v>
+        <v>585984718244279.1</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0002264881034923581</v>
+        <v>325143696365002.5</v>
       </c>
       <c r="D180" t="n">
-        <v>1.659768758796507e-05</v>
+        <v>14803325014146.67</v>
       </c>
       <c r="E180" t="n">
-        <v>2.983684395834257e-05</v>
+        <v>23288236266705.8</v>
       </c>
       <c r="F180" t="n">
-        <v>586.483808223417</v>
+        <v>466.4908166703249</v>
       </c>
       <c r="G180" t="n">
-        <v>1.682990421244657e-124</v>
+        <v>1.360440727212874e-98</v>
       </c>
       <c r="H180" t="n">
-        <v>117.2967616446834</v>
+        <v>93.29816333406498</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>4.520622454588343</v>
+        <v>5.275024</v>
       </c>
       <c r="B181" t="n">
-        <v>0.0005929866895078468</v>
+        <v>592821061445864</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0002291442649288473</v>
+        <v>307385683439280.1</v>
       </c>
       <c r="D181" t="n">
-        <v>1.532216714818767e-05</v>
+        <v>13900965616677.36</v>
       </c>
       <c r="E181" t="n">
-        <v>2.839930979299488e-05</v>
+        <v>22023761490033.41</v>
       </c>
       <c r="F181" t="n">
-        <v>621.0035021533083</v>
+        <v>490.3509684639944</v>
       </c>
       <c r="G181" t="n">
-        <v>5.852738246679302e-132</v>
+        <v>9.657701661535651e-104</v>
       </c>
       <c r="H181" t="n">
-        <v>124.2007004306617</v>
+        <v>98.07019369279888</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>4.524727421310266</v>
+        <v>5.279812000000001</v>
       </c>
       <c r="B182" t="n">
-        <v>0.0009759076295828689</v>
+        <v>959077079915081.9</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0003929361054888888</v>
+        <v>524170500703731.4</v>
       </c>
       <c r="D182" t="n">
-        <v>2.493041605046962e-05</v>
+        <v>22667324083931.08</v>
       </c>
       <c r="E182" t="n">
-        <v>4.629092650619801e-05</v>
+        <v>36785951026601.34</v>
       </c>
       <c r="F182" t="n">
-        <v>444.6561882157954</v>
+        <v>319.7581068825918</v>
       </c>
       <c r="G182" t="n">
-        <v>6.981000307030786e-94</v>
+        <v>5.643241703603941e-67</v>
       </c>
       <c r="H182" t="n">
-        <v>88.93123764315908</v>
+        <v>63.95162137651837</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>4.529132333408531</v>
+        <v>5.284953</v>
       </c>
       <c r="B183" t="n">
-        <v>0.001228599817727791</v>
+        <v>1219127623090797</v>
       </c>
       <c r="C183" t="n">
-        <v>0.0005374568595079853</v>
+        <v>673238474638393.2</v>
       </c>
       <c r="D183" t="n">
-        <v>3.068404157218137e-05</v>
+        <v>28217443720159.14</v>
       </c>
       <c r="E183" t="n">
-        <v>5.803841791885037e-05</v>
+        <v>46588242794350.66</v>
       </c>
       <c r="F183" t="n">
-        <v>397.1404554618487</v>
+        <v>260.6180527876738</v>
       </c>
       <c r="G183" t="n">
-        <v>1.226188780536388e-83</v>
+        <v>2.892837168280742e-54</v>
       </c>
       <c r="H183" t="n">
-        <v>79.42809109236973</v>
+        <v>52.12361055753477</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>4.533597234582063</v>
+        <v>5.290161</v>
       </c>
       <c r="B184" t="n">
-        <v>0.001588762909920308</v>
+        <v>1603168908811466</v>
       </c>
       <c r="C184" t="n">
-        <v>0.0007522166145965671</v>
+        <v>931037164753145.5</v>
       </c>
       <c r="D184" t="n">
-        <v>3.690992393475347e-05</v>
+        <v>34413569857301.38</v>
       </c>
       <c r="E184" t="n">
-        <v>7.306031354382225e-05</v>
+        <v>58262410179519.92</v>
       </c>
       <c r="F184" t="n">
-        <v>402.9814404055689</v>
+        <v>249.3830528888864</v>
       </c>
       <c r="G184" t="n">
-        <v>6.755655804820182e-85</v>
+        <v>7.455747776755349e-52</v>
       </c>
       <c r="H184" t="n">
-        <v>80.59628808111378</v>
+        <v>49.87661057777727</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>4.535979657856999</v>
+        <v>5.292942</v>
       </c>
       <c r="B185" t="n">
-        <v>0.001795324444346188</v>
+        <v>1844480679654479</v>
       </c>
       <c r="C185" t="n">
-        <v>0.000968400702982852</v>
+        <v>1186090612133688</v>
       </c>
       <c r="D185" t="n">
-        <v>4.147185987693301e-05</v>
+        <v>39254301210593.57</v>
       </c>
       <c r="E185" t="n">
-        <v>8.486316209133199e-05</v>
+        <v>67718319401053.91</v>
       </c>
       <c r="F185" t="n">
-        <v>426.2962749945258</v>
+        <v>247.4200143532308</v>
       </c>
       <c r="G185" t="n">
-        <v>6.358854025728679e-90</v>
+        <v>1.966313348288559e-51</v>
       </c>
       <c r="H185" t="n">
-        <v>85.25925499890516</v>
+        <v>49.48400287064617</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>4.540033205371549</v>
+        <v>5.297674</v>
       </c>
       <c r="B186" t="n">
-        <v>0.001791629854664804</v>
+        <v>1826208208929137</v>
       </c>
       <c r="C186" t="n">
-        <v>0.0009078017689135725</v>
+        <v>1103594950355685</v>
       </c>
       <c r="D186" t="n">
-        <v>4.013007832917286e-05</v>
+        <v>37850794469938.26</v>
       </c>
       <c r="E186" t="n">
-        <v>8.189568306278536e-05</v>
+        <v>65149152719398.9</v>
       </c>
       <c r="F186" t="n">
-        <v>401.920810405946</v>
+        <v>236.2352212059449</v>
       </c>
       <c r="G186" t="n">
-        <v>1.143594547200074e-84</v>
+        <v>4.926207553272678e-49</v>
       </c>
       <c r="H186" t="n">
-        <v>80.3841620811892</v>
+        <v>47.24704424118897</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>4.541790028290118</v>
+        <v>5.299721</v>
       </c>
       <c r="B187" t="n">
-        <v>0.0017777066569553</v>
+        <v>1776605888160031</v>
       </c>
       <c r="C187" t="n">
-        <v>0.00079924075881021</v>
+        <v>1001547403557357</v>
       </c>
       <c r="D187" t="n">
-        <v>4.020893689073119e-05</v>
+        <v>37411116888617.91</v>
       </c>
       <c r="E187" t="n">
-        <v>7.897400794408568e-05</v>
+        <v>63427669440504.9</v>
       </c>
       <c r="F187" t="n">
-        <v>387.2722796608293</v>
+        <v>244.7251372695669</v>
       </c>
       <c r="G187" t="n">
-        <v>1.640953560998819e-81</v>
+        <v>7.443226398780751e-51</v>
       </c>
       <c r="H187" t="n">
-        <v>77.45445593216587</v>
+        <v>48.94502745391339</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>4.54406961315031</v>
+        <v>5.302376000000001</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001836038636691162</v>
+        <v>1839475446085985</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0008678603260750631</v>
+        <v>1054909776941105</v>
       </c>
       <c r="D188" t="n">
-        <v>4.105263146305876e-05</v>
+        <v>38370233208371.54</v>
       </c>
       <c r="E188" t="n">
-        <v>8.192015236556255e-05</v>
+        <v>65958742481076.8</v>
       </c>
       <c r="F188" t="n">
-        <v>343.1065805460393</v>
+        <v>198.3809645257247</v>
       </c>
       <c r="G188" t="n">
-        <v>5.334660782594167e-72</v>
+        <v>6.30580545041207e-41</v>
       </c>
       <c r="H188" t="n">
-        <v>68.62131610920785</v>
+        <v>39.67619290514493</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>4.54908298586915</v>
+        <v>5.308233</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001462098442090644</v>
+        <v>1475766423396592</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0007188815304501219</v>
+        <v>867647520687458.2</v>
       </c>
       <c r="D189" t="n">
-        <v>3.20842988339113e-05</v>
+        <v>30184535408508.74</v>
       </c>
       <c r="E189" t="n">
-        <v>6.522391207998216e-05</v>
+        <v>52390853892514.6</v>
       </c>
       <c r="F189" t="n">
-        <v>345.522302615674</v>
+        <v>188.9039970964166</v>
       </c>
       <c r="G189" t="n">
-        <v>1.610955381357429e-72</v>
+        <v>6.700039734033338e-39</v>
       </c>
       <c r="H189" t="n">
-        <v>69.1044605231348</v>
+        <v>37.78079941928332</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>4.553067974440538</v>
+        <v>5.312876</v>
       </c>
       <c r="B190" t="n">
-        <v>0.001140985513512608</v>
+        <v>1135258527333514</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0005415071619636033</v>
+        <v>653652480378993</v>
       </c>
       <c r="D190" t="n">
-        <v>2.519741428528452e-05</v>
+        <v>23539038509069.3</v>
       </c>
       <c r="E190" t="n">
-        <v>5.030784988334381e-05</v>
+        <v>40938893708545.15</v>
       </c>
       <c r="F190" t="n">
-        <v>297.03802817659</v>
+        <v>160.0772594483654</v>
       </c>
       <c r="G190" t="n">
-        <v>4.33937747000217e-62</v>
+        <v>9.529967149456646e-33</v>
       </c>
       <c r="H190" t="n">
-        <v>59.407605635318</v>
+        <v>32.01545188967307</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>4.557044393144028</v>
+        <v>5.317521</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0008570618964552284</v>
+        <v>840206046920531.4</v>
       </c>
       <c r="C191" t="n">
-        <v>0.000375929590665587</v>
+        <v>448196179467593.5</v>
       </c>
       <c r="D191" t="n">
-        <v>1.892068234458002e-05</v>
+        <v>17589800300491.72</v>
       </c>
       <c r="E191" t="n">
-        <v>3.681674343696322e-05</v>
+        <v>30591377083914.41</v>
       </c>
       <c r="F191" t="n">
-        <v>231.7041894115581</v>
+        <v>118.5465783173918</v>
       </c>
       <c r="G191" t="n">
-        <v>4.612166736078366e-48</v>
+        <v>6.375779931224167e-24</v>
       </c>
       <c r="H191" t="n">
-        <v>46.34083788231162</v>
+        <v>23.70931566347836</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>4.561577853260723</v>
+        <v>5.322808999999999</v>
       </c>
       <c r="B192" t="n">
-        <v>0.000626533604063643</v>
+        <v>606158772999501.6</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0002780149290302766</v>
+        <v>321392566299914.8</v>
       </c>
       <c r="D192" t="n">
-        <v>1.37989022652574e-05</v>
+        <v>12795220394009.27</v>
       </c>
       <c r="E192" t="n">
-        <v>2.681928445324599e-05</v>
+        <v>22670264088929.43</v>
       </c>
       <c r="F192" t="n">
-        <v>166.8230125560157</v>
+        <v>70.12948828656423</v>
       </c>
       <c r="G192" t="n">
-        <v>3.474018598479201e-34</v>
+        <v>9.631352580470672e-14</v>
       </c>
       <c r="H192" t="n">
-        <v>33.36460251120314</v>
+        <v>14.02589765731284</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>4.56575137892581</v>
+        <v>5.327683</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0004603133442104985</v>
+        <v>440659400480148.2</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0002054826663984645</v>
+        <v>236067939578815</v>
       </c>
       <c r="D193" t="n">
-        <v>1.038791051670311e-05</v>
+        <v>9611471933229.145</v>
       </c>
       <c r="E193" t="n">
-        <v>2.008103046345735e-05</v>
+        <v>17291474159808.23</v>
       </c>
       <c r="F193" t="n">
-        <v>125.0567027252912</v>
+        <v>42.7697940003366</v>
       </c>
       <c r="G193" t="n">
-        <v>2.661566758124975e-25</v>
+        <v>4.114092730255218e-08</v>
       </c>
       <c r="H193" t="n">
-        <v>25.01134054505824</v>
+        <v>8.553958800067321</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>4.570207710231447</v>
+        <v>5.33288</v>
       </c>
       <c r="B194" t="n">
-        <v>0.00035905937492765</v>
+        <v>341447747360857.6</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0001770227610990273</v>
+        <v>191491086470214.5</v>
       </c>
       <c r="D194" t="n">
-        <v>8.361488480034708e-06</v>
+        <v>7785265683528.286</v>
       </c>
       <c r="E194" t="n">
-        <v>1.600538768927225e-05</v>
+        <v>14338635378974.04</v>
       </c>
       <c r="F194" t="n">
-        <v>74.13817795954515</v>
+        <v>14.23994467543252</v>
       </c>
       <c r="G194" t="n">
-        <v>1.407450569600303e-14</v>
+        <v>0.01415499105108519</v>
       </c>
       <c r="H194" t="n">
-        <v>14.82763559190903</v>
+        <v>2.847988935086505</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>4.570233419835134</v>
+        <v>5.332912</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003745489270862352</v>
+        <v>353604037192655.4</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0001628162551804097</v>
+        <v>177453652250297.1</v>
       </c>
       <c r="D195" t="n">
-        <v>8.336723683643582e-06</v>
+        <v>7710491410609.569</v>
       </c>
       <c r="E195" t="n">
-        <v>1.601474485993958e-05</v>
+        <v>14197086026402.73</v>
       </c>
       <c r="F195" t="n">
-        <v>69.00178635317414</v>
+        <v>15.16365634399417</v>
       </c>
       <c r="G195" t="n">
-        <v>1.653115646893646e-13</v>
+        <v>0.009685476403925449</v>
       </c>
       <c r="H195" t="n">
-        <v>13.80035727063483</v>
+        <v>3.032731268798835</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>4.574141279595461</v>
+        <v>5.337469</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003430843172945228</v>
+        <v>321965594355877.1</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001506858520600971</v>
+        <v>156941975973403.5</v>
       </c>
       <c r="D196" t="n">
-        <v>7.468509327111426e-06</v>
+        <v>6920569369775.293</v>
       </c>
       <c r="E196" t="n">
-        <v>1.446165589290501e-05</v>
+        <v>13006269337272.26</v>
       </c>
       <c r="F196" t="n">
-        <v>48.63762812552903</v>
+        <v>8.926856175170469</v>
       </c>
       <c r="G196" t="n">
-        <v>2.631800274385024e-09</v>
+        <v>0.1120174263080686</v>
       </c>
       <c r="H196" t="n">
-        <v>9.727525625105805</v>
+        <v>1.785371235034094</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>4.578657599976365</v>
+        <v>5.342735</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003156176173451328</v>
+        <v>295240031268986.7</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001482551647350199</v>
+        <v>154792453979434.3</v>
       </c>
       <c r="D197" t="n">
-        <v>6.892694308165122e-06</v>
+        <v>6374474528603.539</v>
       </c>
       <c r="E197" t="n">
-        <v>1.34488185773173e-05</v>
+        <v>12137798540230.14</v>
       </c>
       <c r="F197" t="n">
-        <v>39.78984498139408</v>
+        <v>3.087547604367101</v>
       </c>
       <c r="G197" t="n">
-        <v>1.64640713331597e-07</v>
+        <v>0.6864905494362143</v>
       </c>
       <c r="H197" t="n">
-        <v>7.957968996278815</v>
+        <v>0.6175095208734203</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>4.578820427466379</v>
+        <v>5.342928</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0003153331484050117</v>
+        <v>296260551798162.9</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0001415637467376112</v>
+        <v>145648602284151.2</v>
       </c>
       <c r="D198" t="n">
-        <v>6.758632456741826e-06</v>
+        <v>6280120946071.384</v>
       </c>
       <c r="E198" t="n">
-        <v>1.325112553904699e-05</v>
+        <v>12031182458711.2</v>
       </c>
       <c r="F198" t="n">
-        <v>41.80545878054478</v>
+        <v>9.317703595816353</v>
       </c>
       <c r="G198" t="n">
-        <v>6.449197448982228e-08</v>
+        <v>0.09704353811903087</v>
       </c>
       <c r="H198" t="n">
-        <v>8.361091756108957</v>
+        <v>1.86354071916327</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>4.582256944492457</v>
+        <v>5.346943</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002826686264674824</v>
+        <v>264490851686392.1</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0001293674634308808</v>
+        <v>128623658423803.1</v>
       </c>
       <c r="D199" t="n">
-        <v>6.065508916680877e-06</v>
+        <v>5644032676224.267</v>
       </c>
       <c r="E199" t="n">
-        <v>1.178832714390761e-05</v>
+        <v>10804345465671.7</v>
       </c>
       <c r="F199" t="n">
-        <v>25.89383353799293</v>
+        <v>2.015372428964589</v>
       </c>
       <c r="G199" t="n">
-        <v>9.356752835936666e-05</v>
+        <v>0.8470139047774083</v>
       </c>
       <c r="H199" t="n">
-        <v>5.178766707598585</v>
+        <v>0.4030744857929179</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>4.583388167054657</v>
+        <v>5.348261</v>
       </c>
       <c r="B200" t="n">
-        <v>0.000280563157412243</v>
+        <v>261458251189953.4</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0001264679756490447</v>
+        <v>126481539886480.9</v>
       </c>
       <c r="D200" t="n">
-        <v>5.907542194980075e-06</v>
+        <v>5476376627517.877</v>
       </c>
       <c r="E200" t="n">
-        <v>1.163555949088712e-05</v>
+        <v>10656168989876.51</v>
       </c>
       <c r="F200" t="n">
-        <v>33.20586728167842</v>
+        <v>12.43482695983538</v>
       </c>
       <c r="G200" t="n">
-        <v>3.425272167818682e-06</v>
+        <v>0.02929175334152679</v>
       </c>
       <c r="H200" t="n">
-        <v>6.641173456335684</v>
+        <v>2.486965391967075</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>4.583662402827311</v>
+        <v>5.348582</v>
       </c>
       <c r="B201" t="n">
-        <v>0.000275335685342803</v>
+        <v>257228793045592.9</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001214852846907944</v>
+        <v>121924339207190.8</v>
       </c>
       <c r="D201" t="n">
-        <v>5.788522395093955e-06</v>
+        <v>5374210844995.925</v>
       </c>
       <c r="E201" t="n">
-        <v>1.127296234764609e-05</v>
+        <v>10333001205519.11</v>
       </c>
       <c r="F201" t="n">
-        <v>24.75226434778422</v>
+        <v>3.434083890011163</v>
       </c>
       <c r="G201" t="n">
-        <v>0.0001555474168095985</v>
+        <v>0.6333841969590114</v>
       </c>
       <c r="H201" t="n">
-        <v>4.950452869556843</v>
+        <v>0.6868167780022325</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>4.586636146987034</v>
+        <v>5.352053</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0002838157989384651</v>
+        <v>265971016205393.5</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0001208103932824376</v>
+        <v>127435360477859.4</v>
       </c>
       <c r="D202" t="n">
-        <v>6.47224257324703e-06</v>
+        <v>6008816470507.109</v>
       </c>
       <c r="E202" t="n">
-        <v>1.230992279183699e-05</v>
+        <v>11105075031667.91</v>
       </c>
       <c r="F202" t="n">
-        <v>43.17364641294594</v>
+        <v>4.75083782928022</v>
       </c>
       <c r="G202" t="n">
-        <v>3.407399485085632e-08</v>
+        <v>0.4470386258182125</v>
       </c>
       <c r="H202" t="n">
-        <v>8.634729282589188</v>
+        <v>0.950167565856044</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>4.58796447651083</v>
+        <v>5.353596</v>
       </c>
       <c r="B203" t="n">
-        <v>0.0002691068529827056</v>
+        <v>252465420667477.9</v>
       </c>
       <c r="C203" t="n">
-        <v>0.000122778837263439</v>
+        <v>125446601758921.1</v>
       </c>
       <c r="D203" t="n">
-        <v>5.610531620644461e-06</v>
+        <v>5204733514308.53</v>
       </c>
       <c r="E203" t="n">
-        <v>1.109780387752005e-05</v>
+        <v>10019301554709.84</v>
       </c>
       <c r="F203" t="n">
-        <v>40.66032591649184</v>
+        <v>8.766112955315366</v>
       </c>
       <c r="G203" t="n">
-        <v>1.098828935311401e-07</v>
+        <v>0.1187647249703338</v>
       </c>
       <c r="H203" t="n">
-        <v>8.132065183298369</v>
+        <v>1.753222591063073</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>4.591649519705875</v>
+        <v>5.357905000000001</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003261552586741942</v>
+        <v>307794326044794.2</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0001247498837982891</v>
+        <v>142343628793183.6</v>
       </c>
       <c r="D204" t="n">
-        <v>7.540037431520264e-06</v>
+        <v>6958118017165.114</v>
       </c>
       <c r="E204" t="n">
-        <v>1.395587386083486e-05</v>
+        <v>12334805789906.29</v>
       </c>
       <c r="F204" t="n">
-        <v>79.52107187751896</v>
+        <v>27.75070285915828</v>
       </c>
       <c r="G204" t="n">
-        <v>1.056913673914956e-15</v>
+        <v>4.071895526723475e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>15.90421437550379</v>
+        <v>5.550140571831657</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>4.593303504209699</v>
+        <v>5.359834999999999</v>
       </c>
       <c r="B205" t="n">
-        <v>0.0003114399210397778</v>
+        <v>293907693528971.1</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0001182802400629941</v>
+        <v>136618093194762.2</v>
       </c>
       <c r="D205" t="n">
-        <v>7.23910841728861e-06</v>
+        <v>6651762920175.148</v>
       </c>
       <c r="E205" t="n">
-        <v>1.33499780791758e-05</v>
+        <v>11694197994067.92</v>
       </c>
       <c r="F205" t="n">
-        <v>93.18445456114354</v>
+        <v>34.84216718594352</v>
       </c>
       <c r="G205" t="n">
-        <v>1.438772232458667e-18</v>
+        <v>1.617811024791293e-06</v>
       </c>
       <c r="H205" t="n">
-        <v>18.63689091222871</v>
+        <v>6.968433437188705</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>4.595068896996162</v>
+        <v>5.361894</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003101883699992213</v>
+        <v>293587188248662.2</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0001222756880951173</v>
+        <v>136407965641734.2</v>
       </c>
       <c r="D206" t="n">
-        <v>7.1822985072077e-06</v>
+        <v>6654002255017.265</v>
       </c>
       <c r="E206" t="n">
-        <v>1.329692352503123e-05</v>
+        <v>11754991027549.7</v>
       </c>
       <c r="F206" t="n">
-        <v>86.68860291494497</v>
+        <v>29.54023550858293</v>
       </c>
       <c r="G206" t="n">
-        <v>3.330518077914615e-17</v>
+        <v>1.816257405991857e-05</v>
       </c>
       <c r="H206" t="n">
-        <v>17.33772058298899</v>
+        <v>5.908047101716586</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>4.596757160971567</v>
+        <v>5.363857</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003017104674588388</v>
+        <v>287323718047375.3</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0001213150641111998</v>
+        <v>141748234076596.6</v>
       </c>
       <c r="D207" t="n">
-        <v>7.036558203288497e-06</v>
+        <v>6510946046572.943</v>
       </c>
       <c r="E207" t="n">
-        <v>1.310514590961597e-05</v>
+        <v>11473434684639.7</v>
       </c>
       <c r="F207" t="n">
-        <v>105.1412551682819</v>
+        <v>41.43191631322944</v>
       </c>
       <c r="G207" t="n">
-        <v>4.35187923302014e-21</v>
+        <v>7.674432413384429e-08</v>
       </c>
       <c r="H207" t="n">
-        <v>21.02825103365638</v>
+        <v>8.286383262645888</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>4.598633962040672</v>
+        <v>5.366045</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0002992793606860979</v>
+        <v>284024116077515.8</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0001152856745256642</v>
+        <v>132431589957620.9</v>
       </c>
       <c r="D208" t="n">
-        <v>7.048229799351662e-06</v>
+        <v>6522851411971.07</v>
       </c>
       <c r="E208" t="n">
-        <v>1.294127067571629e-05</v>
+        <v>11398010034864.34</v>
       </c>
       <c r="F208" t="n">
-        <v>100.6492239880495</v>
+        <v>40.23228970916691</v>
       </c>
       <c r="G208" t="n">
-        <v>3.856669749385412e-20</v>
+        <v>1.340648073255487e-07</v>
       </c>
       <c r="H208" t="n">
-        <v>20.12984479760991</v>
+        <v>8.046457941833383</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>4.600339365751868</v>
+        <v>5.368041000000001</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0003033959216344583</v>
+        <v>286490966539148.6</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0001087013616681752</v>
+        <v>124460553212791.4</v>
       </c>
       <c r="D209" t="n">
-        <v>6.650532724948492e-06</v>
+        <v>6108591673512.694</v>
       </c>
       <c r="E209" t="n">
-        <v>1.232984381210744e-05</v>
+        <v>10709639787768.12</v>
       </c>
       <c r="F209" t="n">
-        <v>97.62948291192417</v>
+        <v>40.39607925227592</v>
       </c>
       <c r="G209" t="n">
-        <v>1.669140792506131e-19</v>
+        <v>1.242416434609712e-07</v>
       </c>
       <c r="H209" t="n">
-        <v>19.52589658238483</v>
+        <v>8.079215850455183</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>4.601719114483036</v>
+        <v>5.369651</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002999554546880686</v>
+        <v>283073424213698.7</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0001043716109798766</v>
+        <v>123497385620924.6</v>
       </c>
       <c r="D210" t="n">
-        <v>6.928437462061518e-06</v>
+        <v>6368446155779.237</v>
       </c>
       <c r="E210" t="n">
-        <v>1.263162223898888e-05</v>
+        <v>11026284735490.01</v>
       </c>
       <c r="F210" t="n">
-        <v>95.43814448545361</v>
+        <v>44.75993059587316</v>
       </c>
       <c r="G210" t="n">
-        <v>4.828927813764086e-19</v>
+        <v>1.623409302397036e-08</v>
       </c>
       <c r="H210" t="n">
-        <v>19.08762889709072</v>
+        <v>8.951986119174631</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>4.606132596449195</v>
+        <v>5.374804</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002686390805378946</v>
+        <v>254880652072755.4</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0001029236493124624</v>
+        <v>117227174924629.8</v>
       </c>
       <c r="D211" t="n">
-        <v>5.728783965300791e-06</v>
+        <v>5281075750473.076</v>
       </c>
       <c r="E211" t="n">
-        <v>1.086051612269283e-05</v>
+        <v>9406974737027.695</v>
       </c>
       <c r="F211" t="n">
-        <v>93.83826391848305</v>
+        <v>34.22454813411881</v>
       </c>
       <c r="G211" t="n">
-        <v>1.048280604289795e-18</v>
+        <v>2.148052338336133e-06</v>
       </c>
       <c r="H211" t="n">
-        <v>18.76765278369661</v>
+        <v>6.844909626823761</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>4.610666056565891</v>
+        <v>5.380088</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002334120685808232</v>
+        <v>220576090480978.6</v>
       </c>
       <c r="C212" t="n">
-        <v>8.682020146320266e-05</v>
+        <v>96109752579381.62</v>
       </c>
       <c r="D212" t="n">
-        <v>4.966663338860663e-06</v>
+        <v>4583859296001.224</v>
       </c>
       <c r="E212" t="n">
-        <v>9.390277535804969e-06</v>
+        <v>8223140838926.434</v>
       </c>
       <c r="F212" t="n">
-        <v>71.14658470130975</v>
+        <v>19.91147123916436</v>
       </c>
       <c r="G212" t="n">
-        <v>5.914880738324724e-14</v>
+        <v>0.001298446037842375</v>
       </c>
       <c r="H212" t="n">
-        <v>14.22931694026195</v>
+        <v>3.982294247832873</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>4.613091329180303</v>
+        <v>5.382924</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002252516153526137</v>
+        <v>212250958748888.9</v>
       </c>
       <c r="C213" t="n">
-        <v>8.410692002979239e-05</v>
+        <v>91138569568685.95</v>
       </c>
       <c r="D213" t="n">
-        <v>4.714965487467104e-06</v>
+        <v>4346972005653.039</v>
       </c>
       <c r="E213" t="n">
-        <v>8.969141608276613e-06</v>
+        <v>7865029234329.518</v>
       </c>
       <c r="F213" t="n">
-        <v>62.28852438459096</v>
+        <v>15.13774938690396</v>
       </c>
       <c r="G213" t="n">
-        <v>4.086898165309762e-12</v>
+        <v>0.009789689652982858</v>
       </c>
       <c r="H213" t="n">
-        <v>12.45770487691819</v>
+        <v>3.027549877380791</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>4.613451263631914</v>
+        <v>5.383343</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0002315682998744158</v>
+        <v>219127149920763.7</v>
       </c>
       <c r="C214" t="n">
-        <v>8.85602709235418e-05</v>
+        <v>97231655674737.66</v>
       </c>
       <c r="D214" t="n">
-        <v>4.816453765681692e-06</v>
+        <v>4448975467308.366</v>
       </c>
       <c r="E214" t="n">
-        <v>9.227013313144691e-06</v>
+        <v>8050312952391.34</v>
       </c>
       <c r="F214" t="n">
-        <v>72.17015918342997</v>
+        <v>20.96046392234345</v>
       </c>
       <c r="G214" t="n">
-        <v>3.620170797672623e-14</v>
+        <v>0.0008241104952148988</v>
       </c>
       <c r="H214" t="n">
-        <v>14.43403183668599</v>
+        <v>4.19209278446869</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>4.613896896762476</v>
+        <v>5.383858999999999</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002251830574559974</v>
+        <v>212153429355675.1</v>
       </c>
       <c r="C215" t="n">
-        <v>8.430116650922894e-05</v>
+        <v>90492092544278.39</v>
       </c>
       <c r="D215" t="n">
-        <v>4.649633369189187e-06</v>
+        <v>4290509428576.818</v>
       </c>
       <c r="E215" t="n">
-        <v>8.854300591030133e-06</v>
+        <v>7781276884885.708</v>
       </c>
       <c r="F215" t="n">
-        <v>57.53566607892824</v>
+        <v>14.38579949054735</v>
       </c>
       <c r="G215" t="n">
-        <v>3.921527711731131e-11</v>
+        <v>0.01333585434553138</v>
       </c>
       <c r="H215" t="n">
-        <v>11.50713321578565</v>
+        <v>2.877159898109469</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>4.615696569020522</v>
+        <v>5.385955</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002203150500182603</v>
+        <v>208054618809167.8</v>
       </c>
       <c r="C216" t="n">
-        <v>7.799818284892423e-05</v>
+        <v>84925062261680.64</v>
       </c>
       <c r="D216" t="n">
-        <v>4.546454070128337e-06</v>
+        <v>4199120905067.227</v>
       </c>
       <c r="E216" t="n">
-        <v>8.590624693793638e-06</v>
+        <v>7555385055849.327</v>
       </c>
       <c r="F216" t="n">
-        <v>58.95697618999603</v>
+        <v>15.70202966797053</v>
       </c>
       <c r="G216" t="n">
-        <v>1.996101774478538e-11</v>
+        <v>0.007748343012536366</v>
       </c>
       <c r="H216" t="n">
-        <v>11.79139523799921</v>
+        <v>3.140405933594106</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>4.619038817499749</v>
+        <v>5.389858</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002188022934747725</v>
+        <v>205763888328568.2</v>
       </c>
       <c r="C217" t="n">
-        <v>7.513876557678481e-05</v>
+        <v>82413883671537.67</v>
       </c>
       <c r="D217" t="n">
-        <v>4.471689709594746e-06</v>
+        <v>4111613205227.312</v>
       </c>
       <c r="E217" t="n">
-        <v>8.425425723918888e-06</v>
+        <v>7381049171539.324</v>
       </c>
       <c r="F217" t="n">
-        <v>56.41550366459812</v>
+        <v>14.85137524765458</v>
       </c>
       <c r="G217" t="n">
-        <v>6.673118392460017e-11</v>
+        <v>0.0110166285334566</v>
       </c>
       <c r="H217" t="n">
-        <v>11.28310073291962</v>
+        <v>2.970275049530916</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>4.621798314962087</v>
+        <v>5.393084</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002225403406822854</v>
+        <v>210562816919547.2</v>
       </c>
       <c r="C218" t="n">
-        <v>8.23242465912696e-05</v>
+        <v>89428421645060.52</v>
       </c>
       <c r="D218" t="n">
-        <v>4.574773614619898e-06</v>
+        <v>4223366238792.16</v>
       </c>
       <c r="E218" t="n">
-        <v>8.84580659534413e-06</v>
+        <v>7706443754450.543</v>
       </c>
       <c r="F218" t="n">
-        <v>65.95888325390573</v>
+        <v>15.9861689937645</v>
       </c>
       <c r="G218" t="n">
-        <v>7.088239017724438e-13</v>
+        <v>0.00688367320464317</v>
       </c>
       <c r="H218" t="n">
-        <v>13.19177665078115</v>
+        <v>3.1972337987529</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>4.630650988498092</v>
+        <v>5.403415</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002355349034434449</v>
+        <v>221582308601020.5</v>
       </c>
       <c r="C219" t="n">
-        <v>7.569232747541145e-05</v>
+        <v>84507644384291.23</v>
       </c>
       <c r="D219" t="n">
-        <v>4.844143674136735e-06</v>
+        <v>4447959385834.119</v>
       </c>
       <c r="E219" t="n">
-        <v>9.142557562002195e-06</v>
+        <v>7980105263287.704</v>
       </c>
       <c r="F219" t="n">
-        <v>58.16324494736573</v>
+        <v>16.1081033317347</v>
       </c>
       <c r="G219" t="n">
-        <v>2.91075443749058e-11</v>
+        <v>0.00654211659480216</v>
       </c>
       <c r="H219" t="n">
-        <v>11.63264898947314</v>
+        <v>3.221620666346939</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>4.639795037542543</v>
+        <v>5.414078</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002364760072940095</v>
+        <v>222852175146433</v>
       </c>
       <c r="C220" t="n">
-        <v>8.329317878573477e-05</v>
+        <v>89797576917155.55</v>
       </c>
       <c r="D220" t="n">
-        <v>4.854823671666416e-06</v>
+        <v>4481960050337.917</v>
       </c>
       <c r="E220" t="n">
-        <v>9.2572896059791e-06</v>
+        <v>8164111214585.532</v>
       </c>
       <c r="F220" t="n">
-        <v>52.42109929790519</v>
+        <v>12.62071153192961</v>
       </c>
       <c r="G220" t="n">
-        <v>4.421707959338312e-10</v>
+        <v>0.02720458883574944</v>
       </c>
       <c r="H220" t="n">
-        <v>10.48421985958104</v>
+        <v>2.524142306385922</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>4.64860486173907</v>
+        <v>5.424364</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002265745594092126</v>
+        <v>214555277473745.2</v>
       </c>
       <c r="C221" t="n">
-        <v>9.266944809393242e-05</v>
+        <v>98790707751182.34</v>
       </c>
       <c r="D221" t="n">
-        <v>4.650525553968787e-06</v>
+        <v>4307740349664.048</v>
       </c>
       <c r="E221" t="n">
-        <v>9.080384250673116e-06</v>
+        <v>8011857807090.036</v>
       </c>
       <c r="F221" t="n">
-        <v>59.80942225678578</v>
+        <v>12.34356471010413</v>
       </c>
       <c r="G221" t="n">
-        <v>1.330817627753756e-11</v>
+        <v>0.03037165729835982</v>
       </c>
       <c r="H221" t="n">
-        <v>11.96188445135716</v>
+        <v>2.468712942020825</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>4.658074565763548</v>
+        <v>5.435405</v>
       </c>
       <c r="B222" t="n">
-        <v>0.0002328384894268369</v>
+        <v>221987329841604.8</v>
       </c>
       <c r="C222" t="n">
-        <v>0.0001038526275981808</v>
+        <v>111451045066135</v>
       </c>
       <c r="D222" t="n">
-        <v>4.724557011878106e-06</v>
+        <v>4390658967750.102</v>
       </c>
       <c r="E222" t="n">
-        <v>9.376384482908533e-06</v>
+        <v>8179404583979.883</v>
       </c>
       <c r="F222" t="n">
-        <v>75.43455835069875</v>
+        <v>13.34857734024107</v>
       </c>
       <c r="G222" t="n">
-        <v>7.549575988420576e-15</v>
+        <v>0.02032224937486406</v>
       </c>
       <c r="H222" t="n">
-        <v>15.08691167013975</v>
+        <v>2.669715468048213</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>4.661373964903298</v>
+        <v>5.439261</v>
       </c>
       <c r="B223" t="n">
-        <v>0.0002431267270832763</v>
+        <v>232622295043722.8</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0001108422588822725</v>
+        <v>120556062774865.6</v>
       </c>
       <c r="D223" t="n">
-        <v>4.971724436066937e-06</v>
+        <v>4620871358602.217</v>
       </c>
       <c r="E223" t="n">
-        <v>9.939913120923455e-06</v>
+        <v>8602831370428.022</v>
       </c>
       <c r="F223" t="n">
-        <v>89.77420629527916</v>
+        <v>19.16443442143811</v>
       </c>
       <c r="G223" t="n">
-        <v>7.494718980210225e-18</v>
+        <v>0.001791170736662155</v>
       </c>
       <c r="H223" t="n">
-        <v>17.95484125905583</v>
+        <v>3.832886884287622</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a2/a1_a2Fit.xlsx
+++ b/legendre_out/DATA/a1/a2/a1_a2Fit.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H223"/>
+  <dimension ref="A1:H221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -405,5774 +405,5722 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3.996021</v>
+        <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>24159198466790.36</v>
+        <v>2.75949458208822e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>13397201318686.51</v>
+        <v>1.530245487465483e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>537858543031.571</v>
+        <v>6.143489153559465e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>966626882164.8351</v>
+        <v>1.104093602696248e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>42.45272921961045</v>
+        <v>42.45272938181057</v>
       </c>
       <c r="G2" t="n">
-        <v>4.769780285870267e-08</v>
+        <v>4.769779925121085e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>8.49054584392209</v>
+        <v>8.490545876362114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>4.000967</v>
+        <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>22441286740048.54</v>
+        <v>2.563272503420855e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>13937505996773.69</v>
+        <v>1.591959780549686e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>555120577578.6985</v>
+        <v>6.340658312656605e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>999181626773.2684</v>
+        <v>1.14127804755293e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>37.65349254974738</v>
+        <v>37.65349227135777</v>
       </c>
       <c r="G3" t="n">
-        <v>4.428907661769565e-07</v>
+        <v>4.428908231668367e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>7.530698509949477</v>
+        <v>7.530698454271554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4.00294</v>
+        <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>21072339147837.19</v>
+        <v>2.406909558003159e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>11766527848047.69</v>
+        <v>1.343987877264884e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>541107711389.1163</v>
+        <v>6.180601568862519e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>960638382357.33</v>
+        <v>1.09725346068351e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>33.90646243466662</v>
+        <v>33.9064625612239</v>
       </c>
       <c r="G4" t="n">
-        <v>2.485303101546848e-06</v>
+        <v>2.485302957400102e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>6.781292486933324</v>
+        <v>6.78129251224478</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>4.006972</v>
+        <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>19996095490979.32</v>
+        <v>2.283979627395407e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>11117583870671.83</v>
+        <v>1.26986466522006e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>533134621074.0231</v>
+        <v>6.089531909867638e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>946662533471.225</v>
+        <v>1.081290067468247e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>36.38522165911961</v>
+        <v>36.38522192368815</v>
       </c>
       <c r="G5" t="n">
-        <v>7.953334058649713e-07</v>
+        <v>7.953333088666921e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>7.277044331823921</v>
+        <v>7.27704438473763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4.009086</v>
+        <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>19706295097943.29</v>
+        <v>2.250878258378934e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>11357242015653.59</v>
+        <v>1.297238722562948e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>572442618113.7767</v>
+        <v>6.538512889881018e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>1003794389738.544</v>
+        <v>1.14654680596806e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>24.02912208314062</v>
+        <v>24.02912213057141</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002143330352648594</v>
+        <v>0.0002143330307660413</v>
       </c>
       <c r="H6" t="n">
-        <v>4.805824416628125</v>
+        <v>4.805824426114282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4.010032</v>
+        <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>19094402731179.32</v>
+        <v>2.180987126823063e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>12345634199677.15</v>
+        <v>1.410134147894408e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>560716803998.2728</v>
+        <v>6.404579140442245e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>997621815067.6385</v>
+        <v>1.139496412367458e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>26.68898931955439</v>
+        <v>26.68898933086678</v>
       </c>
       <c r="G7" t="n">
-        <v>6.5573075949579e-05</v>
+        <v>6.557307561737798e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>5.337797863910878</v>
+        <v>5.337797866173356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>4.01507</v>
+        <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>18813597849944.4</v>
+        <v>2.14891323543325e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>10334437820380.94</v>
+        <v>1.18041271908842e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>507852810850.2415</v>
+        <v>5.800759840248442e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>900196347748.2834</v>
+        <v>1.02821579491069e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>23.5312015733879</v>
+        <v>23.53120166846717</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002670947244772392</v>
+        <v>0.0002670947132672473</v>
       </c>
       <c r="H8" t="n">
-        <v>4.706240314677581</v>
+        <v>4.706240333693434</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>4.019108</v>
+        <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>16227700558773.72</v>
+        <v>1.853548738087829e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>10415260977753.55</v>
+        <v>1.189644443361676e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>442927410560.1321</v>
+        <v>5.059173598129102e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>802903332788.1093</v>
+        <v>9.170864671220073e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>19.41758611243971</v>
+        <v>19.41758573711581</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001606493014917953</v>
+        <v>0.001606493274343456</v>
       </c>
       <c r="H9" t="n">
-        <v>3.883517222487941</v>
+        <v>3.883517147423163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>4.019916</v>
+        <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>14020447763390.55</v>
+        <v>1.601433494442823e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>7098019332028.286</v>
+        <v>8.107448581963864e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>469648041675.9824</v>
+        <v>5.364380068979829e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>796861968918.1143</v>
+        <v>9.101859448897748e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>17.29560513270283</v>
+        <v>17.29560483920404</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00397198837730826</v>
+        <v>0.003971988870034691</v>
       </c>
       <c r="H10" t="n">
-        <v>3.459121026540566</v>
+        <v>3.459120967840808</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>4.025044</v>
+        <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>9754652641120.27</v>
+        <v>1.11418891546167e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5107827041836.859</v>
+        <v>5.834225440169199e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>371229027618.0735</v>
+        <v>4.240225488838115e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>642154231971.9785</v>
+        <v>7.334767866778821e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>20.07205277883896</v>
+        <v>20.07205302129808</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001211412308601781</v>
+        <v>0.001211412181625056</v>
       </c>
       <c r="H11" t="n">
-        <v>4.014410555767792</v>
+        <v>4.014410604259616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>4.029979</v>
+        <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>6161366680498.572</v>
+        <v>7.037591915836942e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>3864266477601.51</v>
+        <v>4.413814652319456e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>262779352562.7275</v>
+        <v>3.001499411115518e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>473148499106.3698</v>
+        <v>5.404362738583708e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>17.09636994070039</v>
+        <v>17.09637002423769</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004320608963476135</v>
+        <v>0.004320608811212733</v>
       </c>
       <c r="H12" t="n">
-        <v>3.419273988140078</v>
+        <v>3.419274004847537</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>4.035141</v>
+        <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>4609093457640.733</v>
+        <v>5.264565562929074e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2199538046251.17</v>
+        <v>2.51234051622489e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>229967046911.0457</v>
+        <v>2.626713053700615e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>385167937264.9337</v>
+        <v>4.399437495997961e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>11.19683525065398</v>
+        <v>11.19683526164677</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0476140096583452</v>
+        <v>0.04761400945549393</v>
       </c>
       <c r="H13" t="n">
-        <v>2.239367050130797</v>
+        <v>2.239367052329355</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>4.269958</v>
+        <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>17904086766437.16</v>
+        <v>2.045027714480566e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>3377759599446.9</v>
+        <v>3.858120279930375e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>473210713683.6595</v>
+        <v>5.405073359382663e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>724995445095.4082</v>
+        <v>8.280990796798997e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>123.721710147265</v>
+        <v>123.7217098949628</v>
       </c>
       <c r="G14" t="n">
-        <v>5.106780866072317e-25</v>
+        <v>5.106781494927717e-25</v>
       </c>
       <c r="H14" t="n">
-        <v>24.744342029453</v>
+        <v>24.74434197899256</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>4.290051</v>
+        <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>30085571561001.07</v>
+        <v>3.436412502492672e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>10803501652432.64</v>
+        <v>1.233989790895109e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>705746639603.2189</v>
+        <v>8.061128479837179e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>1172862271496.192</v>
+        <v>1.339658302569468e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>72.79737486557394</v>
+        <v>72.7973750997987</v>
       </c>
       <c r="G15" t="n">
-        <v>2.67925883205408e-14</v>
+        <v>2.67925853086026e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>14.55947497311479</v>
+        <v>14.55947501995974</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>4.291116000000001</v>
+        <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>41396079872482.88</v>
+        <v>4.728313246318016e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>17444356230351.4</v>
+        <v>1.992516707226332e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>961127626392.1948</v>
+        <v>1.097812281997649e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>1631981555306.97</v>
+        <v>1.86407022925836e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>61.27362389913117</v>
+        <v>61.273623844467</v>
       </c>
       <c r="G16" t="n">
-        <v>6.628504474508492e-12</v>
+        <v>6.628504647093699e-12</v>
       </c>
       <c r="H16" t="n">
-        <v>12.25472477982623</v>
+        <v>12.2547247688934</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4.293189</v>
+        <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>39225706557856.3</v>
+        <v>4.480410429442741e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>14612815359173.05</v>
+        <v>1.669094481153235e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>933209961309.1472</v>
+        <v>1.065924367862778e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>1560252585341.399</v>
+        <v>1.78214048247857e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>61.46832343259299</v>
+        <v>61.46832324080661</v>
       </c>
       <c r="G17" t="n">
-        <v>6.041399869002592e-12</v>
+        <v>6.041400420961556e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>12.2936646865186</v>
+        <v>12.29366464816132</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>4.294196</v>
+        <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>38670039490429.5</v>
+        <v>4.416941424667563e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>16107210873470.18</v>
+        <v>1.839786250690233e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>964902606914.2579</v>
+        <v>1.10212411235364e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>1595906964131.911</v>
+        <v>1.822865369117254e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>85.55500012176979</v>
+        <v>85.55500032392062</v>
       </c>
       <c r="G18" t="n">
-        <v>5.75827441889218e-17</v>
+        <v>5.758273856809553e-17</v>
       </c>
       <c r="H18" t="n">
-        <v>17.11100002435396</v>
+        <v>17.11100006478413</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>4.295147</v>
+        <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>38014445552478.59</v>
+        <v>4.34205864601109e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>15742643044694.69</v>
+        <v>1.798144849098499e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>960776488607.9215</v>
+        <v>1.097411206989241e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>1583081220233.739</v>
+        <v>1.808215640291821e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>85.40595701997897</v>
+        <v>85.40595727862184</v>
       </c>
       <c r="G19" t="n">
-        <v>6.187953794775855e-17</v>
+        <v>6.187953021999858e-17</v>
       </c>
       <c r="H19" t="n">
-        <v>17.0811914039958</v>
+        <v>17.08119145572437</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>4.296155000000001</v>
+        <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>38470082518893.68</v>
+        <v>4.394102085439018e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>15058630292163.37</v>
+        <v>1.720016032192483e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>1010235648371.992</v>
+        <v>1.153904092863248e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>1651264354325.84</v>
+        <v>1.88609528854814e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>80.4714469067392</v>
+        <v>80.47144684495532</v>
       </c>
       <c r="G20" t="n">
-        <v>6.686773005194637e-16</v>
+        <v>6.686773204250091e-16</v>
       </c>
       <c r="H20" t="n">
-        <v>16.09428938134784</v>
+        <v>16.09428936899106</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>4.297219999999999</v>
+        <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>40502129563629.31</v>
+        <v>4.62620509924022e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>13920855307969.71</v>
+        <v>1.590057918695078e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>1139854704747.838</v>
+        <v>1.301956638287829e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>1796417280695.622</v>
+        <v>2.051890818845148e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>103.7062777546266</v>
+        <v>103.7062778484384</v>
       </c>
       <c r="G21" t="n">
-        <v>8.73968608454355e-21</v>
+        <v>8.73968568623297e-21</v>
       </c>
       <c r="H21" t="n">
-        <v>20.74125555092532</v>
+        <v>20.74125556968768</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>4.298083999999999</v>
+        <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>41494849399024.59</v>
+        <v>4.73959483098258e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>18616626433787.27</v>
+        <v>2.126414907209422e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>1570015570362.615</v>
+        <v>1.793291888135152e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>2354577721906.05</v>
+        <v>2.689428823537802e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>236.8461360675399</v>
+        <v>236.846136084148</v>
       </c>
       <c r="G22" t="n">
-        <v>3.643531656224767e-49</v>
+        <v>3.643531626348694e-49</v>
       </c>
       <c r="H22" t="n">
-        <v>47.36922721350798</v>
+        <v>47.36922721682959</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>4.299093</v>
+        <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>49624933773374.09</v>
+        <v>5.668223467398579e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>10981276533453.68</v>
+        <v>1.254295467938028e-05</v>
       </c>
       <c r="D23" t="n">
-        <v>2163879219716.48</v>
+        <v>2.471610551443742e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>3061721634472.977</v>
+        <v>3.497137652889136e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>253.3788651574855</v>
+        <v>253.3788643041359</v>
       </c>
       <c r="G23" t="n">
-        <v>1.035344103006291e-52</v>
+        <v>1.035344539572381e-52</v>
       </c>
       <c r="H23" t="n">
-        <v>50.6757730314971</v>
+        <v>50.67577286082718</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>4.301051999999999</v>
+        <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>48712504040692.03</v>
+        <v>5.56400459186294e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>16206018804768.72</v>
+        <v>1.851072213992898e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>2445525668538.595</v>
+        <v>2.793310729283716e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>3434388403085.594</v>
+        <v>3.922802405844705e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>322.5454186777927</v>
+        <v>322.545420634765</v>
       </c>
       <c r="G24" t="n">
-        <v>1.418699631398126e-67</v>
+        <v>1.418698256052446e-67</v>
       </c>
       <c r="H24" t="n">
-        <v>64.50908373555853</v>
+        <v>64.50908412695301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>4.303098</v>
+        <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>50214378526776.67</v>
+        <v>5.735550609950379e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>5182014527553.598</v>
+        <v>5.918963368695357e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>2347569026386.983</v>
+        <v>2.68142340091857e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>3145250700744.39</v>
+        <v>3.592545623333329e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>386.792635663123</v>
+        <v>386.7926361236061</v>
       </c>
       <c r="G25" t="n">
-        <v>2.081835929515835e-81</v>
+        <v>2.081835453889182e-81</v>
       </c>
       <c r="H25" t="n">
-        <v>77.35852713262459</v>
+        <v>77.35852722472123</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4.305231</v>
+        <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>55110678552960.95</v>
+        <v>6.294812272965227e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>-1046938115797.633</v>
+        <v>-1.195826093003619e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>2695579916141.208</v>
+        <v>3.078925895058279e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>3548409938183.115</v>
+        <v>4.053039266537305e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>301.7258068469252</v>
+        <v>301.7258080394379</v>
       </c>
       <c r="G26" t="n">
-        <v>4.262083109292883e-63</v>
+        <v>4.262080593100138e-63</v>
       </c>
       <c r="H26" t="n">
-        <v>60.34516136938504</v>
+        <v>60.34516160788759</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>4.30725</v>
+        <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>43400218725112.16</v>
+        <v>4.95722855307324e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>18707892881450</v>
+        <v>2.136839473839206e-05</v>
       </c>
       <c r="D27" t="n">
-        <v>2264533540180.396</v>
+        <v>2.586579205346643e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>3272813431144.483</v>
+        <v>3.738249407287901e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>313.9754894218301</v>
+        <v>313.9754888992951</v>
       </c>
       <c r="G27" t="n">
-        <v>9.894506914706382e-66</v>
+        <v>9.894509475276288e-66</v>
       </c>
       <c r="H27" t="n">
-        <v>62.79509788436602</v>
+        <v>62.79509777985902</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>4.309297</v>
+        <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>47255248474308.32</v>
+        <v>5.397554986015521e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>3304247196403.844</v>
+        <v>3.774153525351667e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>2501944081818.107</v>
+        <v>2.857752564201816e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>3314475006863.863</v>
+        <v>3.785835789495202e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>314.2800485081812</v>
+        <v>314.2800491583694</v>
       </c>
       <c r="G28" t="n">
-        <v>8.509177455778735e-66</v>
+        <v>8.509174715734353e-66</v>
       </c>
       <c r="H28" t="n">
-        <v>62.85600970163624</v>
+        <v>62.85600983167387</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>4.309961</v>
+        <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>50225860510164.02</v>
+        <v>5.736862100237745e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>11236348893557.26</v>
+        <v>1.283430155851327e-05</v>
       </c>
       <c r="D29" t="n">
-        <v>2379252250450.696</v>
+        <v>2.717612384803441e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>3282332429946.192</v>
+        <v>3.749122128094229e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>308.5969268808337</v>
+        <v>308.5969272613073</v>
       </c>
       <c r="G29" t="n">
-        <v>1.419547857000078e-64</v>
+        <v>1.419547589558177e-64</v>
       </c>
       <c r="H29" t="n">
-        <v>61.71938537616675</v>
+        <v>61.71938545226146</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>4.311172</v>
+        <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>41605781692304.97</v>
+        <v>4.752265657027002e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>6562524691911.496</v>
+        <v>7.495799746603579e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>2130617741967.418</v>
+        <v>2.433618865647863e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>2855630981418.044</v>
+        <v>3.261738271386951e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>362.7746109441965</v>
+        <v>362.7746101543264</v>
       </c>
       <c r="G30" t="n">
-        <v>3.107096517944244e-76</v>
+        <v>3.107097734953939e-76</v>
       </c>
       <c r="H30" t="n">
-        <v>72.5549221888393</v>
+        <v>72.55492203086528</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>4.313105999999999</v>
+        <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>37286864994887.02</v>
+        <v>4.258953462045188e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-2266889864722.801</v>
+        <v>-2.589270581330655e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>2152336263714.054</v>
+        <v>2.45842603907362e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>2716600317189.42</v>
+        <v>3.102935666981302e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>379.1668985124047</v>
+        <v>379.1668983099462</v>
       </c>
       <c r="G31" t="n">
-        <v>9.150612783633199e-80</v>
+        <v>9.150613702652349e-80</v>
       </c>
       <c r="H31" t="n">
-        <v>75.83337970248094</v>
+        <v>75.83337966198926</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>4.315126</v>
+        <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>35480790852651.85</v>
+        <v>4.052661370220578e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>277260020114.9375</v>
+        <v>3.16689934649886e-07</v>
       </c>
       <c r="D32" t="n">
-        <v>2151192386091.61</v>
+        <v>2.457119488533794e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>2781449716525.211</v>
+        <v>3.177007480389838e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>347.3204391977814</v>
+        <v>347.3204413532365</v>
       </c>
       <c r="G32" t="n">
-        <v>6.606706800042509e-73</v>
+        <v>6.606699740964529e-73</v>
       </c>
       <c r="H32" t="n">
-        <v>69.46408783955629</v>
+        <v>69.4640882706473</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4.317204</v>
+        <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>31392225350909.7</v>
+        <v>3.585660178328024e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>6857781841518.605</v>
+        <v>7.833046231976073e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>1840188389922.554</v>
+        <v>2.101886742405153e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>2575072904071.408</v>
+        <v>2.941281244950683e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>361.426533001633</v>
+        <v>361.4265332470757</v>
       </c>
       <c r="G33" t="n">
-        <v>6.062813773205997e-76</v>
+        <v>6.062813035311257e-76</v>
       </c>
       <c r="H33" t="n">
-        <v>72.28530660032661</v>
+        <v>72.28530664941513</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>4.319168</v>
+        <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>30580984764177.67</v>
+        <v>3.492999242405432e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>2669217500961.449</v>
+        <v>3.048814377310686e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>2013426694508.625</v>
+        <v>2.299761751352958e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>2670769792715.593</v>
+        <v>3.050587456080903e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>314.9856387966265</v>
+        <v>314.9856389489026</v>
       </c>
       <c r="G34" t="n">
-        <v>5.999599393312934e-66</v>
+        <v>5.999598940838067e-66</v>
       </c>
       <c r="H34" t="n">
-        <v>62.99712775932529</v>
+        <v>62.99712778978052</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>4.32116</v>
+        <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>31258048779905.38</v>
+        <v>3.570334353828775e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>628968327773.5234</v>
+        <v>7.184156917968336e-07</v>
       </c>
       <c r="D35" t="n">
-        <v>1837786176403.796</v>
+        <v>2.099142901656838e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>2404994811346.699</v>
+        <v>2.747015867346994e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>343.6281153954098</v>
+        <v>343.6281149937483</v>
       </c>
       <c r="G35" t="n">
-        <v>4.119463630755917e-72</v>
+        <v>4.119464450890157e-72</v>
       </c>
       <c r="H35" t="n">
-        <v>68.72562307908197</v>
+        <v>68.72562299874967</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>4.32298</v>
+        <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>34374747830406.54</v>
+        <v>3.926327714713323e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>-6872859495355.559</v>
+        <v>-7.850268183395929e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>1895622940385.433</v>
+        <v>2.165204794114949e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>2414286208661.188</v>
+        <v>2.757628619304506e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>291.1145972804791</v>
+        <v>291.1145991851209</v>
       </c>
       <c r="G36" t="n">
-        <v>8.140497408773347e-61</v>
+        <v>8.140489735754052e-61</v>
       </c>
       <c r="H36" t="n">
-        <v>58.22291945609582</v>
+        <v>58.22291983702418</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>4.325205</v>
+        <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>25419545626309.84</v>
+        <v>2.903453046832233e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>6581836696565.039</v>
+        <v>7.517858198887388e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>1389823181529.625</v>
+        <v>1.587473832979615e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>1881647932494.327</v>
+        <v>2.149242361666507e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>328.9889871486378</v>
+        <v>328.9889861207054</v>
       </c>
       <c r="G37" t="n">
-        <v>5.827659842381035e-69</v>
+        <v>5.827662810454652e-69</v>
       </c>
       <c r="H37" t="n">
-        <v>65.79779742972755</v>
+        <v>65.79779722414108</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>4.327112000000001</v>
+        <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>21833542904347</v>
+        <v>2.493855223476626e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>11861659170950.3</v>
+        <v>1.354853902128356e-05</v>
       </c>
       <c r="D38" t="n">
-        <v>1068389914312.396</v>
+        <v>1.220328639292388e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>1582737365940.072</v>
+        <v>1.80782288510421e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>320.1097149329728</v>
+        <v>320.1097148255216</v>
       </c>
       <c r="G38" t="n">
-        <v>4.741212363712013e-67</v>
+        <v>4.741212616064188e-67</v>
       </c>
       <c r="H38" t="n">
-        <v>64.02194298659455</v>
+        <v>64.02194296510432</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>4.329078</v>
+        <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>22649683243532.51</v>
+        <v>2.587075821929693e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>7581599655173.65</v>
+        <v>8.659800194434539e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>934875347347.7653</v>
+        <v>1.06782659231366e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>1347910229060.214</v>
+        <v>1.539600321634887e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>259.7460577189196</v>
+        <v>259.7460575674189</v>
       </c>
       <c r="G39" t="n">
-        <v>4.451524147044313e-54</v>
+        <v>4.451524480384279e-54</v>
       </c>
       <c r="H39" t="n">
-        <v>51.94921154378393</v>
+        <v>51.94921151348377</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>4.330119</v>
+        <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>17594087713352.24</v>
+        <v>2.00961922666373e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>6130977818579.914</v>
+        <v>7.00288138839102e-06</v>
       </c>
       <c r="D40" t="n">
-        <v>992095456084.34</v>
+        <v>1.133184132357965e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>1386131102664.224</v>
+        <v>1.583256693100765e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>363.2467513995031</v>
+        <v>363.2467512927205</v>
       </c>
       <c r="G40" t="n">
-        <v>2.458517889995654e-76</v>
+        <v>2.458518020180937e-76</v>
       </c>
       <c r="H40" t="n">
-        <v>72.64935027990062</v>
+        <v>72.6493502585441</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>4.331189</v>
+        <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>24643253218117.65</v>
+        <v>2.814783935279311e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>3478474909332.68</v>
+        <v>3.973158551966675e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>947601009748.6866</v>
+        <v>1.082362007083623e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>1350849362887.898</v>
+        <v>1.542957438394288e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>129.6522662117903</v>
+        <v>129.652266582148</v>
       </c>
       <c r="G41" t="n">
-        <v>2.820764458004817e-26</v>
+        <v>2.820763947560444e-26</v>
       </c>
       <c r="H41" t="n">
-        <v>25.93045324235806</v>
+        <v>25.9304533164296</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>4.333242</v>
+        <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>28663205874875.43</v>
+        <v>3.273948077124378e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>7304770146924.725</v>
+        <v>8.343601976441037e-06</v>
       </c>
       <c r="D42" t="n">
-        <v>876167289891.8724</v>
+        <v>1.000769497223463e-06</v>
       </c>
       <c r="E42" t="n">
-        <v>1356665562915.057</v>
+        <v>1.549600776970735e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>78.81009055632794</v>
+        <v>78.81009076898766</v>
       </c>
       <c r="G42" t="n">
-        <v>1.488409484904169e-15</v>
+        <v>1.488409332515363e-15</v>
       </c>
       <c r="H42" t="n">
-        <v>15.76201811126559</v>
+        <v>15.76201815379753</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>4.335151000000001</v>
+        <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>27089085012066.34</v>
+        <v>3.094149972036915e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>8997019233492.309</v>
+        <v>1.027651059465359e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>762311055396.5532</v>
+        <v>8.707214478692477e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>1214698795779.593</v>
+        <v>1.387444517924068e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>79.79522127165913</v>
+        <v>79.79522136599519</v>
       </c>
       <c r="G43" t="n">
-        <v>9.261794896506349e-16</v>
+        <v>9.261794475663725e-16</v>
       </c>
       <c r="H43" t="n">
-        <v>15.95904425433183</v>
+        <v>15.95904427319904</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>4.340042</v>
+        <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>25371093040944.13</v>
+        <v>2.897918731006147e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>9223589301480.492</v>
+        <v>1.053530181054869e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>691360270684.231</v>
+        <v>7.896805530440847e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>1135018116705.955</v>
+        <v>1.29643222497347e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>53.49732194950037</v>
+        <v>53.49732176328502</v>
       </c>
       <c r="G44" t="n">
-        <v>2.658520714110878e-10</v>
+        <v>2.658520948267549e-10</v>
       </c>
       <c r="H44" t="n">
-        <v>10.69946438990008</v>
+        <v>10.699464352657</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>4.344876999999999</v>
+        <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>24340625844024.32</v>
+        <v>2.780217450510131e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>6145213826021.117</v>
+        <v>7.019141918578702e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>667349604526.1036</v>
+        <v>7.622552636182258e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>1081858769050.481</v>
+        <v>1.235712939925875e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>37.82906517340785</v>
+        <v>37.82906531522455</v>
       </c>
       <c r="G45" t="n">
-        <v>4.083625991772156e-07</v>
+        <v>4.08362572399257e-07</v>
       </c>
       <c r="H45" t="n">
-        <v>7.56581303468157</v>
+        <v>7.565813063044911</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>4.349976</v>
+        <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>23936979545529.25</v>
+        <v>2.734112454714644e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>5651904489525.793</v>
+        <v>6.455677677799766e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>630301186404.9191</v>
+        <v>7.19938086223421e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>1020303744257.449</v>
+        <v>1.165404001876429e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>43.35531687548308</v>
+        <v>43.35531705142331</v>
       </c>
       <c r="G46" t="n">
-        <v>3.130299563642103e-08</v>
+        <v>3.130299306466344e-08</v>
       </c>
       <c r="H46" t="n">
-        <v>8.671063375096617</v>
+        <v>8.671063410284662</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>4.370053</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>20197016078942.14</v>
+        <v>2.306929036374293e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>3423324742149.682</v>
+        <v>3.910165359116392e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>570875804879.2312</v>
+        <v>6.520616536610659e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>904518638448.7026</v>
+        <v>1.033152769683112e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>36.45447748768392</v>
+        <v>36.45447740129922</v>
       </c>
       <c r="G47" t="n">
-        <v>7.703414247593483e-07</v>
+        <v>7.703414554398702e-07</v>
       </c>
       <c r="H47" t="n">
-        <v>7.290895497536783</v>
+        <v>7.290895480259844</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>4.390148</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>20736569619016.03</v>
+        <v>2.368557533501193e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>3580696064944.086</v>
+        <v>4.089916934452323e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>590111987723.4757</v>
+        <v>6.740334677087483e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>939618225702.7528</v>
+        <v>1.07324396779882e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>37.16433594528971</v>
+        <v>37.16433626943369</v>
       </c>
       <c r="G48" t="n">
-        <v>5.551876321537381e-07</v>
+        <v>5.551875490571305e-07</v>
       </c>
       <c r="H48" t="n">
-        <v>7.432867189057942</v>
+        <v>7.432867253886738</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>4.410025</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>22533462944011.07</v>
+        <v>2.573800986715144e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>1903493984453.623</v>
+        <v>2.174195215617742e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>659026740561.6425</v>
+        <v>7.527487819846075e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>1030218827122.083</v>
+        <v>1.17672913527724e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>42.90294293586462</v>
+        <v>42.90294280957129</v>
       </c>
       <c r="G49" t="n">
-        <v>3.866284714220288e-08</v>
+        <v>3.866284942067756e-08</v>
       </c>
       <c r="H49" t="n">
-        <v>8.580588587172924</v>
+        <v>8.580588561914258</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>4.420244</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>23164000319886.02</v>
+        <v>2.645821775584594e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>4392171435321.748</v>
+        <v>5.016794424372166e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>762719427464.7836</v>
+        <v>8.711878956795163e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>1208974914356.597</v>
+        <v>1.380906627368972e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>23.81440469553697</v>
+        <v>23.8144047732824</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0002356860022683168</v>
+        <v>0.0002356859941682052</v>
       </c>
       <c r="H50" t="n">
-        <v>4.762880939107395</v>
+        <v>4.762880954656481</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>4.430182</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>22868406940767.96</v>
+        <v>2.612058720872525e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>4550395812486.818</v>
+        <v>5.197520354186983e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>719084339879.833</v>
+        <v>8.213473401095753e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>1130275177761.8</v>
+        <v>1.291014779003669e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>29.32400154905525</v>
+        <v>29.32400149200353</v>
       </c>
       <c r="G51" t="n">
-        <v>2.002900010338594e-05</v>
+        <v>2.002900062011921e-05</v>
       </c>
       <c r="H51" t="n">
-        <v>5.86480030981105</v>
+        <v>5.864800298400705</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>4.440043</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>19165680483717.5</v>
+        <v>2.189128566614696e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>4990648211790.77</v>
+        <v>5.700382285143672e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>1021328312816.235</v>
+        <v>1.166574276523014e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>1577394840853.7</v>
+        <v>1.80172058477115e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>23.70119624121801</v>
+        <v>23.70119631180941</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0002477774927593468</v>
+        <v>0.0002477774850317112</v>
       </c>
       <c r="H52" t="n">
-        <v>4.740239248243602</v>
+        <v>4.740239262361881</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>4.449945</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>18572452661305.39</v>
+        <v>2.121369324852081e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>7175104612157.656</v>
+        <v>8.195496331740705e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>1096477138866.52</v>
+        <v>1.252410227069811e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>1709325399047.666</v>
+        <v>1.95241335754401e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>38.35613751443972</v>
+        <v>38.35613757428182</v>
       </c>
       <c r="G53" t="n">
-        <v>3.199981499252123e-07</v>
+        <v>3.199981410614433e-07</v>
       </c>
       <c r="H53" t="n">
-        <v>7.671227502887945</v>
+        <v>7.671227514856364</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>4.454988</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>12615213415245.95</v>
+        <v>1.440925830618836e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>2720578410272.865</v>
+        <v>3.107479471641821e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>1876831217586.882</v>
+        <v>2.143740647596579e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>2828379666671.396</v>
+        <v>3.230611468525516e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>3.23786229308234</v>
+        <v>3.2378623207258</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6633675298861811</v>
+        <v>0.6633675256431527</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6475724586164679</v>
+        <v>0.6475724641451601</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>4.460121</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>12220175685449.14</v>
+        <v>1.39580411172368e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>2366905303986.223</v>
+        <v>2.703509560819596e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>2565726202813.288</v>
+        <v>2.930605321745582e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>3434036571525.47</v>
+        <v>3.922400543387235e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>2.018330458019239</v>
+        <v>2.01833045570072</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8466028986120357</v>
+        <v>0.8466028989343009</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4036660916038478</v>
+        <v>0.4036660911401439</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>4.469957</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>12058549703110.36</v>
+        <v>1.377342987872847e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>6707061634729.081</v>
+        <v>7.660891643705211e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>1770311179291.45</v>
+        <v>2.022072095558899e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>2770241170594.048</v>
+        <v>3.164204934669046e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>3.938355096801633</v>
+        <v>3.938355116455717</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5583250814182613</v>
+        <v>0.5583250785671711</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7876710193603266</v>
+        <v>0.7876710232911435</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>4.477981</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>14376587193595.93</v>
+        <v>1.642112196449413e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>10735502968688.46</v>
+        <v>1.226222893868972e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>1738078855290.173</v>
+        <v>1.985255923234917e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>2855248938450.826</v>
+        <v>3.261301896085034e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>14.79605597100425</v>
+        <v>14.79605595870417</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01127024672412512</v>
+        <v>0.01127024678114064</v>
       </c>
       <c r="H57" t="n">
-        <v>2.959211194200851</v>
+        <v>2.959211191740835</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>4.486129</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>23269306842964.14</v>
+        <v>2.65785002204918e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>10459758317157.2</v>
+        <v>1.194726986451457e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>1457574592552.182</v>
+        <v>1.664860363189384e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>2330459660940.553</v>
+        <v>2.661880864728092e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>17.95747778095388</v>
+        <v>17.95747781084397</v>
       </c>
       <c r="G58" t="n">
-        <v>0.00300017155618918</v>
+        <v>0.003000171518059129</v>
       </c>
       <c r="H58" t="n">
-        <v>3.591495556190775</v>
+        <v>3.591495562168794</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>4.488189</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>26142489358012.63</v>
+        <v>2.986028606674506e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>10456456869631.12</v>
+        <v>1.194349893328086e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>1376566229298.527</v>
+        <v>1.572331572719168e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>2206912775479.131</v>
+        <v>2.520764030438721e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>31.16561684723575</v>
+        <v>31.1656169063507</v>
       </c>
       <c r="G59" t="n">
-        <v>8.687688208946652e-06</v>
+        <v>8.687687975347073e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>6.233123369447149</v>
+        <v>6.233123381270141</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>4.490073000000001</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>25204598095969.37</v>
+        <v>2.878901466330805e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>11704166306556.04</v>
+        <v>1.336864859028005e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>1363465394822.794</v>
+        <v>1.557367632342358e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>2155454281305.214</v>
+        <v>2.461987478906191e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>22.88588120553447</v>
+        <v>22.88588128699536</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0003549507575405286</v>
+        <v>0.0003549507448206361</v>
       </c>
       <c r="H60" t="n">
-        <v>4.577176241106893</v>
+        <v>4.577176257399072</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>4.492223</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>26705834738435.8</v>
+        <v>3.050374639649695e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>14375162375345.23</v>
+        <v>1.641949452841328e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>1028908634783.665</v>
+        <v>1.175232618335571e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>1668659715300.21</v>
+        <v>1.905964494459583e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>50.81521547426708</v>
+        <v>50.81521523231378</v>
       </c>
       <c r="G61" t="n">
-        <v>9.436354629439746e-10</v>
+        <v>9.43635570622029e-10</v>
       </c>
       <c r="H61" t="n">
-        <v>10.16304309485342</v>
+        <v>10.16304304646276</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>4.494992</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>30376950078076.9</v>
+        <v>3.469694130670587e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>15132331088113.12</v>
+        <v>1.728434236451632e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>910224598804.6952</v>
+        <v>1.039670191518021e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>1517218464606.823</v>
+        <v>1.732986356683804e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>65.81665217027891</v>
+        <v>65.81665234039441</v>
       </c>
       <c r="G62" t="n">
-        <v>7.586809764144105e-13</v>
+        <v>7.586809147361785e-13</v>
       </c>
       <c r="H62" t="n">
-        <v>13.16333043405578</v>
+        <v>13.16333046807888</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>4.499972000000001</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>32665054488424</v>
+        <v>3.731044347852411e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>13211535405032.12</v>
+        <v>1.509038488839826e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>897241249695.6267</v>
+        <v>1.024840442944741e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>1474508677537.495</v>
+        <v>1.6842026906185e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>68.59901427472489</v>
+        <v>68.59901409571705</v>
       </c>
       <c r="G63" t="n">
-        <v>2.004747052358426e-13</v>
+        <v>2.00474722416944e-13</v>
       </c>
       <c r="H63" t="n">
-        <v>13.71980285494498</v>
+        <v>13.71980281914341</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>4.510205</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>35028577414890.38</v>
+        <v>4.00100896457823e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>15905865038209.36</v>
+        <v>1.816788270196083e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>858359430924.3751</v>
+        <v>9.804291318631366e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>1450958596864.557</v>
+        <v>1.657303486734308e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>78.05895957948721</v>
+        <v>78.05895943553224</v>
       </c>
       <c r="G64" t="n">
-        <v>2.136716131579984e-15</v>
+        <v>2.136716279614133e-15</v>
       </c>
       <c r="H64" t="n">
-        <v>15.61179191589744</v>
+        <v>15.61179188710645</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>4.512183</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>37702108683942.83</v>
+        <v>4.306383124720637e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>19134030502476.22</v>
+        <v>2.185513465956022e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>1124906397054.615</v>
+        <v>1.284882489305254e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>1826873304597.201</v>
+        <v>2.086678078824754e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>126.9889928631448</v>
+        <v>126.9889931507668</v>
       </c>
       <c r="G65" t="n">
-        <v>1.036041871016649e-25</v>
+        <v>1.0360417254873e-25</v>
       </c>
       <c r="H65" t="n">
-        <v>25.39779857262896</v>
+        <v>25.39779863015336</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>4.515076000000001</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>38079791654561.67</v>
+        <v>4.349522561910528e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>15543195738555.66</v>
+        <v>1.775363715155079e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>1717933129281.68</v>
+        <v>1.962245217644379e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>2619334325091.541</v>
+        <v>2.991837204328042e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>85.64126340121166</v>
+        <v>85.64126340856461</v>
       </c>
       <c r="G66" t="n">
-        <v>5.523341226774909e-17</v>
+        <v>5.523341207163419e-17</v>
       </c>
       <c r="H66" t="n">
-        <v>17.12825268024233</v>
+        <v>17.12825268171292</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>4.520067</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>34492395064804.57</v>
+        <v>3.939765525809229e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>7539667131362.773</v>
+        <v>8.611904356567215e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>1973852113287.491</v>
+        <v>2.254559157377442e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>2927673571837.966</v>
+        <v>3.344026240081293e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>70.71757507035525</v>
+        <v>70.71757519307266</v>
       </c>
       <c r="G67" t="n">
-        <v>7.265636628651527e-14</v>
+        <v>7.265636201226747e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>14.14351501407105</v>
+        <v>14.14351503861453</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>4.525238</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>28784220642429.19</v>
+        <v>3.287770537757465e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>10155996427850.34</v>
+        <v>1.160030913814166e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>2448692826433.5</v>
+        <v>2.796928301193564e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>3771754333245.087</v>
+        <v>4.308146094036665e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>48.14236509159566</v>
+        <v>48.14236512245456</v>
       </c>
       <c r="G68" t="n">
-        <v>3.322003358545269e-09</v>
+        <v>3.32200331035287e-09</v>
       </c>
       <c r="H68" t="n">
-        <v>9.628473018319132</v>
+        <v>9.628473024490912</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>4.529406</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>28358629014835.62</v>
+        <v>3.239158916182714e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>11682414292785.62</v>
+        <v>1.334380317198339e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>1964246478831.824</v>
+        <v>2.243587479189116e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>2897968116256.762</v>
+        <v>3.310096288192268e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>93.50233326791745</v>
+        <v>93.50233324479089</v>
       </c>
       <c r="G69" t="n">
-        <v>1.233493954623776e-18</v>
+        <v>1.23349396843905e-18</v>
       </c>
       <c r="H69" t="n">
-        <v>18.70046665358349</v>
+        <v>18.70046664895818</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>4.535056</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>20539348817057.41</v>
+        <v>2.346030721216147e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>-6428940297910.648</v>
+        <v>-7.34321792377063e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>2865866426264.658</v>
+        <v>3.273429329936118e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>3687384260667.161</v>
+        <v>4.211777518473215e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>53.26535844851433</v>
+        <v>53.26535847493826</v>
       </c>
       <c r="G70" t="n">
-        <v>2.966767264700923e-10</v>
+        <v>2.966767227630466e-10</v>
       </c>
       <c r="H70" t="n">
-        <v>10.65307168970287</v>
+        <v>10.65307169498765</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>4.540236</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>22459134863022.09</v>
+        <v>2.565311140496083e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>2097378211368.049</v>
+        <v>2.395652236363612e-06</v>
       </c>
       <c r="D71" t="n">
-        <v>3973333090008.419</v>
+        <v>4.538391928205927e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>6193747342187.797</v>
+        <v>7.074577515578623e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>10.87114057905229</v>
+        <v>10.87114055411535</v>
       </c>
       <c r="G71" t="n">
-        <v>0.05399559963774889</v>
+        <v>0.05399560015584037</v>
       </c>
       <c r="H71" t="n">
-        <v>2.174228115810457</v>
+        <v>2.17422811082307</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>4.549804</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>30915342758276.86</v>
+        <v>3.531190032697665e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>3351524950729.605</v>
+        <v>3.828154720239741e-06</v>
       </c>
       <c r="D72" t="n">
-        <v>2156327337752.822</v>
+        <v>2.462984695260594e-06</v>
       </c>
       <c r="E72" t="n">
-        <v>3264709751809.232</v>
+        <v>3.728993279831975e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>35.1954510004811</v>
+        <v>35.19545096444925</v>
       </c>
       <c r="G72" t="n">
-        <v>1.37537564684611e-06</v>
+        <v>1.375375669629068e-06</v>
       </c>
       <c r="H72" t="n">
-        <v>7.03909020009622</v>
+        <v>7.03909019288985</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>4.560183</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>11004363959499.87</v>
+        <v>1.256932539948292e-05</v>
       </c>
       <c r="C73" t="n">
-        <v>-1224744507352.488</v>
+        <v>-1.398918852493725e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>2988582146655.781</v>
+        <v>3.413596794794387e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>3945802356162.487</v>
+        <v>4.506945974269703e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>1.485862663564187</v>
+        <v>1.485862659127364</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9146954708054584</v>
+        <v>0.9146954713138261</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2971725327128374</v>
+        <v>0.2971725318254728</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>4.570129</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>6588099915122.414</v>
+        <v>7.52501208223988e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>6198371660118.133</v>
+        <v>7.0798594850429e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>1924540285176.161</v>
+        <v>2.198234555569376e-06</v>
       </c>
       <c r="E74" t="n">
-        <v>3444452547798.077</v>
+        <v>3.934297802329491e-06</v>
       </c>
       <c r="F74" t="n">
-        <v>2.126884299550015</v>
+        <v>2.126884295668088</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8313242548290096</v>
+        <v>0.8313242553818566</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4253768599100031</v>
+        <v>0.4253768591336176</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>4.580025</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>9148307650279.914</v>
+        <v>1.044931412114363e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>10817648211115.07</v>
+        <v>1.235605627936609e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>1796356152433.22</v>
+        <v>2.051820997912479e-06</v>
       </c>
       <c r="E75" t="n">
-        <v>3306085636678.334</v>
+        <v>3.7762533452223e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>4.612166491234406</v>
+        <v>4.61216648555766</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4650176238784631</v>
+        <v>0.4650176246235836</v>
       </c>
       <c r="H75" t="n">
-        <v>0.9224332982468813</v>
+        <v>0.922433297111532</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>4.590082</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>19709352881553.8</v>
+        <v>2.251227519588103e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>10682169052234.68</v>
+        <v>1.220131025757743e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>1721297647308.073</v>
+        <v>1.966088211872759e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>2636670441469.55</v>
+        <v>3.011638737870485e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>68.96300797265553</v>
+        <v>68.96300813444064</v>
       </c>
       <c r="G76" t="n">
-        <v>1.684100889403831e-13</v>
+        <v>1.68410075892961e-13</v>
       </c>
       <c r="H76" t="n">
-        <v>13.79260159453111</v>
+        <v>13.79260162688813</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>4.600268</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>45035162953059.83</v>
+        <v>5.143973965630969e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>3805554300326.941</v>
+        <v>4.346752841416874e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>2651120333350.436</v>
+        <v>3.028143590066236e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>3565870827948.37</v>
+        <v>4.072983316274165e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>292.5185129608969</v>
+        <v>292.5185118081541</v>
       </c>
       <c r="G77" t="n">
-        <v>4.063564727338325e-61</v>
+        <v>4.063567045604933e-61</v>
       </c>
       <c r="H77" t="n">
-        <v>58.50370259217939</v>
+        <v>58.50370236163083</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>4.609989</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>36509734655666</v>
+        <v>4.170188644838825e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>15796752318565.56</v>
+        <v>1.804325266390815e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>2962122853273.425</v>
+        <v>3.38337465103214e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>4129669977361.194</v>
+        <v>4.716961927082198e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>765.7746212050419</v>
+        <v>765.7746221507707</v>
       </c>
       <c r="G78" t="n">
-        <v>2.929708115482442e-163</v>
+        <v>2.929706735541175e-163</v>
       </c>
       <c r="H78" t="n">
-        <v>153.1549242410084</v>
+        <v>153.1549244301542</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>4.620227</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>23139322120016.59</v>
+        <v>2.643002998729391e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>38561780059807.05</v>
+        <v>4.404575892120703e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>2252615097145.986</v>
+        <v>2.572965806640822e-06</v>
       </c>
       <c r="E79" t="n">
-        <v>4233353662791.651</v>
+        <v>4.835390759420753e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>660.4542194362524</v>
+        <v>660.4542186518682</v>
       </c>
       <c r="G79" t="n">
-        <v>1.740774716422775e-140</v>
+        <v>1.740775396049218e-140</v>
       </c>
       <c r="H79" t="n">
-        <v>132.0908438872505</v>
+        <v>132.0908437303736</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>4.629939</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>60002200418880.88</v>
+        <v>6.853528165029332e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>-19263610601371.41</v>
+        <v>-2.200314276521379e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>4057179049614.163</v>
+        <v>4.634161859190155e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>4788295681556.74</v>
+        <v>5.469252637570877e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>651.5805136930428</v>
+        <v>651.5805133008668</v>
       </c>
       <c r="G80" t="n">
-        <v>1.441644458679587e-138</v>
+        <v>1.441644740071274e-138</v>
       </c>
       <c r="H80" t="n">
-        <v>130.3161027386085</v>
+        <v>130.3161026601734</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>4.635173</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>51493459373352.54</v>
+        <v>5.881648860568395e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>1726742712805.617</v>
+        <v>1.972307607851755e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>2942503776296.147</v>
+        <v>3.360965490555455e-06</v>
       </c>
       <c r="E81" t="n">
-        <v>3906874920355.556</v>
+        <v>4.462482558720505e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>392.3438019744445</v>
+        <v>392.3438013418392</v>
       </c>
       <c r="G81" t="n">
-        <v>1.325138935081708e-82</v>
+        <v>1.325139351038126e-82</v>
       </c>
       <c r="H81" t="n">
-        <v>78.4687603948889</v>
+        <v>78.46876026836784</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>4.639959999999999</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>75779961303522.7</v>
+        <v>8.655684211857567e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>20686286959723.76</v>
+        <v>2.362814184122124e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>2847698970729.261</v>
+        <v>3.25267822893084e-06</v>
       </c>
       <c r="E82" t="n">
-        <v>4188218566133.808</v>
+        <v>4.783836875123688e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>200.3356619825751</v>
+        <v>200.3356626210633</v>
       </c>
       <c r="G82" t="n">
-        <v>2.407725959843294e-41</v>
+        <v>2.407725202587251e-41</v>
       </c>
       <c r="H82" t="n">
-        <v>40.06713239651503</v>
+        <v>40.06713252421267</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>4.649962</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>73497565927145.2</v>
+        <v>8.39498609060403e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>25383192781631.73</v>
+        <v>2.899300765705006e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>2569474556650.651</v>
+        <v>2.934886737789504e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>3735352237446.687</v>
+        <v>4.266567152581555e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>335.8198400266954</v>
+        <v>335.8198410397957</v>
       </c>
       <c r="G83" t="n">
-        <v>1.974697212578687e-70</v>
+        <v>1.974696221178639e-70</v>
       </c>
       <c r="H83" t="n">
-        <v>67.16396800533907</v>
+        <v>67.16396820795913</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>4.670119000000001</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>77286473002337.09</v>
+        <v>8.827759905423227e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>492750323869.6562</v>
+        <v>5.628257799191819e-07</v>
       </c>
       <c r="D84" t="n">
-        <v>2291658585904.442</v>
+        <v>2.617561780402574e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>3051404810014.036</v>
+        <v>3.485353645400314e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>431.6412321065713</v>
+        <v>431.6412334105077</v>
       </c>
       <c r="G84" t="n">
-        <v>4.475231309374747e-91</v>
+        <v>4.475228411852188e-91</v>
       </c>
       <c r="H84" t="n">
-        <v>86.32824642131426</v>
+        <v>86.32824668210154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>4.680153</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>66039600173200.65</v>
+        <v>7.543127690862033e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>3818970964298.125</v>
+        <v>4.362077446224486e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>1809117739353.01</v>
+        <v>2.066397446039879e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>2536877151119.712</v>
+        <v>2.897653564211695e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>264.4464325304496</v>
+        <v>264.4464324352595</v>
       </c>
       <c r="G85" t="n">
-        <v>4.359429124261907e-55</v>
+        <v>4.359429329413183e-55</v>
       </c>
       <c r="H85" t="n">
-        <v>52.88928650608992</v>
+        <v>52.88928648705189</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>4.689928</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>47388179934557.4</v>
+        <v>5.412738591345545e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>13406908052425.27</v>
+        <v>1.531354201788904e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>1289227355881.32</v>
+        <v>1.472571993424313e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>1944446825821.042</v>
+        <v>2.220972062143498e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>225.1043131251008</v>
+        <v>225.1043139024529</v>
       </c>
       <c r="G86" t="n">
-        <v>1.197812808410681e-46</v>
+        <v>1.197812348999311e-46</v>
       </c>
       <c r="H86" t="n">
-        <v>45.02086262502015</v>
+        <v>45.02086278049059</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>4.71002</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>44906019070587.05</v>
+        <v>5.129222994670342e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>15527121079456.83</v>
+        <v>1.77352764972477e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>1082531178032.516</v>
+        <v>1.236480972064941e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>1732877837866.497</v>
+        <v>1.979315253735486e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>140.7995080785847</v>
+        <v>140.7995084098285</v>
       </c>
       <c r="G87" t="n">
-        <v>1.209806648162457e-28</v>
+        <v>1.209806452001052e-28</v>
       </c>
       <c r="H87" t="n">
-        <v>28.15990161571693</v>
+        <v>28.1599016819657</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>4.730004</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>48916972139767.71</v>
+        <v>5.58735919191892e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>17105364614186.13</v>
+        <v>1.953796646944658e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>1237042402851.772</v>
+        <v>1.412965671562726e-06</v>
       </c>
       <c r="E88" t="n">
-        <v>1964608111602.255</v>
+        <v>2.244000538937138e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>145.8146339445554</v>
+        <v>145.8146351308933</v>
       </c>
       <c r="G88" t="n">
-        <v>1.037956580330956e-29</v>
+        <v>1.037955977142094e-29</v>
       </c>
       <c r="H88" t="n">
-        <v>29.16292678891108</v>
+        <v>29.16292702617866</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>4.749999</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>68822645038378.65</v>
+        <v>7.861010642278524e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>21605847141453.08</v>
+        <v>2.467847529398747e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>1732891784140.896</v>
+        <v>1.97933118348189e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>2635725333130.496</v>
+        <v>3.010559223873961e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>264.3520403175328</v>
+        <v>264.3520418242815</v>
       </c>
       <c r="G89" t="n">
-        <v>4.567681501817266e-55</v>
+        <v>4.567678099402225e-55</v>
       </c>
       <c r="H89" t="n">
-        <v>52.87040806350656</v>
+        <v>52.8704083648563</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>4.755179</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>114653516944037.5</v>
+        <v>0.0001309587151207759</v>
       </c>
       <c r="C90" t="n">
-        <v>15551809317453.77</v>
+        <v>1.776347563289871e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>3068072440230.059</v>
+        <v>3.504391625709248e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>4268309241054.191</v>
+        <v>4.87531746649747e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>455.3572407039155</v>
+        <v>455.3572409474763</v>
       </c>
       <c r="G90" t="n">
-        <v>3.43270742148838e-96</v>
+        <v>3.432707006193924e-96</v>
       </c>
       <c r="H90" t="n">
-        <v>91.0714481407831</v>
+        <v>91.07144818949527</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>4.758876</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>123060723450837.6</v>
+        <v>0.000140561534016174</v>
       </c>
       <c r="C91" t="n">
-        <v>21197878222720.35</v>
+        <v>2.421248817532824e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>3229737165804.777</v>
+        <v>3.689047145881771e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>4570930489655.534</v>
+        <v>5.220975332485535e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>412.4498944364663</v>
+        <v>412.4498942487894</v>
       </c>
       <c r="G91" t="n">
-        <v>6.147153183347809e-87</v>
+        <v>6.147153756011555e-87</v>
       </c>
       <c r="H91" t="n">
-        <v>82.48997888729325</v>
+        <v>82.48997884975788</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>4.770038</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>126354995040043.8</v>
+        <v>0.0001443242931620015</v>
       </c>
       <c r="C92" t="n">
-        <v>40078665069029.09</v>
+        <v>4.577836454432967e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>3264560733231.622</v>
+        <v>3.728823070500151e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>4896570658291.769</v>
+        <v>5.592925703320958e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>321.4271323270841</v>
+        <v>321.4271317693494</v>
       </c>
       <c r="G92" t="n">
-        <v>2.468736539115636e-67</v>
+        <v>2.468737221179944e-67</v>
       </c>
       <c r="H92" t="n">
-        <v>64.2854264654168</v>
+        <v>64.28542635386989</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>4.775016</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>118610827460439.9</v>
+        <v>0.0001354788055657406</v>
       </c>
       <c r="C93" t="n">
-        <v>35686932473139.45</v>
+        <v>4.076207109608645e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>3282730550604.212</v>
+        <v>3.74957686681465e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>5005952169905.727</v>
+        <v>5.717862664337714e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>185.8000886297884</v>
+        <v>185.8000885997949</v>
       </c>
       <c r="G93" t="n">
-        <v>3.086059445826499e-38</v>
+        <v>3.086059491368199e-38</v>
       </c>
       <c r="H93" t="n">
-        <v>37.16001772595769</v>
+        <v>37.16001771995897</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>4.780179</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>94417218847833.44</v>
+        <v>0.0001078445563265729</v>
       </c>
       <c r="C94" t="n">
-        <v>36598090512324.38</v>
+        <v>4.180280748885223e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>3634180267720.045</v>
+        <v>4.151007230226863e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>5698861911748.743</v>
+        <v>6.509313039623131e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>68.81517116884046</v>
+        <v>68.81517145982143</v>
       </c>
       <c r="G94" t="n">
-        <v>1.807642037195961e-13</v>
+        <v>1.807641785338336e-13</v>
       </c>
       <c r="H94" t="n">
-        <v>13.76303423376809</v>
+        <v>13.76303429196428</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>4.790118</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>163029829768365.5</v>
+        <v>0.0001862147591563949</v>
       </c>
       <c r="C95" t="n">
-        <v>72442972114476.66</v>
+        <v>8.274529039288051e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>4771449534657.216</v>
+        <v>5.450010749843004e-06</v>
       </c>
       <c r="E95" t="n">
-        <v>8072037661893.123</v>
+        <v>9.219984778804009e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>32.10354360985498</v>
+        <v>32.10354398359002</v>
       </c>
       <c r="G95" t="n">
-        <v>5.667244103468925e-06</v>
+        <v>5.667243137448895e-06</v>
       </c>
       <c r="H95" t="n">
-        <v>6.420708721970996</v>
+        <v>6.420708796718005</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>4.799915</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>339662230274523.2</v>
+        <v>0.0003879665486137466</v>
       </c>
       <c r="C96" t="n">
-        <v>157677126827871.4</v>
+        <v>0.0001801008332602891</v>
       </c>
       <c r="D96" t="n">
-        <v>7693269805427.772</v>
+        <v>8.787351277581957e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>13577276649855.35</v>
+        <v>1.550813923499032e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>30.61049073798542</v>
+        <v>30.61049070619307</v>
       </c>
       <c r="G96" t="n">
-        <v>1.118077669384523e-05</v>
+        <v>1.118077685525628e-05</v>
       </c>
       <c r="H96" t="n">
-        <v>6.122098147597083</v>
+        <v>6.122098141238614</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>4.810027</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>300683465232562.6</v>
+        <v>0.0003434445040296487</v>
       </c>
       <c r="C97" t="n">
-        <v>152344011235575.3</v>
+        <v>0.0001740092804762114</v>
       </c>
       <c r="D97" t="n">
-        <v>6674991391483.97</v>
+        <v>7.624260632781274e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>12012584257382.03</v>
+        <v>1.37209275442214e-05</v>
       </c>
       <c r="F97" t="n">
-        <v>26.17208299608272</v>
+        <v>26.17208318954875</v>
       </c>
       <c r="G97" t="n">
-        <v>8.263314234801533e-05</v>
+        <v>8.263313520378672e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>5.234416599216543</v>
+        <v>5.23441663790975</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>4.81216</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>198882760478543.4</v>
+        <v>0.000227166435531436</v>
       </c>
       <c r="C98" t="n">
-        <v>105017448809088.8</v>
+        <v>0.0001199522746088946</v>
       </c>
       <c r="D98" t="n">
-        <v>4357810039945.289</v>
+        <v>4.977546421315388e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>7913808652425.321</v>
+        <v>9.039253567318394e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>26.69683756662565</v>
+        <v>26.6968377037123</v>
       </c>
       <c r="G98" t="n">
-        <v>6.534300427417523e-05</v>
+        <v>6.534300026246929e-05</v>
       </c>
       <c r="H98" t="n">
-        <v>5.339367513325129</v>
+        <v>5.339367540742461</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>4.81527</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>129184663408471.5</v>
+        <v>0.0001475563766491011</v>
       </c>
       <c r="C99" t="n">
-        <v>60100403201195.83</v>
+        <v>6.864744995507314e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>2854205135117.005</v>
+        <v>3.260109650960621e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>5157913069076.747</v>
+        <v>5.891434351237111e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>18.91389240238768</v>
+        <v>18.91389242038539</v>
       </c>
       <c r="G99" t="n">
-        <v>0.001994423369895624</v>
+        <v>0.00199442335451132</v>
       </c>
       <c r="H99" t="n">
-        <v>3.782778480477537</v>
+        <v>3.782778484077079</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>4.820058</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>64572480186862.73</v>
+        <v>7.375551368482135e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>27348325178618.31</v>
+        <v>3.123760723662597e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>1501889438851.17</v>
+        <v>1.715477347246948e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>2699652121434.524</v>
+        <v>3.08357721933566e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>13.05291842150354</v>
+        <v>13.05291839543097</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02288787984036668</v>
+        <v>0.02288788007976935</v>
       </c>
       <c r="H100" t="n">
-        <v>2.610583684300709</v>
+        <v>2.610583679086194</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>4.829886</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>46601274292511.1</v>
+        <v>5.322857216161281e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>15334095861219.69</v>
+        <v>1.751480065422884e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>1056098500160.153</v>
+        <v>1.206289229888414e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>1848417916524.823</v>
+        <v>2.111286612200767e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>7.411258171207383</v>
+        <v>7.411258219831755</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1918065788933806</v>
+        <v>0.1918065756860297</v>
       </c>
       <c r="H101" t="n">
-        <v>1.482251634241476</v>
+        <v>1.482251643966351</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>4.85003</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>48066818014555.02</v>
+        <v>5.490253496119953e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>13445811375923.5</v>
+        <v>1.535797792141741e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>1079780521767.975</v>
+        <v>1.233339137338996e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>1832104174459.932</v>
+        <v>2.092652845372997e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>24.8272132202931</v>
+        <v>24.82721323010852</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0001504546024547168</v>
+        <v>0.000150454601798679</v>
       </c>
       <c r="H102" t="n">
-        <v>4.965442644058621</v>
+        <v>4.965442646021705</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>4.866293</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>51347910657581.06</v>
+        <v>5.865024100812931e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>15133005014158.94</v>
+        <v>1.728511208232966e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>1168172935996.653</v>
+        <v>1.334302084396869e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>1967997442143.631</v>
+        <v>2.247871875525827e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>33.34913238698147</v>
+        <v>33.34913252133846</v>
       </c>
       <c r="G103" t="n">
-        <v>3.207944832861662e-06</v>
+        <v>3.207944635617671e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>6.669826477396295</v>
+        <v>6.669826504267692</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>4.889892</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>54303283777690.39</v>
+        <v>6.202590600476389e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>19126761817286.77</v>
+        <v>2.184683224969714e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>1177516069472.538</v>
+        <v>1.344973932088142e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>2026982079201.116</v>
+        <v>2.315244884746335e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>36.36049457314363</v>
+        <v>36.36049451994582</v>
       </c>
       <c r="G104" t="n">
-        <v>8.044506676163252e-07</v>
+        <v>8.044506873426484e-07</v>
       </c>
       <c r="H104" t="n">
-        <v>7.272098914628726</v>
+        <v>7.272098903989165</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>4.899914</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>57723894570651.73</v>
+        <v>6.593297149077141e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>20612586524151.41</v>
+        <v>2.354396024463504e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>1397909034862.355</v>
+        <v>1.596709598211165e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>2380951672436.876</v>
+        <v>2.719553486757338e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>26.95055542128091</v>
+        <v>26.95055537023359</v>
       </c>
       <c r="G105" t="n">
-        <v>5.832112497337469e-05</v>
+        <v>5.832112630804679e-05</v>
       </c>
       <c r="H105" t="n">
-        <v>5.390111084256182</v>
+        <v>5.390111074046717</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>4.910130000000001</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>57235421277190.58</v>
+        <v>6.53750310466977e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>24747032265822.81</v>
+        <v>2.82663770857606e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>1373277185852.233</v>
+        <v>1.568574784160734e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>2372054920409.317</v>
+        <v>2.70939150043193e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>37.58686233943032</v>
+        <v>37.58686239127374</v>
       </c>
       <c r="G106" t="n">
-        <v>4.567420631915752e-07</v>
+        <v>4.567420522481546e-07</v>
       </c>
       <c r="H106" t="n">
-        <v>7.517372467886064</v>
+        <v>7.517372478254748</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>4.919957</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>58345014115393.36</v>
+        <v>6.664242216185981e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>20430053813510.06</v>
+        <v>2.333546905962919e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>1518032487596.911</v>
+        <v>1.733916143070071e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>2542739434845.835</v>
+        <v>2.904349538557966e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>28.26093920568436</v>
+        <v>28.26093925357458</v>
       </c>
       <c r="G107" t="n">
-        <v>3.236339814940724e-05</v>
+        <v>3.236339745112565e-05</v>
       </c>
       <c r="H107" t="n">
-        <v>5.652187841136871</v>
+        <v>5.652187850714917</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>4.926154</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>60179770297653.23</v>
+        <v>6.873810418620185e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>19406337495512.4</v>
+        <v>2.216616719262043e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>1381794399327.21</v>
+        <v>1.578303254202671e-06</v>
       </c>
       <c r="E108" t="n">
-        <v>2320428367545.656</v>
+        <v>2.650422990722982e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>41.71374826669367</v>
+        <v>41.71374834433328</v>
       </c>
       <c r="G108" t="n">
-        <v>6.730641742377357e-08</v>
+        <v>6.730641499008142e-08</v>
       </c>
       <c r="H108" t="n">
-        <v>8.342749653338734</v>
+        <v>8.342749668866656</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>4.930194999999999</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>60499276678115.44</v>
+        <v>6.910304847629334e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>24728361156794.48</v>
+        <v>2.824505071223071e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>1494769643249.542</v>
+        <v>1.707345025648505e-06</v>
       </c>
       <c r="E109" t="n">
-        <v>2533352089618.181</v>
+        <v>2.893627193004805e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>47.61829794999927</v>
+        <v>47.61829820902238</v>
       </c>
       <c r="G109" t="n">
-        <v>4.249724439459618e-09</v>
+        <v>4.249723922322062e-09</v>
       </c>
       <c r="H109" t="n">
-        <v>9.523659589999856</v>
+        <v>9.523659641804477</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>4.936923</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>61254929142388.88</v>
+        <v>6.996616435596265e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>19844283485272.75</v>
+        <v>2.266639470053871e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>1428039797036.057</v>
+        <v>1.631125340078488e-06</v>
       </c>
       <c r="E110" t="n">
-        <v>2382903681661.066</v>
+        <v>2.721783095132052e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>53.1199463647355</v>
+        <v>53.11994619809386</v>
       </c>
       <c r="G110" t="n">
-        <v>3.177928422526135e-10</v>
+        <v>3.177928672911534e-10</v>
       </c>
       <c r="H110" t="n">
-        <v>10.6239892729471</v>
+        <v>10.62398923961877</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>4.946745</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>59887982922644.89</v>
+        <v>6.84048208682593e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>18741797547715.38</v>
+        <v>2.140712110512911e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>1438591904931.287</v>
+        <v>1.643178093023066e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>2342071742955.288</v>
+        <v>2.675144332642105e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>75.04565425237624</v>
+        <v>75.04565327117484</v>
       </c>
       <c r="G111" t="n">
-        <v>9.101083127905455e-15</v>
+        <v>9.101087419104135e-15</v>
       </c>
       <c r="H111" t="n">
-        <v>15.00913085047525</v>
+        <v>15.00913065423497</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>4.950269</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>61238184299192.2</v>
+        <v>6.994703815285654e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>23503826196031.11</v>
+        <v>2.684637122801577e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>1537329746661.945</v>
+        <v>1.755957720659257e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>2530151174696.39</v>
+        <v>2.889971067638723e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>81.21785548006876</v>
+        <v>81.2178548877765</v>
       </c>
       <c r="G112" t="n">
-        <v>4.66663341518378e-16</v>
+        <v>4.666634747382408e-16</v>
       </c>
       <c r="H112" t="n">
-        <v>16.24357109601375</v>
+        <v>16.2435709775553</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>4.956763</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>59291750688834.68</v>
+        <v>6.772379681958574e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>20398295184836.41</v>
+        <v>2.329919391951912e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>1446412029304.905</v>
+        <v>1.652110339521949e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>2368285947028.117</v>
+        <v>2.705086531500207e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>83.15430439685946</v>
+        <v>83.15430434350586</v>
       </c>
       <c r="G113" t="n">
-        <v>1.834383327979548e-16</v>
+        <v>1.834383375191501e-16</v>
       </c>
       <c r="H113" t="n">
-        <v>16.63086087937189</v>
+        <v>16.63086086870117</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>4.961869</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>61531708958874.39</v>
+        <v>7.028230586816764e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>20327279841644.85</v>
+        <v>2.321807937864519e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>1478669613236.529</v>
+        <v>1.688955364930333e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>2417122344986.361</v>
+        <v>2.760868090024413e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>80.00170177354651</v>
+        <v>80.00170262276728</v>
       </c>
       <c r="G114" t="n">
-        <v>8.384948598844118e-16</v>
+        <v>8.384945168723785e-16</v>
       </c>
       <c r="H114" t="n">
-        <v>16.0003403547093</v>
+        <v>16.00034052455346</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>4.964748</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>61211028189624.63</v>
+        <v>6.991602019169308e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>20083432471982.55</v>
+        <v>2.29395537268661e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>1516621034986.485</v>
+        <v>1.732303965108422e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>2456990369903.188</v>
+        <v>2.80640585968522e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>86.85345441260824</v>
+        <v>86.85345508651697</v>
       </c>
       <c r="G115" t="n">
-        <v>3.075559961675883e-17</v>
+        <v>3.075558960333782e-17</v>
       </c>
       <c r="H115" t="n">
-        <v>17.37069088252165</v>
+        <v>17.37069101730339</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>4.967875</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>61080201523121.17</v>
+        <v>6.976658822932581e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>21804019640176.17</v>
+        <v>2.490483037655408e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>1518501563467.875</v>
+        <v>1.73445192775273e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>2457923568901.006</v>
+        <v>2.80747176993613e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>105.213772281369</v>
+        <v>105.2137718816281</v>
       </c>
       <c r="G116" t="n">
-        <v>4.201173701958181e-21</v>
+        <v>4.201174518156981e-21</v>
       </c>
       <c r="H116" t="n">
-        <v>21.0427544562738</v>
+        <v>21.04275437632562</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>4.970043</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>67790370308839.64</v>
+        <v>7.743102895977816e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>25045647096802.69</v>
+        <v>2.860745876389785e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>1705083799239.281</v>
+        <v>1.94756854816211e-06</v>
       </c>
       <c r="E117" t="n">
-        <v>2811914327263.064</v>
+        <v>3.21180454896993e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>68.34517640524331</v>
+        <v>68.34517602777032</v>
       </c>
       <c r="G117" t="n">
-        <v>2.263780096602824e-13</v>
+        <v>2.263780505646833e-13</v>
       </c>
       <c r="H117" t="n">
-        <v>13.66903528104866</v>
+        <v>13.66903520555406</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>4.9728</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>63162080968730.62</v>
+        <v>7.2144537663187e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>22897947578084.19</v>
+        <v>2.615432894785371e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>1484762339887.058</v>
+        <v>1.695914555404901e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>2451129548189.821</v>
+        <v>2.799711553359372e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>85.61771690538573</v>
+        <v>85.61771766393667</v>
       </c>
       <c r="G118" t="n">
-        <v>5.586501636095996e-17</v>
+        <v>5.586499589802419e-17</v>
       </c>
       <c r="H118" t="n">
-        <v>17.12354338107715</v>
+        <v>17.12354353278733</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>4.974629</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>63212401478370.63</v>
+        <v>7.220201431652581e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>22041309325193.19</v>
+        <v>2.517586574664424e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>1569459962111.631</v>
+        <v>1.792657264154449e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>2544630155421.342</v>
+        <v>2.90650914547906e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>93.19047479370322</v>
+        <v>93.19047431300564</v>
       </c>
       <c r="G119" t="n">
-        <v>1.434583933912226e-18</v>
+        <v>1.434584267848508e-18</v>
       </c>
       <c r="H119" t="n">
-        <v>18.63809495874064</v>
+        <v>18.63809486260113</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>4.984706</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>64232583559574.78</v>
+        <v>7.336727937194217e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>23218762527299.23</v>
+        <v>2.652076789682538e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>1532087239258.717</v>
+        <v>1.749969661181692e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>2506146096161.317</v>
+        <v>2.862552160019005e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>95.05515286262977</v>
+        <v>95.05515294159412</v>
       </c>
       <c r="G120" t="n">
-        <v>5.813681212220858e-19</v>
+        <v>5.813680989777634e-19</v>
       </c>
       <c r="H120" t="n">
-        <v>19.01103057252595</v>
+        <v>19.01103058831882</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>4.990074</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>70668783788101.12</v>
+        <v>8.071878965906915e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>29843866086119.7</v>
+        <v>3.408804583325624e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>1706545161319.867</v>
+        <v>1.949237733519449e-06</v>
       </c>
       <c r="E121" t="n">
-        <v>2880230009448.638</v>
+        <v>3.28983559552645e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>68.51631114275723</v>
+        <v>68.51631147354202</v>
       </c>
       <c r="G121" t="n">
-        <v>2.085715483231116e-13</v>
+        <v>2.08571515293966e-13</v>
       </c>
       <c r="H121" t="n">
-        <v>13.70326222855145</v>
+        <v>13.7032622947084</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>4.994669</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>66711343585244.39</v>
+        <v>7.619855082512021e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>27488267938135.43</v>
+        <v>3.13974516351009e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>1533569195513.32</v>
+        <v>1.751662370214602e-06</v>
       </c>
       <c r="E122" t="n">
-        <v>2573666418945.165</v>
+        <v>2.93967473619288e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>86.26105348348798</v>
+        <v>86.26105370562597</v>
       </c>
       <c r="G122" t="n">
-        <v>4.09454558128538e-17</v>
+        <v>4.094545141962337e-17</v>
       </c>
       <c r="H122" t="n">
-        <v>17.2522106966976</v>
+        <v>17.25221074112519</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>5.004642</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>67012047940643.72</v>
+        <v>7.654201919315308e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>28838811448714.65</v>
+        <v>3.294005961222346e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>1488991780992.161</v>
+        <v>1.700745478535534e-06</v>
       </c>
       <c r="E123" t="n">
-        <v>2497708852893.902</v>
+        <v>2.852915033384845e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>111.5302798104887</v>
+        <v>111.5302800380067</v>
       </c>
       <c r="G123" t="n">
-        <v>1.945557525753026e-22</v>
+        <v>1.945557310275886e-22</v>
       </c>
       <c r="H123" t="n">
-        <v>22.30605596209774</v>
+        <v>22.30605600760134</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>5.00999</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>76724921986594.64</v>
+        <v>8.763618819150386e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>29300008319190.95</v>
+        <v>3.346684447607539e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>1791437199997.33</v>
+        <v>2.046202508314142e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>3010602021680.545</v>
+        <v>3.438748177345196e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>60.56546083201336</v>
+        <v>60.56546058878047</v>
       </c>
       <c r="G124" t="n">
-        <v>9.286728872514837e-12</v>
+        <v>9.286729947805673e-12</v>
       </c>
       <c r="H124" t="n">
-        <v>12.11309216640267</v>
+        <v>12.11309211775609</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>5.014843</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>78338596341947.52</v>
+        <v>8.947934776482841e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>34483189978188.18</v>
+        <v>3.938714119370193e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>1771582100925.617</v>
+        <v>2.023523758913358e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>2983051088193.556</v>
+        <v>3.407279147639993e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>98.76274211033768</v>
+        <v>98.76274099713551</v>
       </c>
       <c r="G125" t="n">
-        <v>9.633310557656014e-20</v>
+        <v>9.633315759960008e-20</v>
       </c>
       <c r="H125" t="n">
-        <v>19.75254842206754</v>
+        <v>19.7525481994271</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>5.017737</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>88726699546809.72</v>
+        <v>0.0001013447722178742</v>
       </c>
       <c r="C126" t="n">
-        <v>30813614292472.48</v>
+        <v>3.519570459786699e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>2043600532587.375</v>
+        <v>2.334226695888164e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>3337807249416.662</v>
+        <v>3.812486179969518e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>99.99196054234122</v>
+        <v>99.9919604070148</v>
       </c>
       <c r="G126" t="n">
-        <v>5.305808746858562e-20</v>
+        <v>5.305809095308726e-20</v>
       </c>
       <c r="H126" t="n">
-        <v>19.99839210846824</v>
+        <v>19.99839208140296</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>5.017861</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>87757028866942.48</v>
+        <v>0.0001002372020088304</v>
       </c>
       <c r="C127" t="n">
-        <v>27668830533904.62</v>
+        <v>3.160369250639725e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>2010811045373.44</v>
+        <v>2.296774123313275e-06</v>
       </c>
       <c r="E127" t="n">
-        <v>3256044608535.913</v>
+        <v>3.719095843725249e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>101.9282750340088</v>
+        <v>101.9282747247555</v>
       </c>
       <c r="G127" t="n">
-        <v>2.072696052991662e-20</v>
+        <v>2.072696364236053e-20</v>
       </c>
       <c r="H127" t="n">
-        <v>20.38565500680177</v>
+        <v>20.3856549449511</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>5.019822</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>107000456050445.7</v>
+        <v>0.0001222172909074801</v>
       </c>
       <c r="C128" t="n">
-        <v>28949338885248</v>
+        <v>3.306630565796092e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>2550467842705.903</v>
+        <v>2.913177025451535e-06</v>
       </c>
       <c r="E128" t="n">
-        <v>4037631518647.91</v>
+        <v>4.611834417629986e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>108.5320150480699</v>
+        <v>108.5320159436286</v>
       </c>
       <c r="G128" t="n">
-        <v>8.369053055708014e-22</v>
+        <v>8.369049409915766e-22</v>
       </c>
       <c r="H128" t="n">
-        <v>21.70640300961399</v>
+        <v>21.70640318872571</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>5.024805000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>177927594335961.4</v>
+        <v>0.0002032311766309907</v>
       </c>
       <c r="C129" t="n">
-        <v>47986322110049.62</v>
+        <v>5.481059137995033e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>4280627971965.367</v>
+        <v>4.889388076270362e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>6876818041168.028</v>
+        <v>7.854789610536232e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>71.13731338172546</v>
+        <v>71.13731395025103</v>
       </c>
       <c r="G129" t="n">
-        <v>5.941234426772401e-14</v>
+        <v>5.941232807150617e-14</v>
       </c>
       <c r="H129" t="n">
-        <v>14.22746267634509</v>
+        <v>14.22746279005021</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>5.027826</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>249132912492852.2</v>
+        <v>0.0002845628024836141</v>
       </c>
       <c r="C130" t="n">
-        <v>75775409051778.86</v>
+        <v>8.655164241693405e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>5762549027839.191</v>
+        <v>6.582057281601356e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>9519062589515.646</v>
+        <v>1.087279517061523e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>50.53329164895032</v>
+        <v>50.5332917402045</v>
       </c>
       <c r="G130" t="n">
-        <v>1.077802134678809e-09</v>
+        <v>1.077802088308173e-09</v>
       </c>
       <c r="H130" t="n">
-        <v>10.10665832979006</v>
+        <v>10.1066583480409</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>5.030101</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>249524302535057.6</v>
+        <v>0.0002850098532663035</v>
       </c>
       <c r="C131" t="n">
-        <v>76616398153274</v>
+        <v>8.75122305965552e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>5955890862019.271</v>
+        <v>6.802894805084443e-06</v>
       </c>
       <c r="E131" t="n">
-        <v>9848275877009.955</v>
+        <v>1.124882680562507e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>46.80968736271218</v>
+        <v>46.80968706681168</v>
       </c>
       <c r="G131" t="n">
-        <v>6.212311767082894e-09</v>
+        <v>6.212312629750917e-09</v>
       </c>
       <c r="H131" t="n">
-        <v>9.361937472542436</v>
+        <v>9.361937413362336</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>5.032781</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>230925370487541</v>
+        <v>0.0002637659151601245</v>
       </c>
       <c r="C132" t="n">
-        <v>71546627460951.47</v>
+        <v>8.172147328552243e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>5434688698349.609</v>
+        <v>6.2075710212667e-06</v>
       </c>
       <c r="E132" t="n">
-        <v>8910874596490.68</v>
+        <v>1.017811506232952e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>61.5093158921315</v>
+        <v>61.5093157044282</v>
       </c>
       <c r="G132" t="n">
-        <v>5.924566648152886e-12</v>
+        <v>5.924567177930785e-12</v>
       </c>
       <c r="H132" t="n">
-        <v>12.3018631784263</v>
+        <v>12.30186314088564</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>5.035899</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>230000802422633.2</v>
+        <v>0.0002627098611936171</v>
       </c>
       <c r="C133" t="n">
-        <v>64527284205019.89</v>
+        <v>7.370389053263239e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>5410235577540.567</v>
+        <v>6.179640345061269e-06</v>
       </c>
       <c r="E133" t="n">
-        <v>8886000352666.797</v>
+        <v>1.014970337963078e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>46.31830595003788</v>
+        <v>46.31830557202049</v>
       </c>
       <c r="G133" t="n">
-        <v>7.822928339235375e-09</v>
+        <v>7.822929726110276e-09</v>
       </c>
       <c r="H133" t="n">
-        <v>9.263661190007577</v>
+        <v>9.263661114404098</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>5.038705999999999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>225888893003620.9</v>
+        <v>0.0002580131857681196</v>
       </c>
       <c r="C134" t="n">
-        <v>63997430651481.95</v>
+        <v>7.309868493816594e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>5383134155707.109</v>
+        <v>6.148684747369178e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>8800027389781.172</v>
+        <v>1.005150395095737e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>51.41183550173955</v>
+        <v>51.41183578530487</v>
       </c>
       <c r="G134" t="n">
-        <v>7.121351720873079e-10</v>
+        <v>7.121350767861115e-10</v>
       </c>
       <c r="H134" t="n">
-        <v>10.28236710034791</v>
+        <v>10.28236715706097</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>5.041981</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>215747402979373.4</v>
+        <v>0.0002464294461354182</v>
       </c>
       <c r="C135" t="n">
-        <v>58727342153043.3</v>
+        <v>6.707912251430146e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>5350392051399.516</v>
+        <v>6.111286301472056e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>8742581009895.854</v>
+        <v>9.985887973288207e-06</v>
       </c>
       <c r="F135" t="n">
-        <v>39.9161422851902</v>
+        <v>39.91614207730502</v>
       </c>
       <c r="G135" t="n">
-        <v>1.552657811386845e-07</v>
+        <v>1.552657961236253e-07</v>
       </c>
       <c r="H135" t="n">
-        <v>7.98322845703804</v>
+        <v>7.983228415461004</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>5.044789</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>194971524762398.8</v>
+        <v>0.0002226989720699008</v>
       </c>
       <c r="C136" t="n">
-        <v>58097673028752.33</v>
+        <v>6.635990586417766e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>4770522146882.391</v>
+        <v>5.448951484186053e-06</v>
       </c>
       <c r="E136" t="n">
-        <v>7878459658965.663</v>
+        <v>8.998877509272881e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>36.80534207875289</v>
+        <v>36.80534214787654</v>
       </c>
       <c r="G136" t="n">
-        <v>6.552441296463409e-07</v>
+        <v>6.552441087484105e-07</v>
       </c>
       <c r="H136" t="n">
-        <v>7.361068415750578</v>
+        <v>7.361068429575309</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>5.049971</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>146849699210334.7</v>
+        <v>0.0001677336067557964</v>
       </c>
       <c r="C137" t="n">
-        <v>60596610657902.23</v>
+        <v>6.921422440974413e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>3803428394062.313</v>
+        <v>4.344324614181096e-06</v>
       </c>
       <c r="E137" t="n">
-        <v>6480344982599.079</v>
+        <v>7.401933020295345e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>31.30340142442895</v>
+        <v>31.30340133480533</v>
       </c>
       <c r="G137" t="n">
-        <v>8.159822301605777e-06</v>
+        <v>8.159822634381275e-06</v>
       </c>
       <c r="H137" t="n">
-        <v>6.260680284885789</v>
+        <v>6.260680266961065</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>5.054843</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>100241251853177.6</v>
+        <v>0.0001144968412133512</v>
       </c>
       <c r="C138" t="n">
-        <v>34438244112433.72</v>
+        <v>3.933580349576663e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>2662983356221.982</v>
+        <v>3.04169368740255e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>4326916619221.312</v>
+        <v>4.942259563776047e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>67.6599916852325</v>
+        <v>67.65999097962003</v>
       </c>
       <c r="G138" t="n">
-        <v>3.142291121475266e-13</v>
+        <v>3.142292182370568e-13</v>
       </c>
       <c r="H138" t="n">
-        <v>13.5319983370465</v>
+        <v>13.53199819592401</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>5.064876</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>192186338856317.1</v>
+        <v>0.0002195176969495684</v>
       </c>
       <c r="C139" t="n">
-        <v>69700944038280.12</v>
+        <v>7.961331087489435e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>4249894846086.77</v>
+        <v>4.854284306318823e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>7034164689689.83</v>
+        <v>8.034512959509306e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>93.44525477932308</v>
+        <v>93.44525524019031</v>
       </c>
       <c r="G139" t="n">
-        <v>1.268066663243466e-18</v>
+        <v>1.268066380220801e-18</v>
       </c>
       <c r="H139" t="n">
-        <v>18.68905095586462</v>
+        <v>18.68905104803806</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>5.069912</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>192514770188816.1</v>
+        <v>0.0002198928352925578</v>
       </c>
       <c r="C140" t="n">
-        <v>80493014015179.5</v>
+        <v>9.194015125523114e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>4275795349633.449</v>
+        <v>4.883868188494835e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>7270157473629.375</v>
+        <v>8.304066947082696e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>74.54193705065495</v>
+        <v>74.54193766322668</v>
       </c>
       <c r="G140" t="n">
-        <v>1.159317161102579e-14</v>
+        <v>1.159316819932655e-14</v>
       </c>
       <c r="H140" t="n">
-        <v>14.90838741013099</v>
+        <v>14.90838753264534</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>5.074481</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>187562271921750.2</v>
+        <v>0.0002142360286856817</v>
       </c>
       <c r="C141" t="n">
-        <v>67917248008010.35</v>
+        <v>7.757595038092253e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>4019059505833.651</v>
+        <v>4.590621225262029e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>6619282351515.835</v>
+        <v>7.560629058553413e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>117.6493749324278</v>
+        <v>117.6493741566836</v>
       </c>
       <c r="G141" t="n">
-        <v>9.873986911720876e-24</v>
+        <v>9.873990645552202e-24</v>
       </c>
       <c r="H141" t="n">
-        <v>23.52987498648557</v>
+        <v>23.52987483133673</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>5.084189</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>160824814333533.6</v>
+        <v>0.0001836961620850556</v>
       </c>
       <c r="C142" t="n">
-        <v>73168123249072.11</v>
+        <v>8.357356690414543e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>3524766029970.056</v>
+        <v>4.026032889471389e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>5873803083274.53</v>
+        <v>6.709133087720598e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>156.009229354161</v>
+        <v>156.0092295150826</v>
       </c>
       <c r="G142" t="n">
-        <v>7.012853323081751e-32</v>
+        <v>7.012852769534321e-32</v>
       </c>
       <c r="H142" t="n">
-        <v>31.2018458708322</v>
+        <v>31.20184590301652</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>5.089986</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>160475890524692.3</v>
+        <v>0.000183297616887155</v>
       </c>
       <c r="C143" t="n">
-        <v>73783473367373.31</v>
+        <v>8.427642808921005e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>3582395030850.305</v>
+        <v>4.091857472983817e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>5943931774491.96</v>
+        <v>6.789234976771471e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>164.0479474630219</v>
+        <v>164.0479480776902</v>
       </c>
       <c r="G143" t="n">
-        <v>1.357167440933556e-33</v>
+        <v>1.357167031365034e-33</v>
       </c>
       <c r="H143" t="n">
-        <v>32.80958949260439</v>
+        <v>32.80958961553804</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>5.093717</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>259585655204832.2</v>
+        <v>0.0002965020587316233</v>
       </c>
       <c r="C144" t="n">
-        <v>129390682708741.8</v>
+        <v>0.0001477916949029135</v>
       </c>
       <c r="D144" t="n">
-        <v>6270943387071.495</v>
+        <v>7.162751823206177e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>10196931706111.53</v>
+        <v>1.164706595878298e-05</v>
       </c>
       <c r="F144" t="n">
-        <v>230.6587432830433</v>
+        <v>230.6587430883749</v>
       </c>
       <c r="G144" t="n">
-        <v>7.726808856287764e-48</v>
+        <v>7.726809598673447e-48</v>
       </c>
       <c r="H144" t="n">
-        <v>46.13174865660866</v>
+        <v>46.13174861767497</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>5.09676</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>345356512099685.9</v>
+        <v>0.0003944706298896163</v>
       </c>
       <c r="C145" t="n">
-        <v>182422454455688.2</v>
+        <v>0.0002083652635411933</v>
       </c>
       <c r="D145" t="n">
-        <v>7760723068560.444</v>
+        <v>8.864397250514737e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>12896789604203.8</v>
+        <v>1.473087820591736e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>224.4290566952503</v>
+        <v>224.4290568819437</v>
       </c>
       <c r="G145" t="n">
-        <v>1.671395624755164e-46</v>
+        <v>1.671395470802997e-46</v>
       </c>
       <c r="H145" t="n">
-        <v>44.88581133905006</v>
+        <v>44.88581137638873</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>5.098893</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>330819145302352.7</v>
+        <v>0.0003778658635762445</v>
       </c>
       <c r="C146" t="n">
-        <v>171531498177791.7</v>
+        <v>0.0001959254739647335</v>
       </c>
       <c r="D146" t="n">
-        <v>7897786829138.269</v>
+        <v>9.020953249045805e-06</v>
       </c>
       <c r="E146" t="n">
-        <v>12922585246609.61</v>
+        <v>1.476034234129989e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>229.0589747118225</v>
+        <v>229.0589748477528</v>
       </c>
       <c r="G146" t="n">
-        <v>1.701730813734045e-47</v>
+        <v>1.701730699577301e-47</v>
       </c>
       <c r="H146" t="n">
-        <v>45.8117949423645</v>
+        <v>45.81179496955055</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>5.099991</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>340561241526395.5</v>
+        <v>0.0003889934109769192</v>
       </c>
       <c r="C147" t="n">
-        <v>182369875460416.5</v>
+        <v>0.0002083052066105511</v>
       </c>
       <c r="D147" t="n">
-        <v>8233311434796.641</v>
+        <v>9.40419374456934e-06</v>
       </c>
       <c r="E147" t="n">
-        <v>13591355817812.23</v>
+        <v>1.552422064173749e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>206.7521572205129</v>
+        <v>206.7521569828831</v>
       </c>
       <c r="G147" t="n">
-        <v>1.020045784818267e-42</v>
+        <v>1.020045904273244e-42</v>
       </c>
       <c r="H147" t="n">
-        <v>41.35043144410257</v>
+        <v>41.35043139657662</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>5.100430999999999</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>333857498791247.5</v>
+        <v>0.0003813363099997154</v>
       </c>
       <c r="C148" t="n">
-        <v>182216765233566.5</v>
+        <v>0.0002081303222240911</v>
       </c>
       <c r="D148" t="n">
-        <v>8107839423055.688</v>
+        <v>9.260878003899875e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>13392143726435.89</v>
+        <v>1.529667803544027e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>207.4376896647036</v>
+        <v>207.4376893545665</v>
       </c>
       <c r="G148" t="n">
-        <v>7.276020080559477e-43</v>
+        <v>7.276021192680915e-43</v>
       </c>
       <c r="H148" t="n">
-        <v>41.48753793294073</v>
+        <v>41.48753787091329</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>5.100713</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>335716955434642.9</v>
+        <v>0.0003834602051614177</v>
       </c>
       <c r="C149" t="n">
-        <v>166942579200100.1</v>
+        <v>0.0001906839514472092</v>
       </c>
       <c r="D149" t="n">
-        <v>8104876737862.427</v>
+        <v>9.257493987900129e-06</v>
       </c>
       <c r="E149" t="n">
-        <v>13233582695715.48</v>
+        <v>1.511556759781659e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>209.509634144872</v>
+        <v>209.5096341120659</v>
       </c>
       <c r="G149" t="n">
-        <v>2.620532479679301e-43</v>
+        <v>2.620532522054398e-43</v>
       </c>
       <c r="H149" t="n">
-        <v>41.9019268289744</v>
+        <v>41.90192682241317</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>5.102879</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>636902026935316.8</v>
+        <v>0.0007274776497573766</v>
       </c>
       <c r="C150" t="n">
-        <v>329809596720318.2</v>
+        <v>0.0003767127437034876</v>
       </c>
       <c r="D150" t="n">
-        <v>13851635731524.66</v>
+        <v>1.582151568266618e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>23868428867588.2</v>
+        <v>2.726282505495954e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>110.2768158705104</v>
+        <v>110.2768152115975</v>
       </c>
       <c r="G150" t="n">
-        <v>3.580956182030538e-22</v>
+        <v>3.580957330281703e-22</v>
       </c>
       <c r="H150" t="n">
-        <v>22.05536317410208</v>
+        <v>22.0553630423195</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>5.104856</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>699996043468202.9</v>
+        <v>0.0007995444437583207</v>
       </c>
       <c r="C151" t="n">
-        <v>343026311868191.8</v>
+        <v>0.0003918090458846084</v>
       </c>
       <c r="D151" t="n">
-        <v>14967145710405.3</v>
+        <v>1.709566547069245e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>25946607353611.27</v>
+        <v>2.963654713712163e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>84.30825169876117</v>
+        <v>84.30825186610636</v>
       </c>
       <c r="G151" t="n">
-        <v>1.051186641308155e-16</v>
+        <v>1.05118655640909e-16</v>
       </c>
       <c r="H151" t="n">
-        <v>16.86165033975223</v>
+        <v>16.86165037322127</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>5.106897</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>655532556182160.8</v>
+        <v>0.0007487576791382473</v>
       </c>
       <c r="C152" t="n">
-        <v>327757608061251.9</v>
+        <v>0.0003743689364721747</v>
       </c>
       <c r="D152" t="n">
-        <v>14215386589243.96</v>
+        <v>1.623699658899168e-05</v>
       </c>
       <c r="E152" t="n">
-        <v>24629645618236.62</v>
+        <v>2.813229660542569e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>85.90502977999606</v>
+        <v>85.90502992498803</v>
       </c>
       <c r="G152" t="n">
-        <v>4.862760430919661e-17</v>
+        <v>4.862760090417092e-17</v>
       </c>
       <c r="H152" t="n">
-        <v>17.18100595599921</v>
+        <v>17.1810059849976</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>5.108781</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>629781489276038.1</v>
+        <v>0.0007193444810717471</v>
       </c>
       <c r="C153" t="n">
-        <v>321065290604655.3</v>
+        <v>0.0003667248866330926</v>
       </c>
       <c r="D153" t="n">
-        <v>13596191496674.3</v>
+        <v>1.552974400588542e-05</v>
       </c>
       <c r="E153" t="n">
-        <v>23616525750313.59</v>
+        <v>2.697509810028621e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>88.35113391112201</v>
+        <v>88.35113464661866</v>
       </c>
       <c r="G153" t="n">
-        <v>1.491397737392502e-17</v>
+        <v>1.491397207140073e-17</v>
       </c>
       <c r="H153" t="n">
-        <v>17.6702267822244</v>
+        <v>17.67022692932373</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>5.110037</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>636298557983246.4</v>
+        <v>0.0007267883594447814</v>
       </c>
       <c r="C154" t="n">
-        <v>330615305925712.9</v>
+        <v>0.0003776330350043441</v>
       </c>
       <c r="D154" t="n">
-        <v>13821334435570.14</v>
+        <v>1.578690515046929e-05</v>
       </c>
       <c r="E154" t="n">
-        <v>24133019318161.28</v>
+        <v>2.756504364493134e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>83.46698881666059</v>
+        <v>83.46698852632699</v>
       </c>
       <c r="G154" t="n">
-        <v>1.577533472656879e-16</v>
+        <v>1.577533693626173e-16</v>
       </c>
       <c r="H154" t="n">
-        <v>16.69339776333212</v>
+        <v>16.6933977052654</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>5.11075</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>603876330760536.2</v>
+        <v>0.0006897552770678958</v>
       </c>
       <c r="C155" t="n">
-        <v>310719797169965.5</v>
+        <v>0.0003549081306435158</v>
       </c>
       <c r="D155" t="n">
-        <v>13158077177835.44</v>
+        <v>1.502932423581294e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>22944430731122.41</v>
+        <v>2.620742257297764e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>78.28758792779905</v>
+        <v>78.28758850625132</v>
       </c>
       <c r="G155" t="n">
-        <v>1.914070570591868e-15</v>
+        <v>1.914070037671981e-15</v>
       </c>
       <c r="H155" t="n">
-        <v>15.65751758555981</v>
+        <v>15.65751770125027</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>5.113839</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>573065706095057.5</v>
+        <v>0.0006545629872577167</v>
       </c>
       <c r="C156" t="n">
-        <v>285135732179341.2</v>
+        <v>0.0003256856843284363</v>
       </c>
       <c r="D156" t="n">
-        <v>12396276709329.29</v>
+        <v>1.41591859701362e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>21623448066681.41</v>
+        <v>2.469857923895275e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>73.10066912202768</v>
+        <v>73.1006690616605</v>
       </c>
       <c r="G156" t="n">
-        <v>2.316276544566193e-14</v>
+        <v>2.31627661168792e-14</v>
       </c>
       <c r="H156" t="n">
-        <v>14.62013382440554</v>
+        <v>14.6201338123321</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>5.118804</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>486577191997393.2</v>
+        <v>0.0005557746986714749</v>
       </c>
       <c r="C157" t="n">
-        <v>227276541323455.2</v>
+        <v>0.0002595981757746761</v>
       </c>
       <c r="D157" t="n">
-        <v>10396747741815.97</v>
+        <v>1.187529838080241e-05</v>
       </c>
       <c r="E157" t="n">
-        <v>18328775412149.64</v>
+        <v>2.093536194122387e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>44.26159274940616</v>
+        <v>44.26159276783564</v>
       </c>
       <c r="G157" t="n">
-        <v>2.049590624445579e-08</v>
+        <v>2.04959060678278e-08</v>
       </c>
       <c r="H157" t="n">
-        <v>8.852318549881232</v>
+        <v>8.852318553567127</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>5.123773</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>355271681306448.6</v>
+        <v>0.0004057958631260862</v>
       </c>
       <c r="C158" t="n">
-        <v>157974929395128.9</v>
+        <v>0.0001804409870548902</v>
       </c>
       <c r="D158" t="n">
-        <v>8021119350351.002</v>
+        <v>9.161825235284827e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>14161696604384.15</v>
+        <v>1.617567119762803e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>24.95513986353176</v>
+        <v>24.9551398736277</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0001421403312181182</v>
+        <v>0.0001421403305802428</v>
       </c>
       <c r="H158" t="n">
-        <v>4.991027972706352</v>
+        <v>4.991027974725539</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>5.128523</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>205832322016140.3</v>
+        <v>0.0002351043135876563</v>
       </c>
       <c r="C159" t="n">
-        <v>88871103252407.09</v>
+        <v>0.0001015097121216535</v>
       </c>
       <c r="D159" t="n">
-        <v>4763101036530.323</v>
+        <v>5.440474994454279e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>8464140930714.955</v>
+        <v>9.667850150014251e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>14.6317464828504</v>
+        <v>14.63174669957881</v>
       </c>
       <c r="G159" t="n">
-        <v>0.01205735444590439</v>
+        <v>0.01205735337338411</v>
       </c>
       <c r="H159" t="n">
-        <v>2.926349296570079</v>
+        <v>2.926349339915761</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>5.129939</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>216685973591593.8</v>
+        <v>0.0002475014936132796</v>
       </c>
       <c r="C160" t="n">
-        <v>104590225986105.8</v>
+        <v>0.000119464295517386</v>
       </c>
       <c r="D160" t="n">
-        <v>5244864720724.182</v>
+        <v>5.990751637901825e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>9368539716396.523</v>
+        <v>1.070086602035476e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>18.79842006142934</v>
+        <v>18.79842026601474</v>
       </c>
       <c r="G160" t="n">
-        <v>0.002095564049498168</v>
+        <v>0.00209556386592026</v>
       </c>
       <c r="H160" t="n">
-        <v>3.759684012285868</v>
+        <v>3.759684053202949</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>5.133811</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>116677157076684.5</v>
+        <v>0.0001332701428290129</v>
       </c>
       <c r="C161" t="n">
-        <v>41315562946060.26</v>
+        <v>4.719116498387236e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>3039913520894.838</v>
+        <v>3.472228148717705e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>5144599387140.7</v>
+        <v>5.876227297999303e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>19.70546513575149</v>
+        <v>19.70546543866465</v>
       </c>
       <c r="G161" t="n">
-        <v>0.001419151331024608</v>
+        <v>0.001419151145671625</v>
       </c>
       <c r="H161" t="n">
-        <v>3.941093027150298</v>
+        <v>3.941093087732931</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>5.138881</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>101923568399422.5</v>
+        <v>0.0001164184049090158</v>
       </c>
       <c r="C162" t="n">
-        <v>26148292649751.39</v>
+        <v>2.986691460317059e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>2848122697815.017</v>
+        <v>3.253162212830524e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>4588249455405.851</v>
+        <v>5.240757276567539e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>39.06264296370399</v>
+        <v>39.06264278871492</v>
       </c>
       <c r="G162" t="n">
-        <v>2.306876716964259e-07</v>
+        <v>2.306876904074267e-07</v>
       </c>
       <c r="H162" t="n">
-        <v>7.812528592740797</v>
+        <v>7.812528557742985</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>5.141653</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>103178295857413.6</v>
+        <v>0.0001178515707552247</v>
       </c>
       <c r="C163" t="n">
-        <v>27721939272426.36</v>
+        <v>3.166435376968731e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>2807255100796.003</v>
+        <v>3.20648271976164e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>4468667178339.253</v>
+        <v>5.104168868465776e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>62.43053634645833</v>
+        <v>62.43053638555588</v>
       </c>
       <c r="G163" t="n">
-        <v>3.819381679788121e-12</v>
+        <v>3.819381608598736e-12</v>
       </c>
       <c r="H163" t="n">
-        <v>12.48610726929167</v>
+        <v>12.48610727711118</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>5.144741000000001</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>100964301934609.5</v>
+        <v>0.0001153227184589625</v>
       </c>
       <c r="C164" t="n">
-        <v>26815739336271.94</v>
+        <v>3.062928109086516e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>2747003996692.015</v>
+        <v>3.137663138141931e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>4351198335422.338</v>
+        <v>4.969994452061563e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>74.94332852291002</v>
+        <v>74.94332915094269</v>
       </c>
       <c r="G164" t="n">
-        <v>9.559768000787002e-15</v>
+        <v>9.559765115869299e-15</v>
       </c>
       <c r="H164" t="n">
-        <v>14.988665704582</v>
+        <v>14.98866583018854</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>5.147988</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>99940503042763.84</v>
+        <v>0.0001141533220814105</v>
       </c>
       <c r="C165" t="n">
-        <v>22371892236100.36</v>
+        <v>2.555346184933217e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>2843376326318.008</v>
+        <v>3.247740846410503e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>4339711036089.026</v>
+        <v>4.956873509865391e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>106.1393681652889</v>
+        <v>106.139367699798</v>
       </c>
       <c r="G165" t="n">
-        <v>2.679038562968809e-21</v>
+        <v>2.679039169207736e-21</v>
       </c>
       <c r="H165" t="n">
-        <v>21.22787363305777</v>
+        <v>21.2278735399596</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>5.150005999999999</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>104700183336345.3</v>
+        <v>0.0001195898899864613</v>
       </c>
       <c r="C166" t="n">
-        <v>23958758516263.2</v>
+        <v>2.736600077757186e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>3075605334099.37</v>
+        <v>3.512995790679133e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>4727858804408.922</v>
+        <v>5.400220859977256e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>92.69160167028457</v>
+        <v>92.6916016217402</v>
       </c>
       <c r="G166" t="n">
-        <v>1.82655431548573e-18</v>
+        <v>1.826554358415909e-18</v>
       </c>
       <c r="H166" t="n">
-        <v>18.53832033405691</v>
+        <v>18.53832032434804</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>5.150983</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>102540583648441.9</v>
+        <v>0.0001171231675641043</v>
       </c>
       <c r="C167" t="n">
-        <v>21335211052973.05</v>
+        <v>2.436935095356439e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>2728619719106.95</v>
+        <v>3.116664380295904e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>4151143105119.75</v>
+        <v>4.741488805156966e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>125.8583236208406</v>
+        <v>125.8583247902849</v>
       </c>
       <c r="G167" t="n">
-        <v>1.799551315637895e-25</v>
+        <v>1.799550288086811e-25</v>
       </c>
       <c r="H167" t="n">
-        <v>25.17166472416812</v>
+        <v>25.17166495805698</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>5.15704</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>105240768539843.1</v>
+        <v>0.0001202073533799877</v>
       </c>
       <c r="C168" t="n">
-        <v>23167978368670.94</v>
+        <v>2.646276152518394e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>2687504925930.792</v>
+        <v>3.069702537344518e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>4089094746600.977</v>
+        <v>4.670616376759332e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>152.4937639566749</v>
+        <v>152.4937632937715</v>
       </c>
       <c r="G168" t="n">
-        <v>3.931989137693087e-31</v>
+        <v>3.931990415652841e-31</v>
       </c>
       <c r="H168" t="n">
-        <v>30.49875279133498</v>
+        <v>30.49875265875429</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>5.159375</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>110968764210782.1</v>
+        <v>0.0001267499433529484</v>
       </c>
       <c r="C169" t="n">
-        <v>30840458031817.12</v>
+        <v>3.522636626226077e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>2693209738841.251</v>
+        <v>3.07621864711956e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>4186340896089.106</v>
+        <v>4.781692172611112e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>158.4385114348121</v>
+        <v>158.4385108799632</v>
       </c>
       <c r="G169" t="n">
-        <v>2.129714208612615e-32</v>
+        <v>2.129714788400441e-32</v>
       </c>
       <c r="H169" t="n">
-        <v>31.68770228696242</v>
+        <v>31.68770217599264</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>5.170048</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>110873443497125.9</v>
+        <v>0.0001266410669631825</v>
       </c>
       <c r="C170" t="n">
-        <v>43928933763278.14</v>
+        <v>5.017619053449616e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>2772042908486.633</v>
+        <v>3.166262902679215e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>4462381511245.012</v>
+        <v>5.096989299791155e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>143.214583033581</v>
+        <v>143.214583406006</v>
       </c>
       <c r="G170" t="n">
-        <v>3.708628557173354e-29</v>
+        <v>3.708627880846042e-29</v>
       </c>
       <c r="H170" t="n">
-        <v>28.64291660671619</v>
+        <v>28.6429166812012</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>5.189844</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>121879463502299.4</v>
+        <v>0.0001392122838376229</v>
       </c>
       <c r="C171" t="n">
-        <v>47042612514188.97</v>
+        <v>5.373267451783002e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>2752950624249.73</v>
+        <v>3.14445545227229e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>4419823146413.23</v>
+        <v>5.048378588511756e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>199.6183617218209</v>
+        <v>199.6183612722052</v>
       </c>
       <c r="G171" t="n">
-        <v>3.428099439260856e-41</v>
+        <v>3.428100198457961e-41</v>
       </c>
       <c r="H171" t="n">
-        <v>39.92367234436417</v>
+        <v>39.92367225444103</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>5.210028</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>146129313937757.6</v>
+        <v>0.0001669107733756353</v>
       </c>
       <c r="C172" t="n">
-        <v>58916998073816.86</v>
+        <v>6.729574952744575e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>3337754999108.782</v>
+        <v>3.812426495868162e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>5293643488491.182</v>
+        <v>6.046467369413169e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>263.6030224152196</v>
+        <v>263.6030221528624</v>
       </c>
       <c r="G172" t="n">
-        <v>6.614675039207035e-55</v>
+        <v>6.614675897110615e-55</v>
       </c>
       <c r="H172" t="n">
-        <v>52.72060448304393</v>
+        <v>52.72060443057247</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>5.230028</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>179603202698045.9</v>
+        <v>0.000205145078105043</v>
       </c>
       <c r="C173" t="n">
-        <v>76386009287519.94</v>
+        <v>8.724907776101668e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>4436368675727.724</v>
+        <v>5.067277105780659e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>6842546337584.953</v>
+        <v>7.815644045773708e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>387.2261261800922</v>
+        <v>387.2261256998711</v>
       </c>
       <c r="G173" t="n">
-        <v>1.678963098222623e-81</v>
+        <v>1.67896349825222e-81</v>
       </c>
       <c r="H173" t="n">
-        <v>77.44522523601844</v>
+        <v>77.44522513997421</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>5.239501000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>218666549434183.9</v>
+        <v>0.0002497637325034026</v>
       </c>
       <c r="C174" t="n">
-        <v>67733337250358.14</v>
+        <v>7.736588480563791e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>5243510090966.902</v>
+        <v>5.98920435905894e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>7733803242224.741</v>
+        <v>8.833649069876137e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>558.3038011028889</v>
+        <v>558.3037998031261</v>
       </c>
       <c r="G174" t="n">
-        <v>2.057435410292489e-118</v>
+        <v>2.057436740222819e-118</v>
       </c>
       <c r="H174" t="n">
-        <v>111.6607602205778</v>
+        <v>111.6607599606252</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>5.243064</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>237676137634748.3</v>
+        <v>0.0002714767275632618</v>
       </c>
       <c r="C175" t="n">
-        <v>92458640066649.83</v>
+        <v>0.0001056074427307113</v>
       </c>
       <c r="D175" t="n">
-        <v>6101839911860.406</v>
+        <v>6.969599677039819e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>9091464964640.92</v>
+        <v>1.038438769692356e-05</v>
       </c>
       <c r="F175" t="n">
-        <v>527.6434164752384</v>
+        <v>527.6434168350719</v>
       </c>
       <c r="G175" t="n">
-        <v>8.599721752607724e-112</v>
+        <v>8.59972021413757e-112</v>
       </c>
       <c r="H175" t="n">
-        <v>105.5286832950477</v>
+        <v>105.5286833670144</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>5.250129</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>289940393035783.3</v>
+        <v>0.0003311736294681109</v>
       </c>
       <c r="C176" t="n">
-        <v>80025876787520.88</v>
+        <v>9.140658122553692e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>8027751360626.245</v>
+        <v>9.169400391527157e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>11345052586024.31</v>
+        <v>1.295846433097022e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>631.2749227766484</v>
+        <v>631.2749224835139</v>
       </c>
       <c r="G176" t="n">
-        <v>3.52858921587149e-134</v>
+        <v>3.528589730597179e-134</v>
       </c>
       <c r="H176" t="n">
-        <v>126.2549845553297</v>
+        <v>126.2549844967028</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>5.25994</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>368313306859622.8</v>
+        <v>0.0004206921749145379</v>
       </c>
       <c r="C177" t="n">
-        <v>118054236432105.2</v>
+        <v>0.0001348430605521239</v>
       </c>
       <c r="D177" t="n">
-        <v>9931181597753.172</v>
+        <v>1.134352276456451e-05</v>
       </c>
       <c r="E177" t="n">
-        <v>14224943456146.97</v>
+        <v>1.624791253057614e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>661.7846082205525</v>
+        <v>661.7846094657684</v>
       </c>
       <c r="G177" t="n">
-        <v>8.977579737431684e-141</v>
+        <v>8.977574173182851e-141</v>
       </c>
       <c r="H177" t="n">
-        <v>132.3569216441105</v>
+        <v>132.3569218931537</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>5.26504</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>403980913321436.1</v>
+        <v>0.0004614321721336439</v>
       </c>
       <c r="C178" t="n">
-        <v>146995144548707.6</v>
+        <v>0.0001678997360981774</v>
       </c>
       <c r="D178" t="n">
-        <v>11227082490237.64</v>
+        <v>1.282371737870779e-05</v>
       </c>
       <c r="E178" t="n">
-        <v>16266814625118.01</v>
+        <v>1.858016396171674e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>604.7349680390739</v>
+        <v>604.7349680425873</v>
       </c>
       <c r="G178" t="n">
-        <v>1.917738097263153e-128</v>
+        <v>1.917738093910885e-128</v>
       </c>
       <c r="H178" t="n">
-        <v>120.9469936078148</v>
+        <v>120.9469936085175</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>5.269983</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>461442893035064.6</v>
+        <v>0.0005270659808823848</v>
       </c>
       <c r="C179" t="n">
-        <v>204110406521195.9</v>
+        <v>0.0002331375189641265</v>
       </c>
       <c r="D179" t="n">
-        <v>12352039514961.3</v>
+        <v>1.410865769466558e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>18487168477373.68</v>
+        <v>2.111628054700484e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>552.2474725412839</v>
+        <v>552.247472636628</v>
       </c>
       <c r="G179" t="n">
-        <v>4.181783281727638e-117</v>
+        <v>4.181783083452378e-117</v>
       </c>
       <c r="H179" t="n">
-        <v>110.4494945082568</v>
+        <v>110.4494945273256</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>5.27496</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>585984718244279.1</v>
+        <v>0.0006735943051444175</v>
       </c>
       <c r="C180" t="n">
-        <v>325143696365002.5</v>
+        <v>0.0003605513561894337</v>
       </c>
       <c r="D180" t="n">
-        <v>14803325014146.67</v>
+        <v>1.157250868177963e-05</v>
       </c>
       <c r="E180" t="n">
-        <v>23288236266705.8</v>
+        <v>1.827400756984206e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>466.4908166703249</v>
+        <v>957.285072693815</v>
       </c>
       <c r="G180" t="n">
-        <v>1.360440727212874e-98</v>
+        <v>2.841932934433035e-197</v>
       </c>
       <c r="H180" t="n">
-        <v>93.29816333406498</v>
+        <v>79.77375605781792</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>5.275024</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>592821061445864</v>
+        <v>0.001095470120649695</v>
       </c>
       <c r="C181" t="n">
-        <v>307385683439280.1</v>
+        <v>0.0005987142598967482</v>
       </c>
       <c r="D181" t="n">
-        <v>13900965616677.36</v>
+        <v>2.589090778587124e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>22023761490033.41</v>
+        <v>4.201738425137807e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>490.3509684639944</v>
+        <v>319.7581061370317</v>
       </c>
       <c r="G181" t="n">
-        <v>9.657701661535651e-104</v>
+        <v>5.643243787678327e-67</v>
       </c>
       <c r="H181" t="n">
-        <v>98.07019369279888</v>
+        <v>63.95162122740635</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>5.279812000000001</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>959077079915081.9</v>
+        <v>0.001392503178882159</v>
       </c>
       <c r="C182" t="n">
-        <v>524170500703731.4</v>
+        <v>0.0007689816045928944</v>
       </c>
       <c r="D182" t="n">
-        <v>22667324083931.08</v>
+        <v>3.2230325521694e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>36785951026601.34</v>
+        <v>5.321368745237247e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>319.7581068825918</v>
+        <v>260.618052083945</v>
       </c>
       <c r="G182" t="n">
-        <v>5.643241703603941e-67</v>
+        <v>2.892838174539978e-54</v>
       </c>
       <c r="H182" t="n">
-        <v>63.95162137651837</v>
+        <v>52.12361041678899</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>5.284953</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>1219127623090797</v>
+        <v>0.00183116005315655</v>
       </c>
       <c r="C183" t="n">
-        <v>673238474638393.2</v>
+        <v>0.001063442569309183</v>
       </c>
       <c r="D183" t="n">
-        <v>28217443720159.14</v>
+        <v>3.930762009195973e-05</v>
       </c>
       <c r="E183" t="n">
-        <v>46588242794350.66</v>
+        <v>6.654807079197359e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>260.6180527876738</v>
+        <v>249.3830536778034</v>
       </c>
       <c r="G183" t="n">
-        <v>2.892837168280742e-54</v>
+        <v>7.455744870869022e-52</v>
       </c>
       <c r="H183" t="n">
-        <v>52.12361055753477</v>
+        <v>49.87661073556069</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>5.290161</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>1603168908811466</v>
+        <v>0.002106789448177598</v>
       </c>
       <c r="C184" t="n">
-        <v>931037164753145.5</v>
+        <v>0.001354767879798094</v>
       </c>
       <c r="D184" t="n">
-        <v>34413569857301.38</v>
+        <v>4.483676546821976e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>58262410179519.92</v>
+        <v>7.734873149308519e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>249.3830528888864</v>
+        <v>247.4200150421323</v>
       </c>
       <c r="G184" t="n">
-        <v>7.455747776755349e-52</v>
+        <v>1.966312679136848e-51</v>
       </c>
       <c r="H184" t="n">
-        <v>49.87661057777727</v>
+        <v>49.48400300842646</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>5.292942</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>1844480679654479</v>
+        <v>0.002085918398868928</v>
       </c>
       <c r="C185" t="n">
-        <v>1186090612133688</v>
+        <v>0.001260540280617132</v>
       </c>
       <c r="D185" t="n">
-        <v>39254301210593.57</v>
+        <v>4.323366205791169e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>67718319401053.91</v>
+        <v>7.441419630374157e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>247.4200143532308</v>
+        <v>236.2352202955912</v>
       </c>
       <c r="G185" t="n">
-        <v>1.966313348288559e-51</v>
+        <v>4.926209767333298e-49</v>
       </c>
       <c r="H185" t="n">
-        <v>49.48400287064617</v>
+        <v>47.24704405911825</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>5.297674</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>1826208208929137</v>
+        <v>0.002029261995276132</v>
       </c>
       <c r="C186" t="n">
-        <v>1103594950355685</v>
+        <v>0.001143980266390286</v>
       </c>
       <c r="D186" t="n">
-        <v>37850794469938.26</v>
+        <v>4.27314567135611e-05</v>
       </c>
       <c r="E186" t="n">
-        <v>65149152719398.9</v>
+        <v>7.244789616095699e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>236.2352212059449</v>
+        <v>244.7251373750879</v>
       </c>
       <c r="G186" t="n">
-        <v>4.926207553272678e-49</v>
+        <v>7.443226010847504e-51</v>
       </c>
       <c r="H186" t="n">
-        <v>47.24704424118897</v>
+        <v>48.94502747501758</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>5.299721</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>1776605888160031</v>
+        <v>0.002101072408934507</v>
       </c>
       <c r="C187" t="n">
-        <v>1001547403557357</v>
+        <v>0.001204931452402705</v>
       </c>
       <c r="D187" t="n">
-        <v>37411116888617.91</v>
+        <v>4.38269716857452e-05</v>
       </c>
       <c r="E187" t="n">
-        <v>63427669440504.9</v>
+        <v>7.533892024033432e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>244.7251372695669</v>
+        <v>198.3809636180768</v>
       </c>
       <c r="G187" t="n">
-        <v>7.443226398780751e-51</v>
+        <v>6.305808269295986e-41</v>
       </c>
       <c r="H187" t="n">
-        <v>48.94502745391339</v>
+        <v>39.67619272361536</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>5.302376000000001</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>1839475446085985</v>
+        <v>0.001685639305761097</v>
       </c>
       <c r="C188" t="n">
-        <v>1054909776941105</v>
+        <v>0.0009910381070478125</v>
       </c>
       <c r="D188" t="n">
-        <v>38370233208371.54</v>
+        <v>3.447716280545624e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>65958742481076.8</v>
+        <v>5.984150405614393e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>198.3809645257247</v>
+        <v>188.9039971860688</v>
       </c>
       <c r="G188" t="n">
-        <v>6.30580545041207e-41</v>
+        <v>6.700039438416076e-39</v>
       </c>
       <c r="H188" t="n">
-        <v>39.67619290514493</v>
+        <v>37.78079943721376</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>5.308233</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>1475766423396592</v>
+        <v>0.001296706825429979</v>
       </c>
       <c r="C189" t="n">
-        <v>867647520687458.2</v>
+        <v>0.0007466102323292459</v>
       </c>
       <c r="D189" t="n">
-        <v>30184535408508.74</v>
+        <v>2.688659118873089e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>52390853892514.6</v>
+        <v>4.67609285831123e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>188.9039970964166</v>
+        <v>160.0772582035313</v>
       </c>
       <c r="G189" t="n">
-        <v>6.700039734033338e-39</v>
+        <v>9.529972971288266e-33</v>
       </c>
       <c r="H189" t="n">
-        <v>37.78079941928332</v>
+        <v>32.01545164070626</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>5.312876</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>1135258527333514</v>
+        <v>0.0009596941045902413</v>
       </c>
       <c r="C190" t="n">
-        <v>653652480378993</v>
+        <v>0.0005119354149088302</v>
       </c>
       <c r="D190" t="n">
-        <v>23539038509069.3</v>
+        <v>2.009129512187324e-05</v>
       </c>
       <c r="E190" t="n">
-        <v>40938893708545.15</v>
+        <v>3.494186259753525e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>160.0772594483654</v>
+        <v>118.5465776423889</v>
       </c>
       <c r="G190" t="n">
-        <v>9.529967149456646e-33</v>
+        <v>6.375782029514972e-24</v>
       </c>
       <c r="H190" t="n">
-        <v>32.01545188967307</v>
+        <v>23.70931552847777</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>5.317521</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>840206046920531.4</v>
+        <v>0.0006923623118575232</v>
       </c>
       <c r="C191" t="n">
-        <v>448196179467593.5</v>
+        <v>0.000367098704434657</v>
       </c>
       <c r="D191" t="n">
-        <v>17589800300491.72</v>
+        <v>1.461486456052909e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>30591377083914.41</v>
+        <v>2.589426591393656e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>118.5465783173918</v>
+        <v>70.12948867486449</v>
       </c>
       <c r="G191" t="n">
-        <v>6.375779931224167e-24</v>
+        <v>9.631350788286768e-14</v>
       </c>
       <c r="H191" t="n">
-        <v>23.70931566347836</v>
+        <v>14.0258977349729</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>5.322808999999999</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>606158772999501.6</v>
+        <v>0.0005033268093914611</v>
       </c>
       <c r="C192" t="n">
-        <v>321392566299914.8</v>
+        <v>0.0002696398229648127</v>
       </c>
       <c r="D192" t="n">
-        <v>12795220394009.27</v>
+        <v>1.09783463115394e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>22670264088929.43</v>
+        <v>1.975054318166475e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>70.12948828656423</v>
+        <v>42.76979385729786</v>
       </c>
       <c r="G192" t="n">
-        <v>9.631352580470672e-14</v>
+        <v>4.114093004795131e-08</v>
       </c>
       <c r="H192" t="n">
-        <v>14.02589765731284</v>
+        <v>8.553958771459572</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>5.327683</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>440659400480148.2</v>
+        <v>0.0003969856100342052</v>
       </c>
       <c r="C193" t="n">
-        <v>236067939578815</v>
+        <v>0.0002107148207884062</v>
       </c>
       <c r="D193" t="n">
-        <v>9611471933229.145</v>
+        <v>6.25733607876999e-06</v>
       </c>
       <c r="E193" t="n">
-        <v>17291474159808.23</v>
+        <v>1.152297657952843e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>42.7697940003366</v>
+        <v>31.12189791384148</v>
       </c>
       <c r="G193" t="n">
-        <v>4.114092730255218e-08</v>
+        <v>0.001887421855703752</v>
       </c>
       <c r="H193" t="n">
-        <v>8.553958800067321</v>
+        <v>2.593491492820123</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>5.33288</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>341447747360857.6</v>
+        <v>0.0003677532242211546</v>
       </c>
       <c r="C194" t="n">
-        <v>191491086470214.5</v>
+        <v>0.0001792611343437039</v>
       </c>
       <c r="D194" t="n">
-        <v>7785265683528.286</v>
+        <v>7.90476294148591e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>14338635378974.04</v>
+        <v>1.485592736038305e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>14.23994467543252</v>
+        <v>8.926856097230592</v>
       </c>
       <c r="G194" t="n">
-        <v>0.01415499105108519</v>
+        <v>0.1120174294933966</v>
       </c>
       <c r="H194" t="n">
-        <v>2.847988935086505</v>
+        <v>1.785371219446118</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>5.332912</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>353604037192655.4</v>
+        <v>0.0003372269441104469</v>
       </c>
       <c r="C195" t="n">
-        <v>177453652250297.1</v>
+        <v>0.0001768059231726337</v>
       </c>
       <c r="D195" t="n">
-        <v>7710491410609.569</v>
+        <v>7.281006426029552e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>14197086026402.73</v>
+        <v>1.386394890793606e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>15.16365634399417</v>
+        <v>3.087547619566593</v>
       </c>
       <c r="G195" t="n">
-        <v>0.009685476403925449</v>
+        <v>0.6864905470942197</v>
       </c>
       <c r="H195" t="n">
-        <v>3.032731268798835</v>
+        <v>0.6175095239133185</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>5.337469</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>321965594355877.1</v>
+        <v>0.0003383925956179868</v>
       </c>
       <c r="C196" t="n">
-        <v>156941975973403.5</v>
+        <v>0.0001663616983647236</v>
       </c>
       <c r="D196" t="n">
-        <v>6920569369775.293</v>
+        <v>7.173234553837393e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>13006269337272.26</v>
+        <v>1.374217064926777e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>8.926856175170469</v>
+        <v>9.317703708778653</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1120174263080686</v>
+        <v>0.09704353406980472</v>
       </c>
       <c r="H196" t="n">
-        <v>1.785371235034094</v>
+        <v>1.863540741755731</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>5.342735</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>295240031268986.7</v>
+        <v>0.0003021048374051844</v>
       </c>
       <c r="C197" t="n">
-        <v>154792453979434.3</v>
+        <v>0.0001469155894516656</v>
       </c>
       <c r="D197" t="n">
-        <v>6374474528603.539</v>
+        <v>6.446686379894867e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>12137798540230.14</v>
+        <v>1.234086172596983e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>3.087547604367101</v>
+        <v>2.015372476128506</v>
       </c>
       <c r="G197" t="n">
-        <v>0.6864905494362143</v>
+        <v>0.8470138982265368</v>
       </c>
       <c r="H197" t="n">
-        <v>0.6175095208734203</v>
+        <v>0.4030744952257012</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>5.342928</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>296260551798162.9</v>
+        <v>0.0002986409621628378</v>
       </c>
       <c r="C198" t="n">
-        <v>145648602284151.2</v>
+        <v>0.0001444688341152379</v>
       </c>
       <c r="D198" t="n">
-        <v>6280120946071.384</v>
+        <v>6.255187497474968e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>12031182458711.2</v>
+        <v>1.217161266608381e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>9.317703595816353</v>
+        <v>12.43482699522731</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09704353811903087</v>
+        <v>0.02929175292993725</v>
       </c>
       <c r="H198" t="n">
-        <v>1.86354071916327</v>
+        <v>2.486965399045462</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>5.346943</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>264490851686392.1</v>
+        <v>0.0002938100208721951</v>
       </c>
       <c r="C199" t="n">
-        <v>128623658423803.1</v>
+        <v>0.0001392635416133863</v>
       </c>
       <c r="D199" t="n">
-        <v>5644032676224.267</v>
+        <v>6.138492439673201e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>10804345465671.7</v>
+        <v>1.180248628453766e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>2.015372428964589</v>
+        <v>3.434083832725121</v>
       </c>
       <c r="G199" t="n">
-        <v>0.8470139047774083</v>
+        <v>0.6333842056656823</v>
       </c>
       <c r="H199" t="n">
-        <v>0.4030744857929179</v>
+        <v>0.6868167665450242</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>5.348261</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>261458251189953.4</v>
+        <v>0.0003037955003480712</v>
       </c>
       <c r="C200" t="n">
-        <v>126481539886480.9</v>
+        <v>0.0001455583004237646</v>
       </c>
       <c r="D200" t="n">
-        <v>5476376627517.877</v>
+        <v>6.863347109921682e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>10656168989876.51</v>
+        <v>1.268435889847812e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>12.43482695983538</v>
+        <v>4.750837851251745</v>
       </c>
       <c r="G200" t="n">
-        <v>0.02929175334152679</v>
+        <v>0.4470386230051914</v>
       </c>
       <c r="H200" t="n">
-        <v>2.486965391967075</v>
+        <v>0.950167570250349</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>5.348582</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>257228793045592.9</v>
+        <v>0.0002883692360731293</v>
       </c>
       <c r="C201" t="n">
-        <v>121924339207190.8</v>
+        <v>0.0001432867149125839</v>
       </c>
       <c r="D201" t="n">
-        <v>5374210844995.925</v>
+        <v>5.944913262062613e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>10333001205519.11</v>
+        <v>1.144417452377584e-05</v>
       </c>
       <c r="F201" t="n">
-        <v>3.434083890011163</v>
+        <v>8.76611293690036</v>
       </c>
       <c r="G201" t="n">
-        <v>0.6333841969590114</v>
+        <v>0.118764725763993</v>
       </c>
       <c r="H201" t="n">
-        <v>0.6868167780022325</v>
+        <v>1.753222587380072</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>5.352053</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>265971016205393.5</v>
+        <v>0.000351566620027754</v>
       </c>
       <c r="C202" t="n">
-        <v>127435360477859.4</v>
+        <v>0.0001625867154601716</v>
       </c>
       <c r="D202" t="n">
-        <v>6008816470507.109</v>
+        <v>7.947651497157761e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>11105075031667.91</v>
+        <v>1.408897311076567e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>4.75083782928022</v>
+        <v>27.75070293843359</v>
       </c>
       <c r="G202" t="n">
-        <v>0.4470386258182125</v>
+        <v>4.07189538156274e-05</v>
       </c>
       <c r="H202" t="n">
-        <v>0.950167565856044</v>
+        <v>5.550140587686718</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>5.353596</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>252465420667477.9</v>
+        <v>0.000335705130771709</v>
       </c>
       <c r="C203" t="n">
-        <v>125446601758921.1</v>
+        <v>0.0001560469346460235</v>
       </c>
       <c r="D203" t="n">
-        <v>5204733514308.53</v>
+        <v>7.597728786837119e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>10019301554709.84</v>
+        <v>1.335726268392867e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>8.766112955315366</v>
+        <v>34.84216700113552</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1187647249703338</v>
+        <v>1.617811162128074e-06</v>
       </c>
       <c r="H203" t="n">
-        <v>1.753222591063073</v>
+        <v>6.968433400227104</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>5.357905000000001</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>307794326044794.2</v>
+        <v>0.0003353390454390721</v>
       </c>
       <c r="C204" t="n">
-        <v>142343628793183.6</v>
+        <v>0.0001558069248301312</v>
       </c>
       <c r="D204" t="n">
-        <v>6958118017165.114</v>
+        <v>7.600286575582383e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>12334805789906.29</v>
+        <v>1.342670126754045e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>27.75070285915828</v>
+        <v>29.54023570573317</v>
       </c>
       <c r="G204" t="n">
-        <v>4.071895526723475e-05</v>
+        <v>1.816257243950308e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>5.550140571831657</v>
+        <v>5.908047141146634</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>5.359834999999999</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>293907693528971.1</v>
+        <v>0.000328184829350177</v>
       </c>
       <c r="C205" t="n">
-        <v>136618093194762.2</v>
+        <v>0.0001619066480184082</v>
       </c>
       <c r="D205" t="n">
-        <v>6651762920175.148</v>
+        <v>7.436885930547301e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>11694197994067.92</v>
+        <v>1.310510399406159e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>34.84216718594352</v>
+        <v>41.43191639755246</v>
       </c>
       <c r="G205" t="n">
-        <v>1.617811024791293e-06</v>
+        <v>7.674432112145463e-08</v>
       </c>
       <c r="H205" t="n">
-        <v>6.968433437188705</v>
+        <v>8.286383279510492</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>5.361894</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>293587188248662.2</v>
+        <v>0.0003244159821206203</v>
       </c>
       <c r="C206" t="n">
-        <v>136407965641734.2</v>
+        <v>0.0001512650576581132</v>
       </c>
       <c r="D206" t="n">
-        <v>6654002255017.265</v>
+        <v>7.450484402818694e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>11754991027549.7</v>
+        <v>1.301895300366577e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>29.54023550858293</v>
+        <v>40.23228959041123</v>
       </c>
       <c r="G206" t="n">
-        <v>1.816257405991857e-05</v>
+        <v>1.340648147211693e-07</v>
       </c>
       <c r="H206" t="n">
-        <v>5.908047101716586</v>
+        <v>8.046457918082247</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>5.363857</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>287323718047375.3</v>
+        <v>0.0003272336498908276</v>
       </c>
       <c r="C207" t="n">
-        <v>141748234076596.6</v>
+        <v>0.0001421604375493837</v>
       </c>
       <c r="D207" t="n">
-        <v>6510946046572.943</v>
+        <v>6.977311619503265e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>11473434684639.7</v>
+        <v>1.223268768235502e-05</v>
       </c>
       <c r="F207" t="n">
-        <v>41.43191631322944</v>
+        <v>40.39607918791627</v>
       </c>
       <c r="G207" t="n">
-        <v>7.674432413384429e-08</v>
+        <v>1.242416471764442e-07</v>
       </c>
       <c r="H207" t="n">
-        <v>8.286383262645888</v>
+        <v>8.079215837583254</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>5.366045</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>284024116077515.8</v>
+        <v>0.0003233300894537239</v>
       </c>
       <c r="C208" t="n">
-        <v>132431589957620.9</v>
+        <v>0.0001410602952384707</v>
       </c>
       <c r="D208" t="n">
-        <v>6522851411971.07</v>
+        <v>7.274120739711338e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>11398010034864.34</v>
+        <v>1.259436360278975e-05</v>
       </c>
       <c r="F208" t="n">
-        <v>40.23228970916691</v>
+        <v>44.75993026192074</v>
       </c>
       <c r="G208" t="n">
-        <v>1.340648073255487e-07</v>
+        <v>1.623409556092152e-08</v>
       </c>
       <c r="H208" t="n">
-        <v>8.046457941833383</v>
+        <v>8.951986052384148</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>5.368041000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>286490966539148.6</v>
+        <v>0.0002911279441553076</v>
       </c>
       <c r="C209" t="n">
-        <v>124460553212791.4</v>
+        <v>0.0001338983802924967</v>
       </c>
       <c r="D209" t="n">
-        <v>6108591673512.694</v>
+        <v>6.032112340449169e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>10709639787768.12</v>
+        <v>1.074476698920062e-05</v>
       </c>
       <c r="F209" t="n">
-        <v>40.39607925227592</v>
+        <v>34.22454844073606</v>
       </c>
       <c r="G209" t="n">
-        <v>1.242416434609712e-07</v>
+        <v>2.148052036253495e-06</v>
       </c>
       <c r="H209" t="n">
-        <v>8.079215850455183</v>
+        <v>6.844909688147213</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>5.369651</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>283073424213698.7</v>
+        <v>0.0002519448347222046</v>
       </c>
       <c r="C210" t="n">
-        <v>123497385620924.6</v>
+        <v>0.0001097777899382734</v>
       </c>
       <c r="D210" t="n">
-        <v>6368446155779.237</v>
+        <v>5.23574278290261e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>11026284735490.01</v>
+        <v>9.392576762746338e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>44.75993059587316</v>
+        <v>19.91147130739903</v>
       </c>
       <c r="G210" t="n">
-        <v>1.623409302397036e-08</v>
+        <v>0.001298445999583883</v>
       </c>
       <c r="H210" t="n">
-        <v>8.951986119174631</v>
+        <v>3.982294261479806</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>5.374804</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>254880652072755.4</v>
+        <v>0.0002424357626377307</v>
       </c>
       <c r="C211" t="n">
-        <v>117227174924629.8</v>
+        <v>0.0001040996411429173</v>
       </c>
       <c r="D211" t="n">
-        <v>5281075750473.076</v>
+        <v>4.965167088955328e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>9406974737027.695</v>
+        <v>8.983537110779329e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>34.22454813411881</v>
+        <v>15.13774958905312</v>
       </c>
       <c r="G211" t="n">
-        <v>2.148052338336133e-06</v>
+        <v>0.009789688835587474</v>
       </c>
       <c r="H211" t="n">
-        <v>6.844909626823761</v>
+        <v>3.027549917810623</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>5.380088</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>220576090480978.6</v>
+        <v>0.0002502898363552549</v>
       </c>
       <c r="C212" t="n">
-        <v>96109752579381.62</v>
+        <v>0.0001110592420138506</v>
       </c>
       <c r="D212" t="n">
-        <v>4583859296001.224</v>
+        <v>5.081676747690198e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>8223140838926.434</v>
+        <v>9.19517053697204e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>19.91147123916436</v>
+        <v>20.96046370341663</v>
       </c>
       <c r="G212" t="n">
-        <v>0.001298446037842375</v>
+        <v>0.0008241105736810269</v>
       </c>
       <c r="H212" t="n">
-        <v>3.982294247832873</v>
+        <v>4.192092740683327</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>5.382924</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>212250958748888.9</v>
+        <v>0.0002423243632790727</v>
       </c>
       <c r="C213" t="n">
-        <v>91138569568685.95</v>
+        <v>0.000103361226833251</v>
       </c>
       <c r="D213" t="n">
-        <v>4346972005653.039</v>
+        <v>4.900674807348127e-06</v>
       </c>
       <c r="E213" t="n">
-        <v>7865029234329.518</v>
+        <v>8.887874092041426e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>15.13774938690396</v>
+        <v>14.38579964289733</v>
       </c>
       <c r="G213" t="n">
-        <v>0.009789689652982858</v>
+        <v>0.0133358535143505</v>
       </c>
       <c r="H213" t="n">
-        <v>3.027549877380791</v>
+        <v>2.877159928579466</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>5.383343</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>219127149920763.7</v>
+        <v>0.0002376426494125162</v>
       </c>
       <c r="C214" t="n">
-        <v>97231655674737.66</v>
+        <v>9.700249359908374e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>4448975467308.366</v>
+        <v>4.796289659470953e-06</v>
       </c>
       <c r="E214" t="n">
-        <v>8050312952391.34</v>
+        <v>8.629857543258664e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>20.96046392234345</v>
+        <v>15.70202999922306</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0008241104952148988</v>
+        <v>0.007748341945377047</v>
       </c>
       <c r="H214" t="n">
-        <v>4.19209278446869</v>
+        <v>3.140405999844613</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>5.383858999999999</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>212153429355675.1</v>
+        <v>0.0002350261478036249</v>
       </c>
       <c r="C215" t="n">
-        <v>90492092544278.39</v>
+        <v>9.413419313111206e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>4290509428576.818</v>
+        <v>4.696337253535116e-06</v>
       </c>
       <c r="E215" t="n">
-        <v>7781276884885.708</v>
+        <v>8.430728875286438e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>14.38579949054735</v>
+        <v>14.8513750724677</v>
       </c>
       <c r="G215" t="n">
-        <v>0.01333585434553138</v>
+        <v>0.01101662932779447</v>
       </c>
       <c r="H215" t="n">
-        <v>2.877159898109469</v>
+        <v>2.970275014493539</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>5.385955</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>208054618809167.8</v>
+        <v>0.0002405075456857301</v>
       </c>
       <c r="C216" t="n">
-        <v>84925062261680.64</v>
+        <v>0.0001021462879297634</v>
       </c>
       <c r="D216" t="n">
-        <v>4199120905067.227</v>
+        <v>4.823982987883992e-06</v>
       </c>
       <c r="E216" t="n">
-        <v>7555385055849.327</v>
+        <v>8.802398724806852e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>15.70202966797053</v>
+        <v>15.98616906238706</v>
       </c>
       <c r="G216" t="n">
-        <v>0.007748343012536366</v>
+        <v>0.006883673007618849</v>
       </c>
       <c r="H216" t="n">
-        <v>3.140405933594106</v>
+        <v>3.197233812477412</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>5.389858</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>205763888328568.2</v>
+        <v>0.0002530941500932459</v>
       </c>
       <c r="C217" t="n">
-        <v>82413883671537.67</v>
+        <v>9.652571335367942e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>4111613205227.312</v>
+        <v>5.080516166181269e-06</v>
       </c>
       <c r="E217" t="n">
-        <v>7381049171539.324</v>
+        <v>9.114978412287778e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>14.85137524765458</v>
+        <v>16.10810344458538</v>
       </c>
       <c r="G217" t="n">
-        <v>0.0110166285334566</v>
+        <v>0.006542116286462487</v>
       </c>
       <c r="H217" t="n">
-        <v>2.970275049530916</v>
+        <v>3.221620688917076</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>5.393084</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>210562816919547.2</v>
+        <v>0.0002545446078974587</v>
       </c>
       <c r="C218" t="n">
-        <v>89428421645060.52</v>
+        <v>0.0001025679419494066</v>
       </c>
       <c r="D218" t="n">
-        <v>4223366238792.16</v>
+        <v>5.119352165504656e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>7706443754450.543</v>
+        <v>9.325152368016197e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>15.9861689937645</v>
+        <v>12.62071152854064</v>
       </c>
       <c r="G218" t="n">
-        <v>0.00688367320464317</v>
+        <v>0.02720458887247177</v>
       </c>
       <c r="H218" t="n">
-        <v>3.1972337987529</v>
+        <v>2.524142305708128</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>5.403415</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>221582308601020.5</v>
+        <v>0.0002450677850679899</v>
       </c>
       <c r="C219" t="n">
-        <v>84507644384291.23</v>
+        <v>0.0001128400113146374</v>
       </c>
       <c r="D219" t="n">
-        <v>4447959385834.119</v>
+        <v>4.920356189208947e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>7980105263287.704</v>
+        <v>9.151246580302534e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>16.1081033317347</v>
+        <v>12.34356457457149</v>
       </c>
       <c r="G219" t="n">
-        <v>0.00654211659480216</v>
+        <v>0.03037165892999324</v>
       </c>
       <c r="H219" t="n">
-        <v>3.221620666346939</v>
+        <v>2.468712914914297</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>5.414078</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>222852175146433</v>
+        <v>0.0002535567704510648</v>
       </c>
       <c r="C220" t="n">
-        <v>89797576917155.55</v>
+        <v>0.0001273008107922327</v>
       </c>
       <c r="D220" t="n">
-        <v>4481960050337.917</v>
+        <v>5.015066889726113e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>8164111214585.532</v>
+        <v>9.34262064466839e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>12.62071153192961</v>
+        <v>13.34857728320631</v>
       </c>
       <c r="G220" t="n">
-        <v>0.02720458883574944</v>
+        <v>0.02032224984203319</v>
       </c>
       <c r="H220" t="n">
-        <v>2.524142306385922</v>
+        <v>2.669715456641262</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>5.424364</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>214555277473745.2</v>
+        <v>0.0002657041638512356</v>
       </c>
       <c r="C221" t="n">
-        <v>98790707751182.34</v>
+        <v>0.0001377006786661513</v>
       </c>
       <c r="D221" t="n">
-        <v>4307740349664.048</v>
+        <v>5.27801843515507e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>8011857807090.036</v>
+        <v>9.826264145411033e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>12.34356471010413</v>
+        <v>19.16443437445859</v>
       </c>
       <c r="G221" t="n">
-        <v>0.03037165729835982</v>
+        <v>0.001791170772797931</v>
       </c>
       <c r="H221" t="n">
-        <v>2.468712942020825</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="B222" t="n">
-        <v>221987329841604.8</v>
-      </c>
-      <c r="C222" t="n">
-        <v>111451045066135</v>
-      </c>
-      <c r="D222" t="n">
-        <v>4390658967750.102</v>
-      </c>
-      <c r="E222" t="n">
-        <v>8179404583979.883</v>
-      </c>
-      <c r="F222" t="n">
-        <v>13.34857734024107</v>
-      </c>
-      <c r="G222" t="n">
-        <v>0.02032224937486406</v>
-      </c>
-      <c r="H222" t="n">
-        <v>2.669715468048213</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="B223" t="n">
-        <v>232622295043722.8</v>
-      </c>
-      <c r="C223" t="n">
-        <v>120556062774865.6</v>
-      </c>
-      <c r="D223" t="n">
-        <v>4620871358602.217</v>
-      </c>
-      <c r="E223" t="n">
-        <v>8602831370428.022</v>
-      </c>
-      <c r="F223" t="n">
-        <v>19.16443442143811</v>
-      </c>
-      <c r="G223" t="n">
-        <v>0.001791170736662155</v>
-      </c>
-      <c r="H223" t="n">
-        <v>3.832886884287622</v>
+        <v>3.832886874891718</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/a1/a2/a1_a2Fit.xlsx
+++ b/legendre_out/DATA/a1/a2/a1_a2Fit.xlsx
@@ -408,25 +408,25 @@
         <v>3.434374559103622</v>
       </c>
       <c r="B2" t="n">
-        <v>2.75949458208822e-05</v>
+        <v>2.769310923220034e-05</v>
       </c>
       <c r="C2" t="n">
-        <v>1.530245487465483e-05</v>
+        <v>1.628147333211471e-05</v>
       </c>
       <c r="D2" t="n">
-        <v>6.143489153559465e-07</v>
+        <v>6.194198876092481e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>1.104093602696248e-06</v>
+        <v>1.119425612071168e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>42.45272938181057</v>
+        <v>42.91127021524024</v>
       </c>
       <c r="G2" t="n">
-        <v>4.769779925121085e-08</v>
+        <v>3.851290412343525e-08</v>
       </c>
       <c r="H2" t="n">
-        <v>8.490545876362114</v>
+        <v>8.582254043048048</v>
       </c>
     </row>
     <row r="3">
@@ -434,25 +434,25 @@
         <v>3.43865949305135</v>
       </c>
       <c r="B3" t="n">
-        <v>2.563272503420855e-05</v>
+        <v>2.522315366902135e-05</v>
       </c>
       <c r="C3" t="n">
-        <v>1.591959780549686e-05</v>
+        <v>1.611123421674497e-05</v>
       </c>
       <c r="D3" t="n">
-        <v>6.340658312656605e-07</v>
+        <v>6.286523442919724e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>1.14127804755293e-06</v>
+        <v>1.132736761999544e-06</v>
       </c>
       <c r="F3" t="n">
-        <v>37.65349227135777</v>
+        <v>42.84854351080914</v>
       </c>
       <c r="G3" t="n">
-        <v>4.428908231668367e-07</v>
+        <v>3.965679317355738e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>7.530698454271554</v>
+        <v>8.569708702161828</v>
       </c>
     </row>
     <row r="4">
@@ -460,25 +460,25 @@
         <v>3.440287767951486</v>
       </c>
       <c r="B4" t="n">
-        <v>2.406909558003159e-05</v>
+        <v>2.430620754182168e-05</v>
       </c>
       <c r="C4" t="n">
-        <v>1.343987877264884e-05</v>
+        <v>1.387867539738252e-05</v>
       </c>
       <c r="D4" t="n">
-        <v>6.180601568862519e-07</v>
+        <v>6.200997277520987e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>1.09725346068351e-06</v>
+        <v>1.104062241338058e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>33.9064625612239</v>
+        <v>30.38350926473329</v>
       </c>
       <c r="G4" t="n">
-        <v>2.485302957400102e-06</v>
+        <v>1.239420311548976e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>6.78129251224478</v>
+        <v>6.076701852946658</v>
       </c>
     </row>
     <row r="5">
@@ -486,25 +486,25 @@
         <v>3.443801413788623</v>
       </c>
       <c r="B5" t="n">
-        <v>2.283979627395407e-05</v>
+        <v>2.22628201645063e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>1.26986466522006e-05</v>
+        <v>1.420001160117138e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>6.089531909867638e-07</v>
+        <v>6.013910210858254e-07</v>
       </c>
       <c r="E5" t="n">
-        <v>1.081290067468247e-06</v>
+        <v>1.079674381745153e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>36.38522192368815</v>
+        <v>40.31066434298853</v>
       </c>
       <c r="G5" t="n">
-        <v>7.953333088666921e-07</v>
+        <v>1.292714009674333e-07</v>
       </c>
       <c r="H5" t="n">
-        <v>7.27704438473763</v>
+        <v>8.062132868597706</v>
       </c>
     </row>
     <row r="6">
@@ -512,25 +512,25 @@
         <v>3.445601086046668</v>
       </c>
       <c r="B6" t="n">
-        <v>2.250878258378934e-05</v>
+        <v>2.224009938020852e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>1.297238722562948e-05</v>
+        <v>1.272502198615178e-05</v>
       </c>
       <c r="D6" t="n">
-        <v>6.538512889881018e-07</v>
+        <v>6.475915640426887e-07</v>
       </c>
       <c r="E6" t="n">
-        <v>1.14654680596806e-06</v>
+        <v>1.13096858627488e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>24.02912213057141</v>
+        <v>31.21607109312059</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002143330307660413</v>
+        <v>8.490568138812902e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>4.805824426114282</v>
+        <v>6.243214218624117</v>
       </c>
     </row>
     <row r="7">
@@ -538,25 +538,25 @@
         <v>3.446372374157259</v>
       </c>
       <c r="B7" t="n">
-        <v>2.180987126823063e-05</v>
+        <v>2.252299560370131e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.410134147894408e-05</v>
+        <v>1.31493696303302e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>6.404579140442245e-07</v>
+        <v>6.587997068987526e-07</v>
       </c>
       <c r="E7" t="n">
-        <v>1.139496412367458e-06</v>
+        <v>1.166167133429219e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>26.68898933086678</v>
+        <v>17.45779559974923</v>
       </c>
       <c r="G7" t="n">
-        <v>6.557307561737798e-05</v>
+        <v>0.00370863332459221</v>
       </c>
       <c r="H7" t="n">
-        <v>5.337797866173356</v>
+        <v>3.491559119949845</v>
       </c>
     </row>
     <row r="8">
@@ -564,25 +564,25 @@
         <v>3.450743006783942</v>
       </c>
       <c r="B8" t="n">
-        <v>2.14891323543325e-05</v>
+        <v>2.09305277493477e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1.18041271908842e-05</v>
+        <v>1.275927351116785e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>5.800759840248442e-07</v>
+        <v>5.672024774314764e-07</v>
       </c>
       <c r="E8" t="n">
-        <v>1.02821579491069e-06</v>
+        <v>1.01257261278398e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>23.53120166846717</v>
+        <v>27.73004371948142</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002670947132672473</v>
+        <v>4.109899192699548e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>4.706240333693434</v>
+        <v>5.546008743896283</v>
       </c>
     </row>
     <row r="9">
@@ -590,25 +590,25 @@
         <v>3.454170953942123</v>
       </c>
       <c r="B9" t="n">
-        <v>1.853548738087829e-05</v>
+        <v>1.854730675873834e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.189644443361676e-05</v>
+        <v>1.167314088783556e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>5.059173598129102e-07</v>
+        <v>5.080538320756137e-07</v>
       </c>
       <c r="E9" t="n">
-        <v>9.170864671220073e-07</v>
+        <v>9.17166823769974e-07</v>
       </c>
       <c r="F9" t="n">
-        <v>19.41758573711581</v>
+        <v>18.35690642487042</v>
       </c>
       <c r="G9" t="n">
-        <v>0.001606493274343456</v>
+        <v>0.002530811021737623</v>
       </c>
       <c r="H9" t="n">
-        <v>3.883517147423163</v>
+        <v>3.671381284974084</v>
       </c>
     </row>
     <row r="10">
@@ -616,25 +616,25 @@
         <v>3.454856543373759</v>
       </c>
       <c r="B10" t="n">
-        <v>1.601433494442823e-05</v>
+        <v>1.653891281464138e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>8.107448581963864e-06</v>
+        <v>8.094087592430046e-06</v>
       </c>
       <c r="D10" t="n">
-        <v>5.364380068979829e-07</v>
+        <v>5.42588389139552e-07</v>
       </c>
       <c r="E10" t="n">
-        <v>9.101859448897748e-07</v>
+        <v>9.210435084116083e-07</v>
       </c>
       <c r="F10" t="n">
-        <v>17.29560483920404</v>
+        <v>12.87015186316122</v>
       </c>
       <c r="G10" t="n">
-        <v>0.003971988870034691</v>
+        <v>0.02462645098981416</v>
       </c>
       <c r="H10" t="n">
-        <v>3.459120967840808</v>
+        <v>2.574030372632245</v>
       </c>
     </row>
     <row r="11">
@@ -642,25 +642,25 @@
         <v>3.459227176000442</v>
       </c>
       <c r="B11" t="n">
-        <v>1.11418891546167e-05</v>
+        <v>1.113392552649226e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5.834225440169199e-06</v>
+        <v>5.961534311949789e-06</v>
       </c>
       <c r="D11" t="n">
-        <v>4.240225488838115e-07</v>
+        <v>4.206433837533412e-07</v>
       </c>
       <c r="E11" t="n">
-        <v>7.334767866778821e-07</v>
+        <v>7.316807847065929e-07</v>
       </c>
       <c r="F11" t="n">
-        <v>20.07205302129808</v>
+        <v>15.62658508745257</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001211412181625056</v>
+        <v>0.007995139359393569</v>
       </c>
       <c r="H11" t="n">
-        <v>4.014410604259616</v>
+        <v>3.125317017490514</v>
       </c>
     </row>
     <row r="12">
@@ -668,25 +668,25 @@
         <v>3.463512109948169</v>
       </c>
       <c r="B12" t="n">
-        <v>7.037591915836942e-06</v>
+        <v>6.58528919116686e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>4.413814652319456e-06</v>
+        <v>5.009107422043123e-06</v>
       </c>
       <c r="D12" t="n">
-        <v>3.001499411115518e-07</v>
+        <v>2.897457707317122e-07</v>
       </c>
       <c r="E12" t="n">
-        <v>5.404362738583708e-07</v>
+        <v>5.232130437262972e-07</v>
       </c>
       <c r="F12" t="n">
-        <v>17.09637002423769</v>
+        <v>12.7117618532437</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004320608811212733</v>
+        <v>0.02623491923388896</v>
       </c>
       <c r="H12" t="n">
-        <v>3.419274004847537</v>
+        <v>2.542352370648741</v>
       </c>
     </row>
     <row r="13">
@@ -694,25 +694,25 @@
         <v>3.467882742574851</v>
       </c>
       <c r="B13" t="n">
-        <v>5.264565562929074e-06</v>
+        <v>5.142445540356398e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>2.51234051622489e-06</v>
+        <v>2.762375404716272e-06</v>
       </c>
       <c r="D13" t="n">
-        <v>2.626713053700615e-07</v>
+        <v>2.557415875193959e-07</v>
       </c>
       <c r="E13" t="n">
-        <v>4.399437495997961e-07</v>
+        <v>4.301002297983341e-07</v>
       </c>
       <c r="F13" t="n">
-        <v>11.19683526164677</v>
+        <v>16.40104443623218</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04761400945549393</v>
+        <v>0.00578763973605407</v>
       </c>
       <c r="H13" t="n">
-        <v>2.239367052329355</v>
+        <v>3.280208887246436</v>
       </c>
     </row>
     <row r="14">
@@ -720,25 +720,25 @@
         <v>3.669188939439092</v>
       </c>
       <c r="B14" t="n">
-        <v>2.045027714480566e-05</v>
+        <v>2.0553137310843e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>3.858120279930375e-06</v>
+        <v>4.505069849219873e-06</v>
       </c>
       <c r="D14" t="n">
-        <v>5.405073359382663e-07</v>
+        <v>5.465437200540499e-07</v>
       </c>
       <c r="E14" t="n">
-        <v>8.280990796798997e-07</v>
+        <v>8.401537778470762e-07</v>
       </c>
       <c r="F14" t="n">
-        <v>123.7217098949628</v>
+        <v>136.2274495571078</v>
       </c>
       <c r="G14" t="n">
-        <v>5.106781494927717e-25</v>
+        <v>1.133259500902599e-27</v>
       </c>
       <c r="H14" t="n">
-        <v>24.74434197899256</v>
+        <v>27.24548991142155</v>
       </c>
     </row>
     <row r="15">
@@ -746,25 +746,25 @@
         <v>3.686414373908955</v>
       </c>
       <c r="B15" t="n">
-        <v>3.436412502492672e-05</v>
+        <v>3.369219163804636e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>1.233989790895109e-05</v>
+        <v>1.294540687180126e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>8.061128479837179e-07</v>
+        <v>7.99573288404674e-07</v>
       </c>
       <c r="E15" t="n">
-        <v>1.339658302569468e-06</v>
+        <v>1.327633239606398e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>72.7973750997987</v>
+        <v>80.84312502861742</v>
       </c>
       <c r="G15" t="n">
-        <v>2.67925853086026e-14</v>
+        <v>5.590313236385315e-16</v>
       </c>
       <c r="H15" t="n">
-        <v>14.55947501995974</v>
+        <v>16.16862500572348</v>
       </c>
     </row>
     <row r="16">
@@ -772,25 +772,25 @@
         <v>3.687271360698501</v>
       </c>
       <c r="B16" t="n">
-        <v>4.728313246318016e-05</v>
+        <v>4.736496593387802e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>1.992516707226332e-05</v>
+        <v>1.955548626881613e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>1.097812281997649e-06</v>
+        <v>1.099536264521936e-06</v>
       </c>
       <c r="E16" t="n">
-        <v>1.86407022925836e-06</v>
+        <v>1.864061160125804e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>61.273623844467</v>
+        <v>61.00109964656249</v>
       </c>
       <c r="G16" t="n">
-        <v>6.628504647093699e-12</v>
+        <v>7.547149699545566e-12</v>
       </c>
       <c r="H16" t="n">
-        <v>12.2547247688934</v>
+        <v>12.2002199293125</v>
       </c>
     </row>
     <row r="17">
@@ -798,25 +798,25 @@
         <v>3.689071032956547</v>
       </c>
       <c r="B17" t="n">
-        <v>4.480410429442741e-05</v>
+        <v>4.440801206603833e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>1.669094481153235e-05</v>
+        <v>1.702768856367561e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>1.065924367862778e-06</v>
+        <v>1.078336414857149e-06</v>
       </c>
       <c r="E17" t="n">
-        <v>1.78214048247857e-06</v>
+        <v>1.798156349450677e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>61.46832324080661</v>
+        <v>66.41414733750813</v>
       </c>
       <c r="G17" t="n">
-        <v>6.041400420961556e-12</v>
+        <v>5.701993223026204e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>12.29366464816132</v>
+        <v>13.28282946750162</v>
       </c>
     </row>
     <row r="18">
@@ -824,25 +824,25 @@
         <v>3.689928019746092</v>
       </c>
       <c r="B18" t="n">
-        <v>4.416941424667563e-05</v>
+        <v>4.445373403041899e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>1.839786250690233e-05</v>
+        <v>1.801188022518612e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>1.10212411235364e-06</v>
+        <v>1.088570512828397e-06</v>
       </c>
       <c r="E18" t="n">
-        <v>1.822865369117254e-06</v>
+        <v>1.804473929735029e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>85.55500032392062</v>
+        <v>80.47045058744764</v>
       </c>
       <c r="G18" t="n">
-        <v>5.758273856809553e-17</v>
+        <v>6.689983718591258e-16</v>
       </c>
       <c r="H18" t="n">
-        <v>17.11100006478413</v>
+        <v>16.09409011748953</v>
       </c>
     </row>
     <row r="19">
@@ -850,25 +850,25 @@
         <v>3.690699307856684</v>
       </c>
       <c r="B19" t="n">
-        <v>4.34205864601109e-05</v>
+        <v>4.401060752706526e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>1.798144849098499e-05</v>
+        <v>1.720251078566376e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>1.097411206989241e-06</v>
+        <v>1.108129828066891e-06</v>
       </c>
       <c r="E19" t="n">
-        <v>1.808215640291821e-06</v>
+        <v>1.823260653604357e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>85.40595727862184</v>
+        <v>81.05073222718005</v>
       </c>
       <c r="G19" t="n">
-        <v>6.187953021999858e-17</v>
+        <v>5.058069975051518e-16</v>
       </c>
       <c r="H19" t="n">
-        <v>17.08119145572437</v>
+        <v>16.21014644543601</v>
       </c>
     </row>
     <row r="20">
@@ -876,25 +876,25 @@
         <v>3.691641993325183</v>
       </c>
       <c r="B20" t="n">
-        <v>4.394102085439018e-05</v>
+        <v>4.397424597019328e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>1.720016032192483e-05</v>
+        <v>1.710108437421151e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>1.153904092863248e-06</v>
+        <v>1.141347623456844e-06</v>
       </c>
       <c r="E20" t="n">
-        <v>1.88609528854814e-06</v>
+        <v>1.874402452719657e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>80.47144684495532</v>
+        <v>79.54094183238149</v>
       </c>
       <c r="G20" t="n">
-        <v>6.686773204250091e-16</v>
+        <v>1.04684775665816e-15</v>
       </c>
       <c r="H20" t="n">
-        <v>16.09428936899106</v>
+        <v>15.9081883664763</v>
       </c>
     </row>
     <row r="21">
@@ -902,25 +902,25 @@
         <v>3.692498980114729</v>
       </c>
       <c r="B21" t="n">
-        <v>4.62620509924022e-05</v>
+        <v>4.57456852476198e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.590057918695078e-05</v>
+        <v>1.619146923598827e-05</v>
       </c>
       <c r="D21" t="n">
-        <v>1.301956638287829e-06</v>
+        <v>1.291596880164415e-06</v>
       </c>
       <c r="E21" t="n">
-        <v>2.051890818845148e-06</v>
+        <v>2.036988897034835e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>103.7062778484384</v>
+        <v>114.0957755946717</v>
       </c>
       <c r="G21" t="n">
-        <v>8.73968568623297e-21</v>
+        <v>5.578386721752118e-23</v>
       </c>
       <c r="H21" t="n">
-        <v>20.74125556968768</v>
+        <v>22.81915511893434</v>
       </c>
     </row>
     <row r="22">
@@ -928,25 +928,25 @@
         <v>3.693270268225319</v>
       </c>
       <c r="B22" t="n">
-        <v>4.73959483098258e-05</v>
+        <v>4.822818509611247e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>2.126414907209422e-05</v>
+        <v>2.048561671577955e-05</v>
       </c>
       <c r="D22" t="n">
-        <v>1.793291888135152e-06</v>
+        <v>1.880828002567625e-06</v>
       </c>
       <c r="E22" t="n">
-        <v>2.689428823537802e-06</v>
+        <v>2.782949124618293e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>236.846136084148</v>
+        <v>230.5834448994623</v>
       </c>
       <c r="G22" t="n">
-        <v>3.643531626348694e-49</v>
+        <v>8.019368018179403e-48</v>
       </c>
       <c r="H22" t="n">
-        <v>47.36922721682959</v>
+        <v>46.11668897989246</v>
       </c>
     </row>
     <row r="23">
@@ -954,25 +954,25 @@
         <v>3.694127255014865</v>
       </c>
       <c r="B23" t="n">
-        <v>5.668223467398579e-05</v>
+        <v>5.906711269487209e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>1.254295467938028e-05</v>
+        <v>5.118094216206784e-06</v>
       </c>
       <c r="D23" t="n">
-        <v>2.471610551443742e-06</v>
+        <v>2.597823516125555e-06</v>
       </c>
       <c r="E23" t="n">
-        <v>3.497137652889136e-06</v>
+        <v>3.559857474856629e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>253.3788643041359</v>
+        <v>239.3054023615362</v>
       </c>
       <c r="G23" t="n">
-        <v>1.035344539572381e-52</v>
+        <v>1.081863985755435e-49</v>
       </c>
       <c r="H23" t="n">
-        <v>50.67577286082718</v>
+        <v>47.86108047230723</v>
       </c>
     </row>
     <row r="24">
@@ -980,25 +980,25 @@
         <v>3.695841228593956</v>
       </c>
       <c r="B24" t="n">
-        <v>5.56400459186294e-05</v>
+        <v>6.088496823769102e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>1.851072213992898e-05</v>
+        <v>1.384039880524483e-05</v>
       </c>
       <c r="D24" t="n">
-        <v>2.793310729283716e-06</v>
+        <v>2.996707107778946e-06</v>
       </c>
       <c r="E24" t="n">
-        <v>3.922802405844705e-06</v>
+        <v>4.134990826344443e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>322.545420634765</v>
+        <v>301.212891118913</v>
       </c>
       <c r="G24" t="n">
-        <v>1.418698256052446e-67</v>
+        <v>5.494132431854344e-63</v>
       </c>
       <c r="H24" t="n">
-        <v>64.50908412695301</v>
+        <v>60.24257822378261</v>
       </c>
     </row>
     <row r="25">
@@ -1006,25 +1006,25 @@
         <v>3.697555202173048</v>
       </c>
       <c r="B25" t="n">
-        <v>5.735550609950379e-05</v>
+        <v>6.521272183000375e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>5.918963368695357e-06</v>
+        <v>-6.933278105398705e-06</v>
       </c>
       <c r="D25" t="n">
-        <v>2.68142340091857e-06</v>
+        <v>3.047692571647148e-06</v>
       </c>
       <c r="E25" t="n">
-        <v>3.592545623333329e-06</v>
+        <v>3.895344319849002e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>386.7926361236061</v>
+        <v>361.0902003486311</v>
       </c>
       <c r="G25" t="n">
-        <v>2.081835453889182e-81</v>
+        <v>7.163162281285222e-76</v>
       </c>
       <c r="H25" t="n">
-        <v>77.35852722472123</v>
+        <v>72.21804006972623</v>
       </c>
     </row>
     <row r="26">
@@ -1032,25 +1032,25 @@
         <v>3.699354874431093</v>
       </c>
       <c r="B26" t="n">
-        <v>6.294812272965227e-05</v>
+        <v>5.642190977832373e-05</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.195826093003619e-06</v>
+        <v>8.698233562833018e-06</v>
       </c>
       <c r="D26" t="n">
-        <v>3.078925895058279e-06</v>
+        <v>2.817077103749267e-06</v>
       </c>
       <c r="E26" t="n">
-        <v>4.053039266537305e-06</v>
+        <v>3.819198394229161e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>301.7258080394379</v>
+        <v>326.1222264732003</v>
       </c>
       <c r="G26" t="n">
-        <v>4.262080593100138e-63</v>
+        <v>2.411774107227729e-68</v>
       </c>
       <c r="H26" t="n">
-        <v>60.34516160788759</v>
+        <v>65.22444529464006</v>
       </c>
     </row>
     <row r="27">
@@ -1058,25 +1058,25 @@
         <v>3.701068848010184</v>
       </c>
       <c r="B27" t="n">
-        <v>4.95722855307324e-05</v>
+        <v>5.780537692345204e-05</v>
       </c>
       <c r="C27" t="n">
-        <v>2.136839473839206e-05</v>
+        <v>6.892850131356514e-06</v>
       </c>
       <c r="D27" t="n">
-        <v>2.586579205346643e-06</v>
+        <v>2.95053341085428e-06</v>
       </c>
       <c r="E27" t="n">
-        <v>3.738249407287901e-06</v>
+        <v>4.06122145449899e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>313.9754888992951</v>
+        <v>304.2498642554027</v>
       </c>
       <c r="G27" t="n">
-        <v>9.894509475276288e-66</v>
+        <v>1.221577463386336e-63</v>
       </c>
       <c r="H27" t="n">
-        <v>62.79509777985902</v>
+        <v>60.84997285108053</v>
       </c>
     </row>
     <row r="28">
@@ -1084,25 +1084,25 @@
         <v>3.70286852026823</v>
       </c>
       <c r="B28" t="n">
-        <v>5.397554986015521e-05</v>
+        <v>5.566350645951258e-05</v>
       </c>
       <c r="C28" t="n">
-        <v>3.774153525351667e-06</v>
+        <v>5.693784923310052e-06</v>
       </c>
       <c r="D28" t="n">
-        <v>2.857752564201816e-06</v>
+        <v>2.798670761879195e-06</v>
       </c>
       <c r="E28" t="n">
-        <v>3.785835789495202e-06</v>
+        <v>3.792824196460935e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>314.2800491583694</v>
+        <v>306.6153416356032</v>
       </c>
       <c r="G28" t="n">
-        <v>8.509174715734353e-66</v>
+        <v>3.786835410919829e-64</v>
       </c>
       <c r="H28" t="n">
-        <v>62.85600983167387</v>
+        <v>61.32306832712063</v>
       </c>
     </row>
     <row r="29">
@@ -1110,25 +1110,25 @@
         <v>3.703468411020912</v>
       </c>
       <c r="B29" t="n">
-        <v>5.736862100237745e-05</v>
+        <v>6.472279227599226e-05</v>
       </c>
       <c r="C29" t="n">
-        <v>1.283430155851327e-05</v>
+        <v>8.515495989549103e-06</v>
       </c>
       <c r="D29" t="n">
-        <v>2.717612384803441e-06</v>
+        <v>2.969569275143434e-06</v>
       </c>
       <c r="E29" t="n">
-        <v>3.749122128094229e-06</v>
+        <v>4.116397092518475e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>308.5969272613073</v>
+        <v>276.0735426023876</v>
       </c>
       <c r="G29" t="n">
-        <v>1.419547589558177e-64</v>
+        <v>1.388221097219467e-57</v>
       </c>
       <c r="H29" t="n">
-        <v>61.71938545226146</v>
+        <v>55.21470852047753</v>
       </c>
     </row>
     <row r="30">
@@ -1136,25 +1136,25 @@
         <v>3.704496795168366</v>
       </c>
       <c r="B30" t="n">
-        <v>4.752265657027002e-05</v>
+        <v>5.61222179768061e-05</v>
       </c>
       <c r="C30" t="n">
-        <v>7.495799746603579e-06</v>
+        <v>-2.065359349850313e-06</v>
       </c>
       <c r="D30" t="n">
-        <v>2.433618865647863e-06</v>
+        <v>2.752372439199166e-06</v>
       </c>
       <c r="E30" t="n">
-        <v>3.261738271386951e-06</v>
+        <v>3.590232201523887e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>362.7746101543264</v>
+        <v>312.5285031282251</v>
       </c>
       <c r="G30" t="n">
-        <v>3.107097734953939e-76</v>
+        <v>2.025877667698122e-65</v>
       </c>
       <c r="H30" t="n">
-        <v>72.55492203086528</v>
+        <v>62.50570062564502</v>
       </c>
     </row>
     <row r="31">
@@ -1162,25 +1162,25 @@
         <v>3.706125070068503</v>
       </c>
       <c r="B31" t="n">
-        <v>4.258953462045188e-05</v>
+        <v>4.253929936654283e-05</v>
       </c>
       <c r="C31" t="n">
-        <v>-2.589270581330655e-06</v>
+        <v>-4.639320836143982e-06</v>
       </c>
       <c r="D31" t="n">
-        <v>2.45842603907362e-06</v>
+        <v>2.519718142541976e-06</v>
       </c>
       <c r="E31" t="n">
-        <v>3.102935666981302e-06</v>
+        <v>3.138197197758946e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>379.1668983099462</v>
+        <v>386.2841960189809</v>
       </c>
       <c r="G31" t="n">
-        <v>9.150613702652349e-80</v>
+        <v>2.679170193312511e-81</v>
       </c>
       <c r="H31" t="n">
-        <v>75.83337966198926</v>
+        <v>77.25683920379618</v>
       </c>
     </row>
     <row r="32">
@@ -1188,25 +1188,25 @@
         <v>3.707839043647593</v>
       </c>
       <c r="B32" t="n">
-        <v>4.052661370220578e-05</v>
+        <v>4.43804473024018e-05</v>
       </c>
       <c r="C32" t="n">
-        <v>3.16689934649886e-07</v>
+        <v>-3.68406499272879e-06</v>
       </c>
       <c r="D32" t="n">
-        <v>2.457119488533794e-06</v>
+        <v>2.666912722420828e-06</v>
       </c>
       <c r="E32" t="n">
-        <v>3.177007480389838e-06</v>
+        <v>3.378290116072913e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>347.3204413532365</v>
+        <v>324.13361305784</v>
       </c>
       <c r="G32" t="n">
-        <v>6.606699740964529e-73</v>
+        <v>6.459493812113992e-68</v>
       </c>
       <c r="H32" t="n">
-        <v>69.4640882706473</v>
+        <v>64.82672261156799</v>
       </c>
     </row>
     <row r="33">
@@ -1214,25 +1214,25 @@
         <v>3.709638715905639</v>
       </c>
       <c r="B33" t="n">
-        <v>3.585660178328024e-05</v>
+        <v>3.729908473007068e-05</v>
       </c>
       <c r="C33" t="n">
-        <v>7.833046231976073e-06</v>
+        <v>2.406785047590632e-06</v>
       </c>
       <c r="D33" t="n">
-        <v>2.101886742405153e-06</v>
+        <v>2.225654079928674e-06</v>
       </c>
       <c r="E33" t="n">
-        <v>2.941281244950683e-06</v>
+        <v>2.965930374697782e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>361.4265332470757</v>
+        <v>368.7522393409056</v>
       </c>
       <c r="G33" t="n">
-        <v>6.062813035311257e-76</v>
+        <v>1.602942132220088e-77</v>
       </c>
       <c r="H33" t="n">
-        <v>72.28530664941513</v>
+        <v>73.75044786818113</v>
       </c>
     </row>
     <row r="34">
@@ -1240,25 +1240,25 @@
         <v>3.71135268948473</v>
       </c>
       <c r="B34" t="n">
-        <v>3.492999242405432e-05</v>
+        <v>3.997745243012226e-05</v>
       </c>
       <c r="C34" t="n">
-        <v>3.048814377310686e-06</v>
+        <v>-5.658825226121777e-06</v>
       </c>
       <c r="D34" t="n">
-        <v>2.299761751352958e-06</v>
+        <v>2.484125132861332e-06</v>
       </c>
       <c r="E34" t="n">
-        <v>3.050587456080903e-06</v>
+        <v>3.155483998362803e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>314.9856389489026</v>
+        <v>294.8371990532605</v>
       </c>
       <c r="G34" t="n">
-        <v>5.999598940838067e-66</v>
+        <v>1.289791072861379e-61</v>
       </c>
       <c r="H34" t="n">
-        <v>62.99712778978052</v>
+        <v>58.9674398106521</v>
       </c>
     </row>
     <row r="35">
@@ -1266,25 +1266,25 @@
         <v>3.713066663063821</v>
       </c>
       <c r="B35" t="n">
-        <v>3.570334353828775e-05</v>
+        <v>3.96994484115631e-05</v>
       </c>
       <c r="C35" t="n">
-        <v>7.184156917968336e-07</v>
+        <v>-7.656264386690386e-06</v>
       </c>
       <c r="D35" t="n">
-        <v>2.099142901656838e-06</v>
+        <v>2.315256622111505e-06</v>
       </c>
       <c r="E35" t="n">
-        <v>2.747015867346994e-06</v>
+        <v>2.89852355048005e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>343.6281149937483</v>
+        <v>319.9543457168065</v>
       </c>
       <c r="G35" t="n">
-        <v>4.119464450890157e-72</v>
+        <v>5.120508754706996e-67</v>
       </c>
       <c r="H35" t="n">
-        <v>68.72562299874967</v>
+        <v>63.99086914336131</v>
       </c>
     </row>
     <row r="36">
@@ -1292,25 +1292,25 @@
         <v>3.714609239285003</v>
       </c>
       <c r="B36" t="n">
-        <v>3.926327714713323e-05</v>
+        <v>3.216820700697497e-05</v>
       </c>
       <c r="C36" t="n">
-        <v>-7.850268183395929e-06</v>
+        <v>8.466237590865523e-07</v>
       </c>
       <c r="D36" t="n">
-        <v>2.165204794114949e-06</v>
+        <v>1.945628917631981e-06</v>
       </c>
       <c r="E36" t="n">
-        <v>2.757628619304506e-06</v>
+        <v>2.537509712054449e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>291.1145991851209</v>
+        <v>325.3877721639505</v>
       </c>
       <c r="G36" t="n">
-        <v>8.140489735754052e-61</v>
+        <v>3.470256604635141e-68</v>
       </c>
       <c r="H36" t="n">
-        <v>58.22291983702418</v>
+        <v>65.07755443279009</v>
       </c>
     </row>
     <row r="37">
@@ -1318,25 +1318,25 @@
         <v>3.716494610222004</v>
       </c>
       <c r="B37" t="n">
-        <v>2.903453046832233e-05</v>
+        <v>2.870960628944136e-05</v>
       </c>
       <c r="C37" t="n">
-        <v>7.517858198887388e-06</v>
+        <v>3.611697100567381e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>1.587473832979615e-06</v>
+        <v>1.536324532429269e-06</v>
       </c>
       <c r="E37" t="n">
-        <v>2.149242361666507e-06</v>
+        <v>2.02775682259082e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>328.9889861207054</v>
+        <v>346.6717163099442</v>
       </c>
       <c r="G37" t="n">
-        <v>5.827662810454652e-69</v>
+        <v>9.112604500373228e-73</v>
       </c>
       <c r="H37" t="n">
-        <v>65.79779722414108</v>
+        <v>69.33434326198883</v>
       </c>
     </row>
     <row r="38">
@@ -1344,25 +1344,25 @@
         <v>3.718122885122139</v>
       </c>
       <c r="B38" t="n">
-        <v>2.493855223476626e-05</v>
+        <v>2.979350595267552e-05</v>
       </c>
       <c r="C38" t="n">
-        <v>1.354853902128356e-05</v>
+        <v>2.445381036886858e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>1.220328639292388e-06</v>
+        <v>1.448747340598007e-06</v>
       </c>
       <c r="E38" t="n">
-        <v>1.80782288510421e-06</v>
+        <v>1.965337187217191e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>320.1097148255216</v>
+        <v>297.7371686601541</v>
       </c>
       <c r="G38" t="n">
-        <v>4.741212616064188e-67</v>
+        <v>3.069956624177904e-62</v>
       </c>
       <c r="H38" t="n">
-        <v>64.02194296510432</v>
+        <v>59.54743373203083</v>
       </c>
     </row>
     <row r="39">
@@ -1370,25 +1370,25 @@
         <v>3.719836858701231</v>
       </c>
       <c r="B39" t="n">
-        <v>2.587075821929693e-05</v>
+        <v>2.902816213151151e-05</v>
       </c>
       <c r="C39" t="n">
-        <v>8.659800194434539e-06</v>
+        <v>3.155138345191087e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>1.06782659231366e-06</v>
+        <v>1.219904696864811e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>1.539600321634887e-06</v>
+        <v>1.689822931003323e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>259.7460575674189</v>
+        <v>229.7570695114069</v>
       </c>
       <c r="G39" t="n">
-        <v>4.451524480384279e-54</v>
+        <v>1.205776049968809e-47</v>
       </c>
       <c r="H39" t="n">
-        <v>51.94921151348377</v>
+        <v>45.95141390228139</v>
       </c>
     </row>
     <row r="40">
@@ -1396,25 +1396,25 @@
         <v>3.720693845490776</v>
       </c>
       <c r="B40" t="n">
-        <v>2.00961922666373e-05</v>
+        <v>2.91186759762762e-05</v>
       </c>
       <c r="C40" t="n">
-        <v>7.00288138839102e-06</v>
+        <v>-7.260035414971393e-07</v>
       </c>
       <c r="D40" t="n">
-        <v>1.133184132357965e-06</v>
+        <v>1.478310853939721e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>1.583256693100765e-06</v>
+        <v>1.95744632364136e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>363.2467512927205</v>
+        <v>273.7609813716986</v>
       </c>
       <c r="G40" t="n">
-        <v>2.458518020180937e-76</v>
+        <v>4.35697222828452e-57</v>
       </c>
       <c r="H40" t="n">
-        <v>72.6493502585441</v>
+        <v>54.75219627433972</v>
       </c>
     </row>
     <row r="41">
@@ -1422,25 +1422,25 @@
         <v>3.721636530959276</v>
       </c>
       <c r="B41" t="n">
-        <v>2.814783935279311e-05</v>
+        <v>2.669616290330201e-05</v>
       </c>
       <c r="C41" t="n">
-        <v>3.973158551966675e-06</v>
+        <v>5.535400638258626e-06</v>
       </c>
       <c r="D41" t="n">
-        <v>1.082362007083623e-06</v>
+        <v>1.045572110741668e-06</v>
       </c>
       <c r="E41" t="n">
-        <v>1.542957438394288e-06</v>
+        <v>1.513900825893633e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>129.652266582148</v>
+        <v>148.3432080687542</v>
       </c>
       <c r="G41" t="n">
-        <v>2.820763947560444e-26</v>
+        <v>3.007148501733781e-30</v>
       </c>
       <c r="H41" t="n">
-        <v>25.9304533164296</v>
+        <v>29.66864161375084</v>
       </c>
     </row>
     <row r="42">
@@ -1448,25 +1448,25 @@
         <v>3.723350504538367</v>
       </c>
       <c r="B42" t="n">
-        <v>3.273948077124378e-05</v>
+        <v>3.215195335426449e-05</v>
       </c>
       <c r="C42" t="n">
-        <v>8.343601976441037e-06</v>
+        <v>1.034890004548482e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>1.000769497223463e-06</v>
+        <v>9.536711204307764e-07</v>
       </c>
       <c r="E42" t="n">
-        <v>1.549600776970735e-06</v>
+        <v>1.504597326333598e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>78.81009076898766</v>
+        <v>82.97228487377176</v>
       </c>
       <c r="G42" t="n">
-        <v>1.488409332515363e-15</v>
+        <v>2.002726059544616e-16</v>
       </c>
       <c r="H42" t="n">
-        <v>15.76201815379753</v>
+        <v>16.59445697475435</v>
       </c>
     </row>
     <row r="43">
@@ -1474,25 +1474,25 @@
         <v>3.725064478117458</v>
       </c>
       <c r="B43" t="n">
-        <v>3.094149972036915e-05</v>
+        <v>3.128827707636795e-05</v>
       </c>
       <c r="C43" t="n">
-        <v>1.027651059465359e-05</v>
+        <v>1.026398980783067e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>8.707214478692477e-07</v>
+        <v>8.759829806839993e-07</v>
       </c>
       <c r="E43" t="n">
-        <v>1.387444517924068e-06</v>
+        <v>1.395363986948369e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>79.79522136599519</v>
+        <v>79.6411548714639</v>
       </c>
       <c r="G43" t="n">
-        <v>9.261794475663725e-16</v>
+        <v>9.975218751454115e-16</v>
       </c>
       <c r="H43" t="n">
-        <v>15.95904427319904</v>
+        <v>15.92823097429278</v>
       </c>
     </row>
     <row r="44">
@@ -1500,25 +1500,25 @@
         <v>3.729178014707276</v>
       </c>
       <c r="B44" t="n">
-        <v>2.897918731006147e-05</v>
+        <v>2.902346428912745e-05</v>
       </c>
       <c r="C44" t="n">
-        <v>1.053530181054869e-05</v>
+        <v>1.017574059113285e-05</v>
       </c>
       <c r="D44" t="n">
-        <v>7.896805530440847e-07</v>
+        <v>7.959399252321988e-07</v>
       </c>
       <c r="E44" t="n">
-        <v>1.29643222497347e-06</v>
+        <v>1.306712742686382e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>53.49732176328502</v>
+        <v>48.62091851202825</v>
       </c>
       <c r="G44" t="n">
-        <v>2.658520948267549e-10</v>
+        <v>2.652568072995226e-09</v>
       </c>
       <c r="H44" t="n">
-        <v>10.699464352657</v>
+        <v>9.72418370240565</v>
       </c>
     </row>
     <row r="45">
@@ -1526,25 +1526,25 @@
         <v>3.73337724997605</v>
       </c>
       <c r="B45" t="n">
-        <v>2.780217450510131e-05</v>
+        <v>2.773307615778836e-05</v>
       </c>
       <c r="C45" t="n">
-        <v>7.019141918578702e-06</v>
+        <v>7.091327424551277e-06</v>
       </c>
       <c r="D45" t="n">
-        <v>7.622552636182258e-07</v>
+        <v>7.632382247112586e-07</v>
       </c>
       <c r="E45" t="n">
-        <v>1.235712939925875e-06</v>
+        <v>1.232707854945486e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>37.82906531522455</v>
+        <v>43.76679159061537</v>
       </c>
       <c r="G45" t="n">
-        <v>4.08362572399257e-07</v>
+        <v>2.582933018424575e-08</v>
       </c>
       <c r="H45" t="n">
-        <v>7.565813063044911</v>
+        <v>8.753358318123073</v>
       </c>
     </row>
     <row r="46">
@@ -1552,25 +1552,25 @@
         <v>3.737747882602732</v>
       </c>
       <c r="B46" t="n">
-        <v>2.734112454714644e-05</v>
+        <v>2.694681823571994e-05</v>
       </c>
       <c r="C46" t="n">
-        <v>6.455677677799766e-06</v>
+        <v>7.075669678880081e-06</v>
       </c>
       <c r="D46" t="n">
-        <v>7.19938086223421e-07</v>
+        <v>7.346893298093503e-07</v>
       </c>
       <c r="E46" t="n">
-        <v>1.165404001876429e-06</v>
+        <v>1.188585577022788e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>43.35531705142331</v>
+        <v>43.0507690003964</v>
       </c>
       <c r="G46" t="n">
-        <v>3.130299306466344e-08</v>
+        <v>3.608550957801897e-08</v>
       </c>
       <c r="H46" t="n">
-        <v>8.671063410284662</v>
+        <v>8.61015380007928</v>
       </c>
     </row>
     <row r="47">
@@ -1578,25 +1578,25 @@
         <v>3.754973317072596</v>
       </c>
       <c r="B47" t="n">
-        <v>2.306929036374293e-05</v>
+        <v>2.328558326649683e-05</v>
       </c>
       <c r="C47" t="n">
-        <v>3.910165359116392e-06</v>
+        <v>4.205101746165068e-06</v>
       </c>
       <c r="D47" t="n">
-        <v>6.520616536610659e-07</v>
+        <v>6.564839254450481e-07</v>
       </c>
       <c r="E47" t="n">
-        <v>1.033152769683112e-06</v>
+        <v>1.045941547497159e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>36.45447740129922</v>
+        <v>36.63211630400784</v>
       </c>
       <c r="G47" t="n">
-        <v>7.703414554398702e-07</v>
+        <v>7.097540961117694e-07</v>
       </c>
       <c r="H47" t="n">
-        <v>7.290895480259844</v>
+        <v>7.326423260801567</v>
       </c>
     </row>
     <row r="48">
@@ -1604,25 +1604,25 @@
         <v>3.772113052863507</v>
       </c>
       <c r="B48" t="n">
-        <v>2.368557533501193e-05</v>
+        <v>2.382069624106966e-05</v>
       </c>
       <c r="C48" t="n">
-        <v>4.089916934452323e-06</v>
+        <v>3.569223622599424e-06</v>
       </c>
       <c r="D48" t="n">
-        <v>6.740334677087483e-07</v>
+        <v>6.763178679166245e-07</v>
       </c>
       <c r="E48" t="n">
-        <v>1.07324396779882e-06</v>
+        <v>1.073096739019745e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>37.16433626943369</v>
+        <v>32.12587536076595</v>
       </c>
       <c r="G48" t="n">
-        <v>5.551875490571305e-07</v>
+        <v>5.609812774618382e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>7.432867253886738</v>
+        <v>6.42517507215319</v>
       </c>
     </row>
     <row r="49">
@@ -1630,25 +1630,25 @@
         <v>3.789167089975462</v>
       </c>
       <c r="B49" t="n">
-        <v>2.573800986715144e-05</v>
+        <v>2.497439853792387e-05</v>
       </c>
       <c r="C49" t="n">
-        <v>2.174195215617742e-06</v>
+        <v>2.28800270291713e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>7.527487819846075e-07</v>
+        <v>7.505573212560357e-07</v>
       </c>
       <c r="E49" t="n">
-        <v>1.17672913527724e-06</v>
+        <v>1.151567571229006e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>42.90294280957129</v>
+        <v>39.47034082390746</v>
       </c>
       <c r="G49" t="n">
-        <v>3.866284942067756e-08</v>
+        <v>1.909512878457519e-07</v>
       </c>
       <c r="H49" t="n">
-        <v>8.580588561914258</v>
+        <v>7.894068164781492</v>
       </c>
     </row>
     <row r="50">
@@ -1656,25 +1656,25 @@
         <v>3.797908355228826</v>
       </c>
       <c r="B50" t="n">
-        <v>2.645821775584594e-05</v>
+        <v>2.6850606329701e-05</v>
       </c>
       <c r="C50" t="n">
-        <v>5.016794424372166e-06</v>
+        <v>4.598218534230201e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>8.711878956795163e-07</v>
+        <v>8.522361590451484e-07</v>
       </c>
       <c r="E50" t="n">
-        <v>1.380906627368972e-06</v>
+        <v>1.355689990056109e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>23.8144047732824</v>
+        <v>24.03937988845767</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0002356859941682052</v>
+        <v>0.0002133622610745079</v>
       </c>
       <c r="H50" t="n">
-        <v>4.762880954656481</v>
+        <v>4.807875977691535</v>
       </c>
     </row>
     <row r="51">
@@ -1682,25 +1682,25 @@
         <v>3.806478223124282</v>
       </c>
       <c r="B51" t="n">
-        <v>2.612058720872525e-05</v>
+        <v>2.61142328818264e-05</v>
       </c>
       <c r="C51" t="n">
-        <v>5.197520354186983e-06</v>
+        <v>5.45873072649461e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>8.213473401095753e-07</v>
+        <v>8.227813493960904e-07</v>
       </c>
       <c r="E51" t="n">
-        <v>1.291014779003669e-06</v>
+        <v>1.294787920115767e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>29.32400149200353</v>
+        <v>30.84725947281058</v>
       </c>
       <c r="G51" t="n">
-        <v>2.002900062011921e-05</v>
+        <v>1.00406645130254e-05</v>
       </c>
       <c r="H51" t="n">
-        <v>5.864800298400705</v>
+        <v>6.169451894562116</v>
       </c>
     </row>
     <row r="52">
@@ -1708,25 +1708,25 @@
         <v>3.814876693661827</v>
       </c>
       <c r="B52" t="n">
-        <v>2.189128566614696e-05</v>
+        <v>2.199810687986192e-05</v>
       </c>
       <c r="C52" t="n">
-        <v>5.700382285143672e-06</v>
+        <v>5.782732496064241e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>1.166574276523014e-06</v>
+        <v>1.168464194148089e-06</v>
       </c>
       <c r="E52" t="n">
-        <v>1.80172058477115e-06</v>
+        <v>1.80303552261995e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>23.70119631180941</v>
+        <v>24.05564715199652</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0002477774850317112</v>
+        <v>0.000211831673187585</v>
       </c>
       <c r="H52" t="n">
-        <v>4.740239262361881</v>
+        <v>4.811129430399305</v>
       </c>
     </row>
     <row r="53">
@@ -1734,25 +1734,25 @@
         <v>3.823360862878328</v>
       </c>
       <c r="B53" t="n">
-        <v>2.121369324852081e-05</v>
+        <v>2.361859460868183e-05</v>
       </c>
       <c r="C53" t="n">
-        <v>8.195496331740705e-06</v>
+        <v>5.714940130329566e-06</v>
       </c>
       <c r="D53" t="n">
-        <v>1.252410227069811e-06</v>
+        <v>1.329429013824652e-06</v>
       </c>
       <c r="E53" t="n">
-        <v>1.95241335754401e-06</v>
+        <v>2.061644940872317e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>38.35613757428182</v>
+        <v>23.04585228822867</v>
       </c>
       <c r="G53" t="n">
-        <v>3.199981410614433e-07</v>
+        <v>0.000330820267869772</v>
       </c>
       <c r="H53" t="n">
-        <v>7.671227514856364</v>
+        <v>4.609170457645734</v>
       </c>
     </row>
     <row r="54">
@@ -1760,25 +1760,25 @@
         <v>3.82773149550501</v>
       </c>
       <c r="B54" t="n">
-        <v>1.440925830618836e-05</v>
+        <v>1.307264086793135e-05</v>
       </c>
       <c r="C54" t="n">
-        <v>3.107479471641821e-06</v>
+        <v>5.203406283720468e-06</v>
       </c>
       <c r="D54" t="n">
-        <v>2.143740647596579e-06</v>
+        <v>1.926879979865345e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>3.230611468525516e-06</v>
+        <v>3.086806654225892e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>3.2378623207258</v>
+        <v>5.147719880948717</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6633675256431527</v>
+        <v>0.3981197247021861</v>
       </c>
       <c r="H54" t="n">
-        <v>0.6475724641451601</v>
+        <v>1.029543976189743</v>
       </c>
     </row>
     <row r="55">
@@ -1786,25 +1786,25 @@
         <v>3.832102128131692</v>
       </c>
       <c r="B55" t="n">
-        <v>1.39580411172368e-05</v>
+        <v>1.397572376175061e-05</v>
       </c>
       <c r="C55" t="n">
-        <v>2.703509560819596e-06</v>
+        <v>-1.0095648108389e-06</v>
       </c>
       <c r="D55" t="n">
-        <v>2.930605321745582e-06</v>
+        <v>2.621373037619098e-06</v>
       </c>
       <c r="E55" t="n">
-        <v>3.922400543387235e-06</v>
+        <v>3.535303109000159e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>2.01833045570072</v>
+        <v>3.433315493189757</v>
       </c>
       <c r="G55" t="n">
-        <v>0.8466028989343009</v>
+        <v>0.6335009852812183</v>
       </c>
       <c r="H55" t="n">
-        <v>0.4036660911401439</v>
+        <v>0.6866630986379514</v>
       </c>
     </row>
     <row r="56">
@@ -1812,25 +1812,25 @@
         <v>3.840586297348192</v>
       </c>
       <c r="B56" t="n">
-        <v>1.377342987872847e-05</v>
+        <v>1.446083966416684e-05</v>
       </c>
       <c r="C56" t="n">
-        <v>7.660891643705211e-06</v>
+        <v>5.752603316731785e-06</v>
       </c>
       <c r="D56" t="n">
-        <v>2.022072095558899e-06</v>
+        <v>2.237011773211074e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>3.164204934669046e-06</v>
+        <v>3.406845498654145e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>3.938355116455717</v>
+        <v>5.256468410563585</v>
       </c>
       <c r="G56" t="n">
-        <v>0.5583250785671711</v>
+        <v>0.3853888908852672</v>
       </c>
       <c r="H56" t="n">
-        <v>0.7876710232911435</v>
+        <v>1.051293682112717</v>
       </c>
     </row>
     <row r="57">
@@ -1838,25 +1838,25 @@
         <v>3.847442191664556</v>
       </c>
       <c r="B57" t="n">
-        <v>1.642112196449413e-05</v>
+        <v>1.945807577583005e-05</v>
       </c>
       <c r="C57" t="n">
-        <v>1.226222893868972e-05</v>
+        <v>4.1130538335568e-06</v>
       </c>
       <c r="D57" t="n">
-        <v>1.985255923234917e-06</v>
+        <v>2.420981896611863e-06</v>
       </c>
       <c r="E57" t="n">
-        <v>3.261301896085034e-06</v>
+        <v>3.5934370746845e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>14.79605595870417</v>
+        <v>14.40077168220688</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01127024678114064</v>
+        <v>0.01325441159065999</v>
       </c>
       <c r="H57" t="n">
-        <v>2.959211191740835</v>
+        <v>2.880154336441375</v>
       </c>
     </row>
     <row r="58">
@@ -1864,25 +1864,25 @@
         <v>3.854383784659876</v>
       </c>
       <c r="B58" t="n">
-        <v>2.65785002204918e-05</v>
+        <v>2.619521024168303e-05</v>
       </c>
       <c r="C58" t="n">
-        <v>1.194726986451457e-05</v>
+        <v>1.400293548820098e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>1.664860363189384e-06</v>
+        <v>1.669336137011058e-06</v>
       </c>
       <c r="E58" t="n">
-        <v>2.661880864728092e-06</v>
+        <v>2.690605108709371e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>17.95747781084397</v>
+        <v>15.79538102608487</v>
       </c>
       <c r="G58" t="n">
-        <v>0.003000171518059129</v>
+        <v>0.007453212777538088</v>
       </c>
       <c r="H58" t="n">
-        <v>3.591495562168794</v>
+        <v>3.159076205216974</v>
       </c>
     </row>
     <row r="59">
@@ -1890,25 +1890,25 @@
         <v>3.856183456917921</v>
       </c>
       <c r="B59" t="n">
-        <v>2.986028606674506e-05</v>
+        <v>2.924242665310615e-05</v>
       </c>
       <c r="C59" t="n">
-        <v>1.194349893328086e-05</v>
+        <v>1.258739174893625e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>1.572331572719168e-06</v>
+        <v>1.521403570482279e-06</v>
       </c>
       <c r="E59" t="n">
-        <v>2.520764030438721e-06</v>
+        <v>2.435164993587499e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>31.1656169063507</v>
+        <v>35.88768694579736</v>
       </c>
       <c r="G59" t="n">
-        <v>8.687687975347073e-06</v>
+        <v>1.000230227730672e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>6.233123381270141</v>
+        <v>7.177537389159473</v>
       </c>
     </row>
     <row r="60">
@@ -1916,25 +1916,25 @@
         <v>3.857811731818057</v>
       </c>
       <c r="B60" t="n">
-        <v>2.878901466330805e-05</v>
+        <v>2.979280191499217e-05</v>
       </c>
       <c r="C60" t="n">
-        <v>1.336864859028005e-05</v>
+        <v>1.454148307020793e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>1.557367632342358e-06</v>
+        <v>1.657284393720187e-06</v>
       </c>
       <c r="E60" t="n">
-        <v>2.461987478906191e-06</v>
+        <v>2.652748759103662e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>22.88588128699536</v>
+        <v>20.97484013945639</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0003549507448206361</v>
+        <v>0.0008189737145628734</v>
       </c>
       <c r="H60" t="n">
-        <v>4.577176257399072</v>
+        <v>4.194968027891277</v>
       </c>
     </row>
     <row r="61">
@@ -1942,25 +1942,25 @@
         <v>3.859611404076103</v>
       </c>
       <c r="B61" t="n">
-        <v>3.050374639649695e-05</v>
+        <v>3.114478676203358e-05</v>
       </c>
       <c r="C61" t="n">
-        <v>1.641949452841328e-05</v>
+        <v>1.456913472976083e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>1.175232618335571e-06</v>
+        <v>1.191945573615476e-06</v>
       </c>
       <c r="E61" t="n">
-        <v>1.905964494459583e-06</v>
+        <v>1.923409989345971e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>50.81521523231378</v>
+        <v>47.73332762205548</v>
       </c>
       <c r="G61" t="n">
-        <v>9.43635570622029e-10</v>
+        <v>4.0261474785008e-09</v>
       </c>
       <c r="H61" t="n">
-        <v>10.16304304646276</v>
+        <v>9.546665524411097</v>
       </c>
     </row>
     <row r="62">
@@ -1968,25 +1968,25 @@
         <v>3.86201096708683</v>
       </c>
       <c r="B62" t="n">
-        <v>3.469694130670587e-05</v>
+        <v>3.497317756370913e-05</v>
       </c>
       <c r="C62" t="n">
-        <v>1.728434236451632e-05</v>
+        <v>1.649050688821849e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>1.039670191518021e-06</v>
+        <v>1.044216012241261e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>1.732986356683804e-06</v>
+        <v>1.738273812115855e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>65.81665234039441</v>
+        <v>60.4154298365377</v>
       </c>
       <c r="G62" t="n">
-        <v>7.586809147361785e-13</v>
+        <v>9.974206351019334e-12</v>
       </c>
       <c r="H62" t="n">
-        <v>13.16333046807888</v>
+        <v>12.08308596730754</v>
       </c>
     </row>
     <row r="63">
@@ -1994,25 +1994,25 @@
         <v>3.866295901034558</v>
       </c>
       <c r="B63" t="n">
-        <v>3.731044347852411e-05</v>
+        <v>3.678281496589168e-05</v>
       </c>
       <c r="C63" t="n">
-        <v>1.509038488839826e-05</v>
+        <v>1.563761690980051e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>1.024840442944741e-06</v>
+        <v>1.018601390999346e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>1.6842026906185e-06</v>
+        <v>1.667829633993213e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>68.59901409571705</v>
+        <v>81.419434173531</v>
       </c>
       <c r="G63" t="n">
-        <v>2.00474722416944e-13</v>
+        <v>4.234548002601531e-16</v>
       </c>
       <c r="H63" t="n">
-        <v>13.71980281914341</v>
+        <v>16.2838868347062</v>
       </c>
     </row>
     <row r="64">
@@ -2020,25 +2020,25 @@
         <v>3.875037166287922</v>
       </c>
       <c r="B64" t="n">
-        <v>4.00100896457823e-05</v>
+        <v>3.99158500806722e-05</v>
       </c>
       <c r="C64" t="n">
-        <v>1.816788270196083e-05</v>
+        <v>1.776357484894786e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>9.804291318631366e-07</v>
+        <v>9.788361600733672e-07</v>
       </c>
       <c r="E64" t="n">
-        <v>1.657303486734308e-06</v>
+        <v>1.647744606546654e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>78.05895943553224</v>
+        <v>80.05975516773906</v>
       </c>
       <c r="G64" t="n">
-        <v>2.136716279614133e-15</v>
+        <v>8.153708144274964e-16</v>
       </c>
       <c r="H64" t="n">
-        <v>15.61179188710645</v>
+        <v>16.01195103354781</v>
       </c>
     </row>
     <row r="65">
@@ -2046,25 +2046,25 @@
         <v>3.876751139867013</v>
       </c>
       <c r="B65" t="n">
-        <v>4.306383124720637e-05</v>
+        <v>4.439721752606591e-05</v>
       </c>
       <c r="C65" t="n">
-        <v>2.185513465956022e-05</v>
+        <v>1.80587618413662e-05</v>
       </c>
       <c r="D65" t="n">
-        <v>1.284882489305254e-06</v>
+        <v>1.337040213663767e-06</v>
       </c>
       <c r="E65" t="n">
-        <v>2.086678078824754e-06</v>
+        <v>2.133081855156951e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>126.9889931507668</v>
+        <v>112.4135232232801</v>
       </c>
       <c r="G65" t="n">
-        <v>1.0360417254873e-25</v>
+        <v>1.265604214278838e-22</v>
       </c>
       <c r="H65" t="n">
-        <v>25.39779863015336</v>
+        <v>22.48270464465602</v>
       </c>
     </row>
     <row r="66">
@@ -2072,25 +2072,25 @@
         <v>3.879236401556695</v>
       </c>
       <c r="B66" t="n">
-        <v>4.349522561910528e-05</v>
+        <v>4.172779206976611e-05</v>
       </c>
       <c r="C66" t="n">
-        <v>1.775363715155079e-05</v>
+        <v>2.012121096954842e-05</v>
       </c>
       <c r="D66" t="n">
-        <v>1.962245217644379e-06</v>
+        <v>1.898814052174578e-06</v>
       </c>
       <c r="E66" t="n">
-        <v>2.991837204328042e-06</v>
+        <v>2.925888568754873e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>85.64126340856461</v>
+        <v>92.88729967861556</v>
       </c>
       <c r="G66" t="n">
-        <v>5.523341207163419e-17</v>
+        <v>1.661429624035944e-18</v>
       </c>
       <c r="H66" t="n">
-        <v>17.12825268171292</v>
+        <v>18.57745993572311</v>
       </c>
     </row>
     <row r="67">
@@ -2098,25 +2098,25 @@
         <v>3.883521335504422</v>
       </c>
       <c r="B67" t="n">
-        <v>3.939765525809229e-05</v>
+        <v>3.656806536823409e-05</v>
       </c>
       <c r="C67" t="n">
-        <v>8.611904356567215e-06</v>
+        <v>1.229156937970868e-05</v>
       </c>
       <c r="D67" t="n">
-        <v>2.254559157377442e-06</v>
+        <v>2.108195958725727e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>3.344026240081293e-06</v>
+        <v>3.175983330491124e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>70.71757519307266</v>
+        <v>72.81345222739466</v>
       </c>
       <c r="G67" t="n">
-        <v>7.265636201226747e-14</v>
+        <v>2.658664130535595e-14</v>
       </c>
       <c r="H67" t="n">
-        <v>14.14351503861453</v>
+        <v>14.56269044547893</v>
       </c>
     </row>
     <row r="68">
@@ -2124,25 +2124,25 @@
         <v>3.887891968131104</v>
       </c>
       <c r="B68" t="n">
-        <v>3.287770537757465e-05</v>
+        <v>3.554436866370855e-05</v>
       </c>
       <c r="C68" t="n">
-        <v>1.160030913814166e-05</v>
+        <v>5.247192950979859e-06</v>
       </c>
       <c r="D68" t="n">
-        <v>2.796928301193564e-06</v>
+        <v>3.134245493720372e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>4.308146094036665e-06</v>
+        <v>4.473755270431312e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>48.14236512245456</v>
+        <v>47.79203203452868</v>
       </c>
       <c r="G68" t="n">
-        <v>3.32200331035287e-09</v>
+        <v>3.916607640875144e-09</v>
       </c>
       <c r="H68" t="n">
-        <v>9.628473024490912</v>
+        <v>9.558406406905736</v>
       </c>
     </row>
     <row r="69">
@@ -2150,25 +2150,25 @@
         <v>3.891491312647195</v>
       </c>
       <c r="B69" t="n">
-        <v>3.239158916182714e-05</v>
+        <v>4.113822273772823e-05</v>
       </c>
       <c r="C69" t="n">
-        <v>1.334380317198339e-05</v>
+        <v>1.091512404930602e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>2.243587479189116e-06</v>
+        <v>2.807961881348496e-06</v>
       </c>
       <c r="E69" t="n">
-        <v>3.310096288192268e-06</v>
+        <v>4.162100430150245e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>93.50233324479089</v>
+        <v>55.00016430199753</v>
       </c>
       <c r="G69" t="n">
-        <v>1.23349396843905e-18</v>
+        <v>1.305260753951371e-10</v>
       </c>
       <c r="H69" t="n">
-        <v>18.70046664895818</v>
+        <v>11.00003286039951</v>
       </c>
     </row>
     <row r="70">
@@ -2176,25 +2176,25 @@
         <v>3.896376137347605</v>
       </c>
       <c r="B70" t="n">
-        <v>2.346030721216147e-05</v>
+        <v>3.052783396212459e-05</v>
       </c>
       <c r="C70" t="n">
-        <v>-7.34321792377063e-06</v>
+        <v>5.384948279936969e-06</v>
       </c>
       <c r="D70" t="n">
-        <v>3.273429329936118e-06</v>
+        <v>3.668321309062175e-06</v>
       </c>
       <c r="E70" t="n">
-        <v>4.211777518473215e-06</v>
+        <v>5.938735309035375e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>53.26535847493826</v>
+        <v>32.03799460886976</v>
       </c>
       <c r="G70" t="n">
-        <v>2.966767227630466e-10</v>
+        <v>5.839215327089095e-06</v>
       </c>
       <c r="H70" t="n">
-        <v>10.65307169498765</v>
+        <v>6.407598921773952</v>
       </c>
     </row>
     <row r="71">
@@ -2202,25 +2202,25 @@
         <v>3.900746769974288</v>
       </c>
       <c r="B71" t="n">
-        <v>2.565311140496083e-05</v>
+        <v>2.61095525680733e-05</v>
       </c>
       <c r="C71" t="n">
-        <v>2.395652236363612e-06</v>
+        <v>8.367906383644303e-07</v>
       </c>
       <c r="D71" t="n">
-        <v>4.538391928205927e-06</v>
+        <v>4.742151241704419e-06</v>
       </c>
       <c r="E71" t="n">
-        <v>7.074577515578623e-06</v>
+        <v>7.23128458936102e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>10.87114055411535</v>
+        <v>9.665924305690003</v>
       </c>
       <c r="G71" t="n">
-        <v>0.05399560015584037</v>
+        <v>0.08527382103469097</v>
       </c>
       <c r="H71" t="n">
-        <v>2.17422811082307</v>
+        <v>1.933184861138001</v>
       </c>
     </row>
     <row r="72">
@@ -2228,25 +2228,25 @@
         <v>3.908973843153924</v>
       </c>
       <c r="B72" t="n">
-        <v>3.531190032697665e-05</v>
+        <v>3.726226370281074e-05</v>
       </c>
       <c r="C72" t="n">
-        <v>3.828154720239741e-06</v>
+        <v>8.418934390415139e-07</v>
       </c>
       <c r="D72" t="n">
-        <v>2.462984695260594e-06</v>
+        <v>2.630966560598597e-06</v>
       </c>
       <c r="E72" t="n">
-        <v>3.728993279831975e-06</v>
+        <v>3.882010837746909e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>35.19545096444925</v>
+        <v>27.20171612920687</v>
       </c>
       <c r="G72" t="n">
-        <v>1.375375669629068e-06</v>
+        <v>5.210763452177729e-05</v>
       </c>
       <c r="H72" t="n">
-        <v>7.03909019288985</v>
+        <v>5.440343225841374</v>
       </c>
     </row>
     <row r="73">
@@ -2254,25 +2254,25 @@
         <v>3.917886505765197</v>
       </c>
       <c r="B73" t="n">
-        <v>1.256932539948292e-05</v>
+        <v>9.911633247740903e-06</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.398918852493725e-06</v>
+        <v>8.584284119348014e-06</v>
       </c>
       <c r="D73" t="n">
-        <v>3.413596794794387e-06</v>
+        <v>2.230462498306887e-06</v>
       </c>
       <c r="E73" t="n">
-        <v>4.506945974269703e-06</v>
+        <v>3.828906885544501e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>1.485862659127364</v>
+        <v>4.825304496454036</v>
       </c>
       <c r="G73" t="n">
-        <v>0.9146954713138261</v>
+        <v>0.4375703235685753</v>
       </c>
       <c r="H73" t="n">
-        <v>0.2971725318254728</v>
+        <v>0.9650608992908072</v>
       </c>
     </row>
     <row r="74">
@@ -2280,25 +2280,25 @@
         <v>3.926370674981698</v>
       </c>
       <c r="B74" t="n">
-        <v>7.52501208223988e-06</v>
+        <v>9.473459347019074e-06</v>
       </c>
       <c r="C74" t="n">
-        <v>7.0798594850429e-06</v>
+        <v>9.807601635567001e-06</v>
       </c>
       <c r="D74" t="n">
-        <v>2.198234555569376e-06</v>
+        <v>2.193686713630226e-06</v>
       </c>
       <c r="E74" t="n">
-        <v>3.934297802329491e-06</v>
+        <v>3.946503048661291e-06</v>
       </c>
       <c r="F74" t="n">
-        <v>2.126884295668088</v>
+        <v>3.279622631603843</v>
       </c>
       <c r="G74" t="n">
-        <v>0.8313242553818566</v>
+        <v>0.6569628631172086</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4253768591336176</v>
+        <v>0.6559245263207686</v>
       </c>
     </row>
     <row r="75">
@@ -2306,25 +2306,25 @@
         <v>3.934854844198199</v>
       </c>
       <c r="B75" t="n">
-        <v>1.044931412114363e-05</v>
+        <v>1.010358727760656e-05</v>
       </c>
       <c r="C75" t="n">
-        <v>1.235605627936609e-05</v>
+        <v>9.263799242635523e-06</v>
       </c>
       <c r="D75" t="n">
-        <v>2.051820997912479e-06</v>
+        <v>2.287722753490886e-06</v>
       </c>
       <c r="E75" t="n">
-        <v>3.7762533452223e-06</v>
+        <v>4.117055317255075e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>4.61216648555766</v>
+        <v>5.621451528187274</v>
       </c>
       <c r="G75" t="n">
-        <v>0.4650176246235836</v>
+        <v>0.3448119732927871</v>
       </c>
       <c r="H75" t="n">
-        <v>0.922433297111532</v>
+        <v>1.124290305637455</v>
       </c>
     </row>
     <row r="76">
@@ -2332,25 +2332,25 @@
         <v>3.943510410772608</v>
       </c>
       <c r="B76" t="n">
-        <v>2.251227519588103e-05</v>
+        <v>2.990197411722353e-05</v>
       </c>
       <c r="C76" t="n">
-        <v>1.220131025757743e-05</v>
+        <v>6.14960551380221e-07</v>
       </c>
       <c r="D76" t="n">
-        <v>1.966088211872759e-06</v>
+        <v>2.515910472026526e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>3.011638737870485e-06</v>
+        <v>3.657947716975038e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>68.96300813444064</v>
+        <v>43.40233778889193</v>
       </c>
       <c r="G76" t="n">
-        <v>1.68410075892961e-13</v>
+        <v>3.062314650450558e-08</v>
       </c>
       <c r="H76" t="n">
-        <v>13.79260162688813</v>
+        <v>8.680467557778385</v>
       </c>
     </row>
     <row r="77">
@@ -2358,25 +2358,25 @@
         <v>3.952251676025972</v>
       </c>
       <c r="B77" t="n">
-        <v>5.143973965630969e-05</v>
+        <v>4.384982645289747e-05</v>
       </c>
       <c r="C77" t="n">
-        <v>4.346752841416874e-06</v>
+        <v>1.025352195257734e-05</v>
       </c>
       <c r="D77" t="n">
-        <v>3.028143590066236e-06</v>
+        <v>2.716013317278835e-06</v>
       </c>
       <c r="E77" t="n">
-        <v>4.072983316274165e-06</v>
+        <v>3.74776885372201e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>292.5185118081541</v>
+        <v>324.0160346960344</v>
       </c>
       <c r="G77" t="n">
-        <v>4.063567045604933e-61</v>
+        <v>6.846922408722249e-68</v>
       </c>
       <c r="H77" t="n">
-        <v>58.50370236163083</v>
+        <v>64.80320693920689</v>
       </c>
     </row>
     <row r="78">
@@ -2384,25 +2384,25 @@
         <v>3.960564447884564</v>
       </c>
       <c r="B78" t="n">
-        <v>4.170188644838825e-05</v>
+        <v>5.02468594228694e-05</v>
       </c>
       <c r="C78" t="n">
-        <v>1.804325266390815e-05</v>
+        <v>2.676492020063159e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>3.38337465103214e-06</v>
+        <v>3.805806803581704e-06</v>
       </c>
       <c r="E78" t="n">
-        <v>4.716961927082198e-06</v>
+        <v>5.530483173986719e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>765.7746221507707</v>
+        <v>719.5336365592239</v>
       </c>
       <c r="G78" t="n">
-        <v>2.929706735541175e-163</v>
+        <v>2.934005874425553e-153</v>
       </c>
       <c r="H78" t="n">
-        <v>153.1549244301542</v>
+        <v>143.9067273118448</v>
       </c>
     </row>
     <row r="79">
@@ -2410,25 +2410,25 @@
         <v>3.969305713137928</v>
       </c>
       <c r="B79" t="n">
-        <v>2.643002998729391e-05</v>
+        <v>7.684155403871034e-05</v>
       </c>
       <c r="C79" t="n">
-        <v>4.404575892120703e-05</v>
+        <v>-1.20367762798982e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>2.572965806640822e-06</v>
+        <v>6.021932451719052e-06</v>
       </c>
       <c r="E79" t="n">
-        <v>4.835390759420753e-06</v>
+        <v>7.502250724193901e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>660.4542186518682</v>
+        <v>587.0979535584534</v>
       </c>
       <c r="G79" t="n">
-        <v>1.740775396049218e-140</v>
+        <v>1.239941424480089e-124</v>
       </c>
       <c r="H79" t="n">
-        <v>132.0908437303736</v>
+        <v>117.4195907116907</v>
       </c>
     </row>
     <row r="80">
@@ -2436,25 +2436,25 @@
         <v>3.977618484996519</v>
       </c>
       <c r="B80" t="n">
-        <v>6.853528165029332e-05</v>
+        <v>6.424576628331431e-05</v>
       </c>
       <c r="C80" t="n">
-        <v>-2.200314276521379e-05</v>
+        <v>-1.458173399684176e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>4.634161859190155e-06</v>
+        <v>4.331153725274545e-06</v>
       </c>
       <c r="E80" t="n">
-        <v>5.469252637570877e-06</v>
+        <v>5.265314747321006e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>651.5805133008668</v>
+        <v>658.2040618032572</v>
       </c>
       <c r="G80" t="n">
-        <v>1.441644740071274e-138</v>
+        <v>5.335087959298979e-140</v>
       </c>
       <c r="H80" t="n">
-        <v>130.3161026601734</v>
+        <v>131.6408123606514</v>
       </c>
     </row>
     <row r="81">
@@ -2462,25 +2462,25 @@
         <v>3.982160514981111</v>
       </c>
       <c r="B81" t="n">
-        <v>5.881648860568395e-05</v>
+        <v>7.091995983953233e-05</v>
       </c>
       <c r="C81" t="n">
-        <v>1.972307607851755e-06</v>
+        <v>-8.779148372401738e-06</v>
       </c>
       <c r="D81" t="n">
-        <v>3.360965490555455e-06</v>
+        <v>3.797982027031278e-06</v>
       </c>
       <c r="E81" t="n">
-        <v>4.462482558720505e-06</v>
+        <v>4.876891178299312e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>392.3438013418392</v>
+        <v>347.3516213975837</v>
       </c>
       <c r="G81" t="n">
-        <v>1.325139351038126e-82</v>
+        <v>6.505370748988771e-73</v>
       </c>
       <c r="H81" t="n">
-        <v>78.46876026836784</v>
+        <v>69.47032427951675</v>
       </c>
     </row>
     <row r="82">
@@ -2488,25 +2488,25 @@
         <v>3.986274051570929</v>
       </c>
       <c r="B82" t="n">
-        <v>8.655684211857567e-05</v>
+        <v>8.475564674190458e-05</v>
       </c>
       <c r="C82" t="n">
-        <v>2.362814184122124e-05</v>
+        <v>2.593662427416354e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>3.25267822893084e-06</v>
+        <v>3.188735142074675e-06</v>
       </c>
       <c r="E82" t="n">
-        <v>4.783836875123688e-06</v>
+        <v>4.670946051367707e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>200.3356626210633</v>
+        <v>207.0627707668091</v>
       </c>
       <c r="G82" t="n">
-        <v>2.407725202587251e-41</v>
+        <v>8.752645549528999e-43</v>
       </c>
       <c r="H82" t="n">
-        <v>40.06713252421267</v>
+        <v>41.41255415336182</v>
       </c>
     </row>
     <row r="83">
@@ -2514,25 +2514,25 @@
         <v>3.994843919466384</v>
       </c>
       <c r="B83" t="n">
-        <v>8.39498609060403e-05</v>
+        <v>8.462990921832783e-05</v>
       </c>
       <c r="C83" t="n">
-        <v>2.899300765705006e-05</v>
+        <v>3.132679664964584e-05</v>
       </c>
       <c r="D83" t="n">
-        <v>2.934886737789504e-06</v>
+        <v>2.927992617642725e-06</v>
       </c>
       <c r="E83" t="n">
-        <v>4.266567152581555e-06</v>
+        <v>4.28575956187729e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>335.8198410397957</v>
+        <v>329.0524704590406</v>
       </c>
       <c r="G83" t="n">
-        <v>1.974696221178639e-70</v>
+        <v>5.647209508195997e-69</v>
       </c>
       <c r="H83" t="n">
-        <v>67.16396820795913</v>
+        <v>65.81049409180812</v>
       </c>
     </row>
     <row r="84">
@@ -2540,25 +2540,25 @@
         <v>4.012069353936249</v>
       </c>
       <c r="B84" t="n">
-        <v>8.827759905423227e-05</v>
+        <v>8.834062044196942e-05</v>
       </c>
       <c r="C84" t="n">
-        <v>5.628257799191819e-07</v>
+        <v>2.958274988087159e-07</v>
       </c>
       <c r="D84" t="n">
-        <v>2.617561780402574e-06</v>
+        <v>2.615541971178616e-06</v>
       </c>
       <c r="E84" t="n">
-        <v>3.485353645400314e-06</v>
+        <v>3.481071169902922e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>431.6412334105077</v>
+        <v>434.1365209264094</v>
       </c>
       <c r="G84" t="n">
-        <v>4.475228411852188e-91</v>
+        <v>1.296307975803401e-91</v>
       </c>
       <c r="H84" t="n">
-        <v>86.32824668210154</v>
+        <v>86.82730418528187</v>
       </c>
     </row>
     <row r="85">
@@ -2566,25 +2566,25 @@
         <v>4.020724920510658</v>
       </c>
       <c r="B85" t="n">
-        <v>7.543127690862033e-05</v>
+        <v>7.66745752699597e-05</v>
       </c>
       <c r="C85" t="n">
-        <v>4.362077446224486e-06</v>
+        <v>3.82383185630787e-06</v>
       </c>
       <c r="D85" t="n">
-        <v>2.066397446039879e-06</v>
+        <v>2.081506541962444e-06</v>
       </c>
       <c r="E85" t="n">
-        <v>2.897653564211695e-06</v>
+        <v>2.92090395406728e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>264.4464324352595</v>
+        <v>252.9798701943384</v>
       </c>
       <c r="G85" t="n">
-        <v>4.359429329413183e-55</v>
+        <v>1.260975983924778e-52</v>
       </c>
       <c r="H85" t="n">
-        <v>52.88928648705189</v>
+        <v>50.59597403886768</v>
       </c>
     </row>
     <row r="86">
@@ -2592,25 +2592,25 @@
         <v>4.02903769236925</v>
       </c>
       <c r="B86" t="n">
-        <v>5.412738591345545e-05</v>
+        <v>5.42999179950687e-05</v>
       </c>
       <c r="C86" t="n">
-        <v>1.531354201788904e-05</v>
+        <v>1.552162917385169e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>1.472571993424313e-06</v>
+        <v>1.472305740643823e-06</v>
       </c>
       <c r="E86" t="n">
-        <v>2.220972062143498e-06</v>
+        <v>2.227065819254027e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>225.1043139024529</v>
+        <v>216.2686845561243</v>
       </c>
       <c r="G86" t="n">
-        <v>1.197812348999311e-46</v>
+        <v>9.357749824935564e-45</v>
       </c>
       <c r="H86" t="n">
-        <v>45.02086278049059</v>
+        <v>43.25373691122486</v>
       </c>
     </row>
     <row r="87">
@@ -2618,25 +2618,25 @@
         <v>4.046263126839114</v>
       </c>
       <c r="B87" t="n">
-        <v>5.129222994670342e-05</v>
+        <v>5.114930474356785e-05</v>
       </c>
       <c r="C87" t="n">
-        <v>1.77352764972477e-05</v>
+        <v>1.765093132204936e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>1.236480972064941e-06</v>
+        <v>1.236365971284406e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>1.979315253735486e-06</v>
+        <v>1.981095431238823e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>140.7995084098285</v>
+        <v>134.4245797574921</v>
       </c>
       <c r="G87" t="n">
-        <v>1.209806452001052e-28</v>
+        <v>2.736944348321426e-27</v>
       </c>
       <c r="H87" t="n">
-        <v>28.1599016819657</v>
+        <v>26.88491595149842</v>
       </c>
     </row>
     <row r="88">
@@ -2644,25 +2644,25 @@
         <v>4.063402862630025</v>
       </c>
       <c r="B88" t="n">
-        <v>5.58735919191892e-05</v>
+        <v>5.580825751423469e-05</v>
       </c>
       <c r="C88" t="n">
-        <v>1.953796646944658e-05</v>
+        <v>1.940514883504509e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>1.412965671562726e-06</v>
+        <v>1.407226552674093e-06</v>
       </c>
       <c r="E88" t="n">
-        <v>2.244000538937138e-06</v>
+        <v>2.23375467728293e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>145.8146351308933</v>
+        <v>145.107403736896</v>
       </c>
       <c r="G88" t="n">
-        <v>1.037955977142094e-29</v>
+        <v>1.467669293972957e-29</v>
       </c>
       <c r="H88" t="n">
-        <v>29.16292702617866</v>
+        <v>29.02148074737921</v>
       </c>
     </row>
     <row r="89">
@@ -2670,25 +2670,25 @@
         <v>4.080542598420934</v>
       </c>
       <c r="B89" t="n">
-        <v>7.861010642278524e-05</v>
+        <v>7.995676357371298e-05</v>
       </c>
       <c r="C89" t="n">
-        <v>2.467847529398747e-05</v>
+        <v>2.419406383001116e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>1.97933118348189e-06</v>
+        <v>2.002144552663356e-06</v>
       </c>
       <c r="E89" t="n">
-        <v>3.010559223873961e-06</v>
+        <v>3.048073590888369e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>264.3520418242815</v>
+        <v>249.4946907362378</v>
       </c>
       <c r="G89" t="n">
-        <v>4.567678099402225e-55</v>
+        <v>7.055675284675701e-52</v>
       </c>
       <c r="H89" t="n">
-        <v>52.8704083648563</v>
+        <v>49.89893814724756</v>
       </c>
     </row>
     <row r="90">
@@ -2696,25 +2696,25 @@
         <v>4.084998929726572</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0001309587151207759</v>
+        <v>0.0001324229188567286</v>
       </c>
       <c r="C90" t="n">
-        <v>1.776347563289871e-05</v>
+        <v>1.966115294874639e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>3.504391625709248e-06</v>
+        <v>3.523706560159517e-06</v>
       </c>
       <c r="E90" t="n">
-        <v>4.87531746649747e-06</v>
+        <v>4.92371485967188e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>455.3572409474763</v>
+        <v>446.8067873910387</v>
       </c>
       <c r="G90" t="n">
-        <v>3.432707006193924e-96</v>
+        <v>2.399109331787432e-94</v>
       </c>
       <c r="H90" t="n">
-        <v>91.07144818949527</v>
+        <v>89.36135747820774</v>
       </c>
     </row>
     <row r="91">
@@ -2722,25 +2722,25 @@
         <v>4.08816978084789</v>
       </c>
       <c r="B91" t="n">
-        <v>0.000140561534016174</v>
+        <v>0.0001407256624981937</v>
       </c>
       <c r="C91" t="n">
-        <v>2.421248817532824e-05</v>
+        <v>2.479713085973775e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>3.689047145881771e-06</v>
+        <v>3.681434822023844e-06</v>
       </c>
       <c r="E91" t="n">
-        <v>5.220975332485535e-06</v>
+        <v>5.224405156509671e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>412.4498942487894</v>
+        <v>408.2848257622928</v>
       </c>
       <c r="G91" t="n">
-        <v>6.147153756011555e-87</v>
+        <v>4.858782026810132e-86</v>
       </c>
       <c r="H91" t="n">
-        <v>82.48997884975788</v>
+        <v>81.65696515245857</v>
       </c>
     </row>
     <row r="92">
@@ -2748,25 +2748,25 @@
         <v>4.097682334211846</v>
       </c>
       <c r="B92" t="n">
-        <v>0.0001443242931620015</v>
+        <v>0.0001456939310237068</v>
       </c>
       <c r="C92" t="n">
-        <v>4.577836454432967e-05</v>
+        <v>4.357866971034179e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>3.728823070500151e-06</v>
+        <v>3.753485956365784e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>5.592925703320958e-06</v>
+        <v>5.608728288975958e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>321.4271317693494</v>
+        <v>320.5921545928544</v>
       </c>
       <c r="G92" t="n">
-        <v>2.468737221179944e-67</v>
+        <v>3.733394772386579e-67</v>
       </c>
       <c r="H92" t="n">
-        <v>64.28542635386989</v>
+        <v>64.11843091857088</v>
       </c>
     </row>
     <row r="93">
@@ -2774,25 +2774,25 @@
         <v>4.101967268159573</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0001354788055657406</v>
+        <v>0.0001359504261598586</v>
       </c>
       <c r="C93" t="n">
-        <v>4.076207109608645e-05</v>
+        <v>3.578594013345277e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>3.74957686681465e-06</v>
+        <v>3.791209808219214e-06</v>
       </c>
       <c r="E93" t="n">
-        <v>5.717862664337714e-06</v>
+        <v>5.722558547880333e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>185.8000885997949</v>
+        <v>187.0558734951029</v>
       </c>
       <c r="G93" t="n">
-        <v>3.086059491368199e-38</v>
+        <v>1.663624845248042e-38</v>
       </c>
       <c r="H93" t="n">
-        <v>37.16001771995897</v>
+        <v>37.41117469902058</v>
       </c>
     </row>
     <row r="94">
@@ -2800,25 +2800,25 @@
         <v>4.106423599465209</v>
       </c>
       <c r="B94" t="n">
-        <v>0.0001078445563265729</v>
+        <v>0.0001073978286347252</v>
       </c>
       <c r="C94" t="n">
-        <v>4.180280748885223e-05</v>
+        <v>4.256812302311526e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>4.151007230226863e-06</v>
+        <v>4.099650531032794e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>6.509313039623131e-06</v>
+        <v>6.47276263243569e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>68.81517145982143</v>
+        <v>76.54586384452087</v>
       </c>
       <c r="G94" t="n">
-        <v>1.807641785338336e-13</v>
+        <v>4.424715648191206e-15</v>
       </c>
       <c r="H94" t="n">
-        <v>13.76303429196428</v>
+        <v>15.30917276890417</v>
       </c>
     </row>
     <row r="95">
@@ -2826,25 +2826,25 @@
         <v>4.114907768681709</v>
       </c>
       <c r="B95" t="n">
-        <v>0.0001862147591563949</v>
+        <v>0.0001837472232074554</v>
       </c>
       <c r="C95" t="n">
-        <v>8.274529039288051e-05</v>
+        <v>8.298723617948239e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>5.450010749843004e-06</v>
+        <v>5.388122244507361e-06</v>
       </c>
       <c r="E95" t="n">
-        <v>9.219984778804009e-06</v>
+        <v>9.113554913320432e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>32.10354398359002</v>
+        <v>34.96559454697707</v>
       </c>
       <c r="G95" t="n">
-        <v>5.667243137448895e-06</v>
+        <v>1.528627087429074e-06</v>
       </c>
       <c r="H95" t="n">
-        <v>6.420708796718005</v>
+        <v>6.993118909395413</v>
       </c>
     </row>
     <row r="96">
@@ -2852,25 +2852,25 @@
         <v>4.123306239219255</v>
       </c>
       <c r="B96" t="n">
-        <v>0.0003879665486137466</v>
+        <v>0.0003890807190497459</v>
       </c>
       <c r="C96" t="n">
-        <v>0.0001801008332602891</v>
+        <v>0.0001804718617714635</v>
       </c>
       <c r="D96" t="n">
-        <v>8.787351277581957e-06</v>
+        <v>8.813628986000635e-06</v>
       </c>
       <c r="E96" t="n">
-        <v>1.550813923499032e-05</v>
+        <v>1.554462905736564e-05</v>
       </c>
       <c r="F96" t="n">
-        <v>30.61049070619307</v>
+        <v>32.18701353425634</v>
       </c>
       <c r="G96" t="n">
-        <v>1.118077685525628e-05</v>
+        <v>5.455524146314613e-06</v>
       </c>
       <c r="H96" t="n">
-        <v>6.122098141238614</v>
+        <v>6.437402706851268</v>
       </c>
     </row>
     <row r="97">
@@ -2878,25 +2878,25 @@
         <v>4.131961805793665</v>
       </c>
       <c r="B97" t="n">
-        <v>0.0003434445040296487</v>
+        <v>0.0003438377427106599</v>
       </c>
       <c r="C97" t="n">
-        <v>0.0001740092804762114</v>
+        <v>0.0001755857637263974</v>
       </c>
       <c r="D97" t="n">
-        <v>7.624260632781274e-06</v>
+        <v>7.618898712607068e-06</v>
       </c>
       <c r="E97" t="n">
-        <v>1.37209275442214e-05</v>
+        <v>1.372489974786097e-05</v>
       </c>
       <c r="F97" t="n">
-        <v>26.17208318954875</v>
+        <v>26.85980631580263</v>
       </c>
       <c r="G97" t="n">
-        <v>8.263313520378672e-05</v>
+        <v>6.074231204754967e-05</v>
       </c>
       <c r="H97" t="n">
-        <v>5.23441663790975</v>
+        <v>5.371961263160527</v>
       </c>
     </row>
     <row r="98">
@@ -2904,25 +2904,25 @@
         <v>4.133847176730665</v>
       </c>
       <c r="B98" t="n">
-        <v>0.000227166435531436</v>
+        <v>0.0002276119095644492</v>
       </c>
       <c r="C98" t="n">
-        <v>0.0001199522746088946</v>
+        <v>0.0001183645841904301</v>
       </c>
       <c r="D98" t="n">
-        <v>4.977546421315388e-06</v>
+        <v>4.979225250387493e-06</v>
       </c>
       <c r="E98" t="n">
-        <v>9.039253567318394e-06</v>
+        <v>9.023053587669099e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>26.6968377037123</v>
+        <v>26.66889404682702</v>
       </c>
       <c r="G98" t="n">
-        <v>6.534300026246929e-05</v>
+        <v>6.616583536089389e-05</v>
       </c>
       <c r="H98" t="n">
-        <v>5.339367540742461</v>
+        <v>5.333778809365404</v>
       </c>
     </row>
     <row r="99">
@@ -2930,25 +2930,25 @@
         <v>4.136503835778257</v>
       </c>
       <c r="B99" t="n">
-        <v>0.0001475563766491011</v>
+        <v>0.0001475609341042434</v>
       </c>
       <c r="C99" t="n">
-        <v>6.864744995507314e-05</v>
+        <v>6.903845774783487e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>3.260109650960621e-06</v>
+        <v>3.261925860402426e-06</v>
       </c>
       <c r="E99" t="n">
-        <v>5.891434351237111e-06</v>
+        <v>5.886748665262294e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>18.91389242038539</v>
+        <v>19.44556062527118</v>
       </c>
       <c r="G99" t="n">
-        <v>0.00199442335451132</v>
+        <v>0.001587270809050115</v>
       </c>
       <c r="H99" t="n">
-        <v>3.782778484077079</v>
+        <v>3.889112125054237</v>
       </c>
     </row>
     <row r="100">
@@ -2956,25 +2956,25 @@
         <v>4.140617372368075</v>
       </c>
       <c r="B100" t="n">
-        <v>7.375551368482135e-05</v>
+        <v>7.332507255246818e-05</v>
       </c>
       <c r="C100" t="n">
-        <v>3.123760723662597e-05</v>
+        <v>3.177175922698413e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>1.715477347246948e-06</v>
+        <v>1.709650410585924e-06</v>
       </c>
       <c r="E100" t="n">
-        <v>3.08357721933566e-06</v>
+        <v>3.078593582788974e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>13.05291839543097</v>
+        <v>14.7482901035027</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02288788007976935</v>
+        <v>0.01149378027309005</v>
       </c>
       <c r="H100" t="n">
-        <v>2.610583679086194</v>
+        <v>2.949658020700539</v>
       </c>
     </row>
     <row r="101">
@@ -2982,25 +2982,25 @@
         <v>4.149015842905621</v>
       </c>
       <c r="B101" t="n">
-        <v>5.322857216161281e-05</v>
+        <v>5.352731293335561e-05</v>
       </c>
       <c r="C101" t="n">
-        <v>1.751480065422884e-05</v>
+        <v>1.842499907254941e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>1.206289229888414e-06</v>
+        <v>1.210319429498025e-06</v>
       </c>
       <c r="E101" t="n">
-        <v>2.111286612200767e-06</v>
+        <v>2.135202119542111e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>7.411258219831755</v>
+        <v>7.886065947278633</v>
       </c>
       <c r="G101" t="n">
-        <v>0.1918065756860297</v>
+        <v>0.1626275481086668</v>
       </c>
       <c r="H101" t="n">
-        <v>1.482251643966351</v>
+        <v>1.577213189455727</v>
       </c>
     </row>
     <row r="102">
@@ -3008,25 +3008,25 @@
         <v>4.166241277375486</v>
       </c>
       <c r="B102" t="n">
-        <v>5.490253496119953e-05</v>
+        <v>5.456858848216715e-05</v>
       </c>
       <c r="C102" t="n">
-        <v>1.535797792141741e-05</v>
+        <v>1.544759189521392e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>1.233339137338996e-06</v>
+        <v>1.229428960495565e-06</v>
       </c>
       <c r="E102" t="n">
-        <v>2.092652845372997e-06</v>
+        <v>2.079704503407372e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>24.82721323010852</v>
+        <v>26.507207726565</v>
       </c>
       <c r="G102" t="n">
-        <v>0.000150454601798679</v>
+        <v>7.113246782641157e-05</v>
       </c>
       <c r="H102" t="n">
-        <v>4.965442646021705</v>
+        <v>5.301441545313001</v>
       </c>
     </row>
     <row r="103">
@@ -3034,25 +3034,25 @@
         <v>4.180210162045077</v>
       </c>
       <c r="B103" t="n">
-        <v>5.865024100812931e-05</v>
+        <v>5.873348947687845e-05</v>
       </c>
       <c r="C103" t="n">
-        <v>1.728511208232966e-05</v>
+        <v>1.528960292858726e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>1.334302084396869e-06</v>
+        <v>1.340243186688733e-06</v>
       </c>
       <c r="E103" t="n">
-        <v>2.247871875525827e-06</v>
+        <v>2.241190238543308e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>33.34913252133846</v>
+        <v>31.16524739104059</v>
       </c>
       <c r="G103" t="n">
-        <v>3.207944635617671e-06</v>
+        <v>8.689148279682723e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>6.669826504267692</v>
+        <v>6.233049478208119</v>
       </c>
     </row>
     <row r="104">
@@ -3060,25 +3060,25 @@
         <v>4.200435050278351</v>
       </c>
       <c r="B104" t="n">
-        <v>6.202590600476389e-05</v>
+        <v>6.188429940144845e-05</v>
       </c>
       <c r="C104" t="n">
-        <v>2.184683224969714e-05</v>
+        <v>2.142565991220471e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>1.344973932088142e-06</v>
+        <v>1.348838998035567e-06</v>
       </c>
       <c r="E104" t="n">
-        <v>2.315244884746335e-06</v>
+        <v>2.31788566392981e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>36.36049451994582</v>
+        <v>34.52040809607268</v>
       </c>
       <c r="G104" t="n">
-        <v>8.044506873426484e-07</v>
+        <v>1.875386764358457e-06</v>
       </c>
       <c r="H104" t="n">
-        <v>7.272098903989165</v>
+        <v>6.904081619214535</v>
       </c>
     </row>
     <row r="105">
@@ -3086,25 +3086,25 @@
         <v>4.209004918173807</v>
       </c>
       <c r="B105" t="n">
-        <v>6.593297149077141e-05</v>
+        <v>6.569487649517926e-05</v>
       </c>
       <c r="C105" t="n">
-        <v>2.354396024463504e-05</v>
+        <v>2.323249905215667e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>1.596709598211165e-06</v>
+        <v>1.592697538660047e-06</v>
       </c>
       <c r="E105" t="n">
-        <v>2.719553486757338e-06</v>
+        <v>2.698042243505146e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>26.95055537023359</v>
+        <v>30.59085912191892</v>
       </c>
       <c r="G105" t="n">
-        <v>5.832112630804679e-05</v>
+        <v>1.12808897331419e-05</v>
       </c>
       <c r="H105" t="n">
-        <v>5.390111074046717</v>
+        <v>6.118171824383785</v>
       </c>
     </row>
     <row r="106">
@@ -3112,25 +3112,25 @@
         <v>4.21774618342717</v>
       </c>
       <c r="B106" t="n">
-        <v>6.53750310466977e-05</v>
+        <v>6.532304141935915e-05</v>
       </c>
       <c r="C106" t="n">
-        <v>2.82663770857606e-05</v>
+        <v>2.912466483273398e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>1.568574784160734e-06</v>
+        <v>1.564176205691222e-06</v>
       </c>
       <c r="E106" t="n">
-        <v>2.70939150043193e-06</v>
+        <v>2.709226450632158e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>37.58686239127374</v>
+        <v>37.99938854587521</v>
       </c>
       <c r="G106" t="n">
-        <v>4.567420522481546e-07</v>
+        <v>3.774306457330218e-07</v>
       </c>
       <c r="H106" t="n">
-        <v>7.517372478254748</v>
+        <v>7.599877709175042</v>
       </c>
     </row>
     <row r="107">
@@ -3138,25 +3138,25 @@
         <v>4.226230352643671</v>
       </c>
       <c r="B107" t="n">
-        <v>6.664242216185981e-05</v>
+        <v>6.668346068643885e-05</v>
       </c>
       <c r="C107" t="n">
-        <v>2.333546905962919e-05</v>
+        <v>2.255788349196861e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>1.733916143070071e-06</v>
+        <v>1.722526533940155e-06</v>
       </c>
       <c r="E107" t="n">
-        <v>2.904349538557966e-06</v>
+        <v>2.87806892529944e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>28.26093925357458</v>
+        <v>29.3363529728976</v>
       </c>
       <c r="G107" t="n">
-        <v>3.236339745112565e-05</v>
+        <v>1.991743937269716e-05</v>
       </c>
       <c r="H107" t="n">
-        <v>5.652187850714917</v>
+        <v>5.867270594579521</v>
       </c>
     </row>
     <row r="108">
@@ -3164,25 +3164,25 @@
         <v>4.231543670738853</v>
       </c>
       <c r="B108" t="n">
-        <v>6.873810418620185e-05</v>
+        <v>6.827464462636111e-05</v>
       </c>
       <c r="C108" t="n">
-        <v>2.216616719262043e-05</v>
+        <v>2.182885398218244e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>1.578303254202671e-06</v>
+        <v>1.572038829641793e-06</v>
       </c>
       <c r="E108" t="n">
-        <v>2.650422990722982e-06</v>
+        <v>2.64062768005126e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>41.71374834433328</v>
+        <v>39.96811600162538</v>
       </c>
       <c r="G108" t="n">
-        <v>6.730641499008142e-08</v>
+        <v>1.515640346996587e-07</v>
       </c>
       <c r="H108" t="n">
-        <v>8.342749668866656</v>
+        <v>7.993623200325075</v>
       </c>
     </row>
     <row r="109">
@@ -3190,25 +3190,25 @@
         <v>4.234971617897036</v>
       </c>
       <c r="B109" t="n">
-        <v>6.910304847629334e-05</v>
+        <v>6.933666521090971e-05</v>
       </c>
       <c r="C109" t="n">
-        <v>2.824505071223071e-05</v>
+        <v>2.861787652939551e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>1.707345025648505e-06</v>
+        <v>1.711185985928726e-06</v>
       </c>
       <c r="E109" t="n">
-        <v>2.893627193004805e-06</v>
+        <v>2.905970564851293e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>47.61829820902238</v>
+        <v>45.92262149299111</v>
       </c>
       <c r="G109" t="n">
-        <v>4.249723922322062e-09</v>
+        <v>9.417572610440859e-09</v>
       </c>
       <c r="H109" t="n">
-        <v>9.523659641804477</v>
+        <v>9.184524298598221</v>
       </c>
     </row>
     <row r="110">
@@ -3216,25 +3216,25 @@
         <v>4.24071342938699</v>
       </c>
       <c r="B110" t="n">
-        <v>6.996616435596265e-05</v>
+        <v>6.934279089511944e-05</v>
       </c>
       <c r="C110" t="n">
-        <v>2.266639470053871e-05</v>
+        <v>2.309668721324536e-05</v>
       </c>
       <c r="D110" t="n">
-        <v>1.631125340078488e-06</v>
+        <v>1.623427534679704e-06</v>
       </c>
       <c r="E110" t="n">
-        <v>2.721783095132052e-06</v>
+        <v>2.7097493148933e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>53.11994619809386</v>
+        <v>54.00859813401992</v>
       </c>
       <c r="G110" t="n">
-        <v>3.177928672911534e-10</v>
+        <v>2.087315372694052e-10</v>
       </c>
       <c r="H110" t="n">
-        <v>10.62398923961877</v>
+        <v>10.80171962680398</v>
       </c>
     </row>
     <row r="111">
@@ -3242,25 +3242,25 @@
         <v>4.249111899924536</v>
       </c>
       <c r="B111" t="n">
-        <v>6.84048208682593e-05</v>
+        <v>6.834882852906463e-05</v>
       </c>
       <c r="C111" t="n">
-        <v>2.140712110512911e-05</v>
+        <v>2.132480612711984e-05</v>
       </c>
       <c r="D111" t="n">
-        <v>1.643178093023066e-06</v>
+        <v>1.638446238636622e-06</v>
       </c>
       <c r="E111" t="n">
-        <v>2.675144332642105e-06</v>
+        <v>2.668058873151995e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>75.04565327117484</v>
+        <v>75.12319542347755</v>
       </c>
       <c r="G111" t="n">
-        <v>9.101087419104135e-15</v>
+        <v>8.768197301950498e-15</v>
       </c>
       <c r="H111" t="n">
-        <v>15.00913065423497</v>
+        <v>15.02463908469551</v>
       </c>
     </row>
     <row r="112">
@@ -3268,25 +3268,25 @@
         <v>4.2521970523669</v>
       </c>
       <c r="B112" t="n">
-        <v>6.994703815285654e-05</v>
+        <v>7.012528284377238e-05</v>
       </c>
       <c r="C112" t="n">
-        <v>2.684637122801577e-05</v>
+        <v>2.605560151725509e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>1.755957720659257e-06</v>
+        <v>1.761056351802997e-06</v>
       </c>
       <c r="E112" t="n">
-        <v>2.889971067638723e-06</v>
+        <v>2.895957260610501e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>81.2178548877765</v>
+        <v>76.33828339917372</v>
       </c>
       <c r="G112" t="n">
-        <v>4.666634747382408e-16</v>
+        <v>4.889196995285947e-15</v>
       </c>
       <c r="H112" t="n">
-        <v>16.2435709775553</v>
+        <v>15.26765667983474</v>
       </c>
     </row>
     <row r="113">
@@ -3294,25 +3294,25 @@
         <v>4.257767466498946</v>
       </c>
       <c r="B113" t="n">
-        <v>6.772379681958574e-05</v>
+        <v>6.794071859950265e-05</v>
       </c>
       <c r="C113" t="n">
-        <v>2.329919391951912e-05</v>
+        <v>2.264956577727267e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>1.652110339521949e-06</v>
+        <v>1.675839274399223e-06</v>
       </c>
       <c r="E113" t="n">
-        <v>2.705086531500207e-06</v>
+        <v>2.730268737387102e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>83.15430434350586</v>
+        <v>81.12500372669487</v>
       </c>
       <c r="G113" t="n">
-        <v>1.834383375191501e-16</v>
+        <v>4.880216997745305e-16</v>
       </c>
       <c r="H113" t="n">
-        <v>16.63086086870117</v>
+        <v>16.22500074533897</v>
       </c>
     </row>
     <row r="114">
@@ -3320,25 +3320,25 @@
         <v>4.262138099125628</v>
       </c>
       <c r="B114" t="n">
-        <v>7.028230586816764e-05</v>
+        <v>6.968059220738931e-05</v>
       </c>
       <c r="C114" t="n">
-        <v>2.321807937864519e-05</v>
+        <v>2.395667872558364e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>1.688955364930333e-06</v>
+        <v>1.691934730493156e-06</v>
       </c>
       <c r="E114" t="n">
-        <v>2.760868090024413e-06</v>
+        <v>2.763020882160472e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>80.00170262276728</v>
+        <v>86.07887013363543</v>
       </c>
       <c r="G114" t="n">
-        <v>8.384945168723785e-16</v>
+        <v>4.471164067823357e-17</v>
       </c>
       <c r="H114" t="n">
-        <v>16.00034052455346</v>
+        <v>17.21577402672709</v>
       </c>
     </row>
     <row r="115">
@@ -3346,25 +3346,25 @@
         <v>4.264537662136355</v>
       </c>
       <c r="B115" t="n">
-        <v>6.991602019169308e-05</v>
+        <v>6.914947235467128e-05</v>
       </c>
       <c r="C115" t="n">
-        <v>2.29395537268661e-05</v>
+        <v>2.352269165844154e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>1.732303965108422e-06</v>
+        <v>1.724235904269877e-06</v>
       </c>
       <c r="E115" t="n">
-        <v>2.80640585968522e-06</v>
+        <v>2.790739549263814e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>86.85345508651697</v>
+        <v>94.24421918455231</v>
       </c>
       <c r="G115" t="n">
-        <v>3.075558960333782e-17</v>
+        <v>8.611493271960225e-19</v>
       </c>
       <c r="H115" t="n">
-        <v>17.37069101730339</v>
+        <v>18.84884383691046</v>
       </c>
     </row>
     <row r="116">
@@ -3372,25 +3372,25 @@
         <v>4.267280019862901</v>
       </c>
       <c r="B116" t="n">
-        <v>6.976658822932581e-05</v>
+        <v>7.068568333894419e-05</v>
       </c>
       <c r="C116" t="n">
-        <v>2.490483037655408e-05</v>
+        <v>2.379250601143014e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>1.73445192775273e-06</v>
+        <v>1.757846851390384e-06</v>
       </c>
       <c r="E116" t="n">
-        <v>2.80747176993613e-06</v>
+        <v>2.833507050957549e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>105.2137718816281</v>
+        <v>101.7845014130685</v>
       </c>
       <c r="G116" t="n">
-        <v>4.201174518156981e-21</v>
+        <v>2.22256262787393e-20</v>
       </c>
       <c r="H116" t="n">
-        <v>21.04275437632562</v>
+        <v>20.3569002826137</v>
       </c>
     </row>
     <row r="117">
@@ -3398,25 +3398,25 @@
         <v>4.269079692120946</v>
       </c>
       <c r="B117" t="n">
-        <v>7.743102895977816e-05</v>
+        <v>7.836964301330845e-05</v>
       </c>
       <c r="C117" t="n">
-        <v>2.860745876389785e-05</v>
+        <v>2.745290144416363e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>1.94756854816211e-06</v>
+        <v>1.988627516791913e-06</v>
       </c>
       <c r="E117" t="n">
-        <v>3.21180454896993e-06</v>
+        <v>3.264901116086241e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>68.34517602777032</v>
+        <v>64.83777491522542</v>
       </c>
       <c r="G117" t="n">
-        <v>2.263780505646833e-13</v>
+        <v>1.211022646210889e-12</v>
       </c>
       <c r="H117" t="n">
-        <v>13.66903520555406</v>
+        <v>12.96755498304509</v>
       </c>
     </row>
     <row r="118">
@@ -3424,25 +3424,25 @@
         <v>4.271479255131674</v>
       </c>
       <c r="B118" t="n">
-        <v>7.2144537663187e-05</v>
+        <v>7.248404896853109e-05</v>
       </c>
       <c r="C118" t="n">
-        <v>2.615432894785371e-05</v>
+        <v>2.543460571001867e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>1.695914555404901e-06</v>
+        <v>1.701783191719992e-06</v>
       </c>
       <c r="E118" t="n">
-        <v>2.799711553359372e-06</v>
+        <v>2.802180198151769e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>85.61771766393667</v>
+        <v>87.24246139500288</v>
       </c>
       <c r="G118" t="n">
-        <v>5.586499589802419e-17</v>
+        <v>2.54857565632025e-17</v>
       </c>
       <c r="H118" t="n">
-        <v>17.12354353278733</v>
+        <v>17.44849227900058</v>
       </c>
     </row>
     <row r="119">
@@ -3450,25 +3450,25 @@
         <v>4.273021831352856</v>
       </c>
       <c r="B119" t="n">
-        <v>7.220201431652581e-05</v>
+        <v>7.196910164312084e-05</v>
       </c>
       <c r="C119" t="n">
-        <v>2.517586574664424e-05</v>
+        <v>2.50836565357583e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>1.792657264154449e-06</v>
+        <v>1.78770586264444e-06</v>
       </c>
       <c r="E119" t="n">
-        <v>2.90650914547906e-06</v>
+        <v>2.892249673650602e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>93.19047431300564</v>
+        <v>97.99029436300674</v>
       </c>
       <c r="G119" t="n">
-        <v>1.434584267848508e-18</v>
+        <v>1.401193931460234e-19</v>
       </c>
       <c r="H119" t="n">
-        <v>18.63809486260113</v>
+        <v>19.59805887260135</v>
       </c>
     </row>
     <row r="120">
@@ -3476,25 +3476,25 @@
         <v>4.281677397927266</v>
       </c>
       <c r="B120" t="n">
-        <v>7.336727937194217e-05</v>
+        <v>7.353269733265412e-05</v>
       </c>
       <c r="C120" t="n">
-        <v>2.652076789682538e-05</v>
+        <v>2.613755381892243e-05</v>
       </c>
       <c r="D120" t="n">
-        <v>1.749969661181692e-06</v>
+        <v>1.753760583129485e-06</v>
       </c>
       <c r="E120" t="n">
-        <v>2.862552160019005e-06</v>
+        <v>2.863734916426897e-06</v>
       </c>
       <c r="F120" t="n">
-        <v>95.05515294159412</v>
+        <v>95.22047514803701</v>
       </c>
       <c r="G120" t="n">
-        <v>5.813680989777634e-19</v>
+        <v>5.366120429944427e-19</v>
       </c>
       <c r="H120" t="n">
-        <v>19.01103058831882</v>
+        <v>19.0440950296074</v>
       </c>
     </row>
     <row r="121">
@@ -3502,25 +3502,25 @@
         <v>4.286305126590811</v>
       </c>
       <c r="B121" t="n">
-        <v>8.071878965906915e-05</v>
+        <v>8.100342805853911e-05</v>
       </c>
       <c r="C121" t="n">
-        <v>3.408804583325624e-05</v>
+        <v>3.277951917081112e-05</v>
       </c>
       <c r="D121" t="n">
-        <v>1.949237733519449e-06</v>
+        <v>1.959147859380226e-06</v>
       </c>
       <c r="E121" t="n">
-        <v>3.28983559552645e-06</v>
+        <v>3.300399732614616e-06</v>
       </c>
       <c r="F121" t="n">
-        <v>68.51631147354202</v>
+        <v>64.37799086630221</v>
       </c>
       <c r="G121" t="n">
-        <v>2.08571515293966e-13</v>
+        <v>1.5083366352626e-12</v>
       </c>
       <c r="H121" t="n">
-        <v>13.7032622947084</v>
+        <v>12.87559817326044</v>
       </c>
     </row>
     <row r="122">
@@ -3528,25 +3528,25 @@
         <v>4.29024726582272</v>
       </c>
       <c r="B122" t="n">
-        <v>7.619855082512021e-05</v>
+        <v>7.587787123030585e-05</v>
       </c>
       <c r="C122" t="n">
-        <v>3.13974516351009e-05</v>
+        <v>3.182706356711342e-05</v>
       </c>
       <c r="D122" t="n">
-        <v>1.751662370214602e-06</v>
+        <v>1.745745784980296e-06</v>
       </c>
       <c r="E122" t="n">
-        <v>2.93967473619288e-06</v>
+        <v>2.932513054770003e-06</v>
       </c>
       <c r="F122" t="n">
-        <v>86.26105370562597</v>
+        <v>89.46229298108031</v>
       </c>
       <c r="G122" t="n">
-        <v>4.094545141962337e-17</v>
+        <v>8.715035559777848e-18</v>
       </c>
       <c r="H122" t="n">
-        <v>17.25221074112519</v>
+        <v>17.89245859621606</v>
       </c>
     </row>
     <row r="123">
@@ -3554,25 +3554,25 @@
         <v>4.298731435039221</v>
       </c>
       <c r="B123" t="n">
-        <v>7.654201919315308e-05</v>
+        <v>7.671030971853621e-05</v>
       </c>
       <c r="C123" t="n">
-        <v>3.294005961222346e-05</v>
+        <v>3.302102427380716e-05</v>
       </c>
       <c r="D123" t="n">
-        <v>1.700745478535534e-06</v>
+        <v>1.704411889919455e-06</v>
       </c>
       <c r="E123" t="n">
-        <v>2.852915033384845e-06</v>
+        <v>2.858941180288927e-06</v>
       </c>
       <c r="F123" t="n">
-        <v>111.5302800380067</v>
+        <v>112.0432945557446</v>
       </c>
       <c r="G123" t="n">
-        <v>1.945557310275886e-22</v>
+        <v>1.51558731001674e-22</v>
       </c>
       <c r="H123" t="n">
-        <v>22.30605600760134</v>
+        <v>22.40865891114891</v>
       </c>
     </row>
     <row r="124">
@@ -3580,25 +3580,25 @@
         <v>4.303359163702766</v>
       </c>
       <c r="B124" t="n">
-        <v>8.763618819150386e-05</v>
+        <v>8.778992974341404e-05</v>
       </c>
       <c r="C124" t="n">
-        <v>3.346684447607539e-05</v>
+        <v>3.320643934470353e-05</v>
       </c>
       <c r="D124" t="n">
-        <v>2.046202508314142e-06</v>
+        <v>2.05257949958587e-06</v>
       </c>
       <c r="E124" t="n">
-        <v>3.438748177345196e-06</v>
+        <v>3.444404706084446e-06</v>
       </c>
       <c r="F124" t="n">
-        <v>60.56546058878047</v>
+        <v>61.24285441525196</v>
       </c>
       <c r="G124" t="n">
-        <v>9.286729947805673e-12</v>
+        <v>6.726363758679095e-12</v>
       </c>
       <c r="H124" t="n">
-        <v>12.11309211775609</v>
+        <v>12.24857088305039</v>
       </c>
     </row>
     <row r="125">
@@ -3606,25 +3606,25 @@
         <v>4.307472700292585</v>
       </c>
       <c r="B125" t="n">
-        <v>8.947934776482841e-05</v>
+        <v>8.906420625842649e-05</v>
       </c>
       <c r="C125" t="n">
-        <v>3.938714119370193e-05</v>
+        <v>3.970841800794245e-05</v>
       </c>
       <c r="D125" t="n">
-        <v>2.023523758913358e-06</v>
+        <v>2.017097868765012e-06</v>
       </c>
       <c r="E125" t="n">
-        <v>3.407279147639993e-06</v>
+        <v>3.392702518083584e-06</v>
       </c>
       <c r="F125" t="n">
-        <v>98.76274099713551</v>
+        <v>104.023889084411</v>
       </c>
       <c r="G125" t="n">
-        <v>9.633315759960008e-20</v>
+        <v>7.489994345122226e-21</v>
       </c>
       <c r="H125" t="n">
-        <v>19.7525481994271</v>
+        <v>20.8047778168822</v>
       </c>
     </row>
     <row r="126">
@@ -3632,25 +3632,25 @@
         <v>4.309957961982268</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0001013447722178742</v>
+        <v>0.0001020941600244259</v>
       </c>
       <c r="C126" t="n">
-        <v>3.519570459786699e-05</v>
+        <v>3.491964058981931e-05</v>
       </c>
       <c r="D126" t="n">
-        <v>2.334226695888164e-06</v>
+        <v>2.348502885750578e-06</v>
       </c>
       <c r="E126" t="n">
-        <v>3.812486179969518e-06</v>
+        <v>3.835196916048468e-06</v>
       </c>
       <c r="F126" t="n">
-        <v>99.9919604070148</v>
+        <v>97.05431725728918</v>
       </c>
       <c r="G126" t="n">
-        <v>5.305809095308726e-20</v>
+        <v>2.206061736118856e-19</v>
       </c>
       <c r="H126" t="n">
-        <v>19.99839208140296</v>
+        <v>19.41086345145784</v>
       </c>
     </row>
     <row r="127">
@@ -3658,25 +3658,25 @@
         <v>4.310129359340176</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0001002372020088304</v>
+        <v>9.96048004643896e-05</v>
       </c>
       <c r="C127" t="n">
-        <v>3.160369250639725e-05</v>
+        <v>3.234788193779345e-05</v>
       </c>
       <c r="D127" t="n">
-        <v>2.296774123313275e-06</v>
+        <v>2.288432250358219e-06</v>
       </c>
       <c r="E127" t="n">
-        <v>3.719095843725249e-06</v>
+        <v>3.705144115789463e-06</v>
       </c>
       <c r="F127" t="n">
-        <v>101.9282747247555</v>
+        <v>107.3511727061664</v>
       </c>
       <c r="G127" t="n">
-        <v>2.072696364236053e-20</v>
+        <v>1.486268116058317e-21</v>
       </c>
       <c r="H127" t="n">
-        <v>20.3856549449511</v>
+        <v>21.47023454123328</v>
       </c>
     </row>
     <row r="128">
@@ -3684,25 +3684,25 @@
         <v>4.311757634240313</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0001222172909074801</v>
+        <v>0.0001219095133388698</v>
       </c>
       <c r="C128" t="n">
-        <v>3.306630565796092e-05</v>
+        <v>3.299963152645404e-05</v>
       </c>
       <c r="D128" t="n">
-        <v>2.913177025451535e-06</v>
+        <v>2.911075027717429e-06</v>
       </c>
       <c r="E128" t="n">
-        <v>4.611834417629986e-06</v>
+        <v>4.600657912928298e-06</v>
       </c>
       <c r="F128" t="n">
-        <v>108.5320159436286</v>
+        <v>112.1117497044419</v>
       </c>
       <c r="G128" t="n">
-        <v>8.369049409915766e-22</v>
+        <v>1.465908855495416e-22</v>
       </c>
       <c r="H128" t="n">
-        <v>21.70640318872571</v>
+        <v>22.42234994088839</v>
       </c>
     </row>
     <row r="129">
@@ -3710,25 +3710,25 @@
         <v>4.31604256818804</v>
       </c>
       <c r="B129" t="n">
-        <v>0.0002032311766309907</v>
+        <v>0.0002053831007480365</v>
       </c>
       <c r="C129" t="n">
-        <v>5.481059137995033e-05</v>
+        <v>4.99350197296926e-05</v>
       </c>
       <c r="D129" t="n">
-        <v>4.889388076270362e-06</v>
+        <v>4.942834131617555e-06</v>
       </c>
       <c r="E129" t="n">
-        <v>7.854789610536232e-06</v>
+        <v>7.890018004165395e-06</v>
       </c>
       <c r="F129" t="n">
-        <v>71.13731395025103</v>
+        <v>69.04626069792398</v>
       </c>
       <c r="G129" t="n">
-        <v>5.941232807150617e-14</v>
+        <v>1.618279454174748e-13</v>
       </c>
       <c r="H129" t="n">
-        <v>14.22746279005021</v>
+        <v>13.8092521395848</v>
       </c>
     </row>
     <row r="130">
@@ -3736,25 +3736,25 @@
         <v>4.318613528556677</v>
       </c>
       <c r="B130" t="n">
-        <v>0.0002845628024836141</v>
+        <v>0.0002848131572841913</v>
       </c>
       <c r="C130" t="n">
-        <v>8.655164241693405e-05</v>
+        <v>8.257632959532138e-05</v>
       </c>
       <c r="D130" t="n">
-        <v>6.582057281601356e-06</v>
+        <v>6.587677517418681e-06</v>
       </c>
       <c r="E130" t="n">
-        <v>1.087279517061523e-05</v>
+        <v>1.084502821724703e-05</v>
       </c>
       <c r="F130" t="n">
-        <v>50.5332917402045</v>
+        <v>49.38110348115318</v>
       </c>
       <c r="G130" t="n">
-        <v>1.077802088308173e-09</v>
+        <v>1.854800697432536e-09</v>
       </c>
       <c r="H130" t="n">
-        <v>10.1066583480409</v>
+        <v>9.876220696230636</v>
       </c>
     </row>
     <row r="131">
@@ -3762,25 +3762,25 @@
         <v>4.320584598172632</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0002850098532663035</v>
+        <v>0.0002855307048227707</v>
       </c>
       <c r="C131" t="n">
-        <v>8.75122305965552e-05</v>
+        <v>8.581928112498653e-05</v>
       </c>
       <c r="D131" t="n">
-        <v>6.802894805084443e-06</v>
+        <v>6.904597264782986e-06</v>
       </c>
       <c r="E131" t="n">
-        <v>1.124882680562507e-05</v>
+        <v>1.137479605476313e-05</v>
       </c>
       <c r="F131" t="n">
-        <v>46.80968706681168</v>
+        <v>47.92439961239383</v>
       </c>
       <c r="G131" t="n">
-        <v>6.212312629750917e-09</v>
+        <v>3.680399373385836e-09</v>
       </c>
       <c r="H131" t="n">
-        <v>9.361937413362336</v>
+        <v>9.584879922478766</v>
       </c>
     </row>
     <row r="132">
@@ -3788,25 +3788,25 @@
         <v>4.322898462504404</v>
       </c>
       <c r="B132" t="n">
-        <v>0.0002637659151601245</v>
+        <v>0.0002661437995175335</v>
       </c>
       <c r="C132" t="n">
-        <v>8.172147328552243e-05</v>
+        <v>7.857329424912524e-05</v>
       </c>
       <c r="D132" t="n">
-        <v>6.2075710212667e-06</v>
+        <v>6.249815961724157e-06</v>
       </c>
       <c r="E132" t="n">
-        <v>1.017811506232952e-05</v>
+        <v>1.023598465850423e-05</v>
       </c>
       <c r="F132" t="n">
-        <v>61.5093157044282</v>
+        <v>58.09301354520581</v>
       </c>
       <c r="G132" t="n">
-        <v>5.924567177930785e-12</v>
+        <v>3.009508918792698e-11</v>
       </c>
       <c r="H132" t="n">
-        <v>12.30186314088564</v>
+        <v>11.61860270904116</v>
       </c>
     </row>
     <row r="133">
@@ -3814,25 +3814,25 @@
         <v>4.325555121551995</v>
       </c>
       <c r="B133" t="n">
-        <v>0.0002627098611936171</v>
+        <v>0.0002637225648288563</v>
       </c>
       <c r="C133" t="n">
-        <v>7.370389053263239e-05</v>
+        <v>7.29894429166527e-05</v>
       </c>
       <c r="D133" t="n">
-        <v>6.179640345061269e-06</v>
+        <v>6.205741749703034e-06</v>
       </c>
       <c r="E133" t="n">
-        <v>1.014970337963078e-05</v>
+        <v>1.015617175681883e-05</v>
       </c>
       <c r="F133" t="n">
-        <v>46.31830557202049</v>
+        <v>50.58864859859268</v>
       </c>
       <c r="G133" t="n">
-        <v>7.822929726110276e-09</v>
+        <v>1.050035635222968e-09</v>
       </c>
       <c r="H133" t="n">
-        <v>9.263661114404098</v>
+        <v>10.11772971971854</v>
       </c>
     </row>
     <row r="134">
@@ -3840,25 +3840,25 @@
         <v>4.327954684562723</v>
       </c>
       <c r="B134" t="n">
-        <v>0.0002580131857681196</v>
+        <v>0.0002572177248249598</v>
       </c>
       <c r="C134" t="n">
-        <v>7.309868493816594e-05</v>
+        <v>7.283768124196804e-05</v>
       </c>
       <c r="D134" t="n">
-        <v>6.148684747369178e-06</v>
+        <v>6.141344625464217e-06</v>
       </c>
       <c r="E134" t="n">
-        <v>1.005150395095737e-05</v>
+        <v>1.002885802148087e-05</v>
       </c>
       <c r="F134" t="n">
-        <v>51.41183578530487</v>
+        <v>51.98949669549045</v>
       </c>
       <c r="G134" t="n">
-        <v>7.121350767861115e-10</v>
+        <v>5.421603980169506e-10</v>
       </c>
       <c r="H134" t="n">
-        <v>10.28236715706097</v>
+        <v>10.39789933909809</v>
       </c>
     </row>
     <row r="135">
@@ -3866,25 +3866,25 @@
         <v>4.330782740968223</v>
       </c>
       <c r="B135" t="n">
-        <v>0.0002464294461354182</v>
+        <v>0.0002472351847127231</v>
       </c>
       <c r="C135" t="n">
-        <v>6.707912251430146e-05</v>
+        <v>6.827239819291085e-05</v>
       </c>
       <c r="D135" t="n">
-        <v>6.111286301472056e-06</v>
+        <v>6.122924875261649e-06</v>
       </c>
       <c r="E135" t="n">
-        <v>9.985887973288207e-06</v>
+        <v>1.001223898019371e-05</v>
       </c>
       <c r="F135" t="n">
-        <v>39.91614207730502</v>
+        <v>40.56443511853674</v>
       </c>
       <c r="G135" t="n">
-        <v>1.552657961236253e-07</v>
+        <v>1.1489156519226e-07</v>
       </c>
       <c r="H135" t="n">
-        <v>7.983228415461004</v>
+        <v>8.112887023707348</v>
       </c>
     </row>
     <row r="136">
@@ -3892,25 +3892,25 @@
         <v>4.33318230397895</v>
       </c>
       <c r="B136" t="n">
-        <v>0.0002226989720699008</v>
+        <v>0.0002210974003907277</v>
       </c>
       <c r="C136" t="n">
-        <v>6.635990586417766e-05</v>
+        <v>6.751731443289492e-05</v>
       </c>
       <c r="D136" t="n">
-        <v>5.448951484186053e-06</v>
+        <v>5.42354221553507e-06</v>
       </c>
       <c r="E136" t="n">
-        <v>8.998877509272881e-06</v>
+        <v>8.93695466972858e-06</v>
       </c>
       <c r="F136" t="n">
-        <v>36.80534214787654</v>
+        <v>42.85264310435305</v>
       </c>
       <c r="G136" t="n">
-        <v>6.552441087484105e-07</v>
+        <v>3.958100929531447e-08</v>
       </c>
       <c r="H136" t="n">
-        <v>7.361068429575309</v>
+        <v>8.57052862087061</v>
       </c>
     </row>
     <row r="137">
@@ -3918,25 +3918,25 @@
         <v>4.337638635284587</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0001677336067557964</v>
+        <v>0.0001696586595630272</v>
       </c>
       <c r="C137" t="n">
-        <v>6.921422440974413e-05</v>
+        <v>7.002232727310886e-05</v>
       </c>
       <c r="D137" t="n">
-        <v>4.344324614181096e-06</v>
+        <v>4.397955055620584e-06</v>
       </c>
       <c r="E137" t="n">
-        <v>7.401933020295345e-06</v>
+        <v>7.506343422959136e-06</v>
       </c>
       <c r="F137" t="n">
-        <v>31.30340133480533</v>
+        <v>29.36319610360815</v>
       </c>
       <c r="G137" t="n">
-        <v>8.159822634381275e-06</v>
+        <v>1.967710871636867e-05</v>
       </c>
       <c r="H137" t="n">
-        <v>6.260680266961065</v>
+        <v>5.872639220721629</v>
       </c>
     </row>
     <row r="138">
@@ -3944,25 +3944,25 @@
         <v>4.341752171874406</v>
       </c>
       <c r="B138" t="n">
-        <v>0.0001144968412133512</v>
+        <v>0.0001138613697411299</v>
       </c>
       <c r="C138" t="n">
-        <v>3.933580349576663e-05</v>
+        <v>4.038103940411972e-05</v>
       </c>
       <c r="D138" t="n">
-        <v>3.04169368740255e-06</v>
+        <v>3.025846335076914e-06</v>
       </c>
       <c r="E138" t="n">
-        <v>4.942259563776047e-06</v>
+        <v>4.913605816881319e-06</v>
       </c>
       <c r="F138" t="n">
-        <v>67.65999097962003</v>
+        <v>72.09341700451787</v>
       </c>
       <c r="G138" t="n">
-        <v>3.142292182370568e-13</v>
+        <v>3.755945436568401e-14</v>
       </c>
       <c r="H138" t="n">
-        <v>13.53199819592401</v>
+        <v>14.41868340090357</v>
       </c>
     </row>
     <row r="139">
@@ -3970,25 +3970,25 @@
         <v>4.350407738448815</v>
       </c>
       <c r="B139" t="n">
-        <v>0.0002195176969495684</v>
+        <v>0.0002197445912379678</v>
       </c>
       <c r="C139" t="n">
-        <v>7.961331087489435e-05</v>
+        <v>8.040570028315219e-05</v>
       </c>
       <c r="D139" t="n">
-        <v>4.854284306318823e-06</v>
+        <v>4.858043259096928e-06</v>
       </c>
       <c r="E139" t="n">
-        <v>8.034512959509306e-06</v>
+        <v>8.046123438056891e-06</v>
       </c>
       <c r="F139" t="n">
-        <v>93.44525524019031</v>
+        <v>94.00874310189582</v>
       </c>
       <c r="G139" t="n">
-        <v>1.268066380220801e-18</v>
+        <v>9.651970507266266e-19</v>
       </c>
       <c r="H139" t="n">
-        <v>18.68905104803806</v>
+        <v>18.80174862037916</v>
       </c>
     </row>
     <row r="140">
@@ -3996,25 +3996,25 @@
         <v>4.354692672396543</v>
       </c>
       <c r="B140" t="n">
-        <v>0.0002198928352925578</v>
+        <v>0.0002213856117718399</v>
       </c>
       <c r="C140" t="n">
-        <v>9.194015125523114e-05</v>
+        <v>9.22100745444677e-05</v>
       </c>
       <c r="D140" t="n">
-        <v>4.883868188494835e-06</v>
+        <v>4.910771943802034e-06</v>
       </c>
       <c r="E140" t="n">
-        <v>8.304066947082696e-06</v>
+        <v>8.347905449096928e-06</v>
       </c>
       <c r="F140" t="n">
-        <v>74.54193766322668</v>
+        <v>74.0878194946131</v>
       </c>
       <c r="G140" t="n">
-        <v>1.159316819932655e-14</v>
+        <v>1.441907789198487e-14</v>
       </c>
       <c r="H140" t="n">
-        <v>14.90838753264534</v>
+        <v>14.81756389892262</v>
       </c>
     </row>
     <row r="141">
@@ -4022,25 +4022,25 @@
         <v>4.358634811628452</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0002142360286856817</v>
+        <v>0.0002138310135657587</v>
       </c>
       <c r="C141" t="n">
-        <v>7.757595038092253e-05</v>
+        <v>7.803862132274209e-05</v>
       </c>
       <c r="D141" t="n">
-        <v>4.590621225262029e-06</v>
+        <v>4.584096745101165e-06</v>
       </c>
       <c r="E141" t="n">
-        <v>7.560629058553413e-06</v>
+        <v>7.55430533910404e-06</v>
       </c>
       <c r="F141" t="n">
-        <v>117.6493741566836</v>
+        <v>118.1558921114005</v>
       </c>
       <c r="G141" t="n">
-        <v>9.873990645552202e-24</v>
+        <v>7.713568076646863e-24</v>
       </c>
       <c r="H141" t="n">
-        <v>23.52987483133673</v>
+        <v>23.63117842228009</v>
       </c>
     </row>
     <row r="142">
@@ -4048,25 +4048,25 @@
         <v>4.366947583487043</v>
       </c>
       <c r="B142" t="n">
-        <v>0.0001836961620850556</v>
+        <v>0.0001845717462181308</v>
       </c>
       <c r="C142" t="n">
-        <v>8.357356690414543e-05</v>
+        <v>8.262208038498001e-05</v>
       </c>
       <c r="D142" t="n">
-        <v>4.026032889471389e-06</v>
+        <v>4.044546046968729e-06</v>
       </c>
       <c r="E142" t="n">
-        <v>6.709133087720598e-06</v>
+        <v>6.728417559179821e-06</v>
       </c>
       <c r="F142" t="n">
-        <v>156.0092295150826</v>
+        <v>153.3629342837869</v>
       </c>
       <c r="G142" t="n">
-        <v>7.012852769534321e-32</v>
+        <v>2.567608233901014e-31</v>
       </c>
       <c r="H142" t="n">
-        <v>31.20184590301652</v>
+        <v>30.67258685675738</v>
       </c>
     </row>
     <row r="143">
@@ -4074,25 +4074,25 @@
         <v>4.371918106866407</v>
       </c>
       <c r="B143" t="n">
-        <v>0.000183297616887155</v>
+        <v>0.0001833463593329163</v>
       </c>
       <c r="C143" t="n">
-        <v>8.427642808921005e-05</v>
+        <v>8.221832801762607e-05</v>
       </c>
       <c r="D143" t="n">
-        <v>4.091857472983817e-06</v>
+        <v>4.095580966739209e-06</v>
       </c>
       <c r="E143" t="n">
-        <v>6.789234976771471e-06</v>
+        <v>6.777040460653414e-06</v>
       </c>
       <c r="F143" t="n">
-        <v>164.0479480776902</v>
+        <v>162.3047323913</v>
       </c>
       <c r="G143" t="n">
-        <v>1.357167031365034e-33</v>
+        <v>3.193692640952458e-33</v>
       </c>
       <c r="H143" t="n">
-        <v>32.80958961553804</v>
+        <v>32.46094647826001</v>
       </c>
     </row>
     <row r="144">
@@ -4100,25 +4100,25 @@
         <v>4.375088957987725</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0002965020587316233</v>
+        <v>0.0002986430955094353</v>
       </c>
       <c r="C144" t="n">
-        <v>0.0001477916949029135</v>
+        <v>0.0001447544316411398</v>
       </c>
       <c r="D144" t="n">
-        <v>7.162751823206177e-06</v>
+        <v>7.216145510877111e-06</v>
       </c>
       <c r="E144" t="n">
-        <v>1.164706595878298e-05</v>
+        <v>1.170300092399833e-05</v>
       </c>
       <c r="F144" t="n">
-        <v>230.6587430883749</v>
+        <v>226.2223002400381</v>
       </c>
       <c r="G144" t="n">
-        <v>7.726809598673447e-48</v>
+        <v>6.899538721553951e-47</v>
       </c>
       <c r="H144" t="n">
-        <v>46.13174861767497</v>
+        <v>45.24446004800762</v>
       </c>
     </row>
     <row r="145">
@@ -4126,25 +4126,25 @@
         <v>4.377745617035317</v>
       </c>
       <c r="B145" t="n">
-        <v>0.0003944706298896163</v>
+        <v>0.0003936390540846617</v>
       </c>
       <c r="C145" t="n">
-        <v>0.0002083652635411933</v>
+        <v>0.0002061574591285044</v>
       </c>
       <c r="D145" t="n">
-        <v>8.864397250514737e-06</v>
+        <v>8.867758271013198e-06</v>
       </c>
       <c r="E145" t="n">
-        <v>1.473087820591736e-05</v>
+        <v>1.469467207303537e-05</v>
       </c>
       <c r="F145" t="n">
-        <v>224.4290568819437</v>
+        <v>229.2061044447493</v>
       </c>
       <c r="G145" t="n">
-        <v>1.671395470802997e-46</v>
+        <v>1.582547351974345e-47</v>
       </c>
       <c r="H145" t="n">
-        <v>44.88581137638873</v>
+        <v>45.84122088894985</v>
       </c>
     </row>
     <row r="146">
@@ -4152,25 +4152,25 @@
         <v>4.379545289293363</v>
       </c>
       <c r="B146" t="n">
-        <v>0.0003778658635762445</v>
+        <v>0.0003775848375466906</v>
       </c>
       <c r="C146" t="n">
-        <v>0.0001959254739647335</v>
+        <v>0.0001960515287672688</v>
       </c>
       <c r="D146" t="n">
-        <v>9.020953249045805e-06</v>
+        <v>8.985540181078388e-06</v>
       </c>
       <c r="E146" t="n">
-        <v>1.476034234129989e-05</v>
+        <v>1.47111093441242e-05</v>
       </c>
       <c r="F146" t="n">
-        <v>229.0589748477528</v>
+        <v>229.5233508070836</v>
       </c>
       <c r="G146" t="n">
-        <v>1.701730699577301e-47</v>
+        <v>1.353196177737199e-47</v>
       </c>
       <c r="H146" t="n">
-        <v>45.81179496955055</v>
+        <v>45.90467016141672</v>
       </c>
     </row>
     <row r="147">
@@ -4178,25 +4178,25 @@
         <v>4.380487974761863</v>
       </c>
       <c r="B147" t="n">
-        <v>0.0003889934109769192</v>
+        <v>0.0003914187976502036</v>
       </c>
       <c r="C147" t="n">
-        <v>0.0002083052066105511</v>
+        <v>0.0002075586485634387</v>
       </c>
       <c r="D147" t="n">
-        <v>9.40419374456934e-06</v>
+        <v>9.497300892125822e-06</v>
       </c>
       <c r="E147" t="n">
-        <v>1.552422064173749e-05</v>
+        <v>1.565540291492407e-05</v>
       </c>
       <c r="F147" t="n">
-        <v>206.7521569828831</v>
+        <v>201.939739691587</v>
       </c>
       <c r="G147" t="n">
-        <v>1.020045904273244e-42</v>
+        <v>1.092521261313506e-41</v>
       </c>
       <c r="H147" t="n">
-        <v>41.35043139657662</v>
+        <v>40.3879479383174</v>
       </c>
     </row>
     <row r="148">
@@ -4204,25 +4204,25 @@
         <v>4.380830769477681</v>
       </c>
       <c r="B148" t="n">
-        <v>0.0003813363099997154</v>
+        <v>0.0003859384157793568</v>
       </c>
       <c r="C148" t="n">
-        <v>0.0002081303222240911</v>
+        <v>0.0002034646027034241</v>
       </c>
       <c r="D148" t="n">
-        <v>9.260878003899875e-06</v>
+        <v>9.318419440445078e-06</v>
       </c>
       <c r="E148" t="n">
-        <v>1.529667803544027e-05</v>
+        <v>1.537691844393314e-05</v>
       </c>
       <c r="F148" t="n">
-        <v>207.4376893545665</v>
+        <v>198.7869110764282</v>
       </c>
       <c r="G148" t="n">
-        <v>7.276021192680915e-43</v>
+        <v>5.163078553020799e-41</v>
       </c>
       <c r="H148" t="n">
-        <v>41.48753787091329</v>
+        <v>39.75738221528564</v>
       </c>
     </row>
     <row r="149">
@@ -4230,25 +4230,25 @@
         <v>4.381087865514544</v>
       </c>
       <c r="B149" t="n">
-        <v>0.0003834602051614177</v>
+        <v>0.0003819495856170904</v>
       </c>
       <c r="C149" t="n">
-        <v>0.0001906839514472092</v>
+        <v>0.0001942485184266115</v>
       </c>
       <c r="D149" t="n">
-        <v>9.257493987900129e-06</v>
+        <v>9.222916392814145e-06</v>
       </c>
       <c r="E149" t="n">
-        <v>1.511556759781659e-05</v>
+        <v>1.508389300180973e-05</v>
       </c>
       <c r="F149" t="n">
-        <v>209.5096341120659</v>
+        <v>214.2541652389925</v>
       </c>
       <c r="G149" t="n">
-        <v>2.620532522054398e-43</v>
+        <v>2.526844820658033e-44</v>
       </c>
       <c r="H149" t="n">
-        <v>41.90192682241317</v>
+        <v>42.8508330477985</v>
       </c>
     </row>
     <row r="150">
@@ -4256,25 +4256,25 @@
         <v>4.382973236451544</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0007274776497573766</v>
+        <v>0.0007269438201233453</v>
       </c>
       <c r="C150" t="n">
-        <v>0.0003767127437034876</v>
+        <v>0.0003767993730641938</v>
       </c>
       <c r="D150" t="n">
-        <v>1.582151568266618e-05</v>
+        <v>1.580162286458273e-05</v>
       </c>
       <c r="E150" t="n">
-        <v>2.726282505495954e-05</v>
+        <v>2.722149606357898e-05</v>
       </c>
       <c r="F150" t="n">
-        <v>110.2768152115975</v>
+        <v>111.9985564663039</v>
       </c>
       <c r="G150" t="n">
-        <v>3.580957330281703e-22</v>
+        <v>1.548959802766828e-22</v>
       </c>
       <c r="H150" t="n">
-        <v>22.0553630423195</v>
+        <v>22.39971129326077</v>
       </c>
     </row>
     <row r="151">
@@ -4282,25 +4282,25 @@
         <v>4.384687210030635</v>
       </c>
       <c r="B151" t="n">
-        <v>0.0007995444437583207</v>
+        <v>0.0007983277804326623</v>
       </c>
       <c r="C151" t="n">
-        <v>0.0003918090458846084</v>
+        <v>0.0003893263536625231</v>
       </c>
       <c r="D151" t="n">
-        <v>1.709566547069245e-05</v>
+        <v>1.708142070182004e-05</v>
       </c>
       <c r="E151" t="n">
-        <v>2.963654713712163e-05</v>
+        <v>2.955479100605745e-05</v>
       </c>
       <c r="F151" t="n">
-        <v>84.30825186610636</v>
+        <v>86.78850953286999</v>
       </c>
       <c r="G151" t="n">
-        <v>1.05118655640909e-16</v>
+        <v>3.173588346303999e-17</v>
       </c>
       <c r="H151" t="n">
-        <v>16.86165037322127</v>
+        <v>17.357701906574</v>
       </c>
     </row>
     <row r="152">
@@ -4308,25 +4308,25 @@
         <v>4.386401183609727</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0007487576791382473</v>
+        <v>0.00074928619476666</v>
       </c>
       <c r="C152" t="n">
-        <v>0.0003743689364721747</v>
+        <v>0.0003748581656898963</v>
       </c>
       <c r="D152" t="n">
-        <v>1.623699658899168e-05</v>
+        <v>1.624448008421357e-05</v>
       </c>
       <c r="E152" t="n">
-        <v>2.813229660542569e-05</v>
+        <v>2.813764724891222e-05</v>
       </c>
       <c r="F152" t="n">
-        <v>85.90502992498803</v>
+        <v>86.67852271717082</v>
       </c>
       <c r="G152" t="n">
-        <v>4.862760090417092e-17</v>
+        <v>3.346776070477397e-17</v>
       </c>
       <c r="H152" t="n">
-        <v>17.1810059849976</v>
+        <v>17.33570454343417</v>
       </c>
     </row>
     <row r="153">
@@ -4334,25 +4334,25 @@
         <v>4.388029458509863</v>
       </c>
       <c r="B153" t="n">
-        <v>0.0007193444810717471</v>
+        <v>0.000719162889477745</v>
       </c>
       <c r="C153" t="n">
-        <v>0.0003667248866330926</v>
+        <v>0.0003689292533250502</v>
       </c>
       <c r="D153" t="n">
-        <v>1.552974400588542e-05</v>
+        <v>1.55395968159757e-05</v>
       </c>
       <c r="E153" t="n">
-        <v>2.697509810028621e-05</v>
+        <v>2.697960330455791e-05</v>
       </c>
       <c r="F153" t="n">
-        <v>88.35113464661866</v>
+        <v>90.7731704444239</v>
       </c>
       <c r="G153" t="n">
-        <v>1.491397207140073e-17</v>
+        <v>4.622575861548111e-18</v>
       </c>
       <c r="H153" t="n">
-        <v>17.67022692932373</v>
+        <v>18.15463408888478</v>
       </c>
     </row>
     <row r="154">
@@ -4360,25 +4360,25 @@
         <v>4.389057842657317</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0007267883594447814</v>
+        <v>0.0007274366414985841</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0003776330350043441</v>
+        <v>0.0003782002166511061</v>
       </c>
       <c r="D154" t="n">
-        <v>1.578690515046929e-05</v>
+        <v>1.580071282942696e-05</v>
       </c>
       <c r="E154" t="n">
-        <v>2.756504364493134e-05</v>
+        <v>2.760419640557981e-05</v>
       </c>
       <c r="F154" t="n">
-        <v>83.46698852632699</v>
+        <v>82.74764497921261</v>
       </c>
       <c r="G154" t="n">
-        <v>1.577533693626173e-16</v>
+        <v>2.231914064641081e-16</v>
       </c>
       <c r="H154" t="n">
-        <v>16.6933977052654</v>
+        <v>16.54952899584252</v>
       </c>
     </row>
     <row r="155">
@@ -4386,25 +4386,25 @@
         <v>4.389743432088954</v>
       </c>
       <c r="B155" t="n">
-        <v>0.0006897552770678958</v>
+        <v>0.0006928158808992702</v>
       </c>
       <c r="C155" t="n">
-        <v>0.0003549081306435158</v>
+        <v>0.0003513430470692341</v>
       </c>
       <c r="D155" t="n">
-        <v>1.502932423581294e-05</v>
+        <v>1.508903384274501e-05</v>
       </c>
       <c r="E155" t="n">
-        <v>2.620742257297764e-05</v>
+        <v>2.628753239971543e-05</v>
       </c>
       <c r="F155" t="n">
-        <v>78.28758850625132</v>
+        <v>76.21933548125253</v>
       </c>
       <c r="G155" t="n">
-        <v>1.914070037671981e-15</v>
+        <v>5.176988191991336e-15</v>
       </c>
       <c r="H155" t="n">
-        <v>15.65751770125027</v>
+        <v>15.24386709625051</v>
       </c>
     </row>
     <row r="156">
@@ -4412,25 +4412,25 @@
         <v>4.392314392457591</v>
       </c>
       <c r="B156" t="n">
-        <v>0.0006545629872577167</v>
+        <v>0.0006566248470710753</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0003256856843284363</v>
+        <v>0.0003191039153696711</v>
       </c>
       <c r="D156" t="n">
-        <v>1.41591859701362e-05</v>
+        <v>1.420714474179219e-05</v>
       </c>
       <c r="E156" t="n">
-        <v>2.469857923895275e-05</v>
+        <v>2.472602357302022e-05</v>
       </c>
       <c r="F156" t="n">
-        <v>73.1006690616605</v>
+        <v>71.67629282415297</v>
       </c>
       <c r="G156" t="n">
-        <v>2.31627661168792e-14</v>
+        <v>4.587965902049585e-14</v>
       </c>
       <c r="H156" t="n">
-        <v>14.6201338123321</v>
+        <v>14.33525856483059</v>
       </c>
     </row>
     <row r="157">
@@ -4438,25 +4438,25 @@
         <v>4.396599326405318</v>
       </c>
       <c r="B157" t="n">
-        <v>0.0005557746986714749</v>
+        <v>0.0005565943381500973</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0002595981757746761</v>
+        <v>0.0002585123849780061</v>
       </c>
       <c r="D157" t="n">
-        <v>1.187529838080241e-05</v>
+        <v>1.189845295075048e-05</v>
       </c>
       <c r="E157" t="n">
-        <v>2.093536194122387e-05</v>
+        <v>2.095902120067324e-05</v>
       </c>
       <c r="F157" t="n">
-        <v>44.26159276783564</v>
+        <v>44.15751026118401</v>
       </c>
       <c r="G157" t="n">
-        <v>2.04959060678278e-08</v>
+        <v>2.151802401503115e-08</v>
       </c>
       <c r="H157" t="n">
-        <v>8.852318553567127</v>
+        <v>8.831502052236802</v>
       </c>
     </row>
     <row r="158">
@@ -4464,25 +4464,25 @@
         <v>4.400884260353045</v>
       </c>
       <c r="B158" t="n">
-        <v>0.0004057958631260862</v>
+        <v>0.000404961613037206</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0001804409870548902</v>
+        <v>0.0001809902231358691</v>
       </c>
       <c r="D158" t="n">
-        <v>9.161825235284827e-06</v>
+        <v>9.1583382200074e-06</v>
       </c>
       <c r="E158" t="n">
-        <v>1.617567119762803e-05</v>
+        <v>1.61482232519322e-05</v>
       </c>
       <c r="F158" t="n">
-        <v>24.9551398736277</v>
+        <v>26.43110635701165</v>
       </c>
       <c r="G158" t="n">
-        <v>0.0001421403305802428</v>
+        <v>7.35962788870147e-05</v>
       </c>
       <c r="H158" t="n">
-        <v>4.991027974725539</v>
+        <v>5.286221271402331</v>
       </c>
     </row>
     <row r="159">
@@ -4490,25 +4490,25 @@
         <v>4.404912098263909</v>
       </c>
       <c r="B159" t="n">
-        <v>0.0002351043135876563</v>
+        <v>0.0002352502668372429</v>
       </c>
       <c r="C159" t="n">
-        <v>0.0001015097121216535</v>
+        <v>0.0001011224795255202</v>
       </c>
       <c r="D159" t="n">
-        <v>5.440474994454279e-06</v>
+        <v>5.436756175238481e-06</v>
       </c>
       <c r="E159" t="n">
-        <v>9.667850150014251e-06</v>
+        <v>9.661734012090825e-06</v>
       </c>
       <c r="F159" t="n">
-        <v>14.63174669957881</v>
+        <v>15.59502082736664</v>
       </c>
       <c r="G159" t="n">
-        <v>0.01205735337338411</v>
+        <v>0.008100646614975315</v>
       </c>
       <c r="H159" t="n">
-        <v>2.926349339915761</v>
+        <v>3.119004165473328</v>
       </c>
     </row>
     <row r="160">
@@ -4516,25 +4516,25 @@
         <v>4.406111879769273</v>
       </c>
       <c r="B160" t="n">
-        <v>0.0002475014936132796</v>
+        <v>0.0002478099125171404</v>
       </c>
       <c r="C160" t="n">
-        <v>0.000119464295517386</v>
+        <v>0.0001205039785321786</v>
       </c>
       <c r="D160" t="n">
-        <v>5.990751637901825e-06</v>
+        <v>5.998343689920817e-06</v>
       </c>
       <c r="E160" t="n">
-        <v>1.070086602035476e-05</v>
+        <v>1.07312650195132e-05</v>
       </c>
       <c r="F160" t="n">
-        <v>18.79842026601474</v>
+        <v>18.137203988384</v>
       </c>
       <c r="G160" t="n">
-        <v>0.00209556386592026</v>
+        <v>0.002779275144457334</v>
       </c>
       <c r="H160" t="n">
-        <v>3.759684053202949</v>
+        <v>3.6274407976768</v>
       </c>
     </row>
     <row r="161">
@@ -4542,25 +4542,25 @@
         <v>4.4094541282485</v>
       </c>
       <c r="B161" t="n">
-        <v>0.0001332701428290129</v>
+        <v>0.0001337343595819743</v>
       </c>
       <c r="C161" t="n">
-        <v>4.719116498387236e-05</v>
+        <v>4.666530537185149e-05</v>
       </c>
       <c r="D161" t="n">
-        <v>3.472228148717705e-06</v>
+        <v>3.484337789081544e-06</v>
       </c>
       <c r="E161" t="n">
-        <v>5.876227297999303e-06</v>
+        <v>5.899909891394124e-06</v>
       </c>
       <c r="F161" t="n">
-        <v>19.70546543866465</v>
+        <v>20.0265113716651</v>
       </c>
       <c r="G161" t="n">
-        <v>0.001419151145671625</v>
+        <v>0.001235494935360031</v>
       </c>
       <c r="H161" t="n">
-        <v>3.941093087732931</v>
+        <v>4.005302274333021</v>
       </c>
     </row>
     <row r="162">
@@ -4568,25 +4568,25 @@
         <v>4.413824760875183</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0001164184049090158</v>
+        <v>0.0001162649774743463</v>
       </c>
       <c r="C162" t="n">
-        <v>2.986691460317059e-05</v>
+        <v>2.998512788125685e-05</v>
       </c>
       <c r="D162" t="n">
-        <v>3.253162212830524e-06</v>
+        <v>3.26927591298456e-06</v>
       </c>
       <c r="E162" t="n">
-        <v>5.240757276567539e-06</v>
+        <v>5.267086983820438e-06</v>
       </c>
       <c r="F162" t="n">
-        <v>39.06264278871492</v>
+        <v>38.92974461550997</v>
       </c>
       <c r="G162" t="n">
-        <v>2.306876904074267e-07</v>
+        <v>2.4534293406371e-07</v>
       </c>
       <c r="H162" t="n">
-        <v>7.812528557742985</v>
+        <v>7.785948923101993</v>
       </c>
     </row>
     <row r="163">
@@ -4594,25 +4594,25 @@
         <v>4.41622432388591</v>
       </c>
       <c r="B163" t="n">
-        <v>0.0001178515707552247</v>
+        <v>0.00011803711148295</v>
       </c>
       <c r="C163" t="n">
-        <v>3.166435376968731e-05</v>
+        <v>3.055243711574605e-05</v>
       </c>
       <c r="D163" t="n">
-        <v>3.20648271976164e-06</v>
+        <v>3.197562282803217e-06</v>
       </c>
       <c r="E163" t="n">
-        <v>5.104168868465776e-06</v>
+        <v>5.076713318780261e-06</v>
       </c>
       <c r="F163" t="n">
-        <v>62.43053638555588</v>
+        <v>59.21876610718932</v>
       </c>
       <c r="G163" t="n">
-        <v>3.819381608598736e-12</v>
+        <v>1.762487252247601e-11</v>
       </c>
       <c r="H163" t="n">
-        <v>12.48610727711118</v>
+        <v>11.84375322143786</v>
       </c>
     </row>
     <row r="164">
@@ -4620,25 +4620,25 @@
         <v>4.418795284254546</v>
       </c>
       <c r="B164" t="n">
-        <v>0.0001153227184589625</v>
+        <v>0.0001154725143762219</v>
       </c>
       <c r="C164" t="n">
-        <v>3.062928109086516e-05</v>
+        <v>2.892130409225795e-05</v>
       </c>
       <c r="D164" t="n">
-        <v>3.137663138141931e-06</v>
+        <v>3.160380462363878e-06</v>
       </c>
       <c r="E164" t="n">
-        <v>4.969994452061563e-06</v>
+        <v>4.976285632089458e-06</v>
       </c>
       <c r="F164" t="n">
-        <v>74.94332915094269</v>
+        <v>77.82440007327094</v>
       </c>
       <c r="G164" t="n">
-        <v>9.559765115869299e-15</v>
+        <v>2.392048337744255e-15</v>
       </c>
       <c r="H164" t="n">
-        <v>14.98866583018854</v>
+        <v>15.56488001465419</v>
       </c>
     </row>
     <row r="165">
@@ -4646,25 +4646,25 @@
         <v>4.421623340660047</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0001141533220814105</v>
+        <v>0.0001141271429410718</v>
       </c>
       <c r="C165" t="n">
-        <v>2.555346184933217e-05</v>
+        <v>2.465763178604407e-05</v>
       </c>
       <c r="D165" t="n">
-        <v>3.247740846410503e-06</v>
+        <v>3.223351008372361e-06</v>
       </c>
       <c r="E165" t="n">
-        <v>4.956873509865391e-06</v>
+        <v>4.918542142560186e-06</v>
       </c>
       <c r="F165" t="n">
-        <v>106.139367699798</v>
+        <v>109.2958102011428</v>
       </c>
       <c r="G165" t="n">
-        <v>2.679039169207736e-21</v>
+        <v>5.771725655697669e-22</v>
       </c>
       <c r="H165" t="n">
-        <v>21.2278735399596</v>
+        <v>21.85916204022856</v>
       </c>
     </row>
     <row r="166">
@@ -4672,25 +4672,25 @@
         <v>4.423337314239138</v>
       </c>
       <c r="B166" t="n">
-        <v>0.0001195898899864613</v>
+        <v>0.0001212710987294121</v>
       </c>
       <c r="C166" t="n">
-        <v>2.736600077757186e-05</v>
+        <v>2.77811405129345e-05</v>
       </c>
       <c r="D166" t="n">
-        <v>3.512995790679133e-06</v>
+        <v>3.56745488334989e-06</v>
       </c>
       <c r="E166" t="n">
-        <v>5.400220859977256e-06</v>
+        <v>5.491852640050374e-06</v>
       </c>
       <c r="F166" t="n">
-        <v>92.6916016217402</v>
+        <v>83.79410186438774</v>
       </c>
       <c r="G166" t="n">
-        <v>1.826554358415909e-18</v>
+        <v>1.347208330856852e-16</v>
       </c>
       <c r="H166" t="n">
-        <v>18.53832032434804</v>
+        <v>16.75882037287755</v>
       </c>
     </row>
     <row r="167">
@@ -4698,25 +4698,25 @@
         <v>4.424194301028683</v>
       </c>
       <c r="B167" t="n">
-        <v>0.0001171231675641043</v>
+        <v>0.0001170885628879145</v>
       </c>
       <c r="C167" t="n">
-        <v>2.436935095356439e-05</v>
+        <v>2.587359541311183e-05</v>
       </c>
       <c r="D167" t="n">
-        <v>3.116664380295904e-06</v>
+        <v>3.089051157349085e-06</v>
       </c>
       <c r="E167" t="n">
-        <v>4.741488805156966e-06</v>
+        <v>4.736169034971343e-06</v>
       </c>
       <c r="F167" t="n">
-        <v>125.8583247902849</v>
+        <v>120.4039813784939</v>
       </c>
       <c r="G167" t="n">
-        <v>1.799550288086811e-25</v>
+        <v>2.577288369096576e-24</v>
       </c>
       <c r="H167" t="n">
-        <v>25.17166495805698</v>
+        <v>24.08079627569879</v>
       </c>
     </row>
     <row r="168">
@@ -4724,25 +4724,25 @@
         <v>4.429336221765956</v>
       </c>
       <c r="B168" t="n">
-        <v>0.0001202073533799877</v>
+        <v>0.0001190186622302938</v>
       </c>
       <c r="C168" t="n">
-        <v>2.646276152518394e-05</v>
+        <v>2.563573777258267e-05</v>
       </c>
       <c r="D168" t="n">
-        <v>3.069702537344518e-06</v>
+        <v>3.05449408422275e-06</v>
       </c>
       <c r="E168" t="n">
-        <v>4.670616376759332e-06</v>
+        <v>4.630733050533619e-06</v>
       </c>
       <c r="F168" t="n">
-        <v>152.4937632937715</v>
+        <v>161.4116038368573</v>
       </c>
       <c r="G168" t="n">
-        <v>3.931990415652841e-31</v>
+        <v>4.950886977375726e-33</v>
       </c>
       <c r="H168" t="n">
-        <v>30.49875265875429</v>
+        <v>32.28232076737146</v>
       </c>
     </row>
     <row r="169">
@@ -4750,25 +4750,25 @@
         <v>4.431392990060865</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0001267499433529484</v>
+        <v>0.0001269761414868919</v>
       </c>
       <c r="C169" t="n">
-        <v>3.522636626226077e-05</v>
+        <v>3.496979029934172e-05</v>
       </c>
       <c r="D169" t="n">
-        <v>3.07621864711956e-06</v>
+        <v>3.059010498009874e-06</v>
       </c>
       <c r="E169" t="n">
-        <v>4.781692172611112e-06</v>
+        <v>4.762215089316949e-06</v>
       </c>
       <c r="F169" t="n">
-        <v>158.4385108799632</v>
+        <v>158.8431577708552</v>
       </c>
       <c r="G169" t="n">
-        <v>2.129714788400441e-32</v>
+        <v>1.74620133912355e-32</v>
       </c>
       <c r="H169" t="n">
-        <v>31.68770217599264</v>
+        <v>31.76863155417104</v>
       </c>
     </row>
     <row r="170">
@@ -4776,25 +4776,25 @@
         <v>4.440477050030048</v>
       </c>
       <c r="B170" t="n">
-        <v>0.0001266410669631825</v>
+        <v>0.0001279528738230844</v>
       </c>
       <c r="C170" t="n">
-        <v>5.017619053449616e-05</v>
+        <v>4.887325471169561e-05</v>
       </c>
       <c r="D170" t="n">
-        <v>3.166262902679215e-06</v>
+        <v>3.192234746130666e-06</v>
       </c>
       <c r="E170" t="n">
-        <v>5.096989299791155e-06</v>
+        <v>5.125417089496511e-06</v>
       </c>
       <c r="F170" t="n">
-        <v>143.214583406006</v>
+        <v>141.0120793107664</v>
       </c>
       <c r="G170" t="n">
-        <v>3.708627880846042e-29</v>
+        <v>1.090248832970386e-28</v>
       </c>
       <c r="H170" t="n">
-        <v>28.6429166812012</v>
+        <v>28.20241586215327</v>
       </c>
     </row>
     <row r="171">
@@ -4802,25 +4802,25 @@
         <v>4.457445388463049</v>
       </c>
       <c r="B171" t="n">
-        <v>0.0001392122838376229</v>
+        <v>0.0001395776952799321</v>
       </c>
       <c r="C171" t="n">
-        <v>5.373267451783002e-05</v>
+        <v>5.290109611859055e-05</v>
       </c>
       <c r="D171" t="n">
-        <v>3.14445545227229e-06</v>
+        <v>3.155798905486282e-06</v>
       </c>
       <c r="E171" t="n">
-        <v>5.048378588511756e-06</v>
+        <v>5.054019276830145e-06</v>
       </c>
       <c r="F171" t="n">
-        <v>199.6183612722052</v>
+        <v>201.4397662463871</v>
       </c>
       <c r="G171" t="n">
-        <v>3.428100198457961e-41</v>
+        <v>1.397651225351645e-41</v>
       </c>
       <c r="H171" t="n">
-        <v>39.92367225444103</v>
+        <v>40.28795324927741</v>
       </c>
     </row>
     <row r="172">
@@ -4828,25 +4828,25 @@
         <v>4.474756521611869</v>
       </c>
       <c r="B172" t="n">
-        <v>0.0001669107733756353</v>
+        <v>0.0001675141445139977</v>
       </c>
       <c r="C172" t="n">
-        <v>6.729574952744575e-05</v>
+        <v>6.717924282532541e-05</v>
       </c>
       <c r="D172" t="n">
-        <v>3.812426495868162e-06</v>
+        <v>3.827029975897177e-06</v>
       </c>
       <c r="E172" t="n">
-        <v>6.046467369413169e-06</v>
+        <v>6.066712115551522e-06</v>
       </c>
       <c r="F172" t="n">
-        <v>263.6030221528624</v>
+        <v>262.5285158504379</v>
       </c>
       <c r="G172" t="n">
-        <v>6.614675897110615e-55</v>
+        <v>1.125107314219821e-54</v>
       </c>
       <c r="H172" t="n">
-        <v>52.72060443057247</v>
+        <v>52.50570317008758</v>
       </c>
     </row>
     <row r="173">
@@ -4854,25 +4854,25 @@
         <v>4.491896257402779</v>
       </c>
       <c r="B173" t="n">
-        <v>0.000205145078105043</v>
+        <v>0.0002082099218229736</v>
       </c>
       <c r="C173" t="n">
-        <v>8.724907776101668e-05</v>
+        <v>8.533864881523774e-05</v>
       </c>
       <c r="D173" t="n">
-        <v>5.067277105780659e-06</v>
+        <v>5.12302953854741e-06</v>
       </c>
       <c r="E173" t="n">
-        <v>7.815644045773708e-06</v>
+        <v>7.885505793408211e-06</v>
       </c>
       <c r="F173" t="n">
-        <v>387.2261256998711</v>
+        <v>377.2019930503627</v>
       </c>
       <c r="G173" t="n">
-        <v>1.67896349825222e-81</v>
+        <v>2.425253688746355e-79</v>
       </c>
       <c r="H173" t="n">
-        <v>77.44522513997421</v>
+        <v>75.44039861007253</v>
       </c>
     </row>
     <row r="174">
@@ -4880,25 +4880,25 @@
         <v>4.500037631903461</v>
       </c>
       <c r="B174" t="n">
-        <v>0.0002497637325034026</v>
+        <v>0.0002507827956189112</v>
       </c>
       <c r="C174" t="n">
-        <v>7.736588480563791e-05</v>
+        <v>7.428700488449562e-05</v>
       </c>
       <c r="D174" t="n">
-        <v>5.98920435905894e-06</v>
+        <v>6.005826404346562e-06</v>
       </c>
       <c r="E174" t="n">
-        <v>8.833649069876137e-06</v>
+        <v>8.83074528893675e-06</v>
       </c>
       <c r="F174" t="n">
-        <v>558.3037998031261</v>
+        <v>558.3360056159137</v>
       </c>
       <c r="G174" t="n">
-        <v>2.057436740222819e-118</v>
+        <v>2.024745910785009e-118</v>
       </c>
       <c r="H174" t="n">
-        <v>111.6607599606252</v>
+        <v>111.6672011231827</v>
       </c>
     </row>
     <row r="175">
@@ -4906,25 +4906,25 @@
         <v>4.503122784345824</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0002714767275632618</v>
+        <v>0.0002691950120428018</v>
       </c>
       <c r="C175" t="n">
-        <v>0.0001056074427307113</v>
+        <v>0.0001073677073241553</v>
       </c>
       <c r="D175" t="n">
-        <v>6.969599677039819e-06</v>
+        <v>6.938363454212779e-06</v>
       </c>
       <c r="E175" t="n">
-        <v>1.038438769692356e-05</v>
+        <v>1.035262144070869e-05</v>
       </c>
       <c r="F175" t="n">
-        <v>527.6434168350719</v>
+        <v>536.5064436572167</v>
       </c>
       <c r="G175" t="n">
-        <v>8.59972021413757e-112</v>
+        <v>1.048850076005844e-113</v>
       </c>
       <c r="H175" t="n">
-        <v>105.5286833670144</v>
+        <v>107.3012887314433</v>
       </c>
     </row>
     <row r="176">
@@ -4932,25 +4932,25 @@
         <v>4.509121691872643</v>
       </c>
       <c r="B176" t="n">
-        <v>0.0003311736294681109</v>
+        <v>0.0003303615570894628</v>
       </c>
       <c r="C176" t="n">
-        <v>9.140658122553692e-05</v>
+        <v>9.07213943632352e-05</v>
       </c>
       <c r="D176" t="n">
-        <v>9.169400391527157e-06</v>
+        <v>9.193540554804387e-06</v>
       </c>
       <c r="E176" t="n">
-        <v>1.295846433097022e-05</v>
+        <v>1.295042101155424e-05</v>
       </c>
       <c r="F176" t="n">
-        <v>631.2749224835139</v>
+        <v>635.1016949485827</v>
       </c>
       <c r="G176" t="n">
-        <v>3.528589730597179e-134</v>
+        <v>5.254758591952388e-135</v>
       </c>
       <c r="H176" t="n">
-        <v>126.2549844967028</v>
+        <v>127.0203389897165</v>
       </c>
     </row>
     <row r="177">
@@ -4958,25 +4958,25 @@
         <v>4.517520162410189</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0004206921749145379</v>
+        <v>0.0004203915935125392</v>
       </c>
       <c r="C177" t="n">
-        <v>0.0001348430605521239</v>
+        <v>0.0001315304735416153</v>
       </c>
       <c r="D177" t="n">
-        <v>1.134352276456451e-05</v>
+        <v>1.13500950597141e-05</v>
       </c>
       <c r="E177" t="n">
-        <v>1.624791253057614e-05</v>
+        <v>1.622692919042384e-05</v>
       </c>
       <c r="F177" t="n">
-        <v>661.7846094657684</v>
+        <v>662.8367717800692</v>
       </c>
       <c r="G177" t="n">
-        <v>8.977574173182851e-141</v>
+        <v>5.317611853558566e-141</v>
       </c>
       <c r="H177" t="n">
-        <v>132.3569218931537</v>
+        <v>132.5673543560138</v>
       </c>
     </row>
     <row r="178">
@@ -4984,25 +4984,25 @@
         <v>4.521890795036872</v>
       </c>
       <c r="B178" t="n">
-        <v>0.0004614321721336439</v>
+        <v>0.0004690405976853303</v>
       </c>
       <c r="C178" t="n">
-        <v>0.0001678997360981774</v>
+        <v>0.000163052507160619</v>
       </c>
       <c r="D178" t="n">
-        <v>1.282371737870779e-05</v>
+        <v>1.312773592467575e-05</v>
       </c>
       <c r="E178" t="n">
-        <v>1.858016396171674e-05</v>
+        <v>1.888956516613039e-05</v>
       </c>
       <c r="F178" t="n">
-        <v>604.7349680425873</v>
+        <v>596.8395508528662</v>
       </c>
       <c r="G178" t="n">
-        <v>1.917738093910885e-128</v>
+        <v>9.743715094974496e-127</v>
       </c>
       <c r="H178" t="n">
-        <v>120.9469936085175</v>
+        <v>119.3679101705732</v>
       </c>
     </row>
     <row r="179">
@@ -5010,25 +5010,25 @@
         <v>4.526175728984599</v>
       </c>
       <c r="B179" t="n">
-        <v>0.0005270659808823848</v>
+        <v>0.0005319776399125624</v>
       </c>
       <c r="C179" t="n">
-        <v>0.0002331375189641265</v>
+        <v>0.0002246954502728308</v>
       </c>
       <c r="D179" t="n">
-        <v>1.410865769466558e-05</v>
+        <v>1.416593910159125e-05</v>
       </c>
       <c r="E179" t="n">
-        <v>2.111628054700484e-05</v>
+        <v>2.114575580137166e-05</v>
       </c>
       <c r="F179" t="n">
-        <v>552.247472636628</v>
+        <v>542.8313264205259</v>
       </c>
       <c r="G179" t="n">
-        <v>4.181783083452378e-117</v>
+        <v>4.517407515234154e-115</v>
       </c>
       <c r="H179" t="n">
-        <v>110.4494945273256</v>
+        <v>108.5662652841052</v>
       </c>
     </row>
     <row r="180">
@@ -5036,25 +5036,25 @@
         <v>4.530460662932327</v>
       </c>
       <c r="B180" t="n">
-        <v>0.0006735943051444175</v>
+        <v>0.0006778108180030931</v>
       </c>
       <c r="C180" t="n">
-        <v>0.0003605513561894337</v>
+        <v>0.0003496765262440114</v>
       </c>
       <c r="D180" t="n">
-        <v>1.157250868177963e-05</v>
+        <v>1.171064593274709e-05</v>
       </c>
       <c r="E180" t="n">
-        <v>1.827400756984206e-05</v>
+        <v>1.836696730974923e-05</v>
       </c>
       <c r="F180" t="n">
-        <v>957.285072693815</v>
+        <v>954.5002764351999</v>
       </c>
       <c r="G180" t="n">
-        <v>2.841932934433035e-197</v>
+        <v>1.12722815238681e-196</v>
       </c>
       <c r="H180" t="n">
-        <v>79.77375605781792</v>
+        <v>79.54168970293333</v>
       </c>
     </row>
     <row r="181">
@@ -5062,25 +5062,25 @@
         <v>4.534574199522145</v>
       </c>
       <c r="B181" t="n">
-        <v>0.001095470120649695</v>
+        <v>0.001100452069149813</v>
       </c>
       <c r="C181" t="n">
-        <v>0.0005987142598967482</v>
+        <v>0.0005942494078217124</v>
       </c>
       <c r="D181" t="n">
-        <v>2.589090778587124e-05</v>
+        <v>2.597668113496371e-05</v>
       </c>
       <c r="E181" t="n">
-        <v>4.201738425137807e-05</v>
+        <v>4.21420227344659e-05</v>
       </c>
       <c r="F181" t="n">
-        <v>319.7581061370317</v>
+        <v>315.2209658329978</v>
       </c>
       <c r="G181" t="n">
-        <v>5.643243787678327e-67</v>
+        <v>5.339555079896043e-66</v>
       </c>
       <c r="H181" t="n">
-        <v>63.95162122740635</v>
+        <v>63.04419316659956</v>
       </c>
     </row>
     <row r="182">
@@ -5088,25 +5088,25 @@
         <v>4.539030530827781</v>
       </c>
       <c r="B182" t="n">
-        <v>0.001392503178882159</v>
+        <v>0.00140631979172586</v>
       </c>
       <c r="C182" t="n">
-        <v>0.0007689816045928944</v>
+        <v>0.0007768187253204955</v>
       </c>
       <c r="D182" t="n">
-        <v>3.2230325521694e-05</v>
+        <v>3.253545551323314e-05</v>
       </c>
       <c r="E182" t="n">
-        <v>5.321368745237247e-05</v>
+        <v>5.376536478389432e-05</v>
       </c>
       <c r="F182" t="n">
-        <v>260.618052083945</v>
+        <v>255.5448226810776</v>
       </c>
       <c r="G182" t="n">
-        <v>2.892838174539978e-54</v>
+        <v>3.550214995091139e-53</v>
       </c>
       <c r="H182" t="n">
-        <v>52.12361041678899</v>
+        <v>51.10896453621551</v>
       </c>
     </row>
     <row r="183">
@@ -5114,25 +5114,25 @@
         <v>4.543486862133419</v>
       </c>
       <c r="B183" t="n">
-        <v>0.00183116005315655</v>
+        <v>0.001831968265122643</v>
       </c>
       <c r="C183" t="n">
-        <v>0.001063442569309183</v>
+        <v>0.001074049306468051</v>
       </c>
       <c r="D183" t="n">
-        <v>3.930762009195973e-05</v>
+        <v>3.933728998691863e-05</v>
       </c>
       <c r="E183" t="n">
-        <v>6.654807079197359e-05</v>
+        <v>6.668531453039075e-05</v>
       </c>
       <c r="F183" t="n">
-        <v>249.3830536778034</v>
+        <v>249.3306054152649</v>
       </c>
       <c r="G183" t="n">
-        <v>7.455744870869022e-52</v>
+        <v>7.651456402251573e-52</v>
       </c>
       <c r="H183" t="n">
-        <v>49.87661073556069</v>
+        <v>49.86612108305298</v>
       </c>
     </row>
     <row r="184">
@@ -5140,25 +5140,25 @@
         <v>4.545800726465191</v>
       </c>
       <c r="B184" t="n">
-        <v>0.002106789448177598</v>
+        <v>0.002109215966570801</v>
       </c>
       <c r="C184" t="n">
-        <v>0.001354767879798094</v>
+        <v>0.001358479043264386</v>
       </c>
       <c r="D184" t="n">
-        <v>4.483676546821976e-05</v>
+        <v>4.4938653735445e-05</v>
       </c>
       <c r="E184" t="n">
-        <v>7.734873149308519e-05</v>
+        <v>7.749876456486874e-05</v>
       </c>
       <c r="F184" t="n">
-        <v>247.4200150421323</v>
+        <v>248.8989155483821</v>
       </c>
       <c r="G184" t="n">
-        <v>1.966312679136848e-51</v>
+        <v>9.470317015797277e-52</v>
       </c>
       <c r="H184" t="n">
-        <v>49.48400300842646</v>
+        <v>49.77978310967643</v>
       </c>
     </row>
     <row r="185">
@@ -5166,25 +5166,25 @@
         <v>4.549914263055009</v>
       </c>
       <c r="B185" t="n">
-        <v>0.002085918398868928</v>
+        <v>0.002083745904800487</v>
       </c>
       <c r="C185" t="n">
-        <v>0.001260540280617132</v>
+        <v>0.001266573600870681</v>
       </c>
       <c r="D185" t="n">
-        <v>4.323366205791169e-05</v>
+        <v>4.321859137754195e-05</v>
       </c>
       <c r="E185" t="n">
-        <v>7.441419630374157e-05</v>
+        <v>7.442275257710938e-05</v>
       </c>
       <c r="F185" t="n">
-        <v>236.2352202955912</v>
+        <v>236.7431661922732</v>
       </c>
       <c r="G185" t="n">
-        <v>4.926209767333298e-49</v>
+        <v>3.83355126387172e-49</v>
       </c>
       <c r="H185" t="n">
-        <v>47.24704405911825</v>
+        <v>47.34863323845465</v>
       </c>
     </row>
     <row r="186">
@@ -5192,25 +5192,25 @@
         <v>4.551628236634101</v>
       </c>
       <c r="B186" t="n">
-        <v>0.002029261995276132</v>
+        <v>0.002036562559528728</v>
       </c>
       <c r="C186" t="n">
-        <v>0.001143980266390286</v>
+        <v>0.001146482117445882</v>
       </c>
       <c r="D186" t="n">
-        <v>4.27314567135611e-05</v>
+        <v>4.284192365168775e-05</v>
       </c>
       <c r="E186" t="n">
-        <v>7.244789616095699e-05</v>
+        <v>7.26683524138849e-05</v>
       </c>
       <c r="F186" t="n">
-        <v>244.7251373750879</v>
+        <v>242.4867925384347</v>
       </c>
       <c r="G186" t="n">
-        <v>7.443226010847504e-51</v>
+        <v>2.248406402628983e-50</v>
       </c>
       <c r="H186" t="n">
-        <v>48.94502747501758</v>
+        <v>48.49735850768694</v>
       </c>
     </row>
     <row r="187">
@@ -5218,25 +5218,25 @@
         <v>4.553942100965873</v>
       </c>
       <c r="B187" t="n">
-        <v>0.002101072408934507</v>
+        <v>0.002104578495980258</v>
       </c>
       <c r="C187" t="n">
-        <v>0.001204931452402705</v>
+        <v>0.001203130920142573</v>
       </c>
       <c r="D187" t="n">
-        <v>4.38269716857452e-05</v>
+        <v>4.389931083398462e-05</v>
       </c>
       <c r="E187" t="n">
-        <v>7.533892024033432e-05</v>
+        <v>7.544235883430571e-05</v>
       </c>
       <c r="F187" t="n">
-        <v>198.3809636180768</v>
+        <v>197.5622650714023</v>
       </c>
       <c r="G187" t="n">
-        <v>6.305808269295986e-41</v>
+        <v>9.437391481554158e-41</v>
       </c>
       <c r="H187" t="n">
-        <v>39.67619272361536</v>
+        <v>39.51245301428046</v>
       </c>
     </row>
     <row r="188">
@@ -5244,25 +5244,25 @@
         <v>4.558912624345237</v>
       </c>
       <c r="B188" t="n">
-        <v>0.001685639305761097</v>
+        <v>0.001687893723791483</v>
       </c>
       <c r="C188" t="n">
-        <v>0.0009910381070478125</v>
+        <v>0.0009984279842232223</v>
       </c>
       <c r="D188" t="n">
-        <v>3.447716280545624e-05</v>
+        <v>3.451161394549261e-05</v>
       </c>
       <c r="E188" t="n">
-        <v>5.984150405614393e-05</v>
+        <v>5.995965006727459e-05</v>
       </c>
       <c r="F188" t="n">
-        <v>188.9039971860688</v>
+        <v>188.844360677697</v>
       </c>
       <c r="G188" t="n">
-        <v>6.700039438416076e-39</v>
+        <v>6.89959720778852e-39</v>
       </c>
       <c r="H188" t="n">
-        <v>37.78079943721376</v>
+        <v>37.7688721355394</v>
       </c>
     </row>
     <row r="189">
@@ -5270,25 +5270,25 @@
         <v>4.562940462256101</v>
       </c>
       <c r="B189" t="n">
-        <v>0.001296706825429979</v>
+        <v>0.001297728728278889</v>
       </c>
       <c r="C189" t="n">
-        <v>0.0007466102323292459</v>
+        <v>0.0007497522295240947</v>
       </c>
       <c r="D189" t="n">
-        <v>2.688659118873089e-05</v>
+        <v>2.690092699441231e-05</v>
       </c>
       <c r="E189" t="n">
-        <v>4.67609285831123e-05</v>
+        <v>4.681341869635978e-05</v>
       </c>
       <c r="F189" t="n">
-        <v>160.0772582035313</v>
+        <v>160.1103668341469</v>
       </c>
       <c r="G189" t="n">
-        <v>9.529972971288266e-33</v>
+        <v>9.376381556017944e-33</v>
       </c>
       <c r="H189" t="n">
-        <v>32.01545164070626</v>
+        <v>32.02207336682939</v>
       </c>
     </row>
     <row r="190">
@@ -5296,25 +5296,25 @@
         <v>4.56688260148801</v>
       </c>
       <c r="B190" t="n">
-        <v>0.0009596941045902413</v>
+        <v>0.000963729733899382</v>
       </c>
       <c r="C190" t="n">
-        <v>0.0005119354149088302</v>
+        <v>0.0005127464345210624</v>
       </c>
       <c r="D190" t="n">
-        <v>2.009129512187324e-05</v>
+        <v>2.01666894151623e-05</v>
       </c>
       <c r="E190" t="n">
-        <v>3.494186259753525e-05</v>
+        <v>3.510123458027662e-05</v>
       </c>
       <c r="F190" t="n">
-        <v>118.5465776423889</v>
+        <v>115.3276877813169</v>
       </c>
       <c r="G190" t="n">
-        <v>6.375782029514972e-24</v>
+        <v>3.061099362369444e-23</v>
       </c>
       <c r="H190" t="n">
-        <v>23.70931552847777</v>
+        <v>23.06553755626339</v>
       </c>
     </row>
     <row r="191">
@@ -5322,25 +5322,25 @@
         <v>4.571424631472602</v>
       </c>
       <c r="B191" t="n">
-        <v>0.0006923623118575232</v>
+        <v>0.0006928549572959138</v>
       </c>
       <c r="C191" t="n">
-        <v>0.000367098704434657</v>
+        <v>0.0003677285201158266</v>
       </c>
       <c r="D191" t="n">
-        <v>1.461486456052909e-05</v>
+        <v>1.463303373721254e-05</v>
       </c>
       <c r="E191" t="n">
-        <v>2.589426591393656e-05</v>
+        <v>2.593683386279716e-05</v>
       </c>
       <c r="F191" t="n">
-        <v>70.12948867486449</v>
+        <v>69.91180350962978</v>
       </c>
       <c r="G191" t="n">
-        <v>9.631350788286768e-14</v>
+        <v>1.069026999148701e-13</v>
       </c>
       <c r="H191" t="n">
-        <v>14.0258977349729</v>
+        <v>13.98236070192596</v>
       </c>
     </row>
     <row r="192">
@@ -5348,25 +5348,25 @@
         <v>4.575623866741375</v>
       </c>
       <c r="B192" t="n">
-        <v>0.0005033268093914611</v>
+        <v>0.0005051199142989914</v>
       </c>
       <c r="C192" t="n">
-        <v>0.0002696398229648127</v>
+        <v>0.0002715836513509359</v>
       </c>
       <c r="D192" t="n">
-        <v>1.09783463115394e-05</v>
+        <v>1.100552729661683e-05</v>
       </c>
       <c r="E192" t="n">
-        <v>1.975054318166475e-05</v>
+        <v>1.983266410411289e-05</v>
       </c>
       <c r="F192" t="n">
-        <v>42.76979385729786</v>
+        <v>42.00158654280039</v>
       </c>
       <c r="G192" t="n">
-        <v>4.114093004795131e-08</v>
+        <v>5.88605438448274e-08</v>
       </c>
       <c r="H192" t="n">
-        <v>8.553958771459572</v>
+        <v>8.400317308560078</v>
       </c>
     </row>
     <row r="193">
@@ -5374,25 +5374,25 @@
         <v>4.580080198047011</v>
       </c>
       <c r="B193" t="n">
-        <v>0.0003969856100342052</v>
+        <v>0.0003976073274803538</v>
       </c>
       <c r="C193" t="n">
-        <v>0.0002107148207884062</v>
+        <v>0.0002108930467821842</v>
       </c>
       <c r="D193" t="n">
-        <v>6.25733607876999e-06</v>
+        <v>6.266996763998438e-06</v>
       </c>
       <c r="E193" t="n">
-        <v>1.152297657952843e-05</v>
+        <v>1.152994854931758e-05</v>
       </c>
       <c r="F193" t="n">
-        <v>31.12189791384148</v>
+        <v>32.53574808279578</v>
       </c>
       <c r="G193" t="n">
-        <v>0.001887421855703752</v>
+        <v>0.001143257616671248</v>
       </c>
       <c r="H193" t="n">
-        <v>2.593491492820123</v>
+        <v>2.711312340232981</v>
       </c>
     </row>
     <row r="194">
@@ -5400,25 +5400,25 @@
         <v>4.58402233727892</v>
       </c>
       <c r="B194" t="n">
-        <v>0.0003677532242211546</v>
+        <v>0.0003680390457771469</v>
       </c>
       <c r="C194" t="n">
-        <v>0.0001792611343437039</v>
+        <v>0.0001797862035133596</v>
       </c>
       <c r="D194" t="n">
-        <v>7.90476294148591e-06</v>
+        <v>7.913449456865354e-06</v>
       </c>
       <c r="E194" t="n">
-        <v>1.485592736038305e-05</v>
+        <v>1.485251167312351e-05</v>
       </c>
       <c r="F194" t="n">
-        <v>8.926856097230592</v>
+        <v>10.17243985768592</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1120174294933966</v>
+        <v>0.07049410647825358</v>
       </c>
       <c r="H194" t="n">
-        <v>1.785371219446118</v>
+        <v>2.034487971537184</v>
       </c>
     </row>
     <row r="195">
@@ -5426,25 +5426,25 @@
         <v>4.588478668584557</v>
       </c>
       <c r="B195" t="n">
-        <v>0.0003372269441104469</v>
+        <v>0.0003388526878309565</v>
       </c>
       <c r="C195" t="n">
-        <v>0.0001768059231726337</v>
+        <v>0.000174495275792021</v>
       </c>
       <c r="D195" t="n">
-        <v>7.281006426029552e-06</v>
+        <v>7.317387838495241e-06</v>
       </c>
       <c r="E195" t="n">
-        <v>1.386394890793606e-05</v>
+        <v>1.392706014296242e-05</v>
       </c>
       <c r="F195" t="n">
-        <v>3.087547619566593</v>
+        <v>2.737493607893631</v>
       </c>
       <c r="G195" t="n">
-        <v>0.6864905470942197</v>
+        <v>0.740378254597165</v>
       </c>
       <c r="H195" t="n">
-        <v>0.6175095239133185</v>
+        <v>0.5474987215787263</v>
       </c>
     </row>
     <row r="196">
@@ -5452,25 +5452,25 @@
         <v>4.588650065942466</v>
       </c>
       <c r="B196" t="n">
-        <v>0.0003383925956179868</v>
+        <v>0.0003386227412434558</v>
       </c>
       <c r="C196" t="n">
-        <v>0.0001663616983647236</v>
+        <v>0.0001645411463363743</v>
       </c>
       <c r="D196" t="n">
-        <v>7.173234553837393e-06</v>
+        <v>7.180100387727324e-06</v>
       </c>
       <c r="E196" t="n">
-        <v>1.374217064926777e-05</v>
+        <v>1.373308467790107e-05</v>
       </c>
       <c r="F196" t="n">
-        <v>9.317703708778653</v>
+        <v>8.554760201157199</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09704353406980472</v>
+        <v>0.1281963525788671</v>
       </c>
       <c r="H196" t="n">
-        <v>1.863540741755731</v>
+        <v>1.71095204023144</v>
       </c>
     </row>
     <row r="197">
@@ -5478,25 +5478,25 @@
         <v>4.592078013100648</v>
       </c>
       <c r="B197" t="n">
-        <v>0.0003021048374051844</v>
+        <v>0.0003019286161771404</v>
       </c>
       <c r="C197" t="n">
-        <v>0.0001469155894516656</v>
+        <v>0.000148204557201507</v>
       </c>
       <c r="D197" t="n">
-        <v>6.446686379894867e-06</v>
+        <v>6.439820292102123e-06</v>
       </c>
       <c r="E197" t="n">
-        <v>1.234086172596983e-05</v>
+        <v>1.231475232498727e-05</v>
       </c>
       <c r="F197" t="n">
-        <v>2.015372476128506</v>
+        <v>1.646907453286824</v>
       </c>
       <c r="G197" t="n">
-        <v>0.8470138982265368</v>
+        <v>0.8955194511850113</v>
       </c>
       <c r="H197" t="n">
-        <v>0.4030744952257012</v>
+        <v>0.3293814906573648</v>
       </c>
     </row>
     <row r="198">
@@ -5504,25 +5504,25 @@
         <v>4.593277794606012</v>
       </c>
       <c r="B198" t="n">
-        <v>0.0002986409621628378</v>
+        <v>0.0002989631143238421</v>
       </c>
       <c r="C198" t="n">
-        <v>0.0001444688341152379</v>
+        <v>0.0001451820693053177</v>
       </c>
       <c r="D198" t="n">
-        <v>6.255187497474968e-06</v>
+        <v>6.261962216999736e-06</v>
       </c>
       <c r="E198" t="n">
-        <v>1.217161266608381e-05</v>
+        <v>1.218455883662131e-05</v>
       </c>
       <c r="F198" t="n">
-        <v>12.43482699522731</v>
+        <v>12.17253570241781</v>
       </c>
       <c r="G198" t="n">
-        <v>0.02929175292993725</v>
+        <v>0.03249861617945382</v>
       </c>
       <c r="H198" t="n">
-        <v>2.486965399045462</v>
+        <v>2.434507140483562</v>
       </c>
     </row>
     <row r="199">
@@ -5530,25 +5530,25 @@
         <v>4.593534890642876</v>
       </c>
       <c r="B199" t="n">
-        <v>0.0002938100208721951</v>
+        <v>0.0002934743712169574</v>
       </c>
       <c r="C199" t="n">
-        <v>0.0001392635416133863</v>
+        <v>0.0001376114229235725</v>
       </c>
       <c r="D199" t="n">
-        <v>6.138492439673201e-06</v>
+        <v>6.137363526304618e-06</v>
       </c>
       <c r="E199" t="n">
-        <v>1.180248628453766e-05</v>
+        <v>1.178059457103894e-05</v>
       </c>
       <c r="F199" t="n">
-        <v>3.434083832725121</v>
+        <v>3.45749848302391</v>
       </c>
       <c r="G199" t="n">
-        <v>0.6333842056656823</v>
+        <v>0.6298281818513509</v>
       </c>
       <c r="H199" t="n">
-        <v>0.6868167665450242</v>
+        <v>0.6914996966047819</v>
       </c>
     </row>
     <row r="200">
@@ -5556,25 +5556,25 @@
         <v>4.596534344406285</v>
       </c>
       <c r="B200" t="n">
-        <v>0.0003037955003480712</v>
+        <v>0.0003052083896240195</v>
       </c>
       <c r="C200" t="n">
-        <v>0.0001455583004237646</v>
+        <v>0.0001452195414508039</v>
       </c>
       <c r="D200" t="n">
-        <v>6.863347109921682e-06</v>
+        <v>6.877712561032517e-06</v>
       </c>
       <c r="E200" t="n">
-        <v>1.268435889847812e-05</v>
+        <v>1.26997584357984e-05</v>
       </c>
       <c r="F200" t="n">
-        <v>4.750837851251745</v>
+        <v>5.236901081460783</v>
       </c>
       <c r="G200" t="n">
-        <v>0.4470386230051914</v>
+        <v>0.3876579438773496</v>
       </c>
       <c r="H200" t="n">
-        <v>0.950167570250349</v>
+        <v>1.047380216292157</v>
       </c>
     </row>
     <row r="201">
@@ -5582,25 +5582,25 @@
         <v>4.597819824590603</v>
       </c>
       <c r="B201" t="n">
-        <v>0.0002883692360731293</v>
+        <v>0.0002879242516483297</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0001432867149125839</v>
+        <v>0.0001429682618916575</v>
       </c>
       <c r="D201" t="n">
-        <v>5.944913262062613e-06</v>
+        <v>5.94222690945577e-06</v>
       </c>
       <c r="E201" t="n">
-        <v>1.144417452377584e-05</v>
+        <v>1.14476398994482e-05</v>
       </c>
       <c r="F201" t="n">
-        <v>8.76611293690036</v>
+        <v>8.353656617972607</v>
       </c>
       <c r="G201" t="n">
-        <v>0.118764725763993</v>
+        <v>0.1377919230079092</v>
       </c>
       <c r="H201" t="n">
-        <v>1.753222587380072</v>
+        <v>1.670731323594521</v>
       </c>
     </row>
     <row r="202">
@@ -5608,25 +5608,25 @@
         <v>4.601504867785649</v>
       </c>
       <c r="B202" t="n">
-        <v>0.000351566620027754</v>
+        <v>0.0003514592017814015</v>
       </c>
       <c r="C202" t="n">
-        <v>0.0001625867154601716</v>
+        <v>0.0001649809515892254</v>
       </c>
       <c r="D202" t="n">
-        <v>7.947651497157761e-06</v>
+        <v>7.93947536230398e-06</v>
       </c>
       <c r="E202" t="n">
-        <v>1.408897311076567e-05</v>
+        <v>1.410522488631983e-05</v>
       </c>
       <c r="F202" t="n">
-        <v>27.75070293843359</v>
+        <v>27.3942691866303</v>
       </c>
       <c r="G202" t="n">
-        <v>4.07189538156274e-05</v>
+        <v>4.779261225678422e-05</v>
       </c>
       <c r="H202" t="n">
-        <v>5.550140587686718</v>
+        <v>5.478853837326061</v>
       </c>
     </row>
     <row r="203">
@@ -5634,25 +5634,25 @@
         <v>4.603133142685785</v>
       </c>
       <c r="B203" t="n">
-        <v>0.000335705130771709</v>
+        <v>0.0003380660706920998</v>
       </c>
       <c r="C203" t="n">
-        <v>0.0001560469346460235</v>
+        <v>0.0001549429669818307</v>
       </c>
       <c r="D203" t="n">
-        <v>7.597728786837119e-06</v>
+        <v>7.648038164642103e-06</v>
       </c>
       <c r="E203" t="n">
-        <v>1.335726268392867e-05</v>
+        <v>1.342699561536971e-05</v>
       </c>
       <c r="F203" t="n">
-        <v>34.84216700113552</v>
+        <v>34.0918305420738</v>
       </c>
       <c r="G203" t="n">
-        <v>1.617811162128074e-06</v>
+        <v>2.282845818419037e-06</v>
       </c>
       <c r="H203" t="n">
-        <v>6.968433400227104</v>
+        <v>6.81836610841476</v>
       </c>
     </row>
     <row r="204">
@@ -5660,25 +5660,25 @@
         <v>4.604932814943831</v>
       </c>
       <c r="B204" t="n">
-        <v>0.0003353390454390721</v>
+        <v>0.0003346189327597779</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0001558069248301312</v>
+        <v>0.0001593189999995719</v>
       </c>
       <c r="D204" t="n">
-        <v>7.600286575582383e-06</v>
+        <v>7.568453433872768e-06</v>
       </c>
       <c r="E204" t="n">
-        <v>1.342670126754045e-05</v>
+        <v>1.340911333651991e-05</v>
       </c>
       <c r="F204" t="n">
-        <v>29.54023570573317</v>
+        <v>29.8080430306957</v>
       </c>
       <c r="G204" t="n">
-        <v>1.816257243950308e-05</v>
+        <v>1.608870546718905e-05</v>
       </c>
       <c r="H204" t="n">
-        <v>5.908047141146634</v>
+        <v>5.961608606139139</v>
       </c>
     </row>
     <row r="205">
@@ -5686,25 +5686,25 @@
         <v>4.606646788522922</v>
       </c>
       <c r="B205" t="n">
-        <v>0.000328184829350177</v>
+        <v>0.0003289008287032261</v>
       </c>
       <c r="C205" t="n">
-        <v>0.0001619066480184082</v>
+        <v>0.0001608994284566504</v>
       </c>
       <c r="D205" t="n">
-        <v>7.436885930547301e-06</v>
+        <v>7.458127959857317e-06</v>
       </c>
       <c r="E205" t="n">
-        <v>1.310510399406159e-05</v>
+        <v>1.314912338873079e-05</v>
       </c>
       <c r="F205" t="n">
-        <v>41.43191639755246</v>
+        <v>39.21783674505279</v>
       </c>
       <c r="G205" t="n">
-        <v>7.674432112145463e-08</v>
+        <v>2.146738230032333e-07</v>
       </c>
       <c r="H205" t="n">
-        <v>8.286383279510492</v>
+        <v>7.843567349010558</v>
       </c>
     </row>
     <row r="206">
@@ -5712,25 +5712,25 @@
         <v>4.608446460780968</v>
       </c>
       <c r="B206" t="n">
-        <v>0.0003244159821206203</v>
+        <v>0.0003243486741861541</v>
       </c>
       <c r="C206" t="n">
-        <v>0.0001512650576581132</v>
+        <v>0.0001505546426622073</v>
       </c>
       <c r="D206" t="n">
-        <v>7.450484402818694e-06</v>
+        <v>7.460736937998193e-06</v>
       </c>
       <c r="E206" t="n">
-        <v>1.301895300366577e-05</v>
+        <v>1.302510003444166e-05</v>
       </c>
       <c r="F206" t="n">
-        <v>40.23228959041123</v>
+        <v>40.32970991857246</v>
       </c>
       <c r="G206" t="n">
-        <v>1.340648147211693e-07</v>
+        <v>1.281325923847407e-07</v>
       </c>
       <c r="H206" t="n">
-        <v>8.046457918082247</v>
+        <v>8.065941983714492</v>
       </c>
     </row>
     <row r="207">
@@ -5738,25 +5738,25 @@
         <v>4.610160434360059</v>
       </c>
       <c r="B207" t="n">
-        <v>0.0003272336498908276</v>
+        <v>0.0003269946944134506</v>
       </c>
       <c r="C207" t="n">
-        <v>0.0001421604375493837</v>
+        <v>0.0001436736646203209</v>
       </c>
       <c r="D207" t="n">
-        <v>6.977311619503265e-06</v>
+        <v>6.98460790837648e-06</v>
       </c>
       <c r="E207" t="n">
-        <v>1.223268768235502e-05</v>
+        <v>1.224455937098871e-05</v>
       </c>
       <c r="F207" t="n">
-        <v>40.39607918791627</v>
+        <v>41.74963739435888</v>
       </c>
       <c r="G207" t="n">
-        <v>1.242416471764442e-07</v>
+        <v>6.619075255617855e-08</v>
       </c>
       <c r="H207" t="n">
-        <v>8.079215837583254</v>
+        <v>8.349927478871775</v>
       </c>
     </row>
     <row r="208">
@@ -5764,25 +5764,25 @@
         <v>4.611617311902286</v>
       </c>
       <c r="B208" t="n">
-        <v>0.0003233300894537239</v>
+        <v>0.0003230343490680182</v>
       </c>
       <c r="C208" t="n">
-        <v>0.0001410602952384707</v>
+        <v>0.0001390829511039845</v>
       </c>
       <c r="D208" t="n">
-        <v>7.274120739711338e-06</v>
+        <v>7.283169864633684e-06</v>
       </c>
       <c r="E208" t="n">
-        <v>1.259436360278975e-05</v>
+        <v>1.259019651086683e-05</v>
       </c>
       <c r="F208" t="n">
-        <v>44.75993026192074</v>
+        <v>44.26270569244807</v>
       </c>
       <c r="G208" t="n">
-        <v>1.623409556092152e-08</v>
+        <v>2.04852425689856e-08</v>
       </c>
       <c r="H208" t="n">
-        <v>8.951986052384148</v>
+        <v>8.852541138489615</v>
       </c>
     </row>
     <row r="209">
@@ -5790,25 +5790,25 @@
         <v>4.615987944528968</v>
       </c>
       <c r="B209" t="n">
-        <v>0.0002911279441553076</v>
+        <v>0.0002912831761447879</v>
       </c>
       <c r="C209" t="n">
-        <v>0.0001338983802924967</v>
+        <v>0.0001328690108605129</v>
       </c>
       <c r="D209" t="n">
-        <v>6.032112340449169e-06</v>
+        <v>6.04004710448693e-06</v>
       </c>
       <c r="E209" t="n">
-        <v>1.074476698920062e-05</v>
+        <v>1.074446436312539e-05</v>
       </c>
       <c r="F209" t="n">
-        <v>34.22454844073606</v>
+        <v>34.64712426945968</v>
       </c>
       <c r="G209" t="n">
-        <v>2.148052036253495e-06</v>
+        <v>1.769407695373374e-06</v>
       </c>
       <c r="H209" t="n">
-        <v>6.844909688147213</v>
+        <v>6.929424853891936</v>
       </c>
     </row>
     <row r="210">
@@ -5816,25 +5816,25 @@
         <v>4.620529974513559</v>
       </c>
       <c r="B210" t="n">
-        <v>0.0002519448347222046</v>
+        <v>0.0002538051139046199</v>
       </c>
       <c r="C210" t="n">
-        <v>0.0001097777899382734</v>
+        <v>0.0001078113249985954</v>
       </c>
       <c r="D210" t="n">
-        <v>5.23574278290261e-06</v>
+        <v>5.259819105257548e-06</v>
       </c>
       <c r="E210" t="n">
-        <v>9.392576762746338e-06</v>
+        <v>9.428094877820873e-06</v>
       </c>
       <c r="F210" t="n">
-        <v>19.91147130739903</v>
+        <v>18.08410800534744</v>
       </c>
       <c r="G210" t="n">
-        <v>0.001298445999583883</v>
+        <v>0.002842820148644734</v>
       </c>
       <c r="H210" t="n">
-        <v>3.982294261479806</v>
+        <v>3.616821601069487</v>
       </c>
     </row>
     <row r="211">
@@ -5842,25 +5842,25 @@
         <v>4.622929537524286</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0002424357626377307</v>
+        <v>0.0002431059492739871</v>
       </c>
       <c r="C211" t="n">
-        <v>0.0001040996411429173</v>
+        <v>0.0001048226059188666</v>
       </c>
       <c r="D211" t="n">
-        <v>4.965167088955328e-06</v>
+        <v>4.976925158361443e-06</v>
       </c>
       <c r="E211" t="n">
-        <v>8.983537110779329e-06</v>
+        <v>9.008185001628087e-06</v>
       </c>
       <c r="F211" t="n">
-        <v>15.13774958905312</v>
+        <v>14.81653909191181</v>
       </c>
       <c r="G211" t="n">
-        <v>0.009789688835587474</v>
+        <v>0.0111756863579649</v>
       </c>
       <c r="H211" t="n">
-        <v>3.027549917810623</v>
+        <v>2.963307818382362</v>
       </c>
     </row>
     <row r="212">
@@ -5868,25 +5868,25 @@
         <v>4.623272332240105</v>
       </c>
       <c r="B212" t="n">
-        <v>0.0002502898363552549</v>
+        <v>0.0002504063988461101</v>
       </c>
       <c r="C212" t="n">
-        <v>0.0001110592420138506</v>
+        <v>0.0001103446435588572</v>
       </c>
       <c r="D212" t="n">
-        <v>5.081676747690198e-06</v>
+        <v>5.083850595527411e-06</v>
       </c>
       <c r="E212" t="n">
-        <v>9.19517053697204e-06</v>
+        <v>9.206946738845995e-06</v>
       </c>
       <c r="F212" t="n">
-        <v>20.96046370341663</v>
+        <v>19.38375519547674</v>
       </c>
       <c r="G212" t="n">
-        <v>0.0008241105736810269</v>
+        <v>0.001630045091650158</v>
       </c>
       <c r="H212" t="n">
-        <v>4.192092740683327</v>
+        <v>3.876751039095347</v>
       </c>
     </row>
     <row r="213">
@@ -5894,25 +5894,25 @@
         <v>4.623786524313832</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0002423243632790727</v>
+        <v>0.00024278887121545</v>
       </c>
       <c r="C213" t="n">
-        <v>0.000103361226833251</v>
+        <v>0.0001043797449679165</v>
       </c>
       <c r="D213" t="n">
-        <v>4.900674807348127e-06</v>
+        <v>4.907243919247271e-06</v>
       </c>
       <c r="E213" t="n">
-        <v>8.887874092041426e-06</v>
+        <v>8.907440377501741e-06</v>
       </c>
       <c r="F213" t="n">
-        <v>14.38579964289733</v>
+        <v>14.28970673790823</v>
       </c>
       <c r="G213" t="n">
-        <v>0.0133358535143505</v>
+        <v>0.01387020022295015</v>
       </c>
       <c r="H213" t="n">
-        <v>2.877159928579466</v>
+        <v>2.857941347581645</v>
       </c>
     </row>
     <row r="214">
@@ -5920,25 +5920,25 @@
         <v>4.625586196571877</v>
       </c>
       <c r="B214" t="n">
-        <v>0.0002376426494125162</v>
+        <v>0.0002376447015682804</v>
       </c>
       <c r="C214" t="n">
-        <v>9.700249359908374e-05</v>
+        <v>9.683685159319859e-05</v>
       </c>
       <c r="D214" t="n">
-        <v>4.796289659470953e-06</v>
+        <v>4.796558707036559e-06</v>
       </c>
       <c r="E214" t="n">
-        <v>8.629857543258664e-06</v>
+        <v>8.640781383205922e-06</v>
       </c>
       <c r="F214" t="n">
-        <v>15.70202999922306</v>
+        <v>14.4812410863348</v>
       </c>
       <c r="G214" t="n">
-        <v>0.007748341945377047</v>
+        <v>0.01282486662098733</v>
       </c>
       <c r="H214" t="n">
-        <v>3.140405999844613</v>
+        <v>2.896248217266959</v>
       </c>
     </row>
     <row r="215">
@@ -5946,25 +5946,25 @@
         <v>4.628928445051105</v>
       </c>
       <c r="B215" t="n">
-        <v>0.0002350261478036249</v>
+        <v>0.0002359517172076616</v>
       </c>
       <c r="C215" t="n">
-        <v>9.413419313111206e-05</v>
+        <v>9.245979595519935e-05</v>
       </c>
       <c r="D215" t="n">
-        <v>4.696337253535116e-06</v>
+        <v>4.716909512836332e-06</v>
       </c>
       <c r="E215" t="n">
-        <v>8.430728875286438e-06</v>
+        <v>8.454751149385758e-06</v>
       </c>
       <c r="F215" t="n">
-        <v>14.8513750724677</v>
+        <v>13.91952343920725</v>
       </c>
       <c r="G215" t="n">
-        <v>0.01101662932779447</v>
+        <v>0.01612877627297696</v>
       </c>
       <c r="H215" t="n">
-        <v>2.970275014493539</v>
+        <v>2.78390468784145</v>
       </c>
     </row>
     <row r="216">
@@ -5972,25 +5972,25 @@
         <v>4.631670802777651</v>
       </c>
       <c r="B216" t="n">
-        <v>0.0002405075456857301</v>
+        <v>0.0002423125476061358</v>
       </c>
       <c r="C216" t="n">
-        <v>0.0001021462879297634</v>
+        <v>0.0001002935494213156</v>
       </c>
       <c r="D216" t="n">
-        <v>4.823982987883992e-06</v>
+        <v>4.858683738634751e-06</v>
       </c>
       <c r="E216" t="n">
-        <v>8.802398724806852e-06</v>
+        <v>8.869131043619626e-06</v>
       </c>
       <c r="F216" t="n">
-        <v>15.98616906238706</v>
+        <v>12.88489369663579</v>
       </c>
       <c r="G216" t="n">
-        <v>0.006883673007618849</v>
+        <v>0.02448165024249511</v>
       </c>
       <c r="H216" t="n">
-        <v>3.197233812477412</v>
+        <v>2.576978739327157</v>
       </c>
     </row>
     <row r="217">
@@ -5998,25 +5998,25 @@
         <v>4.64049776670997</v>
       </c>
       <c r="B217" t="n">
-        <v>0.0002530941500932459</v>
+        <v>0.0002536904871670542</v>
       </c>
       <c r="C217" t="n">
-        <v>9.652571335367942e-05</v>
+        <v>9.668350693247188e-05</v>
       </c>
       <c r="D217" t="n">
-        <v>5.080516166181269e-06</v>
+        <v>5.090752709966148e-06</v>
       </c>
       <c r="E217" t="n">
-        <v>9.114978412287778e-06</v>
+        <v>9.141767246990253e-06</v>
       </c>
       <c r="F217" t="n">
-        <v>16.10810344458538</v>
+        <v>14.44275518413481</v>
       </c>
       <c r="G217" t="n">
-        <v>0.006542116286462487</v>
+        <v>0.01302859613906466</v>
       </c>
       <c r="H217" t="n">
-        <v>3.221620688917076</v>
+        <v>2.888551036826962</v>
       </c>
     </row>
     <row r="218">
@@ -6024,25 +6024,25 @@
         <v>4.649667525358106</v>
       </c>
       <c r="B218" t="n">
-        <v>0.0002545446078974587</v>
+        <v>0.000254077719140396</v>
       </c>
       <c r="C218" t="n">
-        <v>0.0001025679419494066</v>
+        <v>0.0001026533151581589</v>
       </c>
       <c r="D218" t="n">
-        <v>5.119352165504656e-06</v>
+        <v>5.110989039355335e-06</v>
       </c>
       <c r="E218" t="n">
-        <v>9.325152368016197e-06</v>
+        <v>9.300036565502954e-06</v>
       </c>
       <c r="F218" t="n">
-        <v>12.62071152854064</v>
+        <v>13.45846819286732</v>
       </c>
       <c r="G218" t="n">
-        <v>0.02720458887247177</v>
+        <v>0.01944105465127519</v>
       </c>
       <c r="H218" t="n">
-        <v>2.524142305708128</v>
+        <v>2.691693638573464</v>
       </c>
     </row>
     <row r="219">
@@ -6050,25 +6050,25 @@
         <v>4.658494489290425</v>
       </c>
       <c r="B219" t="n">
-        <v>0.0002450677850679899</v>
+        <v>0.0002449670324480545</v>
       </c>
       <c r="C219" t="n">
-        <v>0.0001128400113146374</v>
+        <v>0.0001135595813827493</v>
       </c>
       <c r="D219" t="n">
-        <v>4.920356189208947e-06</v>
+        <v>4.923159741561004e-06</v>
       </c>
       <c r="E219" t="n">
-        <v>9.151246580302534e-06</v>
+        <v>9.168420485017703e-06</v>
       </c>
       <c r="F219" t="n">
-        <v>12.34356457457149</v>
+        <v>12.90069972765047</v>
       </c>
       <c r="G219" t="n">
-        <v>0.03037165892999324</v>
+        <v>0.02432730340557988</v>
       </c>
       <c r="H219" t="n">
-        <v>2.468712914914297</v>
+        <v>2.580139945530094</v>
       </c>
     </row>
     <row r="220">
@@ -6076,25 +6076,25 @@
         <v>4.667921343975426</v>
       </c>
       <c r="B220" t="n">
-        <v>0.0002535567704510648</v>
+        <v>0.0002538464601527881</v>
       </c>
       <c r="C220" t="n">
-        <v>0.0001273008107922327</v>
+        <v>0.0001271795154247586</v>
       </c>
       <c r="D220" t="n">
-        <v>5.015066889726113e-06</v>
+        <v>5.021725602862347e-06</v>
       </c>
       <c r="E220" t="n">
-        <v>9.34262064466839e-06</v>
+        <v>9.350580975948928e-06</v>
       </c>
       <c r="F220" t="n">
-        <v>13.34857728320631</v>
+        <v>13.57214302181415</v>
       </c>
       <c r="G220" t="n">
-        <v>0.02032224984203319</v>
+        <v>0.01856825599686606</v>
       </c>
       <c r="H220" t="n">
-        <v>2.669715456641262</v>
+        <v>2.714428604362829</v>
       </c>
     </row>
     <row r="221">
@@ -6102,25 +6102,25 @@
         <v>4.671263592454653</v>
       </c>
       <c r="B221" t="n">
-        <v>0.0002657041638512356</v>
+        <v>0.0002662985686227278</v>
       </c>
       <c r="C221" t="n">
-        <v>0.0001377006786661513</v>
+        <v>0.0001367265752872964</v>
       </c>
       <c r="D221" t="n">
-        <v>5.27801843515507e-06</v>
+        <v>5.290007099312945e-06</v>
       </c>
       <c r="E221" t="n">
-        <v>9.826264145411033e-06</v>
+        <v>9.851705074596375e-06</v>
       </c>
       <c r="F221" t="n">
-        <v>19.16443437445859</v>
+        <v>17.70787937273452</v>
       </c>
       <c r="G221" t="n">
-        <v>0.001791170772797931</v>
+        <v>0.003335699110457464</v>
       </c>
       <c r="H221" t="n">
-        <v>3.832886874891718</v>
+        <v>3.541575874546903</v>
       </c>
     </row>
   </sheetData>
